--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gimesia\Documents\PROJEKT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gimesia\Documents\PROJEKT\zebrafish_pipenv\__docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>Felmerült problémák:</t>
   </si>
@@ -836,6 +836,54 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -847,54 +895,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1176,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY30"/>
+  <dimension ref="A1:AY20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1420,11 +1420,11 @@
         <v>0.79583333333333339</v>
       </c>
       <c r="E3" s="57">
-        <v>0.75</v>
+        <v>0.72916666666666663</v>
       </c>
       <c r="F3" s="63">
         <f>AVERAGE(B3:E3)</f>
-        <v>0.79270833333333335</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="16"/>
@@ -1488,11 +1488,11 @@
       </c>
       <c r="E4" s="67">
         <f>E3-E2</f>
-        <v>0.40138888888888885</v>
+        <v>0.38055555555555548</v>
       </c>
       <c r="F4" s="63">
         <f>AVERAGE(B4:E4)</f>
-        <v>0.39756944444444442</v>
+        <v>0.3923611111111111</v>
       </c>
       <c r="G4" s="67">
         <f t="shared" ref="G4:AW4" si="0">G3-G2</f>
@@ -1838,7 +1838,7 @@
       <c r="D11" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="71" t="s">
         <v>44</v>
       </c>
       <c r="F11" s="64"/>
@@ -1864,7 +1864,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="22"/>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="71" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="64"/>
@@ -2023,286 +2023,42 @@
       <c r="S18" s="42"/>
       <c r="T18" s="43"/>
     </row>
-    <row r="19" spans="1:20" s="40" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="64"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="38"/>
-      <c r="S19" s="38"/>
-      <c r="T19" s="39"/>
-    </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
-      <c r="B20" s="21" t="s">
+    <row r="19" spans="1:20" s="49" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="46">
+        <v>3.5</v>
+      </c>
+      <c r="C19" s="47">
         <v>4</v>
       </c>
-      <c r="C20" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E20" s="23"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="27"/>
-    </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="27"/>
-    </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="28"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="27"/>
-    </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="28"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="27"/>
-    </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="27"/>
-    </row>
-    <row r="25" spans="1:20" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="27"/>
-    </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="28"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="64"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="27"/>
-    </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="27"/>
-    </row>
-    <row r="28" spans="1:20" s="44" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="32"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="43"/>
-    </row>
-    <row r="29" spans="1:20" s="49" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="46">
+      <c r="D19" s="47">
+        <v>1.5</v>
+      </c>
+      <c r="E19" s="61">
         <v>3.5</v>
       </c>
-      <c r="C29" s="47">
-        <v>4</v>
-      </c>
-      <c r="D29" s="47">
-        <v>1.5</v>
-      </c>
-      <c r="E29" s="61"/>
-      <c r="F29" s="65">
-        <f>AVERAGE(B29:E29)</f>
-        <v>3</v>
-      </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="48"/>
-    </row>
-    <row r="30" spans="1:20" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="F19" s="65">
+        <f>AVERAGE(B19:E19)</f>
+        <v>3.125</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="48"/>
+    </row>
+    <row r="20" spans="1:20" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2319,7 +2075,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="85" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" style="81" customWidth="1"/>
     <col min="2" max="2" width="10.109375" style="50" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.6640625" style="50" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.88671875" style="50" bestFit="1" customWidth="1"/>
@@ -2328,227 +2084,227 @@
     <col min="7" max="16384" width="32.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="76" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="79"/>
-      <c r="B1" s="77">
+    <row r="1" spans="1:49" s="72" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="75"/>
+      <c r="B1" s="73">
         <v>44753</v>
       </c>
-      <c r="C1" s="77">
+      <c r="C1" s="73">
         <v>44754</v>
       </c>
-      <c r="D1" s="77">
+      <c r="D1" s="73">
         <v>44755</v>
       </c>
-      <c r="E1" s="77">
+      <c r="E1" s="73">
         <v>44756</v>
       </c>
-      <c r="F1" s="78" t="s">
+      <c r="F1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="76">
+      <c r="G1" s="72">
         <v>44760</v>
       </c>
-      <c r="H1" s="76">
+      <c r="H1" s="72">
         <v>44761</v>
       </c>
-      <c r="I1" s="76">
+      <c r="I1" s="72">
         <v>44762</v>
       </c>
-      <c r="J1" s="76">
+      <c r="J1" s="72">
         <v>44763</v>
       </c>
-      <c r="K1" s="76">
+      <c r="K1" s="72">
         <v>44764</v>
       </c>
-      <c r="L1" s="76">
+      <c r="L1" s="72">
         <v>44765</v>
       </c>
-      <c r="M1" s="76">
+      <c r="M1" s="72">
         <v>44766</v>
       </c>
-      <c r="N1" s="76">
+      <c r="N1" s="72">
         <v>44767</v>
       </c>
-      <c r="O1" s="76">
+      <c r="O1" s="72">
         <v>44768</v>
       </c>
-      <c r="P1" s="76">
+      <c r="P1" s="72">
         <v>44769</v>
       </c>
-      <c r="Q1" s="76">
+      <c r="Q1" s="72">
         <v>44770</v>
       </c>
-      <c r="R1" s="76">
+      <c r="R1" s="72">
         <v>44771</v>
       </c>
-      <c r="S1" s="76">
+      <c r="S1" s="72">
         <v>44772</v>
       </c>
-      <c r="T1" s="76">
+      <c r="T1" s="72">
         <v>44773</v>
       </c>
-      <c r="U1" s="76">
+      <c r="U1" s="72">
         <v>44774</v>
       </c>
-      <c r="V1" s="76">
+      <c r="V1" s="72">
         <v>44775</v>
       </c>
-      <c r="W1" s="76">
+      <c r="W1" s="72">
         <v>44776</v>
       </c>
-      <c r="X1" s="76">
+      <c r="X1" s="72">
         <v>44777</v>
       </c>
-      <c r="Y1" s="76">
+      <c r="Y1" s="72">
         <v>44778</v>
       </c>
-      <c r="Z1" s="76">
+      <c r="Z1" s="72">
         <v>44779</v>
       </c>
-      <c r="AA1" s="76">
+      <c r="AA1" s="72">
         <v>44780</v>
       </c>
-      <c r="AB1" s="76">
+      <c r="AB1" s="72">
         <v>44781</v>
       </c>
-      <c r="AC1" s="76">
+      <c r="AC1" s="72">
         <v>44782</v>
       </c>
-      <c r="AD1" s="76">
+      <c r="AD1" s="72">
         <v>44783</v>
       </c>
-      <c r="AE1" s="76">
+      <c r="AE1" s="72">
         <v>44784</v>
       </c>
-      <c r="AF1" s="76">
+      <c r="AF1" s="72">
         <v>44785</v>
       </c>
-      <c r="AG1" s="76">
+      <c r="AG1" s="72">
         <v>44786</v>
       </c>
-      <c r="AH1" s="76">
+      <c r="AH1" s="72">
         <v>44787</v>
       </c>
-      <c r="AI1" s="76">
+      <c r="AI1" s="72">
         <v>44788</v>
       </c>
-      <c r="AJ1" s="76">
+      <c r="AJ1" s="72">
         <v>44789</v>
       </c>
-      <c r="AK1" s="76">
+      <c r="AK1" s="72">
         <v>44790</v>
       </c>
-      <c r="AL1" s="76">
+      <c r="AL1" s="72">
         <v>44791</v>
       </c>
-      <c r="AM1" s="76">
+      <c r="AM1" s="72">
         <v>44792</v>
       </c>
-      <c r="AN1" s="76">
+      <c r="AN1" s="72">
         <v>44793</v>
       </c>
-      <c r="AO1" s="76">
+      <c r="AO1" s="72">
         <v>44794</v>
       </c>
-      <c r="AP1" s="76">
+      <c r="AP1" s="72">
         <v>44795</v>
       </c>
-      <c r="AQ1" s="76">
+      <c r="AQ1" s="72">
         <v>44796</v>
       </c>
-      <c r="AR1" s="76">
+      <c r="AR1" s="72">
         <v>44797</v>
       </c>
-      <c r="AS1" s="76">
+      <c r="AS1" s="72">
         <v>44798</v>
       </c>
-      <c r="AT1" s="76">
+      <c r="AT1" s="72">
         <v>44799</v>
       </c>
-      <c r="AU1" s="76">
+      <c r="AU1" s="72">
         <v>44800</v>
       </c>
-      <c r="AV1" s="76">
+      <c r="AV1" s="72">
         <v>44801</v>
       </c>
-      <c r="AW1" s="76">
+      <c r="AW1" s="72">
         <v>44802</v>
       </c>
     </row>
     <row r="2" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87">
+      <c r="A2" s="83">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="53"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="88"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="84"/>
     </row>
     <row r="3" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84">
+      <c r="A3" s="80">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C3" s="81"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="51" t="s">
         <v>28</v>
       </c>
       <c r="E3" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="89"/>
+      <c r="F3" s="85"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="84">
+      <c r="A4" s="80">
         <v>0.375</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="74" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="90" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="89"/>
+      <c r="F4" s="85"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="84">
+      <c r="A5" s="80">
         <v>0.39583333333333298</v>
       </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="74"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="90"/>
       <c r="E5" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="89"/>
+      <c r="F5" s="85"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="84">
+      <c r="A6" s="80">
         <v>0.41666666666666702</v>
       </c>
       <c r="C6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="71" t="s">
+      <c r="D6" s="90"/>
+      <c r="E6" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="89"/>
+      <c r="F6" s="85"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="84">
+      <c r="A7" s="80">
         <v>0.4375</v>
       </c>
       <c r="C7" s="51" t="s">
@@ -2557,174 +2313,174 @@
       <c r="D7" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="85"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="84">
+      <c r="A8" s="80">
         <v>0.45833333333333298</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="85"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="84">
+      <c r="A9" s="80">
         <v>0.47916666666666702</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="85"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="84">
+      <c r="A10" s="80">
         <v>0.5</v>
       </c>
-      <c r="C10" s="74"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="71" t="s">
+      <c r="C10" s="90"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="89"/>
+      <c r="F10" s="85"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84">
+      <c r="A11" s="80">
         <v>0.52083333333333304</v>
       </c>
-      <c r="C11" s="74"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="89"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="85"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="84">
+      <c r="A12" s="80">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="74" t="s">
+      <c r="C12" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="72"/>
+      <c r="D12" s="88"/>
       <c r="E12" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="89"/>
+      <c r="F12" s="85"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84">
+      <c r="A13" s="80">
         <v>0.5625</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="71" t="s">
+      <c r="C13" s="90"/>
+      <c r="D13" s="87" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="89"/>
+      <c r="F13" s="85"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="84">
+      <c r="A14" s="80">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="72"/>
-      <c r="E14" s="71" t="s">
+      <c r="D14" s="88"/>
+      <c r="E14" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="89"/>
+      <c r="F14" s="85"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="84">
+      <c r="A15" s="80">
         <v>0.60416666666666696</v>
       </c>
-      <c r="C15" s="74"/>
-      <c r="D15" s="71" t="s">
+      <c r="C15" s="90"/>
+      <c r="D15" s="87" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="72"/>
-      <c r="F15" s="89"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="85"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="84">
+      <c r="A16" s="80">
         <v>0.625</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="72"/>
-      <c r="E16" s="71" t="s">
+      <c r="D16" s="88"/>
+      <c r="E16" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="89"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="84">
+      <c r="A17" s="80">
         <v>0.64583333333333404</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="71" t="s">
+      <c r="C17" s="90"/>
+      <c r="D17" s="87" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="72"/>
-      <c r="F17" s="89"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="85"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="84">
+      <c r="A18" s="80">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="72"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="88"/>
       <c r="E18" s="51"/>
-      <c r="F18" s="89"/>
+      <c r="F18" s="85"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="84">
+      <c r="A19" s="80">
         <v>0.6875</v>
       </c>
       <c r="C19" s="51" t="s">
@@ -2734,139 +2490,139 @@
         <v>35</v>
       </c>
       <c r="E19" s="51"/>
-      <c r="F19" s="89"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
     <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="84">
+      <c r="A20" s="80">
         <v>0.70833333333333404</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="71" t="s">
+      <c r="D20" s="87" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="51"/>
-      <c r="F20" s="89"/>
+      <c r="F20" s="85"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
     <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="84">
+      <c r="A21" s="80">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C21" s="74" t="s">
+      <c r="C21" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="72"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="51"/>
-      <c r="F21" s="89"/>
+      <c r="F21" s="85"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
     <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="84">
+      <c r="A22" s="80">
         <v>0.75</v>
       </c>
-      <c r="C22" s="74"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="89"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="85"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
     <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="84">
+      <c r="A23" s="80">
         <v>0.77083333333333404</v>
       </c>
-      <c r="C23" s="74"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="89"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="85"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="84">
+      <c r="A24" s="80">
         <v>0.79166666666666696</v>
       </c>
       <c r="C24" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="89"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="85"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="84">
+      <c r="A25" s="80">
         <v>0.8125</v>
       </c>
-      <c r="C25" s="83"/>
-      <c r="D25" s="83"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="89"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="85"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="84">
+      <c r="A26" s="80">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="89"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="85"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="84">
+      <c r="A27" s="80">
         <v>0.85416666666666596</v>
       </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="89"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="85"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="86">
+      <c r="A28" s="82">
         <v>0.874999999999999</v>
       </c>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="89"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="85"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="90"/>
+      <c r="F29" s="86"/>
     </row>
     <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="90"/>
+      <c r="F30" s="86"/>
     </row>
     <row r="31" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F31" s="90"/>
+      <c r="F31" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>Felmerült problémák:</t>
   </si>
@@ -178,6 +178,15 @@
   </si>
   <si>
     <t>Mapping Toolbox is kell a MATLAB progi működéséhez</t>
+  </si>
+  <si>
+    <t>getInnerROI.m-nél tartottam</t>
+  </si>
+  <si>
+    <t>megpróbálom megcsinálni, hogy fusson minden modul, ha nem jól akkor is</t>
+  </si>
+  <si>
+    <t>create_circle_mask.py</t>
   </si>
 </sst>
 </file>
@@ -626,7 +635,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -884,17 +893,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1178,17 +1193,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="66.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55" style="66"/>
+    <col min="2" max="2" width="55" customWidth="1"/>
+    <col min="3" max="3" width="72.44140625" customWidth="1"/>
+    <col min="4" max="4" width="80.44140625" customWidth="1"/>
+    <col min="5" max="5" width="66.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.21875" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="55" style="2"/>
     <col min="18" max="20" width="55" style="2"/>
     <col min="25" max="30" width="55" style="2"/>
@@ -1362,7 +1379,9 @@
         <f>AVERAGE(B2:E2)</f>
         <v>0.39513888888888893</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="12">
+        <v>0.35416666666666669</v>
+      </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
@@ -1496,7 +1515,7 @@
       </c>
       <c r="G4" s="67">
         <f t="shared" ref="G4:AW4" si="0">G3-G2</f>
-        <v>0</v>
+        <v>-0.35416666666666669</v>
       </c>
       <c r="H4" s="67">
         <f t="shared" si="0"/>
@@ -1682,7 +1701,9 @@
         <v>38</v>
       </c>
       <c r="F5" s="64"/>
-      <c r="G5" s="18"/>
+      <c r="G5" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
@@ -1708,7 +1729,9 @@
         <v>39</v>
       </c>
       <c r="F6" s="64"/>
-      <c r="G6" s="18"/>
+      <c r="G6" s="18" t="s">
+        <v>52</v>
+      </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
@@ -2069,8 +2092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2240,6 +2263,7 @@
       <c r="D2" s="78"/>
       <c r="E2" s="78"/>
       <c r="F2" s="84"/>
+      <c r="G2" s="92"/>
     </row>
     <row r="3" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="80">
@@ -2253,7 +2277,9 @@
         <v>28</v>
       </c>
       <c r="F3" s="85"/>
-      <c r="G3" s="3"/>
+      <c r="G3" s="87" t="s">
+        <v>28</v>
+      </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
@@ -2262,14 +2288,16 @@
         <v>0.375</v>
       </c>
       <c r="C4" s="77"/>
-      <c r="D4" s="90" t="s">
+      <c r="D4" s="91" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="51" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="85"/>
-      <c r="G4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
@@ -2278,12 +2306,14 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="C5" s="77"/>
-      <c r="D5" s="90"/>
+      <c r="D5" s="91"/>
       <c r="E5" s="51" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="85"/>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
@@ -2294,12 +2324,14 @@
       <c r="C6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="87" t="s">
+      <c r="D6" s="91"/>
+      <c r="E6" s="88" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="85"/>
-      <c r="G6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
@@ -2326,7 +2358,7 @@
       <c r="C8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="88" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="89"/>
@@ -2339,11 +2371,11 @@
       <c r="A9" s="80">
         <v>0.47916666666666702</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="91" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="89"/>
-      <c r="E9" s="88"/>
+      <c r="E9" s="90"/>
       <c r="F9" s="85"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2353,9 +2385,9 @@
       <c r="A10" s="80">
         <v>0.5</v>
       </c>
-      <c r="C10" s="90"/>
+      <c r="C10" s="91"/>
       <c r="D10" s="89"/>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="88" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="85"/>
@@ -2367,9 +2399,9 @@
       <c r="A11" s="80">
         <v>0.52083333333333304</v>
       </c>
-      <c r="C11" s="90"/>
+      <c r="C11" s="91"/>
       <c r="D11" s="89"/>
-      <c r="E11" s="88"/>
+      <c r="E11" s="90"/>
       <c r="F11" s="85"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2379,10 +2411,10 @@
       <c r="A12" s="80">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="90" t="s">
+      <c r="C12" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="88"/>
+      <c r="D12" s="90"/>
       <c r="E12" s="52" t="s">
         <v>46</v>
       </c>
@@ -2395,8 +2427,8 @@
       <c r="A13" s="80">
         <v>0.5625</v>
       </c>
-      <c r="C13" s="90"/>
-      <c r="D13" s="87" t="s">
+      <c r="C13" s="91"/>
+      <c r="D13" s="88" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="52" t="s">
@@ -2411,11 +2443,11 @@
       <c r="A14" s="80">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="88"/>
-      <c r="E14" s="87" t="s">
+      <c r="D14" s="90"/>
+      <c r="E14" s="88" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="85"/>
@@ -2427,11 +2459,11 @@
       <c r="A15" s="80">
         <v>0.60416666666666696</v>
       </c>
-      <c r="C15" s="90"/>
-      <c r="D15" s="87" t="s">
+      <c r="C15" s="91"/>
+      <c r="D15" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="88"/>
+      <c r="E15" s="90"/>
       <c r="F15" s="85"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
@@ -2441,11 +2473,11 @@
       <c r="A16" s="80">
         <v>0.625</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="88"/>
-      <c r="E16" s="87" t="s">
+      <c r="D16" s="90"/>
+      <c r="E16" s="88" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="85"/>
@@ -2457,11 +2489,11 @@
       <c r="A17" s="80">
         <v>0.64583333333333404</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="D17" s="87" t="s">
+      <c r="C17" s="91"/>
+      <c r="D17" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="88"/>
+      <c r="E17" s="90"/>
       <c r="F17" s="85"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
@@ -2471,8 +2503,8 @@
       <c r="A18" s="80">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="88"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="90"/>
       <c r="E18" s="51"/>
       <c r="F18" s="85"/>
       <c r="G18" s="3"/>
@@ -2502,7 +2534,7 @@
       <c r="C20" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="87" t="s">
+      <c r="D20" s="88" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="51"/>
@@ -2515,10 +2547,10 @@
       <c r="A21" s="80">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="88"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="51"/>
       <c r="F21" s="85"/>
       <c r="G21" s="3"/>
@@ -2529,7 +2561,7 @@
       <c r="A22" s="80">
         <v>0.75</v>
       </c>
-      <c r="C22" s="90"/>
+      <c r="C22" s="91"/>
       <c r="D22" s="51" t="s">
         <v>37</v>
       </c>
@@ -2543,7 +2575,7 @@
       <c r="A23" s="80">
         <v>0.77083333333333404</v>
       </c>
-      <c r="C23" s="90"/>
+      <c r="C23" s="91"/>
       <c r="D23" s="51" t="s">
         <v>36</v>
       </c>
@@ -2626,21 +2658,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
   <si>
     <t>Felmerült problémák:</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>create_circle_mask.py</t>
+  </si>
+  <si>
+    <t>get_inner_roi.py-t valahogy le kéne tesztelni!</t>
+  </si>
+  <si>
+    <t>improfile()-hoz is kell toolbox, nem tudok tesztelni</t>
+  </si>
+  <si>
+    <t>triangle_threshold.py</t>
   </si>
 </sst>
 </file>
@@ -635,7 +644,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -893,23 +902,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1193,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1445,7 +1463,9 @@
         <f>AVERAGE(B3:E3)</f>
         <v>0.78749999999999998</v>
       </c>
-      <c r="G3" s="15"/>
+      <c r="G3" s="15">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
@@ -1515,7 +1535,7 @@
       </c>
       <c r="G4" s="67">
         <f t="shared" ref="G4:AW4" si="0">G3-G2</f>
-        <v>-0.35416666666666669</v>
+        <v>0.43749999999999994</v>
       </c>
       <c r="H4" s="67">
         <f t="shared" si="0"/>
@@ -1807,7 +1827,9 @@
         <v>42</v>
       </c>
       <c r="F9" s="64"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>54</v>
+      </c>
       <c r="H9" s="38"/>
       <c r="I9" s="38"/>
       <c r="J9" s="38"/>
@@ -1837,7 +1859,9 @@
         <v>43</v>
       </c>
       <c r="F10" s="64"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="21" t="s">
+        <v>55</v>
+      </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -2066,7 +2090,9 @@
         <f>AVERAGE(B19:E19)</f>
         <v>3.125</v>
       </c>
-      <c r="G19" s="46"/>
+      <c r="G19" s="46">
+        <v>4</v>
+      </c>
       <c r="H19" s="47"/>
       <c r="I19" s="47"/>
       <c r="J19" s="47"/>
@@ -2092,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2104,7 +2130,8 @@
     <col min="4" max="4" width="20.88671875" style="50" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.6640625" style="50" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.77734375" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="32.33203125" style="1"/>
+    <col min="7" max="7" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="32.33203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" s="72" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -2124,7 +2151,7 @@
       <c r="F1" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="72">
+      <c r="G1" s="90">
         <v>44760</v>
       </c>
       <c r="H1" s="72">
@@ -2263,7 +2290,7 @@
       <c r="D2" s="78"/>
       <c r="E2" s="78"/>
       <c r="F2" s="84"/>
-      <c r="G2" s="92"/>
+      <c r="G2" s="91"/>
     </row>
     <row r="3" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="80">
@@ -2288,14 +2315,14 @@
         <v>0.375</v>
       </c>
       <c r="C4" s="77"/>
-      <c r="D4" s="91" t="s">
+      <c r="D4" s="95" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="51" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="85"/>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="94" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="3"/>
@@ -2306,14 +2333,12 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="C5" s="77"/>
-      <c r="D5" s="91"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="51" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="85"/>
-      <c r="G5" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="G5" s="94"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
@@ -2324,14 +2349,12 @@
       <c r="C6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="91"/>
-      <c r="E6" s="88" t="s">
+      <c r="D6" s="95"/>
+      <c r="E6" s="92" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="85"/>
-      <c r="G6" s="3" t="s">
-        <v>53</v>
-      </c>
+      <c r="G6" s="94"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
@@ -2345,9 +2368,9 @@
       <c r="D7" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="89"/>
+      <c r="E7" s="94"/>
       <c r="F7" s="85"/>
-      <c r="G7" s="3"/>
+      <c r="G7" s="94"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
@@ -2358,12 +2381,12 @@
       <c r="C8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="88" t="s">
+      <c r="D8" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="89"/>
+      <c r="E8" s="94"/>
       <c r="F8" s="85"/>
-      <c r="G8" s="3"/>
+      <c r="G8" s="94"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
@@ -2371,13 +2394,15 @@
       <c r="A9" s="80">
         <v>0.47916666666666702</v>
       </c>
-      <c r="C9" s="91" t="s">
+      <c r="C9" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="90"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="93"/>
       <c r="F9" s="85"/>
-      <c r="G9" s="3"/>
+      <c r="G9" s="89" t="s">
+        <v>21</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
@@ -2385,13 +2410,15 @@
       <c r="A10" s="80">
         <v>0.5</v>
       </c>
-      <c r="C10" s="91"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="88" t="s">
+      <c r="C10" s="95"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="92" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="85"/>
-      <c r="G10" s="3"/>
+      <c r="G10" s="94" t="s">
+        <v>48</v>
+      </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
@@ -2399,11 +2426,11 @@
       <c r="A11" s="80">
         <v>0.52083333333333304</v>
       </c>
-      <c r="C11" s="91"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="90"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="85"/>
-      <c r="G11" s="3"/>
+      <c r="G11" s="94"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
@@ -2411,15 +2438,15 @@
       <c r="A12" s="80">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="91" t="s">
+      <c r="C12" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="90"/>
+      <c r="D12" s="93"/>
       <c r="E12" s="52" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="85"/>
-      <c r="G12" s="3"/>
+      <c r="G12" s="94"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
@@ -2427,15 +2454,17 @@
       <c r="A13" s="80">
         <v>0.5625</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="88" t="s">
+      <c r="C13" s="95"/>
+      <c r="D13" s="92" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="52" t="s">
         <v>47</v>
       </c>
       <c r="F13" s="85"/>
-      <c r="G13" s="3"/>
+      <c r="G13" s="89" t="s">
+        <v>56</v>
+      </c>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
@@ -2443,15 +2472,17 @@
       <c r="A14" s="80">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="88" t="s">
+      <c r="D14" s="93"/>
+      <c r="E14" s="92" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="85"/>
-      <c r="G14" s="3"/>
+      <c r="G14" s="88" t="s">
+        <v>15</v>
+      </c>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
@@ -2459,13 +2490,15 @@
       <c r="A15" s="80">
         <v>0.60416666666666696</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="88" t="s">
+      <c r="C15" s="95"/>
+      <c r="D15" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="90"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="85"/>
-      <c r="G15" s="3"/>
+      <c r="G15" s="92" t="s">
+        <v>56</v>
+      </c>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
@@ -2473,15 +2506,15 @@
       <c r="A16" s="80">
         <v>0.625</v>
       </c>
-      <c r="C16" s="91" t="s">
+      <c r="C16" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="88" t="s">
+      <c r="D16" s="93"/>
+      <c r="E16" s="92" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="85"/>
-      <c r="G16" s="3"/>
+      <c r="G16" s="94"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
@@ -2489,13 +2522,13 @@
       <c r="A17" s="80">
         <v>0.64583333333333404</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="88" t="s">
+      <c r="C17" s="95"/>
+      <c r="D17" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="90"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="85"/>
-      <c r="G17" s="3"/>
+      <c r="G17" s="94"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
@@ -2503,11 +2536,13 @@
       <c r="A18" s="80">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="51"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="51" t="s">
+        <v>21</v>
+      </c>
       <c r="F18" s="85"/>
-      <c r="G18" s="3"/>
+      <c r="G18" s="94"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
@@ -2521,9 +2556,11 @@
       <c r="D19" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="92" t="s">
+        <v>48</v>
+      </c>
       <c r="F19" s="85"/>
-      <c r="G19" s="3"/>
+      <c r="G19" s="94"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
@@ -2534,12 +2571,12 @@
       <c r="C20" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="88" t="s">
+      <c r="D20" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="51"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="85"/>
-      <c r="G20" s="3"/>
+      <c r="G20" s="94"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
@@ -2547,13 +2584,15 @@
       <c r="A21" s="80">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C21" s="91" t="s">
+      <c r="C21" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="90"/>
-      <c r="E21" s="51"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="51" t="s">
+        <v>36</v>
+      </c>
       <c r="F21" s="85"/>
-      <c r="G21" s="3"/>
+      <c r="G21" s="94"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
@@ -2561,13 +2600,13 @@
       <c r="A22" s="80">
         <v>0.75</v>
       </c>
-      <c r="C22" s="91"/>
+      <c r="C22" s="95"/>
       <c r="D22" s="51" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="79"/>
       <c r="F22" s="85"/>
-      <c r="G22" s="3"/>
+      <c r="G22" s="94"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
@@ -2575,13 +2614,13 @@
       <c r="A23" s="80">
         <v>0.77083333333333404</v>
       </c>
-      <c r="C23" s="91"/>
+      <c r="C23" s="95"/>
       <c r="D23" s="51" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="79"/>
       <c r="F23" s="85"/>
-      <c r="G23" s="3"/>
+      <c r="G23" s="93"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
@@ -2595,7 +2634,7 @@
       <c r="D24" s="79"/>
       <c r="E24" s="79"/>
       <c r="F24" s="85"/>
-      <c r="G24" s="3"/>
+      <c r="G24" s="79"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
@@ -2607,7 +2646,7 @@
       <c r="D25" s="79"/>
       <c r="E25" s="79"/>
       <c r="F25" s="85"/>
-      <c r="G25" s="3"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
@@ -2619,7 +2658,7 @@
       <c r="D26" s="79"/>
       <c r="E26" s="79"/>
       <c r="F26" s="85"/>
-      <c r="G26" s="3"/>
+      <c r="G26" s="79"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
@@ -2631,7 +2670,7 @@
       <c r="D27" s="79"/>
       <c r="E27" s="79"/>
       <c r="F27" s="85"/>
-      <c r="G27" s="3"/>
+      <c r="G27" s="79"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
@@ -2643,7 +2682,7 @@
       <c r="D28" s="79"/>
       <c r="E28" s="79"/>
       <c r="F28" s="85"/>
-      <c r="G28" s="3"/>
+      <c r="G28" s="79"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
@@ -2657,17 +2696,21 @@
       <c r="F31" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="19">
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G15:G23"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D8:D12"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C9:C11"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E14:E15"/>

--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9336" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>Felmerült problémák:</t>
   </si>
@@ -196,6 +196,33 @@
   </si>
   <si>
     <t>triangle_threshold.py</t>
+  </si>
+  <si>
+    <t>"tűzoltás" az InputImage-nél</t>
+  </si>
+  <si>
+    <t>gépfrissítés</t>
+  </si>
+  <si>
+    <t>triangle_threshold.py utolsó sorait be kell fejeznem</t>
+  </si>
+  <si>
+    <t>utána visszamegyek az inner roi ra</t>
+  </si>
+  <si>
+    <t>InputImage elbaszódott és nem tölti be a képeket</t>
+  </si>
+  <si>
+    <t>megcsináltam hogy az InputImage abszolút fájlelérést használjon</t>
+  </si>
+  <si>
+    <t>ezt lehet a jövőben dynamikussá kell még csinálni</t>
+  </si>
+  <si>
+    <t>Lehet van triangle_th a skikit-ben</t>
+  </si>
+  <si>
+    <t>a well-t már be kéne fejezni, majd a pre-processing es részre később visszatérek</t>
   </si>
 </sst>
 </file>
@@ -644,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -920,13 +947,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1209,28 +1242,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY20"/>
+  <dimension ref="A1:AY21"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F19"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="55" customWidth="1"/>
-    <col min="3" max="3" width="72.44140625" customWidth="1"/>
-    <col min="4" max="4" width="80.44140625" customWidth="1"/>
-    <col min="5" max="5" width="66.33203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="66" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" customWidth="1"/>
+    <col min="4" max="4" width="80.42578125" customWidth="1"/>
+    <col min="5" max="5" width="66.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="55" style="2"/>
     <col min="18" max="20" width="55" style="2"/>
     <col min="25" max="30" width="55" style="2"/>
     <col min="39" max="41" width="55" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="55" customFormat="1" ht="49.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:51" s="55" customFormat="1" ht="49.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="54"/>
       <c r="B1" s="55">
         <v>44753</v>
@@ -1377,7 +1410,7 @@
         <v>44802</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:51" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>2</v>
       </c>
@@ -1400,7 +1433,9 @@
       <c r="G2" s="12">
         <v>0.35416666666666669</v>
       </c>
-      <c r="H2" s="13"/>
+      <c r="H2" s="13">
+        <v>0.36736111111111108</v>
+      </c>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
@@ -1443,7 +1478,7 @@
       <c r="AV2" s="4"/>
       <c r="AW2" s="4"/>
     </row>
-    <row r="3" spans="1:51" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:51" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>3</v>
       </c>
@@ -1464,9 +1499,11 @@
         <v>0.78749999999999998</v>
       </c>
       <c r="G3" s="15">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="H3" s="16"/>
+        <v>0.7993055555555556</v>
+      </c>
+      <c r="H3" s="16">
+        <v>0.78125</v>
+      </c>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
       <c r="K3" s="17"/>
@@ -1509,7 +1546,7 @@
       <c r="AV3" s="7"/>
       <c r="AW3" s="7"/>
     </row>
-    <row r="4" spans="1:51" s="68" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:51" s="68" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="70" t="s">
         <v>12</v>
       </c>
@@ -1535,11 +1572,11 @@
       </c>
       <c r="G4" s="67">
         <f t="shared" ref="G4:AW4" si="0">G3-G2</f>
-        <v>0.43749999999999994</v>
+        <v>0.44513888888888892</v>
       </c>
       <c r="H4" s="67">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.41388888888888892</v>
       </c>
       <c r="I4" s="67">
         <f t="shared" si="0"/>
@@ -1708,7 +1745,7 @@
       <c r="AX4" s="67"/>
       <c r="AY4" s="67"/>
     </row>
-    <row r="5" spans="1:51" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:51" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
@@ -1724,7 +1761,9 @@
       <c r="G5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="19" t="s">
+        <v>59</v>
+      </c>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
       <c r="K5" s="19"/>
@@ -1738,7 +1777,7 @@
       <c r="S5" s="19"/>
       <c r="T5" s="26"/>
     </row>
-    <row r="6" spans="1:51" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:51" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
@@ -1752,7 +1791,9 @@
       <c r="G6" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
@@ -1766,7 +1807,7 @@
       <c r="S6" s="19"/>
       <c r="T6" s="26"/>
     </row>
-    <row r="7" spans="1:51" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:51" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
@@ -1774,7 +1815,9 @@
       <c r="E7" s="20"/>
       <c r="F7" s="64"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>61</v>
+      </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
@@ -1788,109 +1831,109 @@
       <c r="S7" s="19"/>
       <c r="T7" s="26"/>
     </row>
-    <row r="8" spans="1:51" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="58"/>
+    <row r="8" spans="1:51" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="64"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="R8" s="34"/>
-      <c r="S8" s="34"/>
-      <c r="T8" s="35"/>
-    </row>
-    <row r="9" spans="1:51" s="40" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="37" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="26"/>
+    </row>
+    <row r="9" spans="1:51" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="35"/>
+    </row>
+    <row r="10" spans="1:51" s="40" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C10" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D10" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E10" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="37" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="39"/>
-    </row>
-    <row r="10" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="21" t="s">
+      <c r="H10" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
+      <c r="O10" s="38"/>
+      <c r="P10" s="38"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="38"/>
+      <c r="S10" s="38"/>
+      <c r="T10" s="39"/>
+    </row>
+    <row r="11" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28"/>
+      <c r="B11" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E11" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="21" t="s">
+      <c r="F11" s="64"/>
+      <c r="G11" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="27"/>
-    </row>
-    <row r="11" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
+      <c r="H11" s="22" t="s">
+        <v>63</v>
+      </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
@@ -1904,19 +1947,23 @@
       <c r="S11" s="22"/>
       <c r="T11" s="27"/>
     </row>
-    <row r="12" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="22"/>
+        <v>14</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="E12" s="71" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="64"/>
       <c r="G12" s="21"/>
-      <c r="H12" s="22"/>
+      <c r="H12" s="22" t="s">
+        <v>65</v>
+      </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
@@ -1930,15 +1977,15 @@
       <c r="S12" s="22"/>
       <c r="T12" s="27"/>
     </row>
-    <row r="13" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="23" t="s">
-        <v>50</v>
+      <c r="E13" s="71" t="s">
+        <v>45</v>
       </c>
       <c r="F13" s="64"/>
       <c r="G13" s="21"/>
@@ -1956,14 +2003,16 @@
       <c r="S13" s="22"/>
       <c r="T13" s="27"/>
     </row>
-    <row r="14" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D14" s="22"/>
-      <c r="E14" s="23"/>
+      <c r="E14" s="23" t="s">
+        <v>50</v>
+      </c>
       <c r="F14" s="64"/>
       <c r="G14" s="21"/>
       <c r="H14" s="22"/>
@@ -1980,11 +2029,11 @@
       <c r="S14" s="22"/>
       <c r="T14" s="27"/>
     </row>
-    <row r="15" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="28"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
@@ -2004,10 +2053,12 @@
       <c r="S15" s="22"/>
       <c r="T15" s="27"/>
     </row>
-    <row r="16" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="28"/>
       <c r="B16" s="21"/>
-      <c r="C16" s="22"/>
+      <c r="C16" s="22" t="s">
+        <v>26</v>
+      </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
       <c r="F16" s="64"/>
@@ -2026,7 +2077,7 @@
       <c r="S16" s="22"/>
       <c r="T16" s="27"/>
     </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -2048,66 +2099,88 @@
       <c r="S17" s="22"/>
       <c r="T17" s="27"/>
     </row>
-    <row r="18" spans="1:20" s="44" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="32"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="60"/>
+    <row r="18" spans="1:20" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="64"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="43"/>
-    </row>
-    <row r="19" spans="1:20" s="49" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="45" t="s">
+      <c r="G18" s="21"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="27"/>
+    </row>
+    <row r="19" spans="1:20" s="44" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="43"/>
+    </row>
+    <row r="20" spans="1:20" s="49" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="46">
+      <c r="B20" s="46">
         <v>3.5</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C20" s="47">
         <v>4</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D20" s="47">
         <v>1.5</v>
       </c>
-      <c r="E19" s="61">
+      <c r="E20" s="61">
         <v>3.5</v>
       </c>
-      <c r="F19" s="65">
-        <f>AVERAGE(B19:E19)</f>
+      <c r="F20" s="65">
+        <f>AVERAGE(B20:E20)</f>
         <v>3.125</v>
       </c>
-      <c r="G19" s="46">
+      <c r="G20" s="46">
         <v>4</v>
       </c>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="48"/>
-    </row>
-    <row r="20" spans="1:20" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="48"/>
+    </row>
+    <row r="21" spans="1:20" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2118,23 +2191,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="32.33203125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="81" customWidth="1"/>
-    <col min="2" max="2" width="10.109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="41.6640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="32.33203125" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="81" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="32.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="72" customFormat="1" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" s="72" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="75"/>
       <c r="B1" s="73">
         <v>44753</v>
@@ -2281,7 +2354,7 @@
         <v>44802</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="83">
         <v>0.33333333333333331</v>
       </c>
@@ -2291,8 +2364,9 @@
       <c r="E2" s="78"/>
       <c r="F2" s="84"/>
       <c r="G2" s="91"/>
-    </row>
-    <row r="3" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H2" s="91"/>
+    </row>
+    <row r="3" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="80">
         <v>0.35416666666666669</v>
       </c>
@@ -2307,58 +2381,62 @@
       <c r="G3" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="91"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="80">
         <v>0.375</v>
       </c>
       <c r="C4" s="77"/>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="94" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="51" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="85"/>
-      <c r="G4" s="94" t="s">
+      <c r="G4" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="92" t="s">
+        <v>58</v>
+      </c>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="80">
         <v>0.39583333333333298</v>
       </c>
       <c r="C5" s="77"/>
-      <c r="D5" s="95"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="51" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="85"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="3"/>
+      <c r="G5" s="97"/>
+      <c r="H5" s="95" t="s">
+        <v>57</v>
+      </c>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="80">
         <v>0.41666666666666702</v>
       </c>
       <c r="C6" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="95"/>
-      <c r="E6" s="92" t="s">
+      <c r="D6" s="94"/>
+      <c r="E6" s="95" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="85"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="3"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80">
         <v>0.4375</v>
       </c>
@@ -2368,94 +2446,96 @@
       <c r="D7" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="94"/>
+      <c r="E7" s="97"/>
       <c r="F7" s="85"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="3"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="80">
         <v>0.45833333333333298</v>
       </c>
       <c r="C8" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="92" t="s">
+      <c r="D8" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="94"/>
+      <c r="E8" s="97"/>
       <c r="F8" s="85"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="3"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="96"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="80">
         <v>0.47916666666666702</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="93"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="96"/>
       <c r="F9" s="85"/>
       <c r="G9" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="3"/>
+      <c r="H9" s="95" t="s">
+        <v>56</v>
+      </c>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="80">
         <v>0.5</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="92" t="s">
+      <c r="C10" s="94"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="95" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="85"/>
-      <c r="G10" s="94" t="s">
+      <c r="G10" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="3"/>
+      <c r="H10" s="97"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="80">
         <v>0.52083333333333304</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="96"/>
       <c r="F11" s="85"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="3"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="80">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="95" t="s">
+      <c r="C12" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="93"/>
+      <c r="D12" s="96"/>
       <c r="E12" s="52" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="85"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="3"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="80">
         <v>0.5625</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="92" t="s">
+      <c r="C13" s="94"/>
+      <c r="D13" s="95" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="52" t="s">
@@ -2465,88 +2545,92 @@
       <c r="G13" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="3"/>
+      <c r="H13" s="96"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="80">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="93"/>
-      <c r="E14" s="92" t="s">
+      <c r="D14" s="96"/>
+      <c r="E14" s="95" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="85"/>
       <c r="G14" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="3"/>
+      <c r="H14" s="95" t="s">
+        <v>15</v>
+      </c>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="80">
         <v>0.60416666666666696</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="92" t="s">
+      <c r="C15" s="94"/>
+      <c r="D15" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="93"/>
+      <c r="E15" s="96"/>
       <c r="F15" s="85"/>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="3"/>
+      <c r="H15" s="97"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="80">
         <v>0.625</v>
       </c>
-      <c r="C16" s="95" t="s">
+      <c r="C16" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="93"/>
-      <c r="E16" s="92" t="s">
+      <c r="D16" s="96"/>
+      <c r="E16" s="95" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="85"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="3"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="96"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="80">
         <v>0.64583333333333404</v>
       </c>
-      <c r="C17" s="95"/>
-      <c r="D17" s="92" t="s">
+      <c r="C17" s="94"/>
+      <c r="D17" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="93"/>
+      <c r="E17" s="96"/>
       <c r="F17" s="85"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="3"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="95" t="s">
+        <v>56</v>
+      </c>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="80">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C18" s="95"/>
-      <c r="D18" s="93"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="96"/>
       <c r="E18" s="51" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="85"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="3"/>
+      <c r="G18" s="97"/>
+      <c r="H18" s="97"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="80">
         <v>0.6875</v>
       </c>
@@ -2556,75 +2640,79 @@
       <c r="D19" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="92" t="s">
+      <c r="E19" s="95" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="85"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="3"/>
+      <c r="G19" s="97"/>
+      <c r="H19" s="97"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80">
         <v>0.70833333333333404</v>
       </c>
       <c r="C20" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="92" t="s">
+      <c r="D20" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="93"/>
+      <c r="E20" s="96"/>
       <c r="F20" s="85"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="3"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C21" s="95" t="s">
+      <c r="C21" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="93"/>
+      <c r="D21" s="96"/>
       <c r="E21" s="51" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="85"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="3"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="96"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="80">
         <v>0.75</v>
       </c>
-      <c r="C22" s="95"/>
+      <c r="C22" s="94"/>
       <c r="D22" s="51" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="79"/>
       <c r="F22" s="85"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="3"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="92" t="s">
+        <v>21</v>
+      </c>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="80">
         <v>0.77083333333333404</v>
       </c>
-      <c r="C23" s="95"/>
+      <c r="C23" s="94"/>
       <c r="D23" s="51" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="79"/>
       <c r="F23" s="85"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="3"/>
+      <c r="G23" s="96"/>
+      <c r="H23" s="93" t="s">
+        <v>21</v>
+      </c>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80">
         <v>0.79166666666666696</v>
       </c>
@@ -2635,10 +2723,10 @@
       <c r="E24" s="79"/>
       <c r="F24" s="85"/>
       <c r="G24" s="79"/>
-      <c r="H24" s="3"/>
+      <c r="H24" s="79"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="80">
         <v>0.8125</v>
       </c>
@@ -2647,10 +2735,10 @@
       <c r="E25" s="79"/>
       <c r="F25" s="85"/>
       <c r="G25" s="79"/>
-      <c r="H25" s="3"/>
+      <c r="H25" s="79"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="80">
         <v>0.83333333333333304</v>
       </c>
@@ -2659,10 +2747,10 @@
       <c r="E26" s="79"/>
       <c r="F26" s="85"/>
       <c r="G26" s="79"/>
-      <c r="H26" s="3"/>
+      <c r="H26" s="79"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="80">
         <v>0.85416666666666596</v>
       </c>
@@ -2671,10 +2759,10 @@
       <c r="E27" s="79"/>
       <c r="F27" s="85"/>
       <c r="G27" s="79"/>
-      <c r="H27" s="3"/>
+      <c r="H27" s="79"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="82">
         <v>0.874999999999999</v>
       </c>
@@ -2683,39 +2771,43 @@
       <c r="E28" s="79"/>
       <c r="F28" s="85"/>
       <c r="G28" s="79"/>
-      <c r="H28" s="3"/>
+      <c r="H28" s="79"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F29" s="86"/>
     </row>
-    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="86"/>
     </row>
-    <row r="31" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="86"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G15:G23"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="D4:D6"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G15:G23"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D8:D12"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="D4:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Hourly" sheetId="2" r:id="rId2"/>
+    <sheet name="Napi terv" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>Felmerült problémák:</t>
   </si>
@@ -223,6 +224,33 @@
   </si>
   <si>
     <t>a well-t már be kéne fejezni, majd a pre-processing es részre később visszatérek</t>
+  </si>
+  <si>
+    <t>CSINÁLNI KELL EGY DÖNTÉSI FA ÁBRÁT!</t>
+  </si>
+  <si>
+    <t>Csinálni kell egy folyamat ábrát, amin látszódik a script lefutása és az InputImage objektum pillanatnyi állapota</t>
+  </si>
+  <si>
+    <t>Készíteni egy jó tömböt amivel a maszkot tudom a matlab kódban is tesztelni</t>
+  </si>
+  <si>
+    <t>egy jó példá készítés, körbejárás</t>
+  </si>
+  <si>
+    <t>kaja</t>
+  </si>
+  <si>
+    <t>find_well_props.py 'lezárása', csak egy kis időre</t>
+  </si>
+  <si>
+    <t>fish modul elkezdése</t>
+  </si>
+  <si>
+    <t>homomorphic filter</t>
+  </si>
+  <si>
+    <t>research</t>
   </si>
 </sst>
 </file>
@@ -232,7 +260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,8 +315,17 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,8 +380,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -649,6 +692,43 @@
         <color theme="4" tint="-0.24994659260841701"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -656,9 +736,47 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color theme="4" tint="-0.24994659260841701"/>
-      </right>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -671,7 +789,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -818,148 +936,185 @@
     <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="27" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1244,8 +1399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1255,158 +1410,159 @@
     <col min="3" max="3" width="72.42578125" customWidth="1"/>
     <col min="4" max="4" width="80.42578125" customWidth="1"/>
     <col min="5" max="5" width="66.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="66" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="62" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="73.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="13" width="55" style="2"/>
     <col min="18" max="20" width="55" style="2"/>
     <col min="25" max="30" width="55" style="2"/>
     <col min="39" max="41" width="55" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="55" customFormat="1" ht="49.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54"/>
-      <c r="B1" s="55">
+    <row r="1" spans="1:51" s="51" customFormat="1" ht="49.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50"/>
+      <c r="B1" s="51">
         <v>44753</v>
       </c>
-      <c r="C1" s="55">
+      <c r="C1" s="51">
         <v>44754</v>
       </c>
-      <c r="D1" s="55">
+      <c r="D1" s="51">
         <v>44755</v>
       </c>
-      <c r="E1" s="55">
+      <c r="E1" s="51">
         <v>44756</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="55">
+      <c r="G1" s="51">
         <v>44760</v>
       </c>
-      <c r="H1" s="55">
+      <c r="H1" s="51">
         <v>44761</v>
       </c>
-      <c r="I1" s="55">
+      <c r="I1" s="51">
         <v>44762</v>
       </c>
-      <c r="J1" s="55">
+      <c r="J1" s="51">
         <v>44763</v>
       </c>
-      <c r="K1" s="55">
+      <c r="K1" s="51">
         <v>44764</v>
       </c>
-      <c r="L1" s="55">
+      <c r="L1" s="51">
         <v>44765</v>
       </c>
-      <c r="M1" s="55">
+      <c r="M1" s="51">
         <v>44766</v>
       </c>
-      <c r="N1" s="55">
+      <c r="N1" s="51">
         <v>44767</v>
       </c>
-      <c r="O1" s="55">
+      <c r="O1" s="51">
         <v>44768</v>
       </c>
-      <c r="P1" s="55">
+      <c r="P1" s="51">
         <v>44769</v>
       </c>
-      <c r="Q1" s="55">
+      <c r="Q1" s="51">
         <v>44770</v>
       </c>
-      <c r="R1" s="55">
+      <c r="R1" s="51">
         <v>44771</v>
       </c>
-      <c r="S1" s="55">
+      <c r="S1" s="51">
         <v>44772</v>
       </c>
-      <c r="T1" s="55">
+      <c r="T1" s="51">
         <v>44773</v>
       </c>
-      <c r="U1" s="55">
+      <c r="U1" s="51">
         <v>44774</v>
       </c>
-      <c r="V1" s="55">
+      <c r="V1" s="51">
         <v>44775</v>
       </c>
-      <c r="W1" s="55">
+      <c r="W1" s="51">
         <v>44776</v>
       </c>
-      <c r="X1" s="55">
+      <c r="X1" s="51">
         <v>44777</v>
       </c>
-      <c r="Y1" s="55">
+      <c r="Y1" s="51">
         <v>44778</v>
       </c>
-      <c r="Z1" s="55">
+      <c r="Z1" s="51">
         <v>44779</v>
       </c>
-      <c r="AA1" s="55">
+      <c r="AA1" s="51">
         <v>44780</v>
       </c>
-      <c r="AB1" s="55">
+      <c r="AB1" s="51">
         <v>44781</v>
       </c>
-      <c r="AC1" s="55">
+      <c r="AC1" s="51">
         <v>44782</v>
       </c>
-      <c r="AD1" s="55">
+      <c r="AD1" s="51">
         <v>44783</v>
       </c>
-      <c r="AE1" s="55">
+      <c r="AE1" s="51">
         <v>44784</v>
       </c>
-      <c r="AF1" s="55">
+      <c r="AF1" s="51">
         <v>44785</v>
       </c>
-      <c r="AG1" s="55">
+      <c r="AG1" s="51">
         <v>44786</v>
       </c>
-      <c r="AH1" s="55">
+      <c r="AH1" s="51">
         <v>44787</v>
       </c>
-      <c r="AI1" s="55">
+      <c r="AI1" s="51">
         <v>44788</v>
       </c>
-      <c r="AJ1" s="55">
+      <c r="AJ1" s="51">
         <v>44789</v>
       </c>
-      <c r="AK1" s="55">
+      <c r="AK1" s="51">
         <v>44790</v>
       </c>
-      <c r="AL1" s="55">
+      <c r="AL1" s="51">
         <v>44791</v>
       </c>
-      <c r="AM1" s="55">
+      <c r="AM1" s="51">
         <v>44792</v>
       </c>
-      <c r="AN1" s="55">
+      <c r="AN1" s="51">
         <v>44793</v>
       </c>
-      <c r="AO1" s="55">
+      <c r="AO1" s="51">
         <v>44794</v>
       </c>
-      <c r="AP1" s="55">
+      <c r="AP1" s="51">
         <v>44795</v>
       </c>
-      <c r="AQ1" s="55">
+      <c r="AQ1" s="51">
         <v>44796</v>
       </c>
-      <c r="AR1" s="55">
+      <c r="AR1" s="51">
         <v>44797</v>
       </c>
-      <c r="AS1" s="55">
+      <c r="AS1" s="51">
         <v>44798</v>
       </c>
-      <c r="AT1" s="55">
+      <c r="AT1" s="51">
         <v>44799</v>
       </c>
-      <c r="AU1" s="55">
+      <c r="AU1" s="51">
         <v>44800</v>
       </c>
-      <c r="AV1" s="55">
+      <c r="AV1" s="51">
         <v>44801</v>
       </c>
-      <c r="AW1" s="55">
+      <c r="AW1" s="51">
         <v>44802</v>
       </c>
     </row>
@@ -1423,10 +1579,10 @@
       <c r="D2" s="13">
         <v>0.36527777777777781</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="52">
         <v>0.34861111111111115</v>
       </c>
-      <c r="F2" s="63">
+      <c r="F2" s="59">
         <f>AVERAGE(B2:E2)</f>
         <v>0.39513888888888893</v>
       </c>
@@ -1436,7 +1592,9 @@
       <c r="H2" s="13">
         <v>0.36736111111111108</v>
       </c>
-      <c r="I2" s="13"/>
+      <c r="I2" s="13">
+        <v>0.39583333333333331</v>
+      </c>
       <c r="J2" s="13"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
@@ -1491,10 +1649,10 @@
       <c r="D3" s="16">
         <v>0.79583333333333339</v>
       </c>
-      <c r="E3" s="57">
+      <c r="E3" s="53">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F3" s="63">
+      <c r="F3" s="59">
         <f>AVERAGE(B3:E3)</f>
         <v>0.78749999999999998</v>
       </c>
@@ -1504,7 +1662,9 @@
       <c r="H3" s="16">
         <v>0.78125</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="16">
+        <v>0.81597222222222221</v>
+      </c>
       <c r="J3" s="16"/>
       <c r="K3" s="17"/>
       <c r="L3" s="17"/>
@@ -1546,204 +1706,204 @@
       <c r="AV3" s="7"/>
       <c r="AW3" s="7"/>
     </row>
-    <row r="4" spans="1:51" s="68" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:51" s="64" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="69">
+      <c r="B4" s="65">
         <f>B3-B2</f>
         <v>0.34166666666666662</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="63">
         <f>C3-C2</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="63">
         <f>D3-D2</f>
         <v>0.43055555555555558</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="63">
         <f>E3-E2</f>
         <v>0.38055555555555548</v>
       </c>
-      <c r="F4" s="63">
+      <c r="F4" s="59">
         <f>AVERAGE(B4:E4)</f>
         <v>0.3923611111111111</v>
       </c>
-      <c r="G4" s="67">
+      <c r="G4" s="63">
         <f t="shared" ref="G4:AW4" si="0">G3-G2</f>
         <v>0.44513888888888892</v>
       </c>
-      <c r="H4" s="67">
+      <c r="H4" s="63">
         <f t="shared" si="0"/>
         <v>0.41388888888888892</v>
       </c>
-      <c r="I4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AI4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AK4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AL4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AM4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AN4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AO4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AP4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AR4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AS4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AV4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AW4" s="67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AX4" s="67"/>
-      <c r="AY4" s="67"/>
+      <c r="I4" s="63">
+        <f t="shared" si="0"/>
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="J4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AR4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AV4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AW4" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AX4" s="63"/>
+      <c r="AY4" s="63"/>
     </row>
     <row r="5" spans="1:51" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
@@ -1757,7 +1917,7 @@
       <c r="E5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="64"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="18" t="s">
         <v>51</v>
       </c>
@@ -1787,7 +1947,7 @@
       <c r="E6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="64"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="18" t="s">
         <v>52</v>
       </c>
@@ -1813,7 +1973,7 @@
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="64"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="18"/>
       <c r="H7" s="19" t="s">
         <v>61</v>
@@ -1837,7 +1997,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="64"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="18"/>
       <c r="H8" s="10" t="s">
         <v>64</v>
@@ -1860,8 +2020,8 @@
       <c r="B9" s="33"/>
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="64"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="33"/>
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
@@ -1890,17 +2050,19 @@
       <c r="D10" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="64"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="37" t="s">
         <v>54</v>
       </c>
       <c r="H10" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="38"/>
+      <c r="I10" s="84" t="s">
+        <v>66</v>
+      </c>
       <c r="J10" s="38"/>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
@@ -1927,7 +2089,7 @@
       <c r="E11" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="64"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="21" t="s">
         <v>55</v>
       </c>
@@ -1956,10 +2118,10 @@
       <c r="D12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="64"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="21"/>
       <c r="H12" s="22" t="s">
         <v>65</v>
@@ -1984,10 +2146,10 @@
         <v>19</v>
       </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="64"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="21"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
@@ -2013,7 +2175,7 @@
       <c r="E14" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="64"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="21"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
@@ -2037,7 +2199,7 @@
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="64"/>
+      <c r="F15" s="60"/>
       <c r="G15" s="21"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
@@ -2061,7 +2223,7 @@
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="64"/>
+      <c r="F16" s="60"/>
       <c r="G16" s="21"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -2083,7 +2245,7 @@
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="64"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="21"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
@@ -2105,7 +2267,7 @@
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
-      <c r="F18" s="64"/>
+      <c r="F18" s="60"/>
       <c r="G18" s="21"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
@@ -2126,8 +2288,8 @@
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
       <c r="D19" s="42"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="64"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="60"/>
       <c r="G19" s="41"/>
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
@@ -2156,18 +2318,22 @@
       <c r="D20" s="47">
         <v>1.5</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="57">
         <v>3.5</v>
       </c>
-      <c r="F20" s="65">
+      <c r="F20" s="61">
         <f>AVERAGE(B20:E20)</f>
         <v>3.125</v>
       </c>
       <c r="G20" s="46">
         <v>4</v>
       </c>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
+      <c r="H20" s="47">
+        <v>1</v>
+      </c>
+      <c r="I20" s="47">
+        <v>2.5</v>
+      </c>
       <c r="J20" s="47"/>
       <c r="K20" s="47"/>
       <c r="L20" s="47"/>
@@ -2191,600 +2357,687 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="81" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="32.28515625" style="1"/>
+    <col min="1" max="1" width="15.7109375" style="74" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="96" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="105" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="96" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" style="105" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="96" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.28515625" style="1"/>
+    <col min="9" max="9" width="44" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="32.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="72" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75"/>
-      <c r="B1" s="73">
+    <row r="1" spans="1:49" s="68" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="71"/>
+      <c r="B1" s="69">
         <v>44753</v>
       </c>
-      <c r="C1" s="73">
+      <c r="C1" s="69">
         <v>44754</v>
       </c>
-      <c r="D1" s="73">
+      <c r="D1" s="69">
         <v>44755</v>
       </c>
-      <c r="E1" s="73">
+      <c r="E1" s="69">
         <v>44756</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="90">
+      <c r="G1" s="75">
         <v>44760</v>
       </c>
-      <c r="H1" s="72">
+      <c r="H1" s="75">
         <v>44761</v>
       </c>
-      <c r="I1" s="72">
+      <c r="I1" s="75">
         <v>44762</v>
       </c>
-      <c r="J1" s="72">
+      <c r="J1" s="75">
         <v>44763</v>
       </c>
-      <c r="K1" s="72">
+      <c r="K1" s="68">
         <v>44764</v>
       </c>
-      <c r="L1" s="72">
+      <c r="L1" s="68">
         <v>44765</v>
       </c>
-      <c r="M1" s="72">
+      <c r="M1" s="68">
         <v>44766</v>
       </c>
-      <c r="N1" s="72">
+      <c r="N1" s="68">
         <v>44767</v>
       </c>
-      <c r="O1" s="72">
+      <c r="O1" s="68">
         <v>44768</v>
       </c>
-      <c r="P1" s="72">
+      <c r="P1" s="68">
         <v>44769</v>
       </c>
-      <c r="Q1" s="72">
+      <c r="Q1" s="68">
         <v>44770</v>
       </c>
-      <c r="R1" s="72">
+      <c r="R1" s="68">
         <v>44771</v>
       </c>
-      <c r="S1" s="72">
+      <c r="S1" s="68">
         <v>44772</v>
       </c>
-      <c r="T1" s="72">
+      <c r="T1" s="68">
         <v>44773</v>
       </c>
-      <c r="U1" s="72">
+      <c r="U1" s="68">
         <v>44774</v>
       </c>
-      <c r="V1" s="72">
+      <c r="V1" s="68">
         <v>44775</v>
       </c>
-      <c r="W1" s="72">
+      <c r="W1" s="68">
         <v>44776</v>
       </c>
-      <c r="X1" s="72">
+      <c r="X1" s="68">
         <v>44777</v>
       </c>
-      <c r="Y1" s="72">
+      <c r="Y1" s="68">
         <v>44778</v>
       </c>
-      <c r="Z1" s="72">
+      <c r="Z1" s="68">
         <v>44779</v>
       </c>
-      <c r="AA1" s="72">
+      <c r="AA1" s="68">
         <v>44780</v>
       </c>
-      <c r="AB1" s="72">
+      <c r="AB1" s="68">
         <v>44781</v>
       </c>
-      <c r="AC1" s="72">
+      <c r="AC1" s="68">
         <v>44782</v>
       </c>
-      <c r="AD1" s="72">
+      <c r="AD1" s="68">
         <v>44783</v>
       </c>
-      <c r="AE1" s="72">
+      <c r="AE1" s="68">
         <v>44784</v>
       </c>
-      <c r="AF1" s="72">
+      <c r="AF1" s="68">
         <v>44785</v>
       </c>
-      <c r="AG1" s="72">
+      <c r="AG1" s="68">
         <v>44786</v>
       </c>
-      <c r="AH1" s="72">
+      <c r="AH1" s="68">
         <v>44787</v>
       </c>
-      <c r="AI1" s="72">
+      <c r="AI1" s="68">
         <v>44788</v>
       </c>
-      <c r="AJ1" s="72">
+      <c r="AJ1" s="68">
         <v>44789</v>
       </c>
-      <c r="AK1" s="72">
+      <c r="AK1" s="68">
         <v>44790</v>
       </c>
-      <c r="AL1" s="72">
+      <c r="AL1" s="68">
         <v>44791</v>
       </c>
-      <c r="AM1" s="72">
+      <c r="AM1" s="68">
         <v>44792</v>
       </c>
-      <c r="AN1" s="72">
+      <c r="AN1" s="68">
         <v>44793</v>
       </c>
-      <c r="AO1" s="72">
+      <c r="AO1" s="68">
         <v>44794</v>
       </c>
-      <c r="AP1" s="72">
+      <c r="AP1" s="68">
         <v>44795</v>
       </c>
-      <c r="AQ1" s="72">
+      <c r="AQ1" s="68">
         <v>44796</v>
       </c>
-      <c r="AR1" s="72">
+      <c r="AR1" s="68">
         <v>44797</v>
       </c>
-      <c r="AS1" s="72">
+      <c r="AS1" s="68">
         <v>44798</v>
       </c>
-      <c r="AT1" s="72">
+      <c r="AT1" s="68">
         <v>44799</v>
       </c>
-      <c r="AU1" s="72">
+      <c r="AU1" s="68">
         <v>44800</v>
       </c>
-      <c r="AV1" s="72">
+      <c r="AV1" s="68">
         <v>44801</v>
       </c>
-      <c r="AW1" s="72">
+      <c r="AW1" s="68">
         <v>44802</v>
       </c>
     </row>
     <row r="2" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83">
+      <c r="A2" s="106">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="80"/>
     </row>
     <row r="3" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80">
+      <c r="A3" s="73">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="51" t="s">
+      <c r="B3" s="79"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="87" t="s">
+      <c r="F3" s="95"/>
+      <c r="G3" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="91"/>
-      <c r="I3" s="3"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80">
+      <c r="A4" s="73">
         <v>0.375</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="94" t="s">
+      <c r="B4" s="79"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="51" t="s">
+      <c r="E4" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="97" t="s">
+      <c r="F4" s="95"/>
+      <c r="G4" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="3"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="80"/>
     </row>
     <row r="5" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80">
+      <c r="A5" s="73">
         <v>0.39583333333333298</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="51" t="s">
+      <c r="B5" s="79"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="95" t="s">
+      <c r="F5" s="95"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="81" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="80"/>
     </row>
     <row r="6" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="80">
+      <c r="A6" s="73">
         <v>0.41666666666666702</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="95" t="s">
+      <c r="D6" s="79"/>
+      <c r="E6" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="85"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="3"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="80">
+      <c r="A7" s="73">
         <v>0.4375</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="97"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="3"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="82"/>
+      <c r="H7" s="82"/>
+      <c r="I7" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" s="80"/>
     </row>
     <row r="8" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="80">
+      <c r="A8" s="73">
         <v>0.45833333333333298</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="95" t="s">
+      <c r="D8" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="97"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="3"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="95"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="80" t="s">
+        <v>70</v>
+      </c>
+      <c r="J8" s="80"/>
     </row>
     <row r="9" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="80">
+      <c r="A9" s="73">
         <v>0.47916666666666702</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="B9" s="79"/>
+      <c r="C9" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="97"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="89" t="s">
+      <c r="D9" s="79"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="95"/>
+      <c r="G9" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="3"/>
+      <c r="I9" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="80"/>
     </row>
     <row r="10" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="80">
+      <c r="A10" s="73">
         <v>0.5</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="95" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="85"/>
-      <c r="G10" s="97" t="s">
+      <c r="F10" s="95"/>
+      <c r="G10" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="97"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="80"/>
     </row>
     <row r="11" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="80">
+      <c r="A11" s="73">
         <v>0.52083333333333304</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="3"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="80"/>
     </row>
     <row r="12" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="80">
+      <c r="A12" s="73">
         <v>0.54166666666666696</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="110" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="52" t="s">
+      <c r="D12" s="79"/>
+      <c r="E12" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="85"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="3"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="82"/>
+      <c r="I12" s="82"/>
+      <c r="J12" s="80"/>
     </row>
     <row r="13" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="80">
+      <c r="A13" s="73">
         <v>0.5625</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95" t="s">
+      <c r="B13" s="79"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="52" t="s">
+      <c r="E13" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="85"/>
-      <c r="G13" s="89" t="s">
+      <c r="F13" s="95"/>
+      <c r="G13" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="96"/>
-      <c r="I13" s="3"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="82"/>
+      <c r="J13" s="80"/>
     </row>
     <row r="14" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="80">
+      <c r="A14" s="73">
         <v>0.58333333333333304</v>
       </c>
-      <c r="C14" s="94" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="95" t="s">
+      <c r="D14" s="79"/>
+      <c r="E14" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="85"/>
-      <c r="G14" s="88" t="s">
+      <c r="F14" s="95"/>
+      <c r="G14" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="95" t="s">
+      <c r="H14" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="3"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="80"/>
     </row>
     <row r="15" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="80">
+      <c r="A15" s="73">
         <v>0.60416666666666696</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95" t="s">
+      <c r="B15" s="79"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="96"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="95" t="s">
+      <c r="E15" s="101"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="97"/>
-      <c r="I15" s="3"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="80"/>
     </row>
     <row r="16" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="80">
+      <c r="A16" s="73">
         <v>0.625</v>
       </c>
-      <c r="C16" s="94" t="s">
+      <c r="B16" s="79"/>
+      <c r="C16" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="95" t="s">
+      <c r="D16" s="79"/>
+      <c r="E16" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="85"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="80">
+      <c r="F16" s="95"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" s="80"/>
+    </row>
+    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="73">
         <v>0.64583333333333404</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95" t="s">
+      <c r="B17" s="79"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="97"/>
-      <c r="H17" s="95" t="s">
+      <c r="E17" s="101"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="82"/>
+      <c r="H17" s="81" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="80">
+      <c r="I17" s="82"/>
+      <c r="J17" s="80"/>
+    </row>
+    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="73">
         <v>0.66666666666666696</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="51" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="85"/>
-      <c r="G18" s="97"/>
-      <c r="H18" s="97"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="80">
+      <c r="F18" s="95"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="80"/>
+    </row>
+    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="73">
         <v>0.6875</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="B19" s="79"/>
+      <c r="C19" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="95" t="s">
+      <c r="E19" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="85"/>
-      <c r="G19" s="97"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="80">
+      <c r="F19" s="95"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="J19" s="80"/>
+    </row>
+    <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="73">
         <v>0.70833333333333404</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="B20" s="79"/>
+      <c r="C20" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="95" t="s">
+      <c r="D20" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="96"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="97"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="80">
+      <c r="E20" s="101"/>
+      <c r="F20" s="95"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="82"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="80"/>
+    </row>
+    <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="73">
         <v>0.72916666666666696</v>
       </c>
-      <c r="C21" s="94" t="s">
+      <c r="B21" s="79"/>
+      <c r="C21" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="96"/>
-      <c r="E21" s="51" t="s">
+      <c r="D21" s="79"/>
+      <c r="E21" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="85"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="96"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="80">
+      <c r="F21" s="95"/>
+      <c r="G21" s="82"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="80"/>
+    </row>
+    <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="73">
         <v>0.75</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="51" t="s">
+      <c r="B22" s="79"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="79"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="92" t="s">
+      <c r="E22" s="72"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="80">
+      <c r="I22" s="83"/>
+      <c r="J22" s="80"/>
+    </row>
+    <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73">
         <v>0.77083333333333404</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="51" t="s">
+      <c r="B23" s="79"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="79"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="96"/>
-      <c r="H23" s="93" t="s">
+      <c r="E23" s="72"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="80">
+      <c r="I23" s="81" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="80"/>
+    </row>
+    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73">
         <v>0.79166666666666696</v>
       </c>
-      <c r="C24" s="51" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="80">
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
+      <c r="I24" s="83"/>
+      <c r="J24" s="80"/>
+    </row>
+    <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73">
         <v>0.8125</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="80">
+      <c r="B25" s="79"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="80"/>
+    </row>
+    <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73">
         <v>0.83333333333333304</v>
       </c>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="80">
+      <c r="B26" s="79"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="80"/>
+    </row>
+    <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73">
         <v>0.85416666666666596</v>
       </c>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-      <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="82">
+      <c r="B27" s="79"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="72"/>
+      <c r="J27" s="80"/>
+    </row>
+    <row r="28" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="107">
         <v>0.874999999999999</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="79"/>
-      <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="86"/>
-    </row>
-    <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="86"/>
-    </row>
-    <row r="31" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="86"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="103"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="93"/>
+    </row>
+    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="104"/>
+      <c r="E29" s="104"/>
+      <c r="F29" s="87"/>
+    </row>
+    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="87"/>
+    </row>
+    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C9:C11"/>
     <mergeCell ref="H5:H8"/>
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G4:G8"/>
@@ -2797,19 +3050,943 @@
     <mergeCell ref="H9:H13"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="H17:H21"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="105.7109375" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+    <col min="2" max="3" width="105.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="69">
+        <v>44762</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="86"/>
+      <c r="AE1" s="86"/>
+      <c r="AF1" s="86"/>
+      <c r="AG1" s="86"/>
+      <c r="AH1" s="86"/>
+    </row>
+    <row r="2" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="87" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="89"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="90"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="90"/>
+      <c r="Q2" s="90"/>
+      <c r="R2" s="90"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="90"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
+      <c r="Z2" s="90"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="90"/>
+      <c r="AC2" s="90"/>
+      <c r="AD2" s="86"/>
+      <c r="AE2" s="86"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="86"/>
+      <c r="AH2" s="86"/>
+    </row>
+    <row r="3" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="85"/>
+      <c r="B3" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="89"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="R3" s="90"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90"/>
+      <c r="U3" s="90"/>
+      <c r="V3" s="90"/>
+      <c r="W3" s="90"/>
+      <c r="X3" s="90"/>
+      <c r="Y3" s="90"/>
+      <c r="Z3" s="90"/>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="86"/>
+      <c r="AE3" s="86"/>
+      <c r="AF3" s="86"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="86"/>
+    </row>
+    <row r="4" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="85"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="90"/>
+      <c r="W4" s="90"/>
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AD4" s="86"/>
+      <c r="AE4" s="86"/>
+      <c r="AF4" s="86"/>
+      <c r="AG4" s="86"/>
+      <c r="AH4" s="86"/>
+    </row>
+    <row r="5" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="85"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+    </row>
+    <row r="6" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="85"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+    </row>
+    <row r="7" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="85"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+    </row>
+    <row r="8" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="85"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="H8" s="87"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="86"/>
+      <c r="AE8" s="86"/>
+      <c r="AF8" s="86"/>
+      <c r="AG8" s="86"/>
+      <c r="AH8" s="86"/>
+    </row>
+    <row r="9" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="85"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+      <c r="L9" s="87"/>
+      <c r="M9" s="87"/>
+      <c r="N9" s="87"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="87"/>
+      <c r="Y9" s="87"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="86"/>
+      <c r="AE9" s="86"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="86"/>
+      <c r="AH9" s="86"/>
+    </row>
+    <row r="10" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="85"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="87"/>
+      <c r="L10" s="87"/>
+      <c r="M10" s="87"/>
+      <c r="N10" s="87"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="87"/>
+      <c r="Y10" s="87"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="86"/>
+      <c r="AE10" s="86"/>
+      <c r="AF10" s="86"/>
+      <c r="AG10" s="86"/>
+      <c r="AH10" s="86"/>
+    </row>
+    <row r="11" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="85"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="90"/>
+      <c r="L11" s="90"/>
+      <c r="M11" s="90"/>
+      <c r="N11" s="90"/>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="R11" s="90"/>
+      <c r="S11" s="90"/>
+      <c r="T11" s="90"/>
+      <c r="U11" s="90"/>
+      <c r="V11" s="90"/>
+      <c r="W11" s="90"/>
+      <c r="X11" s="90"/>
+      <c r="Y11" s="90"/>
+      <c r="Z11" s="90"/>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AD11" s="86"/>
+      <c r="AE11" s="86"/>
+      <c r="AF11" s="86"/>
+      <c r="AG11" s="86"/>
+      <c r="AH11" s="86"/>
+    </row>
+    <row r="12" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="85"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="90"/>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="R12" s="90"/>
+      <c r="S12" s="90"/>
+      <c r="T12" s="90"/>
+      <c r="U12" s="90"/>
+      <c r="V12" s="90"/>
+      <c r="W12" s="90"/>
+      <c r="X12" s="90"/>
+      <c r="Y12" s="90"/>
+      <c r="Z12" s="90"/>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="90"/>
+      <c r="AD12" s="86"/>
+      <c r="AE12" s="86"/>
+      <c r="AF12" s="86"/>
+      <c r="AG12" s="86"/>
+      <c r="AH12" s="86"/>
+    </row>
+    <row r="13" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="85"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="87"/>
+      <c r="K13" s="87"/>
+      <c r="L13" s="87"/>
+      <c r="M13" s="87"/>
+      <c r="N13" s="87"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="87"/>
+      <c r="Y13" s="87"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="86"/>
+      <c r="AE13" s="86"/>
+      <c r="AF13" s="86"/>
+      <c r="AG13" s="86"/>
+      <c r="AH13" s="86"/>
+    </row>
+    <row r="14" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="85"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="87"/>
+      <c r="Y14" s="87"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="86"/>
+      <c r="AE14" s="86"/>
+      <c r="AF14" s="86"/>
+      <c r="AG14" s="86"/>
+      <c r="AH14" s="86"/>
+    </row>
+    <row r="15" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="85"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
+      <c r="S15" s="87"/>
+      <c r="T15" s="87"/>
+      <c r="U15" s="87"/>
+      <c r="V15" s="87"/>
+      <c r="W15" s="87"/>
+      <c r="X15" s="87"/>
+      <c r="Y15" s="87"/>
+      <c r="Z15" s="87"/>
+      <c r="AA15" s="87"/>
+      <c r="AB15" s="87"/>
+      <c r="AC15" s="87"/>
+      <c r="AD15" s="86"/>
+      <c r="AE15" s="86"/>
+      <c r="AF15" s="86"/>
+      <c r="AG15" s="86"/>
+      <c r="AH15" s="86"/>
+    </row>
+    <row r="16" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="85"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
+      <c r="O16" s="87"/>
+      <c r="P16" s="87"/>
+      <c r="Q16" s="87"/>
+      <c r="R16" s="87"/>
+      <c r="S16" s="87"/>
+      <c r="T16" s="87"/>
+      <c r="U16" s="87"/>
+      <c r="V16" s="87"/>
+      <c r="W16" s="87"/>
+      <c r="X16" s="87"/>
+      <c r="Y16" s="87"/>
+      <c r="Z16" s="87"/>
+      <c r="AA16" s="87"/>
+      <c r="AB16" s="87"/>
+      <c r="AC16" s="87"/>
+      <c r="AD16" s="86"/>
+      <c r="AE16" s="86"/>
+      <c r="AF16" s="86"/>
+      <c r="AG16" s="86"/>
+      <c r="AH16" s="86"/>
+    </row>
+    <row r="17" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="85"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
+      <c r="N17" s="90"/>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="R17" s="90"/>
+      <c r="S17" s="90"/>
+      <c r="T17" s="90"/>
+      <c r="U17" s="90"/>
+      <c r="V17" s="90"/>
+      <c r="W17" s="90"/>
+      <c r="X17" s="90"/>
+      <c r="Y17" s="90"/>
+      <c r="Z17" s="90"/>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="90"/>
+      <c r="AD17" s="86"/>
+      <c r="AE17" s="86"/>
+      <c r="AF17" s="86"/>
+      <c r="AG17" s="86"/>
+      <c r="AH17" s="86"/>
+    </row>
+    <row r="18" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="87"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="87"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="87"/>
+      <c r="L18" s="87"/>
+      <c r="M18" s="87"/>
+      <c r="N18" s="87"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
+      <c r="R18" s="87"/>
+      <c r="S18" s="87"/>
+      <c r="T18" s="87"/>
+      <c r="U18" s="87"/>
+      <c r="V18" s="87"/>
+      <c r="W18" s="87"/>
+      <c r="X18" s="87"/>
+      <c r="Y18" s="87"/>
+      <c r="Z18" s="87"/>
+      <c r="AA18" s="87"/>
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="87"/>
+      <c r="AD18" s="86"/>
+      <c r="AE18" s="86"/>
+      <c r="AF18" s="86"/>
+      <c r="AG18" s="86"/>
+      <c r="AH18" s="86"/>
+    </row>
+    <row r="19" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="87"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="87"/>
+      <c r="J19" s="87"/>
+      <c r="K19" s="87"/>
+      <c r="L19" s="87"/>
+      <c r="M19" s="87"/>
+      <c r="N19" s="87"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
+      <c r="R19" s="87"/>
+      <c r="S19" s="87"/>
+      <c r="T19" s="87"/>
+      <c r="U19" s="87"/>
+      <c r="V19" s="87"/>
+      <c r="W19" s="87"/>
+      <c r="X19" s="87"/>
+      <c r="Y19" s="87"/>
+      <c r="Z19" s="87"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="87"/>
+      <c r="AD19" s="86"/>
+      <c r="AE19" s="86"/>
+      <c r="AF19" s="86"/>
+      <c r="AG19" s="86"/>
+      <c r="AH19" s="86"/>
+    </row>
+    <row r="20" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="90"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="90"/>
+      <c r="K20" s="90"/>
+      <c r="L20" s="90"/>
+      <c r="M20" s="90"/>
+      <c r="N20" s="90"/>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="R20" s="90"/>
+      <c r="S20" s="90"/>
+      <c r="T20" s="90"/>
+      <c r="U20" s="90"/>
+      <c r="V20" s="90"/>
+      <c r="W20" s="90"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="90"/>
+      <c r="AD20" s="86"/>
+      <c r="AE20" s="86"/>
+      <c r="AF20" s="86"/>
+      <c r="AG20" s="86"/>
+      <c r="AH20" s="86"/>
+    </row>
+    <row r="21" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="87"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+      <c r="R21" s="90"/>
+      <c r="S21" s="90"/>
+      <c r="T21" s="90"/>
+      <c r="U21" s="90"/>
+      <c r="V21" s="90"/>
+      <c r="W21" s="90"/>
+      <c r="X21" s="90"/>
+      <c r="Y21" s="90"/>
+      <c r="Z21" s="90"/>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="86"/>
+      <c r="AE21" s="86"/>
+      <c r="AF21" s="86"/>
+      <c r="AG21" s="86"/>
+      <c r="AH21" s="86"/>
+    </row>
+    <row r="22" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="87"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="90"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="90"/>
+      <c r="K22" s="90"/>
+      <c r="L22" s="90"/>
+      <c r="M22" s="90"/>
+      <c r="N22" s="90"/>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="R22" s="90"/>
+      <c r="S22" s="90"/>
+      <c r="T22" s="90"/>
+      <c r="U22" s="90"/>
+      <c r="V22" s="90"/>
+      <c r="W22" s="90"/>
+      <c r="X22" s="90"/>
+      <c r="Y22" s="90"/>
+      <c r="Z22" s="90"/>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="90"/>
+      <c r="AD22" s="86"/>
+      <c r="AE22" s="86"/>
+      <c r="AF22" s="86"/>
+      <c r="AG22" s="86"/>
+      <c r="AH22" s="86"/>
+    </row>
+    <row r="23" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="87"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="90"/>
+      <c r="K23" s="90"/>
+      <c r="L23" s="90"/>
+      <c r="M23" s="90"/>
+      <c r="N23" s="90"/>
+      <c r="O23" s="90"/>
+      <c r="P23" s="90"/>
+      <c r="Q23" s="90"/>
+      <c r="R23" s="90"/>
+      <c r="S23" s="90"/>
+      <c r="T23" s="90"/>
+      <c r="U23" s="90"/>
+      <c r="V23" s="90"/>
+      <c r="W23" s="90"/>
+      <c r="X23" s="90"/>
+      <c r="Y23" s="90"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="90"/>
+      <c r="AB23" s="90"/>
+      <c r="AC23" s="90"/>
+      <c r="AD23" s="86"/>
+      <c r="AE23" s="86"/>
+      <c r="AF23" s="86"/>
+      <c r="AG23" s="86"/>
+      <c r="AH23" s="86"/>
+    </row>
+    <row r="24" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="87"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="90"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="90"/>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="R24" s="90"/>
+      <c r="S24" s="90"/>
+      <c r="T24" s="90"/>
+      <c r="U24" s="90"/>
+      <c r="V24" s="86"/>
+      <c r="W24" s="86"/>
+      <c r="X24" s="86"/>
+      <c r="Y24" s="86"/>
+      <c r="Z24" s="86"/>
+      <c r="AA24" s="86"/>
+      <c r="AB24" s="86"/>
+      <c r="AC24" s="86"/>
+      <c r="AD24" s="86"/>
+      <c r="AE24" s="86"/>
+      <c r="AF24" s="86"/>
+      <c r="AG24" s="86"/>
+      <c r="AH24" s="86"/>
+    </row>
+    <row r="25" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="87"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="90"/>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="R25" s="90"/>
+      <c r="S25" s="90"/>
+      <c r="T25" s="90"/>
+      <c r="U25" s="90"/>
+      <c r="V25" s="86"/>
+      <c r="W25" s="86"/>
+      <c r="X25" s="86"/>
+      <c r="Y25" s="86"/>
+    </row>
+    <row r="26" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="87"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+      <c r="J26" s="90"/>
+      <c r="K26" s="90"/>
+      <c r="L26" s="90"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="90"/>
+      <c r="O26" s="90"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="90"/>
+      <c r="R26" s="90"/>
+      <c r="S26" s="90"/>
+      <c r="T26" s="90"/>
+      <c r="U26" s="90"/>
+      <c r="V26" s="86"/>
+      <c r="W26" s="86"/>
+      <c r="X26" s="86"/>
+      <c r="Y26" s="86"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
   <si>
     <t>Felmerült problémák:</t>
   </si>
@@ -251,6 +251,15 @@
   </si>
   <si>
     <t>research</t>
+  </si>
+  <si>
+    <t>elkezdtem a fish segmentation t</t>
+  </si>
+  <si>
+    <t>lehet kéne kicsit research-elnem a segmentationt</t>
+  </si>
+  <si>
+    <t>wiener2?</t>
   </si>
 </sst>
 </file>
@@ -1029,6 +1038,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,49 +1114,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1090,31 +1123,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1399,8 +1408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AY21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1595,7 +1604,9 @@
       <c r="I2" s="13">
         <v>0.39583333333333331</v>
       </c>
-      <c r="J2" s="13"/>
+      <c r="J2" s="13">
+        <v>0.37222222222222223</v>
+      </c>
       <c r="K2" s="14"/>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
@@ -1663,7 +1674,7 @@
         <v>0.78125</v>
       </c>
       <c r="I3" s="16">
-        <v>0.81597222222222221</v>
+        <v>0.81458333333333333</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="17"/>
@@ -1740,11 +1751,11 @@
       </c>
       <c r="I4" s="63">
         <f t="shared" si="0"/>
-        <v>0.4201388888888889</v>
+        <v>0.41875000000000001</v>
       </c>
       <c r="J4" s="63">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.37222222222222223</v>
       </c>
       <c r="K4" s="63">
         <f t="shared" si="0"/>
@@ -1925,7 +1936,9 @@
         <v>59</v>
       </c>
       <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
+      <c r="J5" s="19" t="s">
+        <v>75</v>
+      </c>
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
@@ -1955,7 +1968,9 @@
         <v>60</v>
       </c>
       <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
+      <c r="J6" s="19" t="s">
+        <v>76</v>
+      </c>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
@@ -2060,10 +2075,12 @@
       <c r="H10" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="84" t="s">
+      <c r="I10" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="38"/>
+      <c r="J10" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
@@ -2357,18 +2374,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="74" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="96" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="105" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="96" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" style="105" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="96" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="92" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="92" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="92" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.28515625" style="1"/>
     <col min="9" max="9" width="44" style="1" bestFit="1" customWidth="1"/>
@@ -2523,53 +2540,53 @@
       </c>
     </row>
     <row r="2" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="106">
+      <c r="A2" s="100">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="79"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="98"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="94"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="90"/>
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
-      <c r="J2" s="80"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="73">
         <v>0.35416666666666669</v>
       </c>
       <c r="B3" s="79"/>
-      <c r="C3" s="109"/>
+      <c r="C3" s="103"/>
       <c r="D3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="99" t="s">
+      <c r="E3" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="95"/>
+      <c r="F3" s="91"/>
       <c r="G3" s="80" t="s">
         <v>28</v>
       </c>
       <c r="H3" s="76"/>
       <c r="I3" s="76"/>
-      <c r="J3" s="80"/>
+      <c r="J3" s="76"/>
     </row>
     <row r="4" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
         <v>0.375</v>
       </c>
       <c r="B4" s="79"/>
-      <c r="C4" s="109"/>
+      <c r="C4" s="103"/>
       <c r="D4" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="95" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="G4" s="81" t="s">
+      <c r="F4" s="91"/>
+      <c r="G4" s="104" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="77" t="s">
@@ -2583,17 +2600,17 @@
         <v>0.39583333333333298</v>
       </c>
       <c r="B5" s="79"/>
-      <c r="C5" s="109"/>
+      <c r="C5" s="103"/>
       <c r="D5" s="79"/>
-      <c r="E5" s="99" t="s">
+      <c r="E5" s="95" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="81" t="s">
+      <c r="F5" s="91"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="81" t="s">
+      <c r="I5" s="104" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="80"/>
@@ -2603,17 +2620,17 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="B6" s="79"/>
-      <c r="C6" s="99" t="s">
+      <c r="C6" s="95" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="79"/>
-      <c r="E6" s="100" t="s">
+      <c r="E6" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="83"/>
+      <c r="F6" s="91"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="106"/>
       <c r="J6" s="80"/>
     </row>
     <row r="7" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2621,16 +2638,16 @@
         <v>0.4375</v>
       </c>
       <c r="B7" s="79"/>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="95" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="91"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
       <c r="I7" s="80" t="s">
         <v>69</v>
       </c>
@@ -2641,16 +2658,16 @@
         <v>0.45833333333333298</v>
       </c>
       <c r="B8" s="79"/>
-      <c r="C8" s="99" t="s">
+      <c r="C8" s="95" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="91"/>
-      <c r="F8" s="95"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
       <c r="I8" s="80" t="s">
         <v>70</v>
       </c>
@@ -2661,19 +2678,19 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B9" s="79"/>
-      <c r="C9" s="110" t="s">
+      <c r="C9" s="107" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="79"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="95"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="91"/>
       <c r="G9" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="81" t="s">
+      <c r="H9" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="81" t="s">
+      <c r="I9" s="104" t="s">
         <v>71</v>
       </c>
       <c r="J9" s="80"/>
@@ -2683,17 +2700,17 @@
         <v>0.5</v>
       </c>
       <c r="B10" s="79"/>
-      <c r="C10" s="110"/>
+      <c r="C10" s="107"/>
       <c r="D10" s="79"/>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="95"/>
-      <c r="G10" s="81" t="s">
+      <c r="F10" s="91"/>
+      <c r="G10" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="82"/>
-      <c r="I10" s="82"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
       <c r="J10" s="80"/>
     </row>
     <row r="11" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2701,13 +2718,13 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="B11" s="79"/>
-      <c r="C11" s="110"/>
+      <c r="C11" s="107"/>
       <c r="D11" s="79"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="95"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
       <c r="J11" s="80"/>
     </row>
     <row r="12" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2715,17 +2732,17 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B12" s="79"/>
-      <c r="C12" s="110" t="s">
+      <c r="C12" s="107" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="79"/>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="95" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="95"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="82"/>
+      <c r="F12" s="91"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
       <c r="J12" s="80"/>
     </row>
     <row r="13" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2733,19 +2750,19 @@
         <v>0.5625</v>
       </c>
       <c r="B13" s="79"/>
-      <c r="C13" s="110"/>
+      <c r="C13" s="107"/>
       <c r="D13" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="99" t="s">
+      <c r="E13" s="95" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="95"/>
+      <c r="F13" s="91"/>
       <c r="G13" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="83"/>
-      <c r="I13" s="82"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="105"/>
       <c r="J13" s="80"/>
     </row>
     <row r="14" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2753,21 +2770,21 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="B14" s="79"/>
-      <c r="C14" s="110" t="s">
+      <c r="C14" s="107" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="79"/>
-      <c r="E14" s="100" t="s">
+      <c r="E14" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="95"/>
+      <c r="F14" s="91"/>
       <c r="G14" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="81" t="s">
+      <c r="H14" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="83"/>
+      <c r="I14" s="106"/>
       <c r="J14" s="80"/>
     </row>
     <row r="15" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2775,16 +2792,16 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="B15" s="79"/>
-      <c r="C15" s="110"/>
+      <c r="C15" s="107"/>
       <c r="D15" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="101"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="81" t="s">
+      <c r="E15" s="109"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="82"/>
+      <c r="H15" s="105"/>
       <c r="I15" s="80" t="s">
         <v>21</v>
       </c>
@@ -2795,17 +2812,17 @@
         <v>0.625</v>
       </c>
       <c r="B16" s="79"/>
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="107" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="79"/>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="95"/>
-      <c r="G16" s="82"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="81" t="s">
+      <c r="F16" s="91"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="104" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="80"/>
@@ -2815,17 +2832,17 @@
         <v>0.64583333333333404</v>
       </c>
       <c r="B17" s="79"/>
-      <c r="C17" s="110"/>
+      <c r="C17" s="107"/>
       <c r="D17" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="101"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="82"/>
-      <c r="H17" s="81" t="s">
+      <c r="E17" s="109"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="82"/>
+      <c r="I17" s="105"/>
       <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2833,15 +2850,15 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B18" s="79"/>
-      <c r="C18" s="110"/>
+      <c r="C18" s="107"/>
       <c r="D18" s="79"/>
-      <c r="E18" s="99" t="s">
+      <c r="E18" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="83"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="106"/>
       <c r="J18" s="80"/>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2849,19 +2866,19 @@
         <v>0.6875</v>
       </c>
       <c r="B19" s="79"/>
-      <c r="C19" s="99" t="s">
+      <c r="C19" s="95" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="100" t="s">
+      <c r="E19" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="95"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="82"/>
-      <c r="I19" s="81" t="s">
+      <c r="F19" s="91"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="104" t="s">
         <v>73</v>
       </c>
       <c r="J19" s="80"/>
@@ -2871,17 +2888,17 @@
         <v>0.70833333333333404</v>
       </c>
       <c r="B20" s="79"/>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="95" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="101"/>
-      <c r="F20" s="95"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="83"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="106"/>
       <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2889,17 +2906,17 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="B21" s="79"/>
-      <c r="C21" s="110" t="s">
+      <c r="C21" s="107" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="79"/>
-      <c r="E21" s="99" t="s">
+      <c r="E21" s="95" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="95"/>
-      <c r="G21" s="82"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="81" t="s">
+      <c r="F21" s="91"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="104" t="s">
         <v>70</v>
       </c>
       <c r="J21" s="80"/>
@@ -2909,17 +2926,17 @@
         <v>0.75</v>
       </c>
       <c r="B22" s="79"/>
-      <c r="C22" s="110"/>
+      <c r="C22" s="107"/>
       <c r="D22" s="79" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="72"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="82"/>
+      <c r="F22" s="91"/>
+      <c r="G22" s="105"/>
       <c r="H22" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="83"/>
+      <c r="I22" s="106"/>
       <c r="J22" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2927,17 +2944,17 @@
         <v>0.77083333333333404</v>
       </c>
       <c r="B23" s="79"/>
-      <c r="C23" s="110"/>
+      <c r="C23" s="107"/>
       <c r="D23" s="79" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="72"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="83"/>
+      <c r="F23" s="91"/>
+      <c r="G23" s="106"/>
       <c r="H23" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="81" t="s">
+      <c r="I23" s="104" t="s">
         <v>74</v>
       </c>
       <c r="J23" s="80"/>
@@ -2947,15 +2964,15 @@
         <v>0.79166666666666696</v>
       </c>
       <c r="B24" s="79"/>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="95" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="72"/>
-      <c r="F24" s="95"/>
+      <c r="F24" s="91"/>
       <c r="G24" s="72"/>
       <c r="H24" s="72"/>
-      <c r="I24" s="83"/>
+      <c r="I24" s="106"/>
       <c r="J24" s="80"/>
     </row>
     <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2963,10 +2980,10 @@
         <v>0.8125</v>
       </c>
       <c r="B25" s="79"/>
-      <c r="C25" s="102"/>
+      <c r="C25" s="96"/>
       <c r="D25" s="72"/>
       <c r="E25" s="72"/>
-      <c r="F25" s="95"/>
+      <c r="F25" s="91"/>
       <c r="G25" s="72"/>
       <c r="H25" s="72"/>
       <c r="I25" s="72"/>
@@ -2977,10 +2994,10 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="B26" s="79"/>
-      <c r="C26" s="102"/>
+      <c r="C26" s="96"/>
       <c r="D26" s="72"/>
       <c r="E26" s="72"/>
-      <c r="F26" s="95"/>
+      <c r="F26" s="91"/>
       <c r="G26" s="72"/>
       <c r="H26" s="72"/>
       <c r="I26" s="72"/>
@@ -2991,47 +3008,44 @@
         <v>0.85416666666666596</v>
       </c>
       <c r="B27" s="79"/>
-      <c r="C27" s="102"/>
+      <c r="C27" s="96"/>
       <c r="D27" s="72"/>
       <c r="E27" s="72"/>
-      <c r="F27" s="95"/>
+      <c r="F27" s="91"/>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
       <c r="I27" s="72"/>
       <c r="J27" s="80"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="107">
+      <c r="A28" s="101">
         <v>0.874999999999999</v>
       </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="103"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="97"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="104"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="87"/>
+      <c r="C29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="84"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="87"/>
+      <c r="F30" s="84"/>
     </row>
     <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="87"/>
+      <c r="F31" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H21"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="C21:C23"/>
@@ -3048,8 +3062,11 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="H9:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3074,916 +3091,916 @@
       <c r="A1" s="69">
         <v>44762</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
-      <c r="W1" s="87"/>
-      <c r="X1" s="87"/>
-      <c r="Y1" s="87"/>
-      <c r="Z1" s="87"/>
-      <c r="AA1" s="87"/>
-      <c r="AB1" s="87"/>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="86"/>
-      <c r="AE1" s="86"/>
-      <c r="AF1" s="86"/>
-      <c r="AG1" s="86"/>
-      <c r="AH1" s="86"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AD1" s="83"/>
+      <c r="AE1" s="83"/>
+      <c r="AF1" s="83"/>
+      <c r="AG1" s="83"/>
+      <c r="AH1" s="83"/>
     </row>
     <row r="2" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
-      <c r="R2" s="90"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="90"/>
-      <c r="V2" s="90"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="90"/>
-      <c r="Y2" s="90"/>
-      <c r="Z2" s="90"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="90"/>
-      <c r="AC2" s="90"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="86"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="86"/>
-      <c r="AH2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="87"/>
+      <c r="N2" s="87"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
+      <c r="R2" s="87"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="87"/>
+      <c r="V2" s="87"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="87"/>
+      <c r="Y2" s="87"/>
+      <c r="Z2" s="87"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="87"/>
+      <c r="AC2" s="87"/>
+      <c r="AD2" s="83"/>
+      <c r="AE2" s="83"/>
+      <c r="AF2" s="83"/>
+      <c r="AG2" s="83"/>
+      <c r="AH2" s="83"/>
     </row>
     <row r="3" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
-      <c r="B3" s="87" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="90"/>
-      <c r="P3" s="90"/>
-      <c r="Q3" s="90"/>
-      <c r="R3" s="90"/>
-      <c r="S3" s="90"/>
-      <c r="T3" s="90"/>
-      <c r="U3" s="90"/>
-      <c r="V3" s="90"/>
-      <c r="W3" s="90"/>
-      <c r="X3" s="90"/>
-      <c r="Y3" s="90"/>
-      <c r="Z3" s="90"/>
-      <c r="AA3" s="90"/>
-      <c r="AB3" s="90"/>
-      <c r="AC3" s="90"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="86"/>
-      <c r="AF3" s="86"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="87"/>
+      <c r="W3" s="87"/>
+      <c r="X3" s="87"/>
+      <c r="Y3" s="87"/>
+      <c r="Z3" s="87"/>
+      <c r="AA3" s="87"/>
+      <c r="AB3" s="87"/>
+      <c r="AC3" s="87"/>
+      <c r="AD3" s="83"/>
+      <c r="AE3" s="83"/>
+      <c r="AF3" s="83"/>
+      <c r="AG3" s="83"/>
+      <c r="AH3" s="83"/>
     </row>
     <row r="4" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="90"/>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="90"/>
-      <c r="W4" s="90"/>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="90"/>
-      <c r="AD4" s="86"/>
-      <c r="AE4" s="86"/>
-      <c r="AF4" s="86"/>
-      <c r="AG4" s="86"/>
-      <c r="AH4" s="86"/>
+      <c r="A4" s="82"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="87"/>
+      <c r="P4" s="87"/>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="87"/>
+      <c r="W4" s="87"/>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="87"/>
+      <c r="AD4" s="83"/>
+      <c r="AE4" s="83"/>
+      <c r="AF4" s="83"/>
+      <c r="AG4" s="83"/>
+      <c r="AH4" s="83"/>
     </row>
     <row r="5" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86"/>
-      <c r="AF5" s="86"/>
-      <c r="AG5" s="86"/>
-      <c r="AH5" s="86"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
     </row>
     <row r="6" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="H6" s="87"/>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
     </row>
     <row r="7" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="90"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
-      <c r="J7" s="87"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="86"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="S7" s="84"/>
+      <c r="T7" s="84"/>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="84"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
     </row>
     <row r="8" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="87"/>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="87"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="86"/>
-      <c r="AE8" s="86"/>
-      <c r="AF8" s="86"/>
-      <c r="AG8" s="86"/>
-      <c r="AH8" s="86"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="84"/>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="83"/>
+      <c r="AE8" s="83"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="83"/>
+      <c r="AH8" s="83"/>
     </row>
     <row r="9" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="87"/>
-      <c r="Y9" s="87"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="86"/>
-      <c r="AE9" s="86"/>
-      <c r="AF9" s="86"/>
-      <c r="AG9" s="86"/>
-      <c r="AH9" s="86"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="S9" s="84"/>
+      <c r="T9" s="84"/>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="84"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
     </row>
     <row r="10" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="87"/>
-      <c r="L10" s="87"/>
-      <c r="M10" s="87"/>
-      <c r="N10" s="87"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="87"/>
-      <c r="Y10" s="87"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="86"/>
-      <c r="AE10" s="86"/>
-      <c r="AF10" s="86"/>
-      <c r="AG10" s="86"/>
-      <c r="AH10" s="86"/>
+      <c r="A10" s="82"/>
+      <c r="B10" s="84"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="84"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="84"/>
+      <c r="N10" s="84"/>
+      <c r="O10" s="84"/>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="S10" s="84"/>
+      <c r="T10" s="84"/>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="84"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="83"/>
+      <c r="AE10" s="83"/>
+      <c r="AF10" s="83"/>
+      <c r="AG10" s="83"/>
+      <c r="AH10" s="83"/>
     </row>
     <row r="11" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="90"/>
-      <c r="J11" s="90"/>
-      <c r="K11" s="90"/>
-      <c r="L11" s="90"/>
-      <c r="M11" s="90"/>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="90"/>
-      <c r="W11" s="90"/>
-      <c r="X11" s="90"/>
-      <c r="Y11" s="90"/>
-      <c r="Z11" s="90"/>
-      <c r="AA11" s="90"/>
-      <c r="AB11" s="90"/>
-      <c r="AC11" s="90"/>
-      <c r="AD11" s="86"/>
-      <c r="AE11" s="86"/>
-      <c r="AF11" s="86"/>
-      <c r="AG11" s="86"/>
-      <c r="AH11" s="86"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="84"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="87"/>
+      <c r="K11" s="87"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="87"/>
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="83"/>
+      <c r="AE11" s="83"/>
+      <c r="AF11" s="83"/>
+      <c r="AG11" s="83"/>
+      <c r="AH11" s="83"/>
     </row>
     <row r="12" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
-      <c r="B12" s="87"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="90"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="90"/>
-      <c r="O12" s="90"/>
-      <c r="P12" s="90"/>
-      <c r="Q12" s="90"/>
-      <c r="R12" s="90"/>
-      <c r="S12" s="90"/>
-      <c r="T12" s="90"/>
-      <c r="U12" s="90"/>
-      <c r="V12" s="90"/>
-      <c r="W12" s="90"/>
-      <c r="X12" s="90"/>
-      <c r="Y12" s="90"/>
-      <c r="Z12" s="90"/>
-      <c r="AA12" s="90"/>
-      <c r="AB12" s="90"/>
-      <c r="AC12" s="90"/>
-      <c r="AD12" s="86"/>
-      <c r="AE12" s="86"/>
-      <c r="AF12" s="86"/>
-      <c r="AG12" s="86"/>
-      <c r="AH12" s="86"/>
+      <c r="A12" s="82"/>
+      <c r="B12" s="84"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="84"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="87"/>
+      <c r="M12" s="87"/>
+      <c r="N12" s="87"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="87"/>
+      <c r="Y12" s="87"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="83"/>
+      <c r="AE12" s="83"/>
+      <c r="AF12" s="83"/>
+      <c r="AG12" s="83"/>
+      <c r="AH12" s="83"/>
     </row>
     <row r="13" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-      <c r="K13" s="87"/>
-      <c r="L13" s="87"/>
-      <c r="M13" s="87"/>
-      <c r="N13" s="87"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="87"/>
-      <c r="Y13" s="87"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="86"/>
-      <c r="AE13" s="86"/>
-      <c r="AF13" s="86"/>
-      <c r="AG13" s="86"/>
-      <c r="AH13" s="86"/>
+      <c r="A13" s="82"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="84"/>
+      <c r="E13" s="84"/>
+      <c r="F13" s="84"/>
+      <c r="G13" s="84"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="84"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="S13" s="84"/>
+      <c r="T13" s="84"/>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="84"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="83"/>
+      <c r="AE13" s="83"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="83"/>
+      <c r="AH13" s="83"/>
     </row>
     <row r="14" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="87"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="87"/>
-      <c r="Y14" s="87"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="86"/>
-      <c r="AG14" s="86"/>
-      <c r="AH14" s="86"/>
+      <c r="A14" s="82"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="S14" s="84"/>
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="84"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="83"/>
+      <c r="AE14" s="83"/>
+      <c r="AF14" s="83"/>
+      <c r="AG14" s="83"/>
+      <c r="AH14" s="83"/>
     </row>
     <row r="15" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="87"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="87"/>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="87"/>
-      <c r="Q15" s="87"/>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="87"/>
-      <c r="X15" s="87"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="86"/>
-      <c r="AE15" s="86"/>
-      <c r="AF15" s="86"/>
-      <c r="AG15" s="86"/>
-      <c r="AH15" s="86"/>
+      <c r="A15" s="82"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="84"/>
+      <c r="O15" s="84"/>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="S15" s="84"/>
+      <c r="T15" s="84"/>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="84"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="83"/>
+      <c r="AE15" s="83"/>
+      <c r="AF15" s="83"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="83"/>
     </row>
     <row r="16" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
-      <c r="B16" s="87"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="87"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="87"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="87"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="87"/>
-      <c r="Q16" s="87"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="87"/>
-      <c r="X16" s="87"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="86"/>
-      <c r="AE16" s="86"/>
-      <c r="AF16" s="86"/>
-      <c r="AG16" s="86"/>
-      <c r="AH16" s="86"/>
+      <c r="A16" s="82"/>
+      <c r="B16" s="84"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="84"/>
+      <c r="F16" s="84"/>
+      <c r="G16" s="84"/>
+      <c r="H16" s="84"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="84"/>
+      <c r="M16" s="84"/>
+      <c r="N16" s="84"/>
+      <c r="O16" s="84"/>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="S16" s="84"/>
+      <c r="T16" s="84"/>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="83"/>
+      <c r="AE16" s="83"/>
+      <c r="AF16" s="83"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="83"/>
     </row>
     <row r="17" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90"/>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
-      <c r="N17" s="90"/>
-      <c r="O17" s="90"/>
-      <c r="P17" s="90"/>
-      <c r="Q17" s="90"/>
-      <c r="R17" s="90"/>
-      <c r="S17" s="90"/>
-      <c r="T17" s="90"/>
-      <c r="U17" s="90"/>
-      <c r="V17" s="90"/>
-      <c r="W17" s="90"/>
-      <c r="X17" s="90"/>
-      <c r="Y17" s="90"/>
-      <c r="Z17" s="90"/>
-      <c r="AA17" s="90"/>
-      <c r="AB17" s="90"/>
-      <c r="AC17" s="90"/>
-      <c r="AD17" s="86"/>
-      <c r="AE17" s="86"/>
-      <c r="AF17" s="86"/>
-      <c r="AG17" s="86"/>
-      <c r="AH17" s="86"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="87"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="87"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
+      <c r="O17" s="87"/>
+      <c r="P17" s="87"/>
+      <c r="Q17" s="87"/>
+      <c r="R17" s="87"/>
+      <c r="S17" s="87"/>
+      <c r="T17" s="87"/>
+      <c r="U17" s="87"/>
+      <c r="V17" s="87"/>
+      <c r="W17" s="87"/>
+      <c r="X17" s="87"/>
+      <c r="Y17" s="87"/>
+      <c r="Z17" s="87"/>
+      <c r="AA17" s="87"/>
+      <c r="AB17" s="87"/>
+      <c r="AC17" s="87"/>
+      <c r="AD17" s="83"/>
+      <c r="AE17" s="83"/>
+      <c r="AF17" s="83"/>
+      <c r="AG17" s="83"/>
+      <c r="AH17" s="83"/>
     </row>
     <row r="18" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
-      <c r="B18" s="87"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
-      <c r="J18" s="87"/>
-      <c r="K18" s="87"/>
-      <c r="L18" s="87"/>
-      <c r="M18" s="87"/>
-      <c r="N18" s="87"/>
-      <c r="O18" s="87"/>
-      <c r="P18" s="87"/>
-      <c r="Q18" s="87"/>
-      <c r="R18" s="87"/>
-      <c r="S18" s="87"/>
-      <c r="T18" s="87"/>
-      <c r="U18" s="87"/>
-      <c r="V18" s="87"/>
-      <c r="W18" s="87"/>
-      <c r="X18" s="87"/>
-      <c r="Y18" s="87"/>
-      <c r="Z18" s="87"/>
-      <c r="AA18" s="87"/>
-      <c r="AB18" s="87"/>
-      <c r="AC18" s="87"/>
-      <c r="AD18" s="86"/>
-      <c r="AE18" s="86"/>
-      <c r="AF18" s="86"/>
-      <c r="AG18" s="86"/>
-      <c r="AH18" s="86"/>
+      <c r="A18" s="82"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+      <c r="H18" s="84"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="84"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="84"/>
+      <c r="O18" s="84"/>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="S18" s="84"/>
+      <c r="T18" s="84"/>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="84"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="83"/>
+      <c r="AE18" s="83"/>
+      <c r="AF18" s="83"/>
+      <c r="AG18" s="83"/>
+      <c r="AH18" s="83"/>
     </row>
     <row r="19" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="87"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="87"/>
-      <c r="J19" s="87"/>
-      <c r="K19" s="87"/>
-      <c r="L19" s="87"/>
-      <c r="M19" s="87"/>
-      <c r="N19" s="87"/>
-      <c r="O19" s="87"/>
-      <c r="P19" s="87"/>
-      <c r="Q19" s="87"/>
-      <c r="R19" s="87"/>
-      <c r="S19" s="87"/>
-      <c r="T19" s="87"/>
-      <c r="U19" s="87"/>
-      <c r="V19" s="87"/>
-      <c r="W19" s="87"/>
-      <c r="X19" s="87"/>
-      <c r="Y19" s="87"/>
-      <c r="Z19" s="87"/>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
-      <c r="AC19" s="87"/>
-      <c r="AD19" s="86"/>
-      <c r="AE19" s="86"/>
-      <c r="AF19" s="86"/>
-      <c r="AG19" s="86"/>
-      <c r="AH19" s="86"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="84"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="84"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="84"/>
+      <c r="O19" s="84"/>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="S19" s="84"/>
+      <c r="T19" s="84"/>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="84"/>
+      <c r="AA19" s="84"/>
+      <c r="AB19" s="84"/>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="83"/>
+      <c r="AE19" s="83"/>
+      <c r="AF19" s="83"/>
+      <c r="AG19" s="83"/>
+      <c r="AH19" s="83"/>
     </row>
     <row r="20" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="87"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="90"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="90"/>
-      <c r="J20" s="90"/>
-      <c r="K20" s="90"/>
-      <c r="L20" s="90"/>
-      <c r="M20" s="90"/>
-      <c r="N20" s="90"/>
-      <c r="O20" s="90"/>
-      <c r="P20" s="90"/>
-      <c r="Q20" s="90"/>
-      <c r="R20" s="90"/>
-      <c r="S20" s="90"/>
-      <c r="T20" s="90"/>
-      <c r="U20" s="90"/>
-      <c r="V20" s="90"/>
-      <c r="W20" s="90"/>
-      <c r="X20" s="90"/>
-      <c r="Y20" s="90"/>
-      <c r="Z20" s="90"/>
-      <c r="AA20" s="90"/>
-      <c r="AB20" s="90"/>
-      <c r="AC20" s="90"/>
-      <c r="AD20" s="86"/>
-      <c r="AE20" s="86"/>
-      <c r="AF20" s="86"/>
-      <c r="AG20" s="86"/>
-      <c r="AH20" s="86"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="87"/>
+      <c r="J20" s="87"/>
+      <c r="K20" s="87"/>
+      <c r="L20" s="87"/>
+      <c r="M20" s="87"/>
+      <c r="N20" s="87"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
+      <c r="R20" s="87"/>
+      <c r="S20" s="87"/>
+      <c r="T20" s="87"/>
+      <c r="U20" s="87"/>
+      <c r="V20" s="87"/>
+      <c r="W20" s="87"/>
+      <c r="X20" s="87"/>
+      <c r="Y20" s="87"/>
+      <c r="Z20" s="87"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="87"/>
+      <c r="AC20" s="87"/>
+      <c r="AD20" s="83"/>
+      <c r="AE20" s="83"/>
+      <c r="AF20" s="83"/>
+      <c r="AG20" s="83"/>
+      <c r="AH20" s="83"/>
     </row>
     <row r="21" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="87"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="90"/>
-      <c r="Q21" s="90"/>
-      <c r="R21" s="90"/>
-      <c r="S21" s="90"/>
-      <c r="T21" s="90"/>
-      <c r="U21" s="90"/>
-      <c r="V21" s="90"/>
-      <c r="W21" s="90"/>
-      <c r="X21" s="90"/>
-      <c r="Y21" s="90"/>
-      <c r="Z21" s="90"/>
-      <c r="AA21" s="90"/>
-      <c r="AB21" s="90"/>
-      <c r="AC21" s="90"/>
-      <c r="AD21" s="86"/>
-      <c r="AE21" s="86"/>
-      <c r="AF21" s="86"/>
-      <c r="AG21" s="86"/>
-      <c r="AH21" s="86"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="87"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="87"/>
+      <c r="J21" s="87"/>
+      <c r="K21" s="87"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="87"/>
+      <c r="N21" s="87"/>
+      <c r="O21" s="87"/>
+      <c r="P21" s="87"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
+      <c r="S21" s="87"/>
+      <c r="T21" s="87"/>
+      <c r="U21" s="87"/>
+      <c r="V21" s="87"/>
+      <c r="W21" s="87"/>
+      <c r="X21" s="87"/>
+      <c r="Y21" s="87"/>
+      <c r="Z21" s="87"/>
+      <c r="AA21" s="87"/>
+      <c r="AB21" s="87"/>
+      <c r="AC21" s="87"/>
+      <c r="AD21" s="83"/>
+      <c r="AE21" s="83"/>
+      <c r="AF21" s="83"/>
+      <c r="AG21" s="83"/>
+      <c r="AH21" s="83"/>
     </row>
     <row r="22" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="87"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="90"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="90"/>
-      <c r="J22" s="90"/>
-      <c r="K22" s="90"/>
-      <c r="L22" s="90"/>
-      <c r="M22" s="90"/>
-      <c r="N22" s="90"/>
-      <c r="O22" s="90"/>
-      <c r="P22" s="90"/>
-      <c r="Q22" s="90"/>
-      <c r="R22" s="90"/>
-      <c r="S22" s="90"/>
-      <c r="T22" s="90"/>
-      <c r="U22" s="90"/>
-      <c r="V22" s="90"/>
-      <c r="W22" s="90"/>
-      <c r="X22" s="90"/>
-      <c r="Y22" s="90"/>
-      <c r="Z22" s="90"/>
-      <c r="AA22" s="90"/>
-      <c r="AB22" s="90"/>
-      <c r="AC22" s="90"/>
-      <c r="AD22" s="86"/>
-      <c r="AE22" s="86"/>
-      <c r="AF22" s="86"/>
-      <c r="AG22" s="86"/>
-      <c r="AH22" s="86"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="87"/>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87"/>
+      <c r="L22" s="87"/>
+      <c r="M22" s="87"/>
+      <c r="N22" s="87"/>
+      <c r="O22" s="87"/>
+      <c r="P22" s="87"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
+      <c r="S22" s="87"/>
+      <c r="T22" s="87"/>
+      <c r="U22" s="87"/>
+      <c r="V22" s="87"/>
+      <c r="W22" s="87"/>
+      <c r="X22" s="87"/>
+      <c r="Y22" s="87"/>
+      <c r="Z22" s="87"/>
+      <c r="AA22" s="87"/>
+      <c r="AB22" s="87"/>
+      <c r="AC22" s="87"/>
+      <c r="AD22" s="83"/>
+      <c r="AE22" s="83"/>
+      <c r="AF22" s="83"/>
+      <c r="AG22" s="83"/>
+      <c r="AH22" s="83"/>
     </row>
     <row r="23" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="87"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="90"/>
-      <c r="J23" s="90"/>
-      <c r="K23" s="90"/>
-      <c r="L23" s="90"/>
-      <c r="M23" s="90"/>
-      <c r="N23" s="90"/>
-      <c r="O23" s="90"/>
-      <c r="P23" s="90"/>
-      <c r="Q23" s="90"/>
-      <c r="R23" s="90"/>
-      <c r="S23" s="90"/>
-      <c r="T23" s="90"/>
-      <c r="U23" s="90"/>
-      <c r="V23" s="90"/>
-      <c r="W23" s="90"/>
-      <c r="X23" s="90"/>
-      <c r="Y23" s="90"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="90"/>
-      <c r="AB23" s="90"/>
-      <c r="AC23" s="90"/>
-      <c r="AD23" s="86"/>
-      <c r="AE23" s="86"/>
-      <c r="AF23" s="86"/>
-      <c r="AG23" s="86"/>
-      <c r="AH23" s="86"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="87"/>
+      <c r="K23" s="87"/>
+      <c r="L23" s="87"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="87"/>
+      <c r="P23" s="87"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87"/>
+      <c r="S23" s="87"/>
+      <c r="T23" s="87"/>
+      <c r="U23" s="87"/>
+      <c r="V23" s="87"/>
+      <c r="W23" s="87"/>
+      <c r="X23" s="87"/>
+      <c r="Y23" s="87"/>
+      <c r="Z23" s="87"/>
+      <c r="AA23" s="87"/>
+      <c r="AB23" s="87"/>
+      <c r="AC23" s="87"/>
+      <c r="AD23" s="83"/>
+      <c r="AE23" s="83"/>
+      <c r="AF23" s="83"/>
+      <c r="AG23" s="83"/>
+      <c r="AH23" s="83"/>
     </row>
     <row r="24" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="87"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="90"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="90"/>
-      <c r="J24" s="90"/>
-      <c r="K24" s="90"/>
-      <c r="L24" s="90"/>
-      <c r="M24" s="90"/>
-      <c r="N24" s="90"/>
-      <c r="O24" s="90"/>
-      <c r="P24" s="90"/>
-      <c r="Q24" s="90"/>
-      <c r="R24" s="90"/>
-      <c r="S24" s="90"/>
-      <c r="T24" s="90"/>
-      <c r="U24" s="90"/>
-      <c r="V24" s="86"/>
-      <c r="W24" s="86"/>
-      <c r="X24" s="86"/>
-      <c r="Y24" s="86"/>
-      <c r="Z24" s="86"/>
-      <c r="AA24" s="86"/>
-      <c r="AB24" s="86"/>
-      <c r="AC24" s="86"/>
-      <c r="AD24" s="86"/>
-      <c r="AE24" s="86"/>
-      <c r="AF24" s="86"/>
-      <c r="AG24" s="86"/>
-      <c r="AH24" s="86"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+      <c r="K24" s="87"/>
+      <c r="L24" s="87"/>
+      <c r="M24" s="87"/>
+      <c r="N24" s="87"/>
+      <c r="O24" s="87"/>
+      <c r="P24" s="87"/>
+      <c r="Q24" s="87"/>
+      <c r="R24" s="87"/>
+      <c r="S24" s="87"/>
+      <c r="T24" s="87"/>
+      <c r="U24" s="87"/>
+      <c r="V24" s="83"/>
+      <c r="W24" s="83"/>
+      <c r="X24" s="83"/>
+      <c r="Y24" s="83"/>
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="83"/>
+      <c r="AB24" s="83"/>
+      <c r="AC24" s="83"/>
+      <c r="AD24" s="83"/>
+      <c r="AE24" s="83"/>
+      <c r="AF24" s="83"/>
+      <c r="AG24" s="83"/>
+      <c r="AH24" s="83"/>
     </row>
     <row r="25" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="87"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="90"/>
-      <c r="O25" s="90"/>
-      <c r="P25" s="90"/>
-      <c r="Q25" s="90"/>
-      <c r="R25" s="90"/>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
-      <c r="V25" s="86"/>
-      <c r="W25" s="86"/>
-      <c r="X25" s="86"/>
-      <c r="Y25" s="86"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
+      <c r="M25" s="87"/>
+      <c r="N25" s="87"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="87"/>
+      <c r="Q25" s="87"/>
+      <c r="R25" s="87"/>
+      <c r="S25" s="87"/>
+      <c r="T25" s="87"/>
+      <c r="U25" s="87"/>
+      <c r="V25" s="83"/>
+      <c r="W25" s="83"/>
+      <c r="X25" s="83"/>
+      <c r="Y25" s="83"/>
     </row>
     <row r="26" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="87"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
-      <c r="J26" s="90"/>
-      <c r="K26" s="90"/>
-      <c r="L26" s="90"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="90"/>
-      <c r="O26" s="90"/>
-      <c r="P26" s="90"/>
-      <c r="Q26" s="90"/>
-      <c r="R26" s="90"/>
-      <c r="S26" s="90"/>
-      <c r="T26" s="90"/>
-      <c r="U26" s="90"/>
-      <c r="V26" s="86"/>
-      <c r="W26" s="86"/>
-      <c r="X26" s="86"/>
-      <c r="Y26" s="86"/>
+      <c r="B26" s="84"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="87"/>
+      <c r="J26" s="87"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="87"/>
+      <c r="N26" s="87"/>
+      <c r="O26" s="87"/>
+      <c r="P26" s="87"/>
+      <c r="Q26" s="87"/>
+      <c r="R26" s="87"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="87"/>
+      <c r="U26" s="87"/>
+      <c r="V26" s="83"/>
+      <c r="W26" s="83"/>
+      <c r="X26" s="83"/>
+      <c r="Y26" s="83"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
   <si>
     <t>Felmerült problémák:</t>
   </si>
@@ -260,6 +260,39 @@
   </si>
   <si>
     <t>wiener2?</t>
+  </si>
+  <si>
+    <t>research:</t>
+  </si>
+  <si>
+    <t>image segmentation</t>
+  </si>
+  <si>
+    <t>lp filter</t>
+  </si>
+  <si>
+    <t>hp filter, hb filter</t>
+  </si>
+  <si>
+    <t>filter tesztek</t>
+  </si>
+  <si>
+    <t>homomorphic szerintem nekem nagyon nem úgy működik ahogyan kéne neki</t>
+  </si>
+  <si>
+    <t>research: morphology</t>
+  </si>
+  <si>
+    <t>Jupyter megpróbálása</t>
+  </si>
+  <si>
+    <t>szegmentálás saját megoldása</t>
+  </si>
+  <si>
+    <t>kilépő</t>
+  </si>
+  <si>
+    <t>3rd week</t>
   </si>
 </sst>
 </file>
@@ -269,7 +302,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,8 +366,25 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,8 +445,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="35">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -696,17 +752,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thick">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color theme="4" tint="-0.24994659260841701"/>
       </left>
@@ -769,15 +814,6 @@
       <top style="thin">
         <color theme="4" tint="-0.24994659260841701"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="-0.24994659260841701"/>
-      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -798,7 +834,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1060,9 +1096,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1072,60 +1105,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1406,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY21"/>
+  <dimension ref="A1:AY22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1453,9 @@
     <col min="6" max="6" width="13.28515625" style="62" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="68.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="55" style="2"/>
+    <col min="10" max="10" width="71.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.85546875" style="2" customWidth="1"/>
+    <col min="12" max="13" width="55" style="2"/>
     <col min="18" max="20" width="55" style="2"/>
     <col min="25" max="30" width="55" style="2"/>
     <col min="39" max="41" width="55" style="2"/>
@@ -1457,8 +1490,8 @@
       <c r="J1" s="51">
         <v>44763</v>
       </c>
-      <c r="K1" s="51">
-        <v>44764</v>
+      <c r="K1" s="58" t="s">
+        <v>88</v>
       </c>
       <c r="L1" s="51">
         <v>44765</v>
@@ -1607,7 +1640,10 @@
       <c r="J2" s="13">
         <v>0.37222222222222223</v>
       </c>
-      <c r="K2" s="14"/>
+      <c r="K2" s="59">
+        <f>AVERAGE(G2:J2)</f>
+        <v>0.37239583333333331</v>
+      </c>
       <c r="L2" s="14"/>
       <c r="M2" s="14"/>
       <c r="N2" s="13"/>
@@ -1676,8 +1712,13 @@
       <c r="I3" s="16">
         <v>0.81458333333333333</v>
       </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="17"/>
+      <c r="J3" s="16">
+        <v>0.76111111111111107</v>
+      </c>
+      <c r="K3" s="59">
+        <f>AVERAGE(G3:J3)</f>
+        <v>0.7890625</v>
+      </c>
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="16"/>
@@ -1755,11 +1796,11 @@
       </c>
       <c r="J4" s="63">
         <f t="shared" si="0"/>
-        <v>-0.37222222222222223</v>
-      </c>
-      <c r="K4" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.38888888888888884</v>
+      </c>
+      <c r="K4" s="59">
+        <f>AVERAGE(G4:J4)</f>
+        <v>0.41666666666666669</v>
       </c>
       <c r="L4" s="63">
         <f t="shared" si="0"/>
@@ -1939,7 +1980,7 @@
       <c r="J5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="19"/>
+      <c r="K5" s="60"/>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
       <c r="N5" s="19"/>
@@ -1971,7 +2012,7 @@
       <c r="J6" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="19"/>
+      <c r="K6" s="60"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -1995,7 +2036,7 @@
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
+      <c r="K7" s="60"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
@@ -2019,7 +2060,7 @@
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
+      <c r="K8" s="60"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
@@ -2041,7 +2082,7 @@
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
+      <c r="K9" s="60"/>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
@@ -2081,7 +2122,7 @@
       <c r="J10" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="38"/>
+      <c r="K10" s="60"/>
       <c r="L10" s="38"/>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
@@ -2114,8 +2155,10 @@
         <v>63</v>
       </c>
       <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
+      <c r="J11" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="60"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
@@ -2145,7 +2188,7 @@
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="K12" s="60"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
@@ -2171,7 +2214,7 @@
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
+      <c r="K13" s="60"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
@@ -2197,7 +2240,7 @@
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
+      <c r="K14" s="60"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
@@ -2221,7 +2264,7 @@
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
+      <c r="K15" s="60"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
@@ -2245,7 +2288,7 @@
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="K16" s="60"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
@@ -2267,7 +2310,7 @@
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="K17" s="60"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
@@ -2289,7 +2332,7 @@
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
+      <c r="K18" s="60"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
@@ -2311,7 +2354,7 @@
       <c r="H19" s="42"/>
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
+      <c r="K19" s="60"/>
       <c r="L19" s="42"/>
       <c r="M19" s="42"/>
       <c r="N19" s="42"/>
@@ -2351,8 +2394,13 @@
       <c r="I20" s="47">
         <v>2.5</v>
       </c>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
+      <c r="J20" s="47">
+        <v>3.5</v>
+      </c>
+      <c r="K20" s="61">
+        <f>AVERAGE(G20:J20)</f>
+        <v>2.75</v>
+      </c>
       <c r="L20" s="47"/>
       <c r="M20" s="47"/>
       <c r="N20" s="47"/>
@@ -2363,7 +2411,90 @@
       <c r="S20" s="47"/>
       <c r="T20" s="48"/>
     </row>
-    <row r="21" spans="1:20" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:20" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="109">
+        <f>HOUR(B4)</f>
+        <v>8</v>
+      </c>
+      <c r="C21" s="109">
+        <f t="shared" ref="C21:F21" si="1">HOUR(C4)</f>
+        <v>10</v>
+      </c>
+      <c r="D21" s="109">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="E21" s="109">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F21" s="108">
+        <f>SUM(B21:E21)</f>
+        <v>37</v>
+      </c>
+      <c r="G21" s="109">
+        <f t="shared" ref="G21:J21" si="2">HOUR(G4)</f>
+        <v>10</v>
+      </c>
+      <c r="H21" s="109">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="I21" s="109">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="J21" s="109">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="K21" s="108">
+        <f>SUM(G21:J21)</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="109">
+        <f>MINUTE(B4)</f>
+        <v>12</v>
+      </c>
+      <c r="C22" s="109">
+        <f t="shared" ref="C22:F22" si="3">MINUTE(C4)</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="109">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="E22" s="109">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F22" s="108">
+        <f>SUM(B22:E22)</f>
+        <v>40</v>
+      </c>
+      <c r="G22" s="109">
+        <f t="shared" ref="G22:J22" si="4">MINUTE(G4)</f>
+        <v>41</v>
+      </c>
+      <c r="H22" s="109">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="I22" s="109">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J22" s="109">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="K22" s="108">
+        <f>SUM(G22:J22)</f>
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2372,27 +2503,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW31"/>
+  <dimension ref="A1:AU31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23:J27"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" style="74" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="92" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="92" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" style="99" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="92" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="91" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="98" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="91" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" style="98" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="91" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="32.28515625" style="1"/>
     <col min="9" max="9" width="44" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="32.28515625" style="1"/>
+    <col min="10" max="10" width="32.28515625" style="1"/>
+    <col min="11" max="11" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="32.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="68" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="68" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="71"/>
       <c r="B1" s="69">
         <v>44753</v>
@@ -2421,151 +2554,145 @@
       <c r="J1" s="75">
         <v>44763</v>
       </c>
-      <c r="K1" s="68">
-        <v>44764</v>
+      <c r="K1" s="68" t="s">
+        <v>88</v>
       </c>
       <c r="L1" s="68">
-        <v>44765</v>
+        <v>44767</v>
       </c>
       <c r="M1" s="68">
-        <v>44766</v>
+        <v>44768</v>
       </c>
       <c r="N1" s="68">
-        <v>44767</v>
+        <v>44769</v>
       </c>
       <c r="O1" s="68">
-        <v>44768</v>
+        <v>44770</v>
       </c>
       <c r="P1" s="68">
-        <v>44769</v>
+        <v>44771</v>
       </c>
       <c r="Q1" s="68">
-        <v>44770</v>
+        <v>44772</v>
       </c>
       <c r="R1" s="68">
-        <v>44771</v>
+        <v>44773</v>
       </c>
       <c r="S1" s="68">
-        <v>44772</v>
+        <v>44774</v>
       </c>
       <c r="T1" s="68">
-        <v>44773</v>
+        <v>44775</v>
       </c>
       <c r="U1" s="68">
-        <v>44774</v>
+        <v>44776</v>
       </c>
       <c r="V1" s="68">
-        <v>44775</v>
+        <v>44777</v>
       </c>
       <c r="W1" s="68">
-        <v>44776</v>
+        <v>44778</v>
       </c>
       <c r="X1" s="68">
-        <v>44777</v>
+        <v>44779</v>
       </c>
       <c r="Y1" s="68">
-        <v>44778</v>
+        <v>44780</v>
       </c>
       <c r="Z1" s="68">
-        <v>44779</v>
+        <v>44781</v>
       </c>
       <c r="AA1" s="68">
-        <v>44780</v>
+        <v>44782</v>
       </c>
       <c r="AB1" s="68">
-        <v>44781</v>
+        <v>44783</v>
       </c>
       <c r="AC1" s="68">
-        <v>44782</v>
+        <v>44784</v>
       </c>
       <c r="AD1" s="68">
-        <v>44783</v>
+        <v>44785</v>
       </c>
       <c r="AE1" s="68">
-        <v>44784</v>
+        <v>44786</v>
       </c>
       <c r="AF1" s="68">
-        <v>44785</v>
+        <v>44787</v>
       </c>
       <c r="AG1" s="68">
-        <v>44786</v>
+        <v>44788</v>
       </c>
       <c r="AH1" s="68">
-        <v>44787</v>
+        <v>44789</v>
       </c>
       <c r="AI1" s="68">
-        <v>44788</v>
+        <v>44790</v>
       </c>
       <c r="AJ1" s="68">
-        <v>44789</v>
+        <v>44791</v>
       </c>
       <c r="AK1" s="68">
-        <v>44790</v>
+        <v>44792</v>
       </c>
       <c r="AL1" s="68">
-        <v>44791</v>
+        <v>44793</v>
       </c>
       <c r="AM1" s="68">
-        <v>44792</v>
+        <v>44794</v>
       </c>
       <c r="AN1" s="68">
-        <v>44793</v>
+        <v>44795</v>
       </c>
       <c r="AO1" s="68">
-        <v>44794</v>
+        <v>44796</v>
       </c>
       <c r="AP1" s="68">
-        <v>44795</v>
+        <v>44797</v>
       </c>
       <c r="AQ1" s="68">
-        <v>44796</v>
+        <v>44798</v>
       </c>
       <c r="AR1" s="68">
-        <v>44797</v>
+        <v>44799</v>
       </c>
       <c r="AS1" s="68">
-        <v>44798</v>
+        <v>44800</v>
       </c>
       <c r="AT1" s="68">
-        <v>44799</v>
+        <v>44801</v>
       </c>
       <c r="AU1" s="68">
-        <v>44800</v>
-      </c>
-      <c r="AV1" s="68">
-        <v>44801</v>
-      </c>
-      <c r="AW1" s="68">
         <v>44802</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100">
+    <row r="2" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="99">
         <v>0.33333333333333331</v>
       </c>
       <c r="B2" s="79"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="90"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="76"/>
       <c r="H2" s="76"/>
       <c r="I2" s="76"/>
       <c r="J2" s="76"/>
     </row>
-    <row r="3" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="73">
         <v>0.35416666666666669</v>
       </c>
       <c r="B3" s="79"/>
-      <c r="C3" s="103"/>
+      <c r="C3" s="102"/>
       <c r="D3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="91"/>
+      <c r="F3" s="90"/>
       <c r="G3" s="80" t="s">
         <v>28</v>
       </c>
@@ -2573,19 +2700,19 @@
       <c r="I3" s="76"/>
       <c r="J3" s="76"/>
     </row>
-    <row r="4" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="73">
         <v>0.375</v>
       </c>
       <c r="B4" s="79"/>
-      <c r="C4" s="103"/>
-      <c r="D4" s="79" t="s">
+      <c r="C4" s="102"/>
+      <c r="D4" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="91"/>
+      <c r="F4" s="90"/>
       <c r="G4" s="104" t="s">
         <v>53</v>
       </c>
@@ -2593,19 +2720,21 @@
         <v>58</v>
       </c>
       <c r="I4" s="76"/>
-      <c r="J4" s="80"/>
-    </row>
-    <row r="5" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J4" s="103" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="73">
         <v>0.39583333333333298</v>
       </c>
       <c r="B5" s="79"/>
-      <c r="C5" s="103"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="95" t="s">
+      <c r="C5" s="102"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="91"/>
+      <c r="F5" s="90"/>
       <c r="G5" s="105"/>
       <c r="H5" s="104" t="s">
         <v>57</v>
@@ -2613,67 +2742,75 @@
       <c r="I5" s="104" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="80"/>
-    </row>
-    <row r="6" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J5" s="80" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="73">
         <v>0.41666666666666702</v>
       </c>
       <c r="B6" s="79"/>
-      <c r="C6" s="95" t="s">
+      <c r="C6" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="79"/>
-      <c r="E6" s="108" t="s">
+      <c r="D6" s="106"/>
+      <c r="E6" s="104" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="91"/>
+      <c r="F6" s="90"/>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
       <c r="I6" s="106"/>
-      <c r="J6" s="80"/>
-    </row>
-    <row r="7" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="73">
         <v>0.4375</v>
       </c>
       <c r="B7" s="79"/>
-      <c r="C7" s="95" t="s">
+      <c r="C7" s="94" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="110"/>
-      <c r="F7" s="91"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="90"/>
       <c r="G7" s="105"/>
       <c r="H7" s="105"/>
       <c r="I7" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="80"/>
-    </row>
-    <row r="8" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J7" s="80" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="73">
         <v>0.45833333333333298</v>
       </c>
       <c r="B8" s="79"/>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="91"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="90"/>
       <c r="G8" s="106"/>
       <c r="H8" s="106"/>
       <c r="I8" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="80"/>
-    </row>
-    <row r="9" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="80" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="73">
         <v>0.47916666666666702</v>
       </c>
@@ -2681,9 +2818,9 @@
       <c r="C9" s="107" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="79"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="91"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="90"/>
       <c r="G9" s="80" t="s">
         <v>21</v>
       </c>
@@ -2693,41 +2830,45 @@
       <c r="I9" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="80"/>
-    </row>
-    <row r="10" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J9" s="80" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="73">
         <v>0.5</v>
       </c>
       <c r="B10" s="79"/>
       <c r="C10" s="107"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="108" t="s">
+      <c r="D10" s="105"/>
+      <c r="E10" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="91"/>
+      <c r="F10" s="90"/>
       <c r="G10" s="104" t="s">
         <v>48</v>
       </c>
       <c r="H10" s="105"/>
       <c r="I10" s="105"/>
-      <c r="J10" s="80"/>
-    </row>
-    <row r="11" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J10" s="104" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="73">
         <v>0.52083333333333304</v>
       </c>
       <c r="B11" s="79"/>
       <c r="C11" s="107"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="91"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="90"/>
       <c r="G11" s="105"/>
       <c r="H11" s="105"/>
       <c r="I11" s="105"/>
-      <c r="J11" s="80"/>
-    </row>
-    <row r="12" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="105"/>
+    </row>
+    <row r="12" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="73">
         <v>0.54166666666666696</v>
       </c>
@@ -2735,37 +2876,39 @@
       <c r="C12" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="79"/>
-      <c r="E12" s="95" t="s">
+      <c r="D12" s="106"/>
+      <c r="E12" s="79" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="91"/>
+      <c r="F12" s="90"/>
       <c r="G12" s="106"/>
       <c r="H12" s="105"/>
       <c r="I12" s="105"/>
-      <c r="J12" s="80"/>
-    </row>
-    <row r="13" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="106"/>
+    </row>
+    <row r="13" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="73">
         <v>0.5625</v>
       </c>
       <c r="B13" s="79"/>
       <c r="C13" s="107"/>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="95" t="s">
+      <c r="E13" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="91"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="80" t="s">
         <v>56</v>
       </c>
       <c r="H13" s="106"/>
       <c r="I13" s="105"/>
-      <c r="J13" s="80"/>
-    </row>
-    <row r="14" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J13" s="80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="73">
         <v>0.58333333333333304</v>
       </c>
@@ -2773,11 +2916,11 @@
       <c r="C14" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="79"/>
-      <c r="E14" s="108" t="s">
+      <c r="D14" s="106"/>
+      <c r="E14" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="91"/>
+      <c r="F14" s="90"/>
       <c r="G14" s="80" t="s">
         <v>15</v>
       </c>
@@ -2785,19 +2928,21 @@
         <v>15</v>
       </c>
       <c r="I14" s="106"/>
-      <c r="J14" s="80"/>
-    </row>
-    <row r="15" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J14" s="104" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="73">
         <v>0.60416666666666696</v>
       </c>
       <c r="B15" s="79"/>
       <c r="C15" s="107"/>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="109"/>
-      <c r="F15" s="91"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="90"/>
       <c r="G15" s="104" t="s">
         <v>56</v>
       </c>
@@ -2805,9 +2950,9 @@
       <c r="I15" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="80"/>
-    </row>
-    <row r="16" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="106"/>
+    </row>
+    <row r="16" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="73">
         <v>0.625</v>
       </c>
@@ -2815,17 +2960,19 @@
       <c r="C16" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="108" t="s">
+      <c r="D16" s="106"/>
+      <c r="E16" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="91"/>
+      <c r="F16" s="90"/>
       <c r="G16" s="105"/>
       <c r="H16" s="106"/>
       <c r="I16" s="104" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="80"/>
+      <c r="J16" s="80" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="73">
@@ -2833,17 +2980,19 @@
       </c>
       <c r="B17" s="79"/>
       <c r="C17" s="107"/>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="104" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="91"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="90"/>
       <c r="G17" s="105"/>
       <c r="H17" s="104" t="s">
         <v>56</v>
       </c>
       <c r="I17" s="105"/>
-      <c r="J17" s="80"/>
+      <c r="J17" s="104" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="73">
@@ -2851,55 +3000,55 @@
       </c>
       <c r="B18" s="79"/>
       <c r="C18" s="107"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="95" t="s">
+      <c r="D18" s="106"/>
+      <c r="E18" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="91"/>
+      <c r="F18" s="90"/>
       <c r="G18" s="105"/>
       <c r="H18" s="105"/>
       <c r="I18" s="106"/>
-      <c r="J18" s="80"/>
+      <c r="J18" s="105"/>
     </row>
     <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="73">
         <v>0.6875</v>
       </c>
       <c r="B19" s="79"/>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="94" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="108" t="s">
+      <c r="E19" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="91"/>
+      <c r="F19" s="90"/>
       <c r="G19" s="105"/>
       <c r="H19" s="105"/>
       <c r="I19" s="104" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="80"/>
+      <c r="J19" s="105"/>
     </row>
     <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="73">
         <v>0.70833333333333404</v>
       </c>
       <c r="B20" s="79"/>
-      <c r="C20" s="95" t="s">
+      <c r="C20" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="104" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="109"/>
-      <c r="F20" s="91"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="90"/>
       <c r="G20" s="105"/>
       <c r="H20" s="105"/>
       <c r="I20" s="106"/>
-      <c r="J20" s="80"/>
+      <c r="J20" s="105"/>
     </row>
     <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="73">
@@ -2909,17 +3058,17 @@
       <c r="C21" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="95" t="s">
+      <c r="D21" s="106"/>
+      <c r="E21" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="91"/>
+      <c r="F21" s="90"/>
       <c r="G21" s="105"/>
       <c r="H21" s="106"/>
       <c r="I21" s="104" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="80"/>
+      <c r="J21" s="106"/>
     </row>
     <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="73">
@@ -2931,13 +3080,15 @@
         <v>37</v>
       </c>
       <c r="E22" s="72"/>
-      <c r="F22" s="91"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="105"/>
       <c r="H22" s="77" t="s">
         <v>21</v>
       </c>
       <c r="I22" s="106"/>
-      <c r="J22" s="80"/>
+      <c r="J22" s="80" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="73">
@@ -2949,7 +3100,7 @@
         <v>36</v>
       </c>
       <c r="E23" s="72"/>
-      <c r="F23" s="91"/>
+      <c r="F23" s="90"/>
       <c r="G23" s="106"/>
       <c r="H23" s="78" t="s">
         <v>21</v>
@@ -2957,83 +3108,83 @@
       <c r="I23" s="104" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="80"/>
+      <c r="J23" s="72"/>
     </row>
     <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="73">
         <v>0.79166666666666696</v>
       </c>
       <c r="B24" s="79"/>
-      <c r="C24" s="95" t="s">
+      <c r="C24" s="94" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="72"/>
       <c r="E24" s="72"/>
-      <c r="F24" s="91"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="72"/>
       <c r="H24" s="72"/>
       <c r="I24" s="106"/>
-      <c r="J24" s="80"/>
+      <c r="J24" s="72"/>
     </row>
     <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="73">
         <v>0.8125</v>
       </c>
       <c r="B25" s="79"/>
-      <c r="C25" s="96"/>
+      <c r="C25" s="95"/>
       <c r="D25" s="72"/>
       <c r="E25" s="72"/>
-      <c r="F25" s="91"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="72"/>
       <c r="H25" s="72"/>
       <c r="I25" s="72"/>
-      <c r="J25" s="80"/>
+      <c r="J25" s="72"/>
     </row>
     <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="73">
         <v>0.83333333333333304</v>
       </c>
       <c r="B26" s="79"/>
-      <c r="C26" s="96"/>
+      <c r="C26" s="95"/>
       <c r="D26" s="72"/>
       <c r="E26" s="72"/>
-      <c r="F26" s="91"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="72"/>
       <c r="H26" s="72"/>
       <c r="I26" s="72"/>
-      <c r="J26" s="80"/>
+      <c r="J26" s="72"/>
     </row>
     <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="73">
         <v>0.85416666666666596</v>
       </c>
       <c r="B27" s="79"/>
-      <c r="C27" s="96"/>
+      <c r="C27" s="95"/>
       <c r="D27" s="72"/>
       <c r="E27" s="72"/>
-      <c r="F27" s="91"/>
+      <c r="F27" s="90"/>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
       <c r="I27" s="72"/>
-      <c r="J27" s="80"/>
+      <c r="J27" s="72"/>
     </row>
     <row r="28" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="101">
+      <c r="A28" s="100">
         <v>0.874999999999999</v>
       </c>
       <c r="B28" s="89"/>
-      <c r="C28" s="97"/>
+      <c r="C28" s="96"/>
       <c r="D28" s="89"/>
       <c r="E28" s="89"/>
-      <c r="F28" s="93"/>
+      <c r="F28" s="92"/>
       <c r="G28" s="89"/>
       <c r="H28" s="89"/>
       <c r="I28" s="89"/>
       <c r="J28" s="89"/>
     </row>
     <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="98"/>
-      <c r="E29" s="98"/>
+      <c r="C29" s="97"/>
+      <c r="E29" s="97"/>
       <c r="F29" s="84"/>
     </row>
     <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3043,7 +3194,23 @@
       <c r="F31" s="84"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="32">
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I20"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="H17:H21"/>
     <mergeCell ref="I5:I6"/>
@@ -3060,13 +3227,6 @@
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="101">
   <si>
     <t>Felmerült problémák:</t>
   </si>
@@ -293,6 +293,42 @@
   </si>
   <si>
     <t>3rd week</t>
+  </si>
+  <si>
+    <t>Segmentációt meg kellen csinálni a héten</t>
+  </si>
+  <si>
+    <t>de úgyérzem nem fogom tudni úgy, ahogyan a MATLABban van</t>
+  </si>
+  <si>
+    <t>fish segmentation</t>
+  </si>
+  <si>
+    <t>letöltöttem a DATASPELLt, hogy notebookokat könnyen csináljhak</t>
+  </si>
+  <si>
+    <t>DataSpell letöltés</t>
+  </si>
+  <si>
+    <t>nagyon jó lenne, ha már látnám a MATLAB kódot</t>
+  </si>
+  <si>
+    <t>translating get_possible_fish.m</t>
+  </si>
+  <si>
+    <t>új notebook a fish pipe ról/ szegmentálás</t>
+  </si>
+  <si>
+    <t>get_possible_fish-ben egész sok hiba lehet, így látatlanban úgyérzem</t>
+  </si>
+  <si>
+    <t>nem tudom, hogy fordítanom kéne vagy a szegmentálást csinálni</t>
+  </si>
+  <si>
+    <t>telefon</t>
+  </si>
+  <si>
+    <t>nagyon sok dolgot hagytam a get_possible_fish.py ban félbehagyva</t>
   </si>
 </sst>
 </file>
@@ -452,7 +488,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -494,17 +530,6 @@
         <color rgb="FFFF0000"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -554,19 +579,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -600,19 +612,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thick">
         <color rgb="FFFF0000"/>
@@ -631,21 +630,6 @@
       </left>
       <right style="thick">
         <color rgb="FFFF0000"/>
-      </right>
-      <top style="thick">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FFFF0000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
       </right>
       <top style="thick">
         <color rgb="FFFF0000"/>
@@ -834,7 +818,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -903,18 +887,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -924,61 +896,49 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -993,19 +953,19 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="6" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1020,16 +980,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1047,7 +1007,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -1059,22 +1019,22 @@
     <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1096,67 +1056,77 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1437,10 +1407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AY22"/>
+  <dimension ref="A1:AW22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1450,166 +1420,158 @@
     <col min="3" max="3" width="72.42578125" customWidth="1"/>
     <col min="4" max="4" width="80.42578125" customWidth="1"/>
     <col min="5" max="5" width="66.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="54" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="68.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="71.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" style="2" customWidth="1"/>
     <col min="12" max="13" width="55" style="2"/>
-    <col min="18" max="20" width="55" style="2"/>
-    <col min="25" max="30" width="55" style="2"/>
-    <col min="39" max="41" width="55" style="2"/>
+    <col min="18" max="18" width="14.85546875" style="105" bestFit="1" customWidth="1"/>
+    <col min="23" max="28" width="55" style="105"/>
+    <col min="37" max="39" width="55" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:51" s="51" customFormat="1" ht="49.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50"/>
-      <c r="B1" s="51">
+    <row r="1" spans="1:49" s="43" customFormat="1" ht="49.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43">
         <v>44753</v>
       </c>
-      <c r="C1" s="51">
+      <c r="C1" s="43">
         <v>44754</v>
       </c>
-      <c r="D1" s="51">
+      <c r="D1" s="43">
         <v>44755</v>
       </c>
-      <c r="E1" s="51">
+      <c r="E1" s="43">
         <v>44756</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="51">
+      <c r="G1" s="43">
         <v>44760</v>
       </c>
-      <c r="H1" s="51">
+      <c r="H1" s="43">
         <v>44761</v>
       </c>
-      <c r="I1" s="51">
+      <c r="I1" s="43">
         <v>44762</v>
       </c>
-      <c r="J1" s="51">
+      <c r="J1" s="43">
         <v>44763</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="51">
+      <c r="L1" s="43">
         <v>44765</v>
       </c>
-      <c r="M1" s="51">
+      <c r="M1" s="43">
         <v>44766</v>
       </c>
-      <c r="N1" s="51">
+      <c r="N1" s="43">
         <v>44767</v>
       </c>
-      <c r="O1" s="51">
+      <c r="O1" s="43">
         <v>44768</v>
       </c>
-      <c r="P1" s="51">
+      <c r="P1" s="43">
         <v>44769</v>
       </c>
-      <c r="Q1" s="51">
+      <c r="Q1" s="43">
         <v>44770</v>
       </c>
-      <c r="R1" s="51">
-        <v>44771</v>
-      </c>
-      <c r="S1" s="51">
-        <v>44772</v>
-      </c>
-      <c r="T1" s="51">
-        <v>44773</v>
-      </c>
-      <c r="U1" s="51">
+      <c r="R1" s="52"/>
+      <c r="S1" s="43">
         <v>44774</v>
       </c>
-      <c r="V1" s="51">
+      <c r="T1" s="43">
         <v>44775</v>
       </c>
-      <c r="W1" s="51">
+      <c r="U1" s="43">
         <v>44776</v>
       </c>
-      <c r="X1" s="51">
+      <c r="V1" s="43">
         <v>44777</v>
       </c>
-      <c r="Y1" s="51">
+      <c r="W1" s="43">
         <v>44778</v>
       </c>
-      <c r="Z1" s="51">
+      <c r="X1" s="43">
         <v>44779</v>
       </c>
-      <c r="AA1" s="51">
+      <c r="Y1" s="43">
         <v>44780</v>
       </c>
-      <c r="AB1" s="51">
+      <c r="Z1" s="43">
         <v>44781</v>
       </c>
-      <c r="AC1" s="51">
+      <c r="AA1" s="43">
         <v>44782</v>
       </c>
-      <c r="AD1" s="51">
+      <c r="AB1" s="43">
         <v>44783</v>
       </c>
-      <c r="AE1" s="51">
+      <c r="AC1" s="43">
         <v>44784</v>
       </c>
-      <c r="AF1" s="51">
+      <c r="AD1" s="43">
         <v>44785</v>
       </c>
-      <c r="AG1" s="51">
+      <c r="AE1" s="43">
         <v>44786</v>
       </c>
-      <c r="AH1" s="51">
+      <c r="AF1" s="43">
         <v>44787</v>
       </c>
-      <c r="AI1" s="51">
+      <c r="AG1" s="43">
         <v>44788</v>
       </c>
-      <c r="AJ1" s="51">
+      <c r="AH1" s="43">
         <v>44789</v>
       </c>
-      <c r="AK1" s="51">
+      <c r="AI1" s="43">
         <v>44790</v>
       </c>
-      <c r="AL1" s="51">
+      <c r="AJ1" s="43">
         <v>44791</v>
       </c>
-      <c r="AM1" s="51">
+      <c r="AK1" s="43">
         <v>44792</v>
       </c>
-      <c r="AN1" s="51">
+      <c r="AL1" s="43">
         <v>44793</v>
       </c>
-      <c r="AO1" s="51">
+      <c r="AM1" s="43">
         <v>44794</v>
       </c>
-      <c r="AP1" s="51">
+      <c r="AN1" s="43">
         <v>44795</v>
       </c>
-      <c r="AQ1" s="51">
+      <c r="AO1" s="43">
         <v>44796</v>
       </c>
-      <c r="AR1" s="51">
+      <c r="AP1" s="43">
         <v>44797</v>
       </c>
-      <c r="AS1" s="51">
+      <c r="AQ1" s="43">
         <v>44798</v>
       </c>
-      <c r="AT1" s="51">
+      <c r="AR1" s="43">
         <v>44799</v>
       </c>
-      <c r="AU1" s="51">
+      <c r="AS1" s="43">
         <v>44800</v>
       </c>
-      <c r="AV1" s="51">
+      <c r="AT1" s="43">
         <v>44801</v>
       </c>
-      <c r="AW1" s="51">
+      <c r="AU1" s="43">
         <v>44802</v>
       </c>
     </row>
-    <row r="2" spans="1:51" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:49" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12">
@@ -1621,10 +1583,10 @@
       <c r="D2" s="13">
         <v>0.36527777777777781</v>
       </c>
-      <c r="E2" s="52">
+      <c r="E2" s="44">
         <v>0.34861111111111115</v>
       </c>
-      <c r="F2" s="59">
+      <c r="F2" s="51">
         <f>AVERAGE(B2:E2)</f>
         <v>0.39513888888888893</v>
       </c>
@@ -1640,51 +1602,53 @@
       <c r="J2" s="13">
         <v>0.37222222222222223</v>
       </c>
-      <c r="K2" s="59">
+      <c r="K2" s="51">
         <f>AVERAGE(G2:J2)</f>
         <v>0.37239583333333331</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="L2" s="14">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="M2" s="14">
+        <v>0.36874999999999997</v>
+      </c>
       <c r="N2" s="13"/>
       <c r="O2" s="13"/>
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="24"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
       <c r="X2" s="4"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
-      <c r="AB2" s="5"/>
-      <c r="AC2" s="5"/>
-      <c r="AD2" s="5"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
       <c r="AI2" s="4"/>
       <c r="AJ2" s="4"/>
-      <c r="AK2" s="4"/>
-      <c r="AL2" s="4"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4"/>
       <c r="AP2" s="4"/>
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4"/>
       <c r="AS2" s="4"/>
       <c r="AT2" s="4"/>
       <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-    </row>
-    <row r="3" spans="1:51" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    </row>
+    <row r="3" spans="1:49" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="15">
@@ -1696,10 +1660,10 @@
       <c r="D3" s="16">
         <v>0.79583333333333339</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="45">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F3" s="59">
+      <c r="F3" s="51">
         <f>AVERAGE(B3:E3)</f>
         <v>0.78749999999999998</v>
       </c>
@@ -1715,7 +1679,7 @@
       <c r="J3" s="16">
         <v>0.76111111111111107</v>
       </c>
-      <c r="K3" s="59">
+      <c r="K3" s="51">
         <f>AVERAGE(G3:J3)</f>
         <v>0.7890625</v>
       </c>
@@ -1725,240 +1689,227 @@
       <c r="O3" s="16"/>
       <c r="P3" s="16"/>
       <c r="Q3" s="16"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="25"/>
+      <c r="R3" s="52"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
       <c r="U3" s="7"/>
       <c r="V3" s="7"/>
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8"/>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
       <c r="AE3" s="7"/>
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
       <c r="AI3" s="7"/>
       <c r="AJ3" s="7"/>
-      <c r="AK3" s="7"/>
-      <c r="AL3" s="7"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
       <c r="AM3" s="8"/>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7"/>
       <c r="AS3" s="7"/>
       <c r="AT3" s="7"/>
       <c r="AU3" s="7"/>
-      <c r="AV3" s="7"/>
-      <c r="AW3" s="7"/>
-    </row>
-    <row r="4" spans="1:51" s="64" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="66" t="s">
+    </row>
+    <row r="4" spans="1:49" s="56" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="65">
+      <c r="B4" s="57">
         <f>B3-B2</f>
         <v>0.34166666666666662</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="55">
         <f>C3-C2</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="55">
         <f>D3-D2</f>
         <v>0.43055555555555558</v>
       </c>
-      <c r="E4" s="63">
+      <c r="E4" s="55">
         <f>E3-E2</f>
         <v>0.38055555555555548</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="51">
         <f>AVERAGE(B4:E4)</f>
         <v>0.3923611111111111</v>
       </c>
-      <c r="G4" s="63">
-        <f t="shared" ref="G4:AW4" si="0">G3-G2</f>
+      <c r="G4" s="55">
+        <f t="shared" ref="G4:AU4" si="0">G3-G2</f>
         <v>0.44513888888888892</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="55">
         <f t="shared" si="0"/>
         <v>0.41388888888888892</v>
       </c>
-      <c r="I4" s="63">
+      <c r="I4" s="55">
         <f t="shared" si="0"/>
         <v>0.41875000000000001</v>
       </c>
-      <c r="J4" s="63">
+      <c r="J4" s="55">
         <f t="shared" si="0"/>
         <v>0.38888888888888884</v>
       </c>
-      <c r="K4" s="59">
+      <c r="K4" s="51">
         <f>AVERAGE(G4:J4)</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="L4" s="63">
+      <c r="L4" s="55">
+        <f t="shared" si="0"/>
+        <v>-0.3888888888888889</v>
+      </c>
+      <c r="M4" s="55">
+        <f t="shared" si="0"/>
+        <v>-0.36874999999999997</v>
+      </c>
+      <c r="N4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M4" s="63">
+      <c r="O4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N4" s="63">
+      <c r="P4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O4" s="63">
+      <c r="Q4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="63">
+      <c r="R4" s="52"/>
+      <c r="S4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q4" s="63">
+      <c r="T4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="63">
+      <c r="U4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S4" s="63">
+      <c r="V4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T4" s="63">
+      <c r="W4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U4" s="63">
+      <c r="X4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V4" s="63">
+      <c r="Y4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W4" s="63">
+      <c r="Z4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X4" s="63">
+      <c r="AA4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="63">
+      <c r="AB4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="63">
+      <c r="AC4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="63">
+      <c r="AD4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="63">
+      <c r="AE4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="63">
+      <c r="AF4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="63">
+      <c r="AG4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="63">
+      <c r="AH4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="63">
+      <c r="AI4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="63">
+      <c r="AJ4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH4" s="63">
+      <c r="AK4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI4" s="63">
+      <c r="AL4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ4" s="63">
+      <c r="AM4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK4" s="63">
+      <c r="AN4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL4" s="63">
+      <c r="AO4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM4" s="63">
+      <c r="AP4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN4" s="63">
+      <c r="AQ4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO4" s="63">
+      <c r="AR4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP4" s="63">
+      <c r="AS4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AQ4" s="63">
+      <c r="AT4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR4" s="63">
+      <c r="AU4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS4" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT4" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU4" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AV4" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AW4" s="63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AX4" s="63"/>
-      <c r="AY4" s="63"/>
-    </row>
-    <row r="5" spans="1:51" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+    </row>
+    <row r="5" spans="1:49" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="24"/>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
         <v>6</v>
@@ -1969,7 +1920,7 @@
       <c r="E5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="18" t="s">
         <v>51</v>
       </c>
@@ -1980,19 +1931,21 @@
       <c r="J5" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="60"/>
+      <c r="K5" s="52"/>
       <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
+      <c r="M5" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>100</v>
+      </c>
       <c r="O5" s="19"/>
       <c r="P5" s="19"/>
       <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19"/>
-      <c r="T5" s="26"/>
-    </row>
-    <row r="6" spans="1:51" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
+      <c r="R5" s="52"/>
+    </row>
+    <row r="6" spans="1:49" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
         <v>7</v>
@@ -2001,7 +1954,7 @@
       <c r="E6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="60"/>
+      <c r="F6" s="52"/>
       <c r="G6" s="18" t="s">
         <v>52</v>
       </c>
@@ -2012,129 +1965,123 @@
       <c r="J6" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="60"/>
+      <c r="K6" s="52"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
       <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="26"/>
-    </row>
-    <row r="7" spans="1:51" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
+      <c r="R6" s="52"/>
+    </row>
+    <row r="7" spans="1:49" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="20"/>
-      <c r="F7" s="60"/>
+      <c r="F7" s="52"/>
       <c r="G7" s="18"/>
       <c r="H7" s="19" t="s">
         <v>61</v>
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
-      <c r="K7" s="60"/>
+      <c r="K7" s="52"/>
       <c r="L7" s="19"/>
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
       <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="26"/>
-    </row>
-    <row r="8" spans="1:51" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
+      <c r="R7" s="52"/>
+    </row>
+    <row r="8" spans="1:49" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="60"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="18"/>
       <c r="H8" s="10" t="s">
         <v>64</v>
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
-      <c r="K8" s="60"/>
+      <c r="K8" s="52"/>
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
       <c r="P8" s="19"/>
       <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="26"/>
-    </row>
-    <row r="9" spans="1:51" s="36" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-      <c r="P9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="R9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="T9" s="35"/>
-    </row>
-    <row r="10" spans="1:51" s="40" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="R8" s="52"/>
+    </row>
+    <row r="9" spans="1:49" s="31" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="52"/>
+    </row>
+    <row r="10" spans="1:49" s="34" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="47" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="60"/>
-      <c r="G10" s="37" t="s">
+      <c r="F10" s="52"/>
+      <c r="G10" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="38" t="s">
+      <c r="H10" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="38" t="s">
+      <c r="J10" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="60"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
-      <c r="Q10" s="38"/>
-      <c r="R10" s="38"/>
-      <c r="S10" s="38"/>
-      <c r="T10" s="39"/>
-    </row>
-    <row r="11" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="52"/>
+    </row>
+    <row r="11" spans="1:49" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
       <c r="B11" s="21" t="s">
         <v>4</v>
       </c>
@@ -2147,7 +2094,7 @@
       <c r="E11" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="60"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="21" t="s">
         <v>55</v>
       </c>
@@ -2158,19 +2105,21 @@
       <c r="J11" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="60"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>97</v>
+      </c>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="27"/>
-    </row>
-    <row r="12" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="R11" s="52"/>
+    </row>
+    <row r="12" spans="1:49" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
         <v>14</v>
@@ -2178,55 +2127,53 @@
       <c r="D12" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="67" t="s">
+      <c r="E12" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="60"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="21"/>
       <c r="H12" s="22" t="s">
         <v>65</v>
       </c>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="60"/>
+      <c r="K12" s="52"/>
       <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="M12" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="27"/>
-    </row>
-    <row r="13" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="R12" s="52"/>
+    </row>
+    <row r="13" spans="1:49" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="22"/>
-      <c r="E13" s="67" t="s">
+      <c r="E13" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="60"/>
+      <c r="F13" s="52"/>
       <c r="G13" s="21"/>
       <c r="H13" s="22"/>
       <c r="I13" s="22"/>
       <c r="J13" s="22"/>
-      <c r="K13" s="60"/>
+      <c r="K13" s="52"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="27"/>
-    </row>
-    <row r="14" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="R13" s="52"/>
+    </row>
+    <row r="14" spans="1:49" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22" t="s">
         <v>20</v>
@@ -2235,262 +2182,250 @@
       <c r="E14" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="60"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="21"/>
       <c r="H14" s="22"/>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
-      <c r="K14" s="60"/>
+      <c r="K14" s="52"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
       <c r="N14" s="22"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="27"/>
-    </row>
-    <row r="15" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="R14" s="52"/>
+    </row>
+    <row r="15" spans="1:49" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="23"/>
-      <c r="F15" s="60"/>
+      <c r="F15" s="52"/>
       <c r="G15" s="21"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
-      <c r="K15" s="60"/>
+      <c r="K15" s="52"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="27"/>
-    </row>
-    <row r="16" spans="1:51" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="R15" s="52"/>
+    </row>
+    <row r="16" spans="1:49" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="23"/>
-      <c r="F16" s="60"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="21"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
-      <c r="K16" s="60"/>
+      <c r="K16" s="52"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="27"/>
-    </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
+      <c r="R16" s="52"/>
+    </row>
+    <row r="17" spans="1:18" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
       <c r="D17" s="22"/>
       <c r="E17" s="23"/>
-      <c r="F17" s="60"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="21"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="22"/>
-      <c r="K17" s="60"/>
+      <c r="K17" s="52"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="27"/>
-    </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
+      <c r="R17" s="52"/>
+    </row>
+    <row r="18" spans="1:18" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
       <c r="D18" s="22"/>
       <c r="E18" s="23"/>
-      <c r="F18" s="60"/>
+      <c r="F18" s="52"/>
       <c r="G18" s="21"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="22"/>
-      <c r="K18" s="60"/>
+      <c r="K18" s="52"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="27"/>
-    </row>
-    <row r="19" spans="1:20" s="44" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="32"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="43"/>
-    </row>
-    <row r="20" spans="1:20" s="49" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="R18" s="52"/>
+    </row>
+    <row r="19" spans="1:18" s="37" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="52"/>
+    </row>
+    <row r="20" spans="1:18" s="41" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="46">
+      <c r="B20" s="39">
         <v>3.5</v>
       </c>
-      <c r="C20" s="47">
+      <c r="C20" s="40">
         <v>4</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="40">
         <v>1.5</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="49">
         <v>3.5</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="53">
         <f>AVERAGE(B20:E20)</f>
         <v>3.125</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="39">
         <v>4</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="40">
         <v>1</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="40">
         <v>2.5</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="40">
         <v>3.5</v>
       </c>
-      <c r="K20" s="61">
+      <c r="K20" s="53">
         <f>AVERAGE(G20:J20)</f>
         <v>2.75</v>
       </c>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="48"/>
-    </row>
-    <row r="21" spans="1:20" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="109">
+      <c r="L20" s="40">
+        <v>1</v>
+      </c>
+      <c r="M20" s="40"/>
+      <c r="N20" s="40"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="52"/>
+    </row>
+    <row r="21" spans="1:18" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="96">
         <f>HOUR(B4)</f>
         <v>8</v>
       </c>
-      <c r="C21" s="109">
-        <f t="shared" ref="C21:F21" si="1">HOUR(C4)</f>
+      <c r="C21" s="96">
+        <f t="shared" ref="C21:E21" si="1">HOUR(C4)</f>
         <v>10</v>
       </c>
-      <c r="D21" s="109">
+      <c r="D21" s="96">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E21" s="109">
+      <c r="E21" s="96">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="F21" s="108">
+      <c r="F21" s="95">
         <f>SUM(B21:E21)</f>
         <v>37</v>
       </c>
-      <c r="G21" s="109">
+      <c r="G21" s="96">
         <f t="shared" ref="G21:J21" si="2">HOUR(G4)</f>
         <v>10</v>
       </c>
-      <c r="H21" s="109">
+      <c r="H21" s="96">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I21" s="109">
+      <c r="I21" s="96">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J21" s="109">
+      <c r="J21" s="96">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="K21" s="108">
+      <c r="K21" s="95">
         <f>SUM(G21:J21)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="109">
+    <row r="22" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="96">
         <f>MINUTE(B4)</f>
         <v>12</v>
       </c>
-      <c r="C22" s="109">
-        <f t="shared" ref="C22:F22" si="3">MINUTE(C4)</f>
+      <c r="C22" s="96">
+        <f t="shared" ref="C22:E22" si="3">MINUTE(C4)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="109">
+      <c r="D22" s="96">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="E22" s="109">
+      <c r="E22" s="96">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="F22" s="108">
+      <c r="F22" s="95">
         <f>SUM(B22:E22)</f>
         <v>40</v>
       </c>
-      <c r="G22" s="109">
+      <c r="G22" s="96">
         <f t="shared" ref="G22:J22" si="4">MINUTE(G4)</f>
         <v>41</v>
       </c>
-      <c r="H22" s="109">
+      <c r="H22" s="96">
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="I22" s="109">
+      <c r="I22" s="96">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J22" s="109">
+      <c r="J22" s="96">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="K22" s="108">
+      <c r="K22" s="95">
         <f>SUM(G22:J22)</f>
         <v>120</v>
       </c>
@@ -2505,696 +2440,944 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="74" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="91" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="98" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="91" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" style="98" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="91" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="32.28515625" style="1"/>
-    <col min="9" max="9" width="44" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.28515625" style="1"/>
-    <col min="11" max="11" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="66" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="83" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="90" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="83" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" style="90" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="83" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="20.85546875" style="3" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="44" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" hidden="1" customWidth="1"/>
     <col min="12" max="16384" width="32.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="68" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="71"/>
-      <c r="B1" s="69">
+    <row r="1" spans="1:47" s="60" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="63"/>
+      <c r="B1" s="61">
         <v>44753</v>
       </c>
-      <c r="C1" s="69">
+      <c r="C1" s="61">
         <v>44754</v>
       </c>
-      <c r="D1" s="69">
+      <c r="D1" s="61">
         <v>44755</v>
       </c>
-      <c r="E1" s="69">
+      <c r="E1" s="61">
         <v>44756</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="75">
+      <c r="G1" s="67">
         <v>44760</v>
       </c>
-      <c r="H1" s="75">
+      <c r="H1" s="67">
         <v>44761</v>
       </c>
-      <c r="I1" s="75">
+      <c r="I1" s="67">
         <v>44762</v>
       </c>
-      <c r="J1" s="75">
+      <c r="J1" s="67">
         <v>44763</v>
       </c>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="68">
+      <c r="L1" s="60">
         <v>44767</v>
       </c>
-      <c r="M1" s="68">
+      <c r="M1" s="60">
         <v>44768</v>
       </c>
-      <c r="N1" s="68">
+      <c r="N1" s="60">
         <v>44769</v>
       </c>
-      <c r="O1" s="68">
+      <c r="O1" s="60">
         <v>44770</v>
       </c>
-      <c r="P1" s="68">
+      <c r="P1" s="60">
         <v>44771</v>
       </c>
-      <c r="Q1" s="68">
+      <c r="Q1" s="60">
         <v>44772</v>
       </c>
-      <c r="R1" s="68">
+      <c r="R1" s="60">
         <v>44773</v>
       </c>
-      <c r="S1" s="68">
+      <c r="S1" s="60">
         <v>44774</v>
       </c>
-      <c r="T1" s="68">
+      <c r="T1" s="60">
         <v>44775</v>
       </c>
-      <c r="U1" s="68">
+      <c r="U1" s="60">
         <v>44776</v>
       </c>
-      <c r="V1" s="68">
+      <c r="V1" s="60">
         <v>44777</v>
       </c>
-      <c r="W1" s="68">
+      <c r="W1" s="60">
         <v>44778</v>
       </c>
-      <c r="X1" s="68">
+      <c r="X1" s="60">
         <v>44779</v>
       </c>
-      <c r="Y1" s="68">
+      <c r="Y1" s="60">
         <v>44780</v>
       </c>
-      <c r="Z1" s="68">
+      <c r="Z1" s="60">
         <v>44781</v>
       </c>
-      <c r="AA1" s="68">
+      <c r="AA1" s="60">
         <v>44782</v>
       </c>
-      <c r="AB1" s="68">
+      <c r="AB1" s="60">
         <v>44783</v>
       </c>
-      <c r="AC1" s="68">
+      <c r="AC1" s="60">
         <v>44784</v>
       </c>
-      <c r="AD1" s="68">
+      <c r="AD1" s="60">
         <v>44785</v>
       </c>
-      <c r="AE1" s="68">
+      <c r="AE1" s="60">
         <v>44786</v>
       </c>
-      <c r="AF1" s="68">
+      <c r="AF1" s="60">
         <v>44787</v>
       </c>
-      <c r="AG1" s="68">
+      <c r="AG1" s="60">
         <v>44788</v>
       </c>
-      <c r="AH1" s="68">
+      <c r="AH1" s="60">
         <v>44789</v>
       </c>
-      <c r="AI1" s="68">
+      <c r="AI1" s="60">
         <v>44790</v>
       </c>
-      <c r="AJ1" s="68">
+      <c r="AJ1" s="60">
         <v>44791</v>
       </c>
-      <c r="AK1" s="68">
+      <c r="AK1" s="60">
         <v>44792</v>
       </c>
-      <c r="AL1" s="68">
+      <c r="AL1" s="60">
         <v>44793</v>
       </c>
-      <c r="AM1" s="68">
+      <c r="AM1" s="60">
         <v>44794</v>
       </c>
-      <c r="AN1" s="68">
+      <c r="AN1" s="60">
         <v>44795</v>
       </c>
-      <c r="AO1" s="68">
+      <c r="AO1" s="60">
         <v>44796</v>
       </c>
-      <c r="AP1" s="68">
+      <c r="AP1" s="60">
         <v>44797</v>
       </c>
-      <c r="AQ1" s="68">
+      <c r="AQ1" s="60">
         <v>44798</v>
       </c>
-      <c r="AR1" s="68">
+      <c r="AR1" s="60">
         <v>44799</v>
       </c>
-      <c r="AS1" s="68">
+      <c r="AS1" s="60">
         <v>44800</v>
       </c>
-      <c r="AT1" s="68">
+      <c r="AT1" s="60">
         <v>44801</v>
       </c>
-      <c r="AU1" s="68">
+      <c r="AU1" s="60">
         <v>44802</v>
       </c>
     </row>
     <row r="2" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="99">
+      <c r="A2" s="91">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="103"/>
+      <c r="M2" s="104"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
     </row>
     <row r="3" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="73">
+      <c r="A3" s="91">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B3" s="79"/>
-      <c r="C3" s="102"/>
-      <c r="D3" s="79" t="s">
+      <c r="B3" s="71"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="79" t="s">
+      <c r="E3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="90"/>
-      <c r="G3" s="80" t="s">
+      <c r="F3" s="82"/>
+      <c r="G3" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="103"/>
+      <c r="M3" s="104"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
     </row>
     <row r="4" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73">
+      <c r="A4" s="91">
         <v>0.375</v>
       </c>
-      <c r="B4" s="79"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="104" t="s">
+      <c r="B4" s="71"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="71" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="90"/>
-      <c r="G4" s="104" t="s">
+      <c r="F4" s="82"/>
+      <c r="G4" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="77" t="s">
+      <c r="H4" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="103" t="s">
+      <c r="I4" s="68"/>
+      <c r="J4" s="94" t="s">
         <v>28</v>
       </c>
+      <c r="K4" s="65"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
     </row>
     <row r="5" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73">
+      <c r="A5" s="91">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="102"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="79" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="90"/>
-      <c r="G5" s="105"/>
-      <c r="H5" s="104" t="s">
+      <c r="F5" s="82"/>
+      <c r="G5" s="102"/>
+      <c r="H5" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="104" t="s">
+      <c r="I5" s="99" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="80" t="s">
+      <c r="J5" s="72" t="s">
         <v>78</v>
       </c>
+      <c r="K5" s="65"/>
+      <c r="L5" s="98" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" s="97" t="s">
+        <v>93</v>
+      </c>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
     </row>
     <row r="6" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="73">
+      <c r="A6" s="91">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="94" t="s">
+      <c r="B6" s="71"/>
+      <c r="C6" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="104" t="s">
+      <c r="D6" s="100"/>
+      <c r="E6" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="90"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="80" t="s">
+      <c r="F6" s="82"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="102"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="72" t="s">
         <v>79</v>
       </c>
+      <c r="K6" s="65"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98" t="s">
+        <v>96</v>
+      </c>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
     </row>
     <row r="7" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="73">
+      <c r="A7" s="91">
         <v>0.4375</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="71"/>
+      <c r="C7" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="105"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="105"/>
-      <c r="H7" s="105"/>
-      <c r="I7" s="80" t="s">
+      <c r="E7" s="102"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="80" t="s">
+      <c r="J7" s="72" t="s">
         <v>80</v>
       </c>
+      <c r="K7" s="65"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
     </row>
     <row r="8" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="73">
+      <c r="A8" s="91">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="94" t="s">
+      <c r="B8" s="71"/>
+      <c r="C8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="104" t="s">
+      <c r="D8" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="105"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="80" t="s">
+      <c r="E8" s="102"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="80" t="s">
+      <c r="J8" s="72" t="s">
         <v>81</v>
       </c>
+      <c r="K8" s="65"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="97"/>
+      <c r="O8" s="97"/>
+      <c r="P8" s="97"/>
+      <c r="Q8" s="97"/>
+      <c r="R8" s="97"/>
     </row>
     <row r="9" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73">
+      <c r="A9" s="91">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="107" t="s">
+      <c r="B9" s="71"/>
+      <c r="C9" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="105"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="80" t="s">
+      <c r="D9" s="102"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="104" t="s">
+      <c r="H9" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="104" t="s">
+      <c r="I9" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="80" t="s">
+      <c r="J9" s="72" t="s">
         <v>73</v>
       </c>
+      <c r="K9" s="65"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="97"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="97"/>
     </row>
     <row r="10" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73">
+      <c r="A10" s="91">
         <v>0.5</v>
       </c>
-      <c r="B10" s="79"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="104" t="s">
+      <c r="B10" s="71"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="104" t="s">
+      <c r="F10" s="82"/>
+      <c r="G10" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="104" t="s">
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="99" t="s">
         <v>82</v>
       </c>
+      <c r="K10" s="65"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="97"/>
+      <c r="O10" s="97"/>
+      <c r="P10" s="97"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="97"/>
     </row>
     <row r="11" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73">
+      <c r="A11" s="91">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B11" s="79"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="105"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="102"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="97" t="s">
+        <v>15</v>
+      </c>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="97"/>
     </row>
     <row r="12" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73">
+      <c r="A12" s="91">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B12" s="79"/>
-      <c r="C12" s="107" t="s">
+      <c r="B12" s="71"/>
+      <c r="C12" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="106"/>
-      <c r="E12" s="79" t="s">
+      <c r="D12" s="100"/>
+      <c r="E12" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="90"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="106"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="M12" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73">
+      <c r="A13" s="91">
         <v>0.5625</v>
       </c>
-      <c r="B13" s="79"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="104" t="s">
+      <c r="B13" s="71"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="79" t="s">
+      <c r="E13" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="90"/>
-      <c r="G13" s="80" t="s">
+      <c r="F13" s="82"/>
+      <c r="G13" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="106"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="80" t="s">
+      <c r="H13" s="100"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="72" t="s">
         <v>84</v>
       </c>
+      <c r="K13" s="65"/>
+      <c r="L13" s="98"/>
+      <c r="M13" s="98"/>
+      <c r="N13" s="97"/>
+      <c r="O13" s="97"/>
+      <c r="P13" s="97"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="97"/>
     </row>
     <row r="14" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73">
+      <c r="A14" s="91">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B14" s="79"/>
-      <c r="C14" s="107" t="s">
+      <c r="B14" s="71"/>
+      <c r="C14" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="104" t="s">
+      <c r="D14" s="100"/>
+      <c r="E14" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="90"/>
-      <c r="G14" s="80" t="s">
+      <c r="F14" s="82"/>
+      <c r="G14" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="104" t="s">
+      <c r="H14" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="106"/>
-      <c r="J14" s="104" t="s">
+      <c r="I14" s="100"/>
+      <c r="J14" s="99" t="s">
         <v>15</v>
       </c>
+      <c r="K14" s="65"/>
+      <c r="L14" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="M14" s="98"/>
+      <c r="N14" s="97"/>
+      <c r="O14" s="97"/>
+      <c r="P14" s="97"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="97"/>
     </row>
     <row r="15" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73">
+      <c r="A15" s="91">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="107"/>
-      <c r="D15" s="104" t="s">
+      <c r="B15" s="71"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="106"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="104" t="s">
+      <c r="E15" s="100"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="105"/>
-      <c r="I15" s="80" t="s">
+      <c r="H15" s="102"/>
+      <c r="I15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="106"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="65"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="98"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
     </row>
     <row r="16" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73">
+      <c r="A16" s="91">
         <v>0.625</v>
       </c>
-      <c r="B16" s="79"/>
-      <c r="C16" s="107" t="s">
+      <c r="B16" s="71"/>
+      <c r="C16" s="101" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="104" t="s">
+      <c r="D16" s="100"/>
+      <c r="E16" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="90"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="104" t="s">
+      <c r="F16" s="82"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="80" t="s">
+      <c r="J16" s="72" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73">
+      <c r="K16" s="65"/>
+      <c r="L16" s="98"/>
+      <c r="M16" s="98"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+    </row>
+    <row r="17" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="91">
         <v>0.64583333333333404</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="104" t="s">
+      <c r="B17" s="71"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="106"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="104" t="s">
+      <c r="E17" s="100"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="105"/>
-      <c r="J17" s="104" t="s">
+      <c r="I17" s="102"/>
+      <c r="J17" s="99" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73">
+      <c r="K17" s="65"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="97"/>
+      <c r="O17" s="97"/>
+      <c r="P17" s="97"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="97"/>
+    </row>
+    <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="91">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B18" s="79"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="79" t="s">
+      <c r="B18" s="71"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="90"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="105"/>
-    </row>
-    <row r="19" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73">
+      <c r="F18" s="82"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="97"/>
+      <c r="O18" s="97"/>
+      <c r="P18" s="97"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="97"/>
+    </row>
+    <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="91">
         <v>0.6875</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="94" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="79" t="s">
+      <c r="D19" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="104" t="s">
+      <c r="E19" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="104" t="s">
+      <c r="F19" s="82"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="99" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="105"/>
-    </row>
-    <row r="20" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73">
+      <c r="J19" s="102"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="97"/>
+      <c r="O19" s="97"/>
+      <c r="P19" s="97"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="97"/>
+    </row>
+    <row r="20" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="91">
         <v>0.70833333333333404</v>
       </c>
-      <c r="B20" s="79"/>
-      <c r="C20" s="94" t="s">
+      <c r="B20" s="71"/>
+      <c r="C20" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="104" t="s">
+      <c r="D20" s="99" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="106"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="105"/>
-    </row>
-    <row r="21" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73">
+      <c r="E20" s="100"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="97" t="s">
+        <v>21</v>
+      </c>
+      <c r="M20" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="N20" s="97"/>
+      <c r="O20" s="97"/>
+      <c r="P20" s="97"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="97"/>
+    </row>
+    <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="91">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="107" t="s">
+      <c r="B21" s="71"/>
+      <c r="C21" s="101" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="106"/>
-      <c r="E21" s="79" t="s">
+      <c r="D21" s="100"/>
+      <c r="E21" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="90"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="104" t="s">
+      <c r="F21" s="82"/>
+      <c r="G21" s="102"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="106"/>
-    </row>
-    <row r="22" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73">
+      <c r="J21" s="100"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="98" t="s">
+        <v>91</v>
+      </c>
+      <c r="M21" s="98"/>
+      <c r="N21" s="97"/>
+      <c r="O21" s="97"/>
+      <c r="P21" s="97"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="97"/>
+    </row>
+    <row r="22" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="91">
         <v>0.75</v>
       </c>
-      <c r="B22" s="79"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="79" t="s">
+      <c r="B22" s="71"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="72"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="77" t="s">
+      <c r="E22" s="64"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="106"/>
-      <c r="J22" s="80" t="s">
+      <c r="I22" s="100"/>
+      <c r="J22" s="72" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73">
+      <c r="K22" s="65"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="97"/>
+      <c r="O22" s="97"/>
+      <c r="P22" s="97"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="97"/>
+    </row>
+    <row r="23" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="91">
         <v>0.77083333333333404</v>
       </c>
-      <c r="B23" s="79"/>
-      <c r="C23" s="107"/>
-      <c r="D23" s="79" t="s">
+      <c r="B23" s="71"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="72"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="78" t="s">
+      <c r="E23" s="64"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="104" t="s">
+      <c r="I23" s="99" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="72"/>
-    </row>
-    <row r="24" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73">
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="98"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="97"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="97"/>
+    </row>
+    <row r="24" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="91">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="94" t="s">
+      <c r="B24" s="71"/>
+      <c r="C24" s="86" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="106"/>
-      <c r="J24" s="72"/>
-    </row>
-    <row r="25" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73">
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="64"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="97" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="104"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+    </row>
+    <row r="25" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="91">
         <v>0.8125</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="72"/>
-      <c r="J25" s="72"/>
-    </row>
-    <row r="26" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73">
+      <c r="B25" s="71"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="97"/>
+      <c r="P25" s="97"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="97"/>
+    </row>
+    <row r="26" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="91">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B26" s="79"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
-      <c r="I26" s="72"/>
-      <c r="J26" s="72"/>
-    </row>
-    <row r="27" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73">
+      <c r="B26" s="71"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="64"/>
+      <c r="H26" s="64"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="65"/>
+      <c r="L26" s="103"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="97"/>
+      <c r="P26" s="97"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="97"/>
+    </row>
+    <row r="27" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="91">
         <v>0.85416666666666596</v>
       </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-    </row>
-    <row r="28" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="100">
+      <c r="B27" s="71"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="103"/>
+      <c r="M27" s="104"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="97"/>
+      <c r="P27" s="97"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="97"/>
+    </row>
+    <row r="28" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="91">
         <v>0.874999999999999</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="89"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="89"/>
-    </row>
-    <row r="29" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="97"/>
-      <c r="E29" s="97"/>
-      <c r="F29" s="84"/>
-    </row>
-    <row r="30" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="84"/>
-    </row>
-    <row r="31" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="84"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="L28" s="103"/>
+      <c r="M28" s="104"/>
+      <c r="N28" s="97"/>
+      <c r="O28" s="97"/>
+      <c r="P28" s="97"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="97"/>
+    </row>
+    <row r="29" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="89"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="76"/>
+    </row>
+    <row r="30" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="76"/>
+    </row>
+    <row r="31" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="40">
+    <mergeCell ref="M6:M10"/>
+    <mergeCell ref="M12:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L19"/>
+    <mergeCell ref="L21:L23"/>
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="J17:J21"/>
@@ -3205,7 +3388,6 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D20:D21"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="H9:H13"/>
     <mergeCell ref="I9:I14"/>
@@ -3213,6 +3395,7 @@
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="H17:H21"/>
+    <mergeCell ref="L5:L11"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="C21:C23"/>
@@ -3227,6 +3410,7 @@
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3248,919 +3432,919 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69">
+      <c r="A1" s="61">
         <v>44762</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="84"/>
-      <c r="S1" s="84"/>
-      <c r="T1" s="84"/>
-      <c r="U1" s="84"/>
-      <c r="V1" s="84"/>
-      <c r="W1" s="84"/>
-      <c r="X1" s="84"/>
-      <c r="Y1" s="84"/>
-      <c r="Z1" s="84"/>
-      <c r="AA1" s="84"/>
-      <c r="AB1" s="84"/>
-      <c r="AC1" s="84"/>
-      <c r="AD1" s="83"/>
-      <c r="AE1" s="83"/>
-      <c r="AF1" s="83"/>
-      <c r="AG1" s="83"/>
-      <c r="AH1" s="83"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="76"/>
+      <c r="T1" s="76"/>
+      <c r="U1" s="76"/>
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="75"/>
+      <c r="AF1" s="75"/>
+      <c r="AG1" s="75"/>
+      <c r="AH1" s="75"/>
     </row>
     <row r="2" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="87"/>
-      <c r="M2" s="87"/>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="87"/>
-      <c r="V2" s="87"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="87"/>
-      <c r="Y2" s="87"/>
-      <c r="Z2" s="87"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="87"/>
-      <c r="AC2" s="87"/>
-      <c r="AD2" s="83"/>
-      <c r="AE2" s="83"/>
-      <c r="AF2" s="83"/>
-      <c r="AG2" s="83"/>
-      <c r="AH2" s="83"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="79"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
     </row>
     <row r="3" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="84" t="s">
+      <c r="A3" s="74"/>
+      <c r="B3" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="87"/>
-      <c r="T3" s="87"/>
-      <c r="U3" s="87"/>
-      <c r="V3" s="87"/>
-      <c r="W3" s="87"/>
-      <c r="X3" s="87"/>
-      <c r="Y3" s="87"/>
-      <c r="Z3" s="87"/>
-      <c r="AA3" s="87"/>
-      <c r="AB3" s="87"/>
-      <c r="AC3" s="87"/>
-      <c r="AD3" s="83"/>
-      <c r="AE3" s="83"/>
-      <c r="AF3" s="83"/>
-      <c r="AG3" s="83"/>
-      <c r="AH3" s="83"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="79"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="75"/>
+      <c r="AF3" s="75"/>
+      <c r="AG3" s="75"/>
+      <c r="AH3" s="75"/>
     </row>
     <row r="4" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82"/>
-      <c r="B4" s="84"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="87"/>
-      <c r="W4" s="87"/>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="87"/>
-      <c r="AD4" s="83"/>
-      <c r="AE4" s="83"/>
-      <c r="AF4" s="83"/>
-      <c r="AG4" s="83"/>
-      <c r="AH4" s="83"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="79"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="79"/>
+      <c r="R4" s="79"/>
+      <c r="S4" s="79"/>
+      <c r="T4" s="79"/>
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+      <c r="Y4" s="79"/>
+      <c r="Z4" s="79"/>
+      <c r="AA4" s="79"/>
+      <c r="AB4" s="79"/>
+      <c r="AC4" s="79"/>
+      <c r="AD4" s="75"/>
+      <c r="AE4" s="75"/>
+      <c r="AF4" s="75"/>
+      <c r="AG4" s="75"/>
+      <c r="AH4" s="75"/>
     </row>
     <row r="5" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="82"/>
-      <c r="B5" s="84"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="76"/>
+      <c r="Y5" s="76"/>
+      <c r="Z5" s="76"/>
+      <c r="AA5" s="76"/>
+      <c r="AB5" s="76"/>
+      <c r="AC5" s="76"/>
+      <c r="AD5" s="75"/>
+      <c r="AE5" s="75"/>
+      <c r="AF5" s="75"/>
+      <c r="AG5" s="75"/>
+      <c r="AH5" s="75"/>
     </row>
     <row r="6" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="84"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="84"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="76"/>
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="76"/>
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="76"/>
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="75"/>
+      <c r="AE6" s="75"/>
+      <c r="AF6" s="75"/>
+      <c r="AG6" s="75"/>
+      <c r="AH6" s="75"/>
     </row>
     <row r="7" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="84"/>
-      <c r="O7" s="84"/>
-      <c r="P7" s="84"/>
-      <c r="Q7" s="84"/>
-      <c r="R7" s="84"/>
-      <c r="S7" s="84"/>
-      <c r="T7" s="84"/>
-      <c r="U7" s="84"/>
-      <c r="V7" s="84"/>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="84"/>
-      <c r="AD7" s="83"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="83"/>
-      <c r="AG7" s="83"/>
-      <c r="AH7" s="83"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="76"/>
+      <c r="W7" s="76"/>
+      <c r="X7" s="76"/>
+      <c r="Y7" s="76"/>
+      <c r="Z7" s="76"/>
+      <c r="AA7" s="76"/>
+      <c r="AB7" s="76"/>
+      <c r="AC7" s="76"/>
+      <c r="AD7" s="75"/>
+      <c r="AE7" s="75"/>
+      <c r="AF7" s="75"/>
+      <c r="AG7" s="75"/>
+      <c r="AH7" s="75"/>
     </row>
     <row r="8" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="82"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="83"/>
-      <c r="AE8" s="83"/>
-      <c r="AF8" s="83"/>
-      <c r="AG8" s="83"/>
-      <c r="AH8" s="83"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="76"/>
+      <c r="P8" s="76"/>
+      <c r="Q8" s="76"/>
+      <c r="R8" s="76"/>
+      <c r="S8" s="76"/>
+      <c r="T8" s="76"/>
+      <c r="U8" s="76"/>
+      <c r="V8" s="76"/>
+      <c r="W8" s="76"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="76"/>
+      <c r="AD8" s="75"/>
+      <c r="AE8" s="75"/>
+      <c r="AF8" s="75"/>
+      <c r="AG8" s="75"/>
+      <c r="AH8" s="75"/>
     </row>
     <row r="9" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="84"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="84"/>
-      <c r="L9" s="84"/>
-      <c r="M9" s="84"/>
-      <c r="N9" s="84"/>
-      <c r="O9" s="84"/>
-      <c r="P9" s="84"/>
-      <c r="Q9" s="84"/>
-      <c r="R9" s="84"/>
-      <c r="S9" s="84"/>
-      <c r="T9" s="84"/>
-      <c r="U9" s="84"/>
-      <c r="V9" s="84"/>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="84"/>
-      <c r="AA9" s="84"/>
-      <c r="AB9" s="84"/>
-      <c r="AC9" s="84"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="O9" s="76"/>
+      <c r="P9" s="76"/>
+      <c r="Q9" s="76"/>
+      <c r="R9" s="76"/>
+      <c r="S9" s="76"/>
+      <c r="T9" s="76"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="76"/>
+      <c r="W9" s="76"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="75"/>
+      <c r="AF9" s="75"/>
+      <c r="AG9" s="75"/>
+      <c r="AH9" s="75"/>
     </row>
     <row r="10" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="82"/>
-      <c r="B10" s="84"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="84"/>
-      <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-      <c r="N10" s="84"/>
-      <c r="O10" s="84"/>
-      <c r="P10" s="84"/>
-      <c r="Q10" s="84"/>
-      <c r="R10" s="84"/>
-      <c r="S10" s="84"/>
-      <c r="T10" s="84"/>
-      <c r="U10" s="84"/>
-      <c r="V10" s="84"/>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="84"/>
-      <c r="AB10" s="84"/>
-      <c r="AC10" s="84"/>
-      <c r="AD10" s="83"/>
-      <c r="AE10" s="83"/>
-      <c r="AF10" s="83"/>
-      <c r="AG10" s="83"/>
-      <c r="AH10" s="83"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="O10" s="76"/>
+      <c r="P10" s="76"/>
+      <c r="Q10" s="76"/>
+      <c r="R10" s="76"/>
+      <c r="S10" s="76"/>
+      <c r="T10" s="76"/>
+      <c r="U10" s="76"/>
+      <c r="V10" s="76"/>
+      <c r="W10" s="76"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="75"/>
+      <c r="AE10" s="75"/>
+      <c r="AF10" s="75"/>
+      <c r="AG10" s="75"/>
+      <c r="AH10" s="75"/>
     </row>
     <row r="11" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="84"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="84"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="87"/>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="83"/>
-      <c r="AE11" s="83"/>
-      <c r="AF11" s="83"/>
-      <c r="AG11" s="83"/>
-      <c r="AH11" s="83"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="79"/>
+      <c r="P11" s="79"/>
+      <c r="Q11" s="79"/>
+      <c r="R11" s="79"/>
+      <c r="S11" s="79"/>
+      <c r="T11" s="79"/>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+      <c r="Y11" s="79"/>
+      <c r="Z11" s="79"/>
+      <c r="AA11" s="79"/>
+      <c r="AB11" s="79"/>
+      <c r="AC11" s="79"/>
+      <c r="AD11" s="75"/>
+      <c r="AE11" s="75"/>
+      <c r="AF11" s="75"/>
+      <c r="AG11" s="75"/>
+      <c r="AH11" s="75"/>
     </row>
     <row r="12" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="84"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="87"/>
-      <c r="M12" s="87"/>
-      <c r="N12" s="87"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="87"/>
-      <c r="Y12" s="87"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="87"/>
-      <c r="AD12" s="83"/>
-      <c r="AE12" s="83"/>
-      <c r="AF12" s="83"/>
-      <c r="AG12" s="83"/>
-      <c r="AH12" s="83"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="79"/>
+      <c r="P12" s="79"/>
+      <c r="Q12" s="79"/>
+      <c r="R12" s="79"/>
+      <c r="S12" s="79"/>
+      <c r="T12" s="79"/>
+      <c r="U12" s="79"/>
+      <c r="V12" s="79"/>
+      <c r="W12" s="79"/>
+      <c r="X12" s="79"/>
+      <c r="Y12" s="79"/>
+      <c r="Z12" s="79"/>
+      <c r="AA12" s="79"/>
+      <c r="AB12" s="79"/>
+      <c r="AC12" s="79"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="75"/>
+      <c r="AF12" s="75"/>
+      <c r="AG12" s="75"/>
+      <c r="AH12" s="75"/>
     </row>
     <row r="13" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="84"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="84"/>
-      <c r="K13" s="84"/>
-      <c r="L13" s="84"/>
-      <c r="M13" s="84"/>
-      <c r="N13" s="84"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="84"/>
-      <c r="Q13" s="84"/>
-      <c r="R13" s="84"/>
-      <c r="S13" s="84"/>
-      <c r="T13" s="84"/>
-      <c r="U13" s="84"/>
-      <c r="V13" s="84"/>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="84"/>
-      <c r="AA13" s="84"/>
-      <c r="AB13" s="84"/>
-      <c r="AC13" s="84"/>
-      <c r="AD13" s="83"/>
-      <c r="AE13" s="83"/>
-      <c r="AF13" s="83"/>
-      <c r="AG13" s="83"/>
-      <c r="AH13" s="83"/>
+      <c r="A13" s="74"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="76"/>
+      <c r="K13" s="76"/>
+      <c r="L13" s="76"/>
+      <c r="M13" s="76"/>
+      <c r="N13" s="76"/>
+      <c r="O13" s="76"/>
+      <c r="P13" s="76"/>
+      <c r="Q13" s="76"/>
+      <c r="R13" s="76"/>
+      <c r="S13" s="76"/>
+      <c r="T13" s="76"/>
+      <c r="U13" s="76"/>
+      <c r="V13" s="76"/>
+      <c r="W13" s="76"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="75"/>
+      <c r="AE13" s="75"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="75"/>
+      <c r="AH13" s="75"/>
     </row>
     <row r="14" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="82"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="84"/>
-      <c r="P14" s="84"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="84"/>
-      <c r="AD14" s="83"/>
-      <c r="AE14" s="83"/>
-      <c r="AF14" s="83"/>
-      <c r="AG14" s="83"/>
-      <c r="AH14" s="83"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="76"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="76"/>
+      <c r="K14" s="76"/>
+      <c r="L14" s="76"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="76"/>
+      <c r="O14" s="76"/>
+      <c r="P14" s="76"/>
+      <c r="Q14" s="76"/>
+      <c r="R14" s="76"/>
+      <c r="S14" s="76"/>
+      <c r="T14" s="76"/>
+      <c r="U14" s="76"/>
+      <c r="V14" s="76"/>
+      <c r="W14" s="76"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="75"/>
+      <c r="AE14" s="75"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
     </row>
     <row r="15" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="82"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
-      <c r="N15" s="84"/>
-      <c r="O15" s="84"/>
-      <c r="P15" s="84"/>
-      <c r="Q15" s="84"/>
-      <c r="R15" s="84"/>
-      <c r="S15" s="84"/>
-      <c r="T15" s="84"/>
-      <c r="U15" s="84"/>
-      <c r="V15" s="84"/>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="84"/>
-      <c r="AA15" s="84"/>
-      <c r="AB15" s="84"/>
-      <c r="AC15" s="84"/>
-      <c r="AD15" s="83"/>
-      <c r="AE15" s="83"/>
-      <c r="AF15" s="83"/>
-      <c r="AG15" s="83"/>
-      <c r="AH15" s="83"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="76"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="76"/>
+      <c r="K15" s="76"/>
+      <c r="L15" s="76"/>
+      <c r="M15" s="76"/>
+      <c r="N15" s="76"/>
+      <c r="O15" s="76"/>
+      <c r="P15" s="76"/>
+      <c r="Q15" s="76"/>
+      <c r="R15" s="76"/>
+      <c r="S15" s="76"/>
+      <c r="T15" s="76"/>
+      <c r="U15" s="76"/>
+      <c r="V15" s="76"/>
+      <c r="W15" s="76"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="75"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="75"/>
     </row>
     <row r="16" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
-      <c r="B16" s="84"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="84"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="84"/>
-      <c r="O16" s="84"/>
-      <c r="P16" s="84"/>
-      <c r="Q16" s="84"/>
-      <c r="R16" s="84"/>
-      <c r="S16" s="84"/>
-      <c r="T16" s="84"/>
-      <c r="U16" s="84"/>
-      <c r="V16" s="84"/>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
-      <c r="AA16" s="84"/>
-      <c r="AB16" s="84"/>
-      <c r="AC16" s="84"/>
-      <c r="AD16" s="83"/>
-      <c r="AE16" s="83"/>
-      <c r="AF16" s="83"/>
-      <c r="AG16" s="83"/>
-      <c r="AH16" s="83"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="76"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="76"/>
+      <c r="K16" s="76"/>
+      <c r="L16" s="76"/>
+      <c r="M16" s="76"/>
+      <c r="N16" s="76"/>
+      <c r="O16" s="76"/>
+      <c r="P16" s="76"/>
+      <c r="Q16" s="76"/>
+      <c r="R16" s="76"/>
+      <c r="S16" s="76"/>
+      <c r="T16" s="76"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="75"/>
+      <c r="AE16" s="75"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="75"/>
+      <c r="AH16" s="75"/>
     </row>
     <row r="17" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
-      <c r="B17" s="84"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="87"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="87"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="87"/>
-      <c r="O17" s="87"/>
-      <c r="P17" s="87"/>
-      <c r="Q17" s="87"/>
-      <c r="R17" s="87"/>
-      <c r="S17" s="87"/>
-      <c r="T17" s="87"/>
-      <c r="U17" s="87"/>
-      <c r="V17" s="87"/>
-      <c r="W17" s="87"/>
-      <c r="X17" s="87"/>
-      <c r="Y17" s="87"/>
-      <c r="Z17" s="87"/>
-      <c r="AA17" s="87"/>
-      <c r="AB17" s="87"/>
-      <c r="AC17" s="87"/>
-      <c r="AD17" s="83"/>
-      <c r="AE17" s="83"/>
-      <c r="AF17" s="83"/>
-      <c r="AG17" s="83"/>
-      <c r="AH17" s="83"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
+      <c r="P17" s="79"/>
+      <c r="Q17" s="79"/>
+      <c r="R17" s="79"/>
+      <c r="S17" s="79"/>
+      <c r="T17" s="79"/>
+      <c r="U17" s="79"/>
+      <c r="V17" s="79"/>
+      <c r="W17" s="79"/>
+      <c r="X17" s="79"/>
+      <c r="Y17" s="79"/>
+      <c r="Z17" s="79"/>
+      <c r="AA17" s="79"/>
+      <c r="AB17" s="79"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="75"/>
+      <c r="AE17" s="75"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="75"/>
+      <c r="AH17" s="75"/>
     </row>
     <row r="18" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
-      <c r="B18" s="84"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="84"/>
-      <c r="P18" s="84"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="84"/>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="84"/>
-      <c r="AD18" s="83"/>
-      <c r="AE18" s="83"/>
-      <c r="AF18" s="83"/>
-      <c r="AG18" s="83"/>
-      <c r="AH18" s="83"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="76"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
+      <c r="P18" s="76"/>
+      <c r="Q18" s="76"/>
+      <c r="R18" s="76"/>
+      <c r="S18" s="76"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+      <c r="V18" s="76"/>
+      <c r="W18" s="76"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="75"/>
+      <c r="AE18" s="75"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="75"/>
+      <c r="AH18" s="75"/>
     </row>
     <row r="19" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="84"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="84"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="84"/>
-      <c r="O19" s="84"/>
-      <c r="P19" s="84"/>
-      <c r="Q19" s="84"/>
-      <c r="R19" s="84"/>
-      <c r="S19" s="84"/>
-      <c r="T19" s="84"/>
-      <c r="U19" s="84"/>
-      <c r="V19" s="84"/>
-      <c r="W19" s="84"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="84"/>
-      <c r="AA19" s="84"/>
-      <c r="AB19" s="84"/>
-      <c r="AC19" s="84"/>
-      <c r="AD19" s="83"/>
-      <c r="AE19" s="83"/>
-      <c r="AF19" s="83"/>
-      <c r="AG19" s="83"/>
-      <c r="AH19" s="83"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="76"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="76"/>
+      <c r="L19" s="76"/>
+      <c r="M19" s="76"/>
+      <c r="N19" s="76"/>
+      <c r="O19" s="76"/>
+      <c r="P19" s="76"/>
+      <c r="Q19" s="76"/>
+      <c r="R19" s="76"/>
+      <c r="S19" s="76"/>
+      <c r="T19" s="76"/>
+      <c r="U19" s="76"/>
+      <c r="V19" s="76"/>
+      <c r="W19" s="76"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="75"/>
+      <c r="AE19" s="75"/>
+      <c r="AF19" s="75"/>
+      <c r="AG19" s="75"/>
+      <c r="AH19" s="75"/>
     </row>
     <row r="20" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="84"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="87"/>
-      <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
-      <c r="L20" s="87"/>
-      <c r="M20" s="87"/>
-      <c r="N20" s="87"/>
-      <c r="O20" s="87"/>
-      <c r="P20" s="87"/>
-      <c r="Q20" s="87"/>
-      <c r="R20" s="87"/>
-      <c r="S20" s="87"/>
-      <c r="T20" s="87"/>
-      <c r="U20" s="87"/>
-      <c r="V20" s="87"/>
-      <c r="W20" s="87"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="87"/>
-      <c r="AB20" s="87"/>
-      <c r="AC20" s="87"/>
-      <c r="AD20" s="83"/>
-      <c r="AE20" s="83"/>
-      <c r="AF20" s="83"/>
-      <c r="AG20" s="83"/>
-      <c r="AH20" s="83"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="75"/>
+      <c r="AE20" s="75"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="75"/>
+      <c r="AH20" s="75"/>
     </row>
     <row r="21" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="84"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="87"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="87"/>
-      <c r="J21" s="87"/>
-      <c r="K21" s="87"/>
-      <c r="L21" s="87"/>
-      <c r="M21" s="87"/>
-      <c r="N21" s="87"/>
-      <c r="O21" s="87"/>
-      <c r="P21" s="87"/>
-      <c r="Q21" s="87"/>
-      <c r="R21" s="87"/>
-      <c r="S21" s="87"/>
-      <c r="T21" s="87"/>
-      <c r="U21" s="87"/>
-      <c r="V21" s="87"/>
-      <c r="W21" s="87"/>
-      <c r="X21" s="87"/>
-      <c r="Y21" s="87"/>
-      <c r="Z21" s="87"/>
-      <c r="AA21" s="87"/>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="83"/>
-      <c r="AE21" s="83"/>
-      <c r="AF21" s="83"/>
-      <c r="AG21" s="83"/>
-      <c r="AH21" s="83"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="75"/>
+      <c r="AE21" s="75"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
+      <c r="AH21" s="75"/>
     </row>
     <row r="22" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="84"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="87"/>
-      <c r="J22" s="87"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
-      <c r="M22" s="87"/>
-      <c r="N22" s="87"/>
-      <c r="O22" s="87"/>
-      <c r="P22" s="87"/>
-      <c r="Q22" s="87"/>
-      <c r="R22" s="87"/>
-      <c r="S22" s="87"/>
-      <c r="T22" s="87"/>
-      <c r="U22" s="87"/>
-      <c r="V22" s="87"/>
-      <c r="W22" s="87"/>
-      <c r="X22" s="87"/>
-      <c r="Y22" s="87"/>
-      <c r="Z22" s="87"/>
-      <c r="AA22" s="87"/>
-      <c r="AB22" s="87"/>
-      <c r="AC22" s="87"/>
-      <c r="AD22" s="83"/>
-      <c r="AE22" s="83"/>
-      <c r="AF22" s="83"/>
-      <c r="AG22" s="83"/>
-      <c r="AH22" s="83"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
+      <c r="P22" s="79"/>
+      <c r="Q22" s="79"/>
+      <c r="R22" s="79"/>
+      <c r="S22" s="79"/>
+      <c r="T22" s="79"/>
+      <c r="U22" s="79"/>
+      <c r="V22" s="79"/>
+      <c r="W22" s="79"/>
+      <c r="X22" s="79"/>
+      <c r="Y22" s="79"/>
+      <c r="Z22" s="79"/>
+      <c r="AA22" s="79"/>
+      <c r="AB22" s="79"/>
+      <c r="AC22" s="79"/>
+      <c r="AD22" s="75"/>
+      <c r="AE22" s="75"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="75"/>
+      <c r="AH22" s="75"/>
     </row>
     <row r="23" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="84"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="87"/>
-      <c r="K23" s="87"/>
-      <c r="L23" s="87"/>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="87"/>
-      <c r="P23" s="87"/>
-      <c r="Q23" s="87"/>
-      <c r="R23" s="87"/>
-      <c r="S23" s="87"/>
-      <c r="T23" s="87"/>
-      <c r="U23" s="87"/>
-      <c r="V23" s="87"/>
-      <c r="W23" s="87"/>
-      <c r="X23" s="87"/>
-      <c r="Y23" s="87"/>
-      <c r="Z23" s="87"/>
-      <c r="AA23" s="87"/>
-      <c r="AB23" s="87"/>
-      <c r="AC23" s="87"/>
-      <c r="AD23" s="83"/>
-      <c r="AE23" s="83"/>
-      <c r="AF23" s="83"/>
-      <c r="AG23" s="83"/>
-      <c r="AH23" s="83"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79"/>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
+      <c r="P23" s="79"/>
+      <c r="Q23" s="79"/>
+      <c r="R23" s="79"/>
+      <c r="S23" s="79"/>
+      <c r="T23" s="79"/>
+      <c r="U23" s="79"/>
+      <c r="V23" s="79"/>
+      <c r="W23" s="79"/>
+      <c r="X23" s="79"/>
+      <c r="Y23" s="79"/>
+      <c r="Z23" s="79"/>
+      <c r="AA23" s="79"/>
+      <c r="AB23" s="79"/>
+      <c r="AC23" s="79"/>
+      <c r="AD23" s="75"/>
+      <c r="AE23" s="75"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="75"/>
+      <c r="AH23" s="75"/>
     </row>
     <row r="24" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="84"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
-      <c r="K24" s="87"/>
-      <c r="L24" s="87"/>
-      <c r="M24" s="87"/>
-      <c r="N24" s="87"/>
-      <c r="O24" s="87"/>
-      <c r="P24" s="87"/>
-      <c r="Q24" s="87"/>
-      <c r="R24" s="87"/>
-      <c r="S24" s="87"/>
-      <c r="T24" s="87"/>
-      <c r="U24" s="87"/>
-      <c r="V24" s="83"/>
-      <c r="W24" s="83"/>
-      <c r="X24" s="83"/>
-      <c r="Y24" s="83"/>
-      <c r="Z24" s="83"/>
-      <c r="AA24" s="83"/>
-      <c r="AB24" s="83"/>
-      <c r="AC24" s="83"/>
-      <c r="AD24" s="83"/>
-      <c r="AE24" s="83"/>
-      <c r="AF24" s="83"/>
-      <c r="AG24" s="83"/>
-      <c r="AH24" s="83"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
+      <c r="I24" s="79"/>
+      <c r="J24" s="79"/>
+      <c r="K24" s="79"/>
+      <c r="L24" s="79"/>
+      <c r="M24" s="79"/>
+      <c r="N24" s="79"/>
+      <c r="O24" s="79"/>
+      <c r="P24" s="79"/>
+      <c r="Q24" s="79"/>
+      <c r="R24" s="79"/>
+      <c r="S24" s="79"/>
+      <c r="T24" s="79"/>
+      <c r="U24" s="79"/>
+      <c r="V24" s="75"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="75"/>
+      <c r="Y24" s="75"/>
+      <c r="Z24" s="75"/>
+      <c r="AA24" s="75"/>
+      <c r="AB24" s="75"/>
+      <c r="AC24" s="75"/>
+      <c r="AD24" s="75"/>
+      <c r="AE24" s="75"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="75"/>
+      <c r="AH24" s="75"/>
     </row>
     <row r="25" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="84"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
-      <c r="M25" s="87"/>
-      <c r="N25" s="87"/>
-      <c r="O25" s="87"/>
-      <c r="P25" s="87"/>
-      <c r="Q25" s="87"/>
-      <c r="R25" s="87"/>
-      <c r="S25" s="87"/>
-      <c r="T25" s="87"/>
-      <c r="U25" s="87"/>
-      <c r="V25" s="83"/>
-      <c r="W25" s="83"/>
-      <c r="X25" s="83"/>
-      <c r="Y25" s="83"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
+      <c r="I25" s="79"/>
+      <c r="J25" s="79"/>
+      <c r="K25" s="79"/>
+      <c r="L25" s="79"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="79"/>
+      <c r="R25" s="79"/>
+      <c r="S25" s="79"/>
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="75"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="75"/>
+      <c r="Y25" s="75"/>
     </row>
     <row r="26" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="84"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="87"/>
-      <c r="J26" s="87"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="87"/>
-      <c r="N26" s="87"/>
-      <c r="O26" s="87"/>
-      <c r="P26" s="87"/>
-      <c r="Q26" s="87"/>
-      <c r="R26" s="87"/>
-      <c r="S26" s="87"/>
-      <c r="T26" s="87"/>
-      <c r="U26" s="87"/>
-      <c r="V26" s="83"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="83"/>
-      <c r="Y26" s="83"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
+      <c r="I26" s="79"/>
+      <c r="J26" s="79"/>
+      <c r="K26" s="79"/>
+      <c r="L26" s="79"/>
+      <c r="M26" s="79"/>
+      <c r="N26" s="79"/>
+      <c r="O26" s="79"/>
+      <c r="P26" s="79"/>
+      <c r="Q26" s="79"/>
+      <c r="R26" s="79"/>
+      <c r="S26" s="79"/>
+      <c r="T26" s="79"/>
+      <c r="U26" s="79"/>
+      <c r="V26" s="75"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="75"/>
+      <c r="Y26" s="75"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
   <si>
     <t>Felmerült problémák:</t>
   </si>
@@ -329,6 +329,21 @@
   </si>
   <si>
     <t>nagyon sok dolgot hagytam a get_possible_fish.py ban félbehagyva</t>
+  </si>
+  <si>
+    <t>szeretném csinálgatni a get possible fish filet, hogy legalább a pipeline kiköpjön valami szépet</t>
+  </si>
+  <si>
+    <t>szétszedtem a get_possible_fish t egy egész mappára</t>
+  </si>
+  <si>
+    <t>egész rosszul érzem magam</t>
+  </si>
+  <si>
+    <t>kellene csinálni egy functiont ami plotolja az Input_Img összes rajuzolható képét</t>
+  </si>
+  <si>
+    <t>notebookban próbálom levezetni a pipline-t</t>
   </si>
 </sst>
 </file>
@@ -403,17 +418,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -818,7 +833,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1098,35 +1113,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1407,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW22"/>
+  <dimension ref="A1:AU22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1425,13 +1443,13 @@
     <col min="8" max="8" width="73.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="71.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" style="2" customWidth="1"/>
-    <col min="12" max="13" width="55" style="2"/>
-    <col min="18" max="18" width="14.85546875" style="105" bestFit="1" customWidth="1"/>
-    <col min="23" max="28" width="55" style="105"/>
-    <col min="37" max="39" width="55" style="2"/>
+    <col min="13" max="13" width="63.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="100" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="55" style="100"/>
+    <col min="35" max="37" width="55" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="43" customFormat="1" ht="49.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="43" customFormat="1" ht="49.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42"/>
       <c r="B1" s="43">
         <v>44753</v>
@@ -1464,113 +1482,107 @@
         <v>88</v>
       </c>
       <c r="L1" s="43">
-        <v>44765</v>
+        <v>44767</v>
       </c>
       <c r="M1" s="43">
-        <v>44766</v>
+        <v>44768</v>
       </c>
       <c r="N1" s="43">
-        <v>44767</v>
+        <v>44769</v>
       </c>
       <c r="O1" s="43">
-        <v>44768</v>
-      </c>
-      <c r="P1" s="43">
-        <v>44769</v>
-      </c>
+        <v>44770</v>
+      </c>
+      <c r="P1" s="52"/>
       <c r="Q1" s="43">
-        <v>44770</v>
-      </c>
-      <c r="R1" s="52"/>
+        <v>44774</v>
+      </c>
+      <c r="R1" s="43">
+        <v>44775</v>
+      </c>
       <c r="S1" s="43">
-        <v>44774</v>
+        <v>44776</v>
       </c>
       <c r="T1" s="43">
-        <v>44775</v>
+        <v>44777</v>
       </c>
       <c r="U1" s="43">
-        <v>44776</v>
+        <v>44778</v>
       </c>
       <c r="V1" s="43">
-        <v>44777</v>
+        <v>44779</v>
       </c>
       <c r="W1" s="43">
-        <v>44778</v>
+        <v>44780</v>
       </c>
       <c r="X1" s="43">
-        <v>44779</v>
+        <v>44781</v>
       </c>
       <c r="Y1" s="43">
-        <v>44780</v>
+        <v>44782</v>
       </c>
       <c r="Z1" s="43">
-        <v>44781</v>
+        <v>44783</v>
       </c>
       <c r="AA1" s="43">
-        <v>44782</v>
+        <v>44784</v>
       </c>
       <c r="AB1" s="43">
-        <v>44783</v>
+        <v>44785</v>
       </c>
       <c r="AC1" s="43">
-        <v>44784</v>
+        <v>44786</v>
       </c>
       <c r="AD1" s="43">
-        <v>44785</v>
+        <v>44787</v>
       </c>
       <c r="AE1" s="43">
-        <v>44786</v>
+        <v>44788</v>
       </c>
       <c r="AF1" s="43">
-        <v>44787</v>
+        <v>44789</v>
       </c>
       <c r="AG1" s="43">
-        <v>44788</v>
+        <v>44790</v>
       </c>
       <c r="AH1" s="43">
-        <v>44789</v>
+        <v>44791</v>
       </c>
       <c r="AI1" s="43">
-        <v>44790</v>
+        <v>44792</v>
       </c>
       <c r="AJ1" s="43">
-        <v>44791</v>
+        <v>44793</v>
       </c>
       <c r="AK1" s="43">
-        <v>44792</v>
+        <v>44794</v>
       </c>
       <c r="AL1" s="43">
-        <v>44793</v>
+        <v>44795</v>
       </c>
       <c r="AM1" s="43">
-        <v>44794</v>
+        <v>44796</v>
       </c>
       <c r="AN1" s="43">
-        <v>44795</v>
+        <v>44797</v>
       </c>
       <c r="AO1" s="43">
-        <v>44796</v>
+        <v>44798</v>
       </c>
       <c r="AP1" s="43">
-        <v>44797</v>
+        <v>44799</v>
       </c>
       <c r="AQ1" s="43">
-        <v>44798</v>
+        <v>44800</v>
       </c>
       <c r="AR1" s="43">
-        <v>44799</v>
+        <v>44801</v>
       </c>
       <c r="AS1" s="43">
-        <v>44800</v>
-      </c>
-      <c r="AT1" s="43">
-        <v>44801</v>
-      </c>
-      <c r="AU1" s="43">
         <v>44802</v>
       </c>
     </row>
-    <row r="2" spans="1:49" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25" t="s">
         <v>2</v>
       </c>
@@ -1612,11 +1624,13 @@
       <c r="M2" s="14">
         <v>0.36874999999999997</v>
       </c>
-      <c r="N2" s="13"/>
+      <c r="N2" s="13">
+        <v>0.36458333333333331</v>
+      </c>
       <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -1633,21 +1647,19 @@
       <c r="AF2" s="4"/>
       <c r="AG2" s="4"/>
       <c r="AH2" s="4"/>
-      <c r="AI2" s="4"/>
-      <c r="AJ2" s="4"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
       <c r="AK2" s="5"/>
-      <c r="AL2" s="5"/>
-      <c r="AM2" s="5"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
       <c r="AN2" s="4"/>
       <c r="AO2" s="4"/>
       <c r="AP2" s="4"/>
       <c r="AQ2" s="4"/>
       <c r="AR2" s="4"/>
       <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-    </row>
-    <row r="3" spans="1:49" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:47" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>3</v>
       </c>
@@ -1683,13 +1695,17 @@
         <f>AVERAGE(G3:J3)</f>
         <v>0.7890625</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
+      <c r="L3" s="17">
+        <v>0.81388888888888899</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0.76458333333333339</v>
+      </c>
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -1706,21 +1722,19 @@
       <c r="AF3" s="7"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" s="7"/>
-      <c r="AJ3" s="7"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8"/>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
       <c r="AN3" s="7"/>
       <c r="AO3" s="7"/>
       <c r="AP3" s="7"/>
       <c r="AQ3" s="7"/>
       <c r="AR3" s="7"/>
       <c r="AS3" s="7"/>
-      <c r="AT3" s="7"/>
-      <c r="AU3" s="7"/>
-    </row>
-    <row r="4" spans="1:49" s="56" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:47" s="56" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
         <v>12</v>
       </c>
@@ -1745,7 +1759,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="G4" s="55">
-        <f t="shared" ref="G4:AU4" si="0">G3-G2</f>
+        <f t="shared" ref="G4:AS4" si="0">G3-G2</f>
         <v>0.44513888888888892</v>
       </c>
       <c r="H4" s="55">
@@ -1765,30 +1779,30 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="L4" s="55">
-        <f t="shared" si="0"/>
-        <v>-0.3888888888888889</v>
+        <f>L3-L2</f>
+        <v>0.4250000000000001</v>
       </c>
       <c r="M4" s="55">
-        <f t="shared" si="0"/>
-        <v>-0.36874999999999997</v>
+        <f>M3-M2</f>
+        <v>0.39583333333333343</v>
       </c>
       <c r="N4" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f>N3-N2</f>
+        <v>-0.36458333333333331</v>
       </c>
       <c r="O4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P4" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="P4" s="52"/>
       <c r="Q4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R4" s="52"/>
+      <c r="R4" s="55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="S4" s="55">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1897,18 +1911,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AT4" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AU4" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-    </row>
-    <row r="5" spans="1:49" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+    </row>
+    <row r="5" spans="1:47" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="18"/>
       <c r="C5" s="19" t="s">
@@ -1940,11 +1946,9 @@
         <v>100</v>
       </c>
       <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="52"/>
-    </row>
-    <row r="6" spans="1:49" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="52"/>
+    </row>
+    <row r="6" spans="1:47" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
@@ -1970,11 +1974,9 @@
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="52"/>
-    </row>
-    <row r="7" spans="1:49" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="52"/>
+    </row>
+    <row r="7" spans="1:47" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="18"/>
       <c r="C7" s="19"/>
@@ -1992,11 +1994,9 @@
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="52"/>
-    </row>
-    <row r="8" spans="1:49" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="52"/>
+    </row>
+    <row r="8" spans="1:47" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="18"/>
       <c r="C8" s="19"/>
@@ -2014,11 +2014,9 @@
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="52"/>
-    </row>
-    <row r="9" spans="1:49" s="31" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P8" s="52"/>
+    </row>
+    <row r="9" spans="1:47" s="31" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
       <c r="B9" s="29"/>
       <c r="C9" s="30"/>
@@ -2034,11 +2032,9 @@
       <c r="M9" s="30"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="52"/>
-    </row>
-    <row r="10" spans="1:49" s="34" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="52"/>
+    </row>
+    <row r="10" spans="1:47" s="34" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
         <v>0</v>
       </c>
@@ -2074,13 +2070,13 @@
       <c r="M10" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="N10" s="33"/>
+      <c r="N10" s="33" t="s">
+        <v>102</v>
+      </c>
       <c r="O10" s="33"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="52"/>
-    </row>
-    <row r="11" spans="1:49" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="52"/>
+    </row>
+    <row r="11" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="21" t="s">
         <v>4</v>
@@ -2114,11 +2110,9 @@
       </c>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="52"/>
-    </row>
-    <row r="12" spans="1:49" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="52"/>
+    </row>
+    <row r="12" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="21"/>
       <c r="C12" s="22" t="s">
@@ -2142,13 +2136,13 @@
       <c r="M12" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="22"/>
+      <c r="N12" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="52"/>
-    </row>
-    <row r="13" spans="1:49" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="52"/>
+    </row>
+    <row r="13" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22" t="s">
@@ -2168,11 +2162,9 @@
       <c r="M13" s="22"/>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="52"/>
-    </row>
-    <row r="14" spans="1:49" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="52"/>
+    </row>
+    <row r="14" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22" t="s">
@@ -2190,13 +2182,13 @@
       <c r="K14" s="52"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
+      <c r="N14" s="22" t="s">
+        <v>104</v>
+      </c>
       <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="52"/>
-    </row>
-    <row r="15" spans="1:49" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="52"/>
+    </row>
+    <row r="15" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22" t="s">
@@ -2214,11 +2206,9 @@
       <c r="M15" s="22"/>
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="52"/>
-    </row>
-    <row r="16" spans="1:49" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="52"/>
+    </row>
+    <row r="16" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22" t="s">
@@ -2236,11 +2226,9 @@
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="52"/>
-    </row>
-    <row r="17" spans="1:18" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="52"/>
+    </row>
+    <row r="17" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -2256,11 +2244,9 @@
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="52"/>
-    </row>
-    <row r="18" spans="1:18" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="52"/>
+    </row>
+    <row r="18" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -2276,11 +2262,9 @@
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="52"/>
-    </row>
-    <row r="19" spans="1:18" s="37" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P18" s="52"/>
+    </row>
+    <row r="19" spans="1:16" s="37" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
@@ -2296,11 +2280,9 @@
       <c r="M19" s="36"/>
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="52"/>
-    </row>
-    <row r="20" spans="1:18" s="41" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P19" s="52"/>
+    </row>
+    <row r="20" spans="1:16" s="41" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>1</v>
       </c>
@@ -2342,24 +2324,22 @@
       <c r="M20" s="40"/>
       <c r="N20" s="40"/>
       <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="52"/>
-    </row>
-    <row r="21" spans="1:18" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="96">
+      <c r="P20" s="52"/>
+    </row>
+    <row r="21" spans="1:16" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="106">
         <f>HOUR(B4)</f>
         <v>8</v>
       </c>
-      <c r="C21" s="96">
+      <c r="C21" s="106">
         <f t="shared" ref="C21:E21" si="1">HOUR(C4)</f>
         <v>10</v>
       </c>
-      <c r="D21" s="96">
+      <c r="D21" s="106">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E21" s="96">
+      <c r="E21" s="106">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -2367,19 +2347,19 @@
         <f>SUM(B21:E21)</f>
         <v>37</v>
       </c>
-      <c r="G21" s="96">
+      <c r="G21" s="106">
         <f t="shared" ref="G21:J21" si="2">HOUR(G4)</f>
         <v>10</v>
       </c>
-      <c r="H21" s="96">
+      <c r="H21" s="106">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I21" s="96">
+      <c r="I21" s="106">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J21" s="96">
+      <c r="J21" s="106">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -2387,47 +2367,79 @@
         <f>SUM(G21:J21)</f>
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="96">
+      <c r="L21" s="106">
+        <f>HOUR(L4)</f>
+        <v>10</v>
+      </c>
+      <c r="M21" s="106">
+        <f t="shared" ref="M21:O21" si="3">HOUR(M4)</f>
+        <v>9</v>
+      </c>
+      <c r="N21" s="106" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O21" s="106">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="106">
         <f>MINUTE(B4)</f>
         <v>12</v>
       </c>
-      <c r="C22" s="96">
-        <f t="shared" ref="C22:E22" si="3">MINUTE(C4)</f>
+      <c r="C22" s="106">
+        <f t="shared" ref="C22:E22" si="4">MINUTE(C4)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="96">
-        <f t="shared" si="3"/>
+      <c r="D22" s="106">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="E22" s="96">
-        <f t="shared" si="3"/>
+      <c r="E22" s="106">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="F22" s="95">
         <f>SUM(B22:E22)</f>
         <v>40</v>
       </c>
-      <c r="G22" s="96">
-        <f t="shared" ref="G22:J22" si="4">MINUTE(G4)</f>
+      <c r="G22" s="106">
+        <f t="shared" ref="G22:J22" si="5">MINUTE(G4)</f>
         <v>41</v>
       </c>
-      <c r="H22" s="96">
-        <f t="shared" si="4"/>
+      <c r="H22" s="106">
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="I22" s="96">
-        <f t="shared" si="4"/>
+      <c r="I22" s="106">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="J22" s="96">
-        <f t="shared" si="4"/>
+      <c r="J22" s="106">
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="K22" s="95">
         <f>SUM(G22:J22)</f>
         <v>120</v>
+      </c>
+      <c r="L22" s="106">
+        <f>MINUTE(L4)</f>
+        <v>12</v>
+      </c>
+      <c r="M22" s="106">
+        <f t="shared" ref="M22:O22" si="6">MINUTE(M4)</f>
+        <v>30</v>
+      </c>
+      <c r="N22" s="106" t="e">
+        <f t="shared" si="6"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O22" s="106">
+        <f t="shared" si="6"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2440,24 +2452,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="66" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="66" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="83" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" style="90" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="83" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="45.7109375" style="90" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" style="83" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="3" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="44" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="1" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="32.28515625" style="1"/>
+    <col min="10" max="10" width="28.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="41.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="47" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="32.28515625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" s="60" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2615,13 +2631,13 @@
       <c r="I2" s="68"/>
       <c r="J2" s="68"/>
       <c r="K2" s="65"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="97"/>
-      <c r="P2" s="97"/>
-      <c r="Q2" s="97"/>
-      <c r="R2" s="97"/>
+      <c r="L2" s="98"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="96"/>
+      <c r="Q2" s="96"/>
+      <c r="R2" s="96"/>
     </row>
     <row r="3" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="91">
@@ -2643,13 +2659,13 @@
       <c r="I3" s="68"/>
       <c r="J3" s="68"/>
       <c r="K3" s="65"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="97"/>
-      <c r="Q3" s="97"/>
-      <c r="R3" s="97"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="99"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="96"/>
+      <c r="Q3" s="96"/>
+      <c r="R3" s="96"/>
     </row>
     <row r="4" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="91">
@@ -2657,14 +2673,14 @@
       </c>
       <c r="B4" s="71"/>
       <c r="C4" s="93"/>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="102" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="71" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="82"/>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="102" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="69" t="s">
@@ -2675,15 +2691,17 @@
         <v>28</v>
       </c>
       <c r="K4" s="65"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="97" t="s">
+      <c r="L4" s="98"/>
+      <c r="M4" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="97"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="97"/>
-      <c r="Q4" s="97"/>
-      <c r="R4" s="97"/>
+      <c r="N4" s="97" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
     </row>
     <row r="5" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="91">
@@ -2691,33 +2709,35 @@
       </c>
       <c r="B5" s="71"/>
       <c r="C5" s="93"/>
-      <c r="D5" s="102"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="71" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="82"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="99" t="s">
+      <c r="G5" s="103"/>
+      <c r="H5" s="102" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="99" t="s">
+      <c r="I5" s="102" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="72" t="s">
         <v>78</v>
       </c>
       <c r="K5" s="65"/>
-      <c r="L5" s="98" t="s">
+      <c r="L5" s="101" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="97" t="s">
+      <c r="M5" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="97"/>
-      <c r="Q5" s="97"/>
-      <c r="R5" s="97"/>
+      <c r="N5" s="101" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="96"/>
+      <c r="P5" s="96"/>
+      <c r="Q5" s="96"/>
+      <c r="R5" s="96"/>
     </row>
     <row r="6" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="91">
@@ -2727,27 +2747,27 @@
       <c r="C6" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="100"/>
-      <c r="E6" s="99" t="s">
+      <c r="D6" s="104"/>
+      <c r="E6" s="102" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="82"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="100"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="104"/>
       <c r="J6" s="72" t="s">
         <v>79</v>
       </c>
       <c r="K6" s="65"/>
-      <c r="L6" s="98"/>
-      <c r="M6" s="98" t="s">
+      <c r="L6" s="101"/>
+      <c r="M6" s="101" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="97"/>
-      <c r="O6" s="97"/>
-      <c r="P6" s="97"/>
-      <c r="Q6" s="97"/>
-      <c r="R6" s="97"/>
+      <c r="N6" s="101"/>
+      <c r="O6" s="96"/>
+      <c r="P6" s="96"/>
+      <c r="Q6" s="96"/>
+      <c r="R6" s="96"/>
     </row>
     <row r="7" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="91">
@@ -2760,10 +2780,10 @@
       <c r="D7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="102"/>
+      <c r="E7" s="103"/>
       <c r="F7" s="82"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="102"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
       <c r="I7" s="72" t="s">
         <v>69</v>
       </c>
@@ -2771,13 +2791,13 @@
         <v>80</v>
       </c>
       <c r="K7" s="65"/>
-      <c r="L7" s="98"/>
-      <c r="M7" s="98"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="97"/>
-      <c r="P7" s="97"/>
-      <c r="Q7" s="97"/>
-      <c r="R7" s="97"/>
+      <c r="L7" s="101"/>
+      <c r="M7" s="101"/>
+      <c r="N7" s="101"/>
+      <c r="O7" s="96"/>
+      <c r="P7" s="96"/>
+      <c r="Q7" s="96"/>
+      <c r="R7" s="96"/>
     </row>
     <row r="8" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="91">
@@ -2787,13 +2807,13 @@
       <c r="C8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="99" t="s">
+      <c r="D8" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="102"/>
+      <c r="E8" s="103"/>
       <c r="F8" s="82"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="100"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
       <c r="I8" s="72" t="s">
         <v>70</v>
       </c>
@@ -2801,135 +2821,137 @@
         <v>81</v>
       </c>
       <c r="K8" s="65"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="97"/>
-      <c r="P8" s="97"/>
-      <c r="Q8" s="97"/>
-      <c r="R8" s="97"/>
+      <c r="L8" s="101"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="96"/>
+      <c r="P8" s="96"/>
+      <c r="Q8" s="96"/>
+      <c r="R8" s="96"/>
     </row>
     <row r="9" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91">
         <v>0.47916666666666702</v>
       </c>
       <c r="B9" s="71"/>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="100"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="104"/>
       <c r="F9" s="82"/>
       <c r="G9" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="99" t="s">
+      <c r="H9" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="99" t="s">
+      <c r="I9" s="102" t="s">
         <v>71</v>
       </c>
       <c r="J9" s="72" t="s">
         <v>73</v>
       </c>
       <c r="K9" s="65"/>
-      <c r="L9" s="98"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="97"/>
-      <c r="Q9" s="97"/>
-      <c r="R9" s="97"/>
+      <c r="L9" s="101"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="96"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="96"/>
+      <c r="R9" s="96"/>
     </row>
     <row r="10" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="91">
         <v>0.5</v>
       </c>
       <c r="B10" s="71"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="99" t="s">
+      <c r="C10" s="105"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="102" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="82"/>
-      <c r="G10" s="99" t="s">
+      <c r="G10" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="99" t="s">
+      <c r="H10" s="103"/>
+      <c r="I10" s="103"/>
+      <c r="J10" s="102" t="s">
         <v>82</v>
       </c>
       <c r="K10" s="65"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="97"/>
+      <c r="L10" s="101"/>
+      <c r="M10" s="101"/>
+      <c r="N10" s="101"/>
+      <c r="O10" s="96"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="96"/>
+      <c r="R10" s="96"/>
     </row>
     <row r="11" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="91">
         <v>0.52083333333333304</v>
       </c>
       <c r="B11" s="71"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="100"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="82"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="102"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103"/>
       <c r="K11" s="65"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="97" t="s">
+      <c r="L11" s="101"/>
+      <c r="M11" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="97"/>
-      <c r="Q11" s="97"/>
-      <c r="R11" s="97"/>
+      <c r="N11" s="101" t="s">
+        <v>15</v>
+      </c>
+      <c r="O11" s="96"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="96"/>
+      <c r="R11" s="96"/>
     </row>
     <row r="12" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="91">
         <v>0.54166666666666696</v>
       </c>
       <c r="B12" s="71"/>
-      <c r="C12" s="101" t="s">
+      <c r="C12" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="100"/>
+      <c r="D12" s="104"/>
       <c r="E12" s="71" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="82"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="100"/>
+      <c r="G12" s="104"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="103"/>
+      <c r="J12" s="104"/>
       <c r="K12" s="65"/>
-      <c r="L12" s="98" t="s">
+      <c r="L12" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="98" t="s">
+      <c r="M12" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
+      <c r="N12" s="101"/>
+      <c r="O12" s="96"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="96"/>
+      <c r="R12" s="96"/>
     </row>
     <row r="13" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="91">
         <v>0.5625</v>
       </c>
       <c r="B13" s="71"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="99" t="s">
+      <c r="C13" s="105"/>
+      <c r="D13" s="102" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="71" t="s">
@@ -2939,165 +2961,167 @@
       <c r="G13" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="100"/>
-      <c r="I13" s="102"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="103"/>
       <c r="J13" s="72" t="s">
         <v>84</v>
       </c>
       <c r="K13" s="65"/>
-      <c r="L13" s="98"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="97"/>
-      <c r="P13" s="97"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="97"/>
+      <c r="L13" s="101"/>
+      <c r="M13" s="101"/>
+      <c r="N13" s="101" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" s="96"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="96"/>
+      <c r="R13" s="96"/>
     </row>
     <row r="14" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="91">
         <v>0.58333333333333304</v>
       </c>
       <c r="B14" s="71"/>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="100"/>
-      <c r="E14" s="99" t="s">
+      <c r="D14" s="104"/>
+      <c r="E14" s="102" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="82"/>
       <c r="G14" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="99" t="s">
+      <c r="H14" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="100"/>
-      <c r="J14" s="99" t="s">
+      <c r="I14" s="104"/>
+      <c r="J14" s="102" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="65"/>
-      <c r="L14" s="98" t="s">
+      <c r="L14" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="98"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="97"/>
-      <c r="P14" s="97"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="97"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="96"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="96"/>
+      <c r="R14" s="96"/>
     </row>
     <row r="15" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="91">
         <v>0.60416666666666696</v>
       </c>
       <c r="B15" s="71"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="99" t="s">
+      <c r="C15" s="105"/>
+      <c r="D15" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="100"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="82"/>
-      <c r="G15" s="99" t="s">
+      <c r="G15" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="102"/>
+      <c r="H15" s="103"/>
       <c r="I15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="100"/>
+      <c r="J15" s="104"/>
       <c r="K15" s="65"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="97"/>
-      <c r="P15" s="97"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="97"/>
+      <c r="L15" s="101"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
     </row>
     <row r="16" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="91">
         <v>0.625</v>
       </c>
       <c r="B16" s="71"/>
-      <c r="C16" s="101" t="s">
+      <c r="C16" s="105" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="100"/>
-      <c r="E16" s="99" t="s">
+      <c r="D16" s="104"/>
+      <c r="E16" s="102" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="82"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="99" t="s">
+      <c r="G16" s="103"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="102" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="72" t="s">
         <v>85</v>
       </c>
       <c r="K16" s="65"/>
-      <c r="L16" s="98"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="97"/>
-      <c r="O16" s="97"/>
-      <c r="P16" s="97"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="97"/>
+      <c r="L16" s="101"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="96"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="96"/>
+      <c r="R16" s="96"/>
     </row>
     <row r="17" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>0.64583333333333404</v>
       </c>
       <c r="B17" s="71"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="99" t="s">
+      <c r="C17" s="105"/>
+      <c r="D17" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="100"/>
+      <c r="E17" s="104"/>
       <c r="F17" s="82"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="99" t="s">
+      <c r="G17" s="103"/>
+      <c r="H17" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="102"/>
-      <c r="J17" s="99" t="s">
+      <c r="I17" s="103"/>
+      <c r="J17" s="102" t="s">
         <v>86</v>
       </c>
       <c r="K17" s="65"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="97"/>
-      <c r="P17" s="97"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="97"/>
+      <c r="L17" s="101"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="96"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="96"/>
+      <c r="R17" s="96"/>
     </row>
     <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="91">
         <v>0.66666666666666696</v>
       </c>
       <c r="B18" s="71"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="100"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="104"/>
       <c r="E18" s="71" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="82"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="102"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="104"/>
+      <c r="J18" s="103"/>
       <c r="K18" s="65"/>
-      <c r="L18" s="98"/>
-      <c r="M18" s="98" t="s">
+      <c r="L18" s="101"/>
+      <c r="M18" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="N18" s="97"/>
-      <c r="O18" s="97"/>
-      <c r="P18" s="97"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="97"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="96"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="96"/>
+      <c r="R18" s="96"/>
     </row>
     <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="91">
@@ -3110,24 +3134,26 @@
       <c r="D19" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="99" t="s">
+      <c r="E19" s="102" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="82"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="99" t="s">
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="102"/>
+      <c r="J19" s="103"/>
       <c r="K19" s="65"/>
-      <c r="L19" s="98"/>
-      <c r="M19" s="98"/>
-      <c r="N19" s="97"/>
-      <c r="O19" s="97"/>
-      <c r="P19" s="97"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="97"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="96" t="s">
+        <v>21</v>
+      </c>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
     </row>
     <row r="20" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
@@ -3137,113 +3163,113 @@
       <c r="C20" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="99" t="s">
+      <c r="D20" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="100"/>
+      <c r="E20" s="104"/>
       <c r="F20" s="82"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="100"/>
-      <c r="J20" s="102"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="103"/>
       <c r="K20" s="65"/>
-      <c r="L20" s="97" t="s">
+      <c r="L20" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="98" t="s">
+      <c r="M20" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="N20" s="97"/>
-      <c r="O20" s="97"/>
-      <c r="P20" s="97"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="97"/>
+      <c r="N20" s="96"/>
+      <c r="O20" s="96"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="96"/>
+      <c r="R20" s="96"/>
     </row>
     <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="91">
         <v>0.72916666666666696</v>
       </c>
       <c r="B21" s="71"/>
-      <c r="C21" s="101" t="s">
+      <c r="C21" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="100"/>
+      <c r="D21" s="104"/>
       <c r="E21" s="71" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="82"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="99" t="s">
+      <c r="G21" s="103"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="100"/>
+      <c r="J21" s="104"/>
       <c r="K21" s="65"/>
-      <c r="L21" s="98" t="s">
+      <c r="L21" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="98"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="97"/>
-      <c r="P21" s="97"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="97"/>
+      <c r="M21" s="101"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="96"/>
     </row>
     <row r="22" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="91">
         <v>0.75</v>
       </c>
       <c r="B22" s="71"/>
-      <c r="C22" s="101"/>
+      <c r="C22" s="105"/>
       <c r="D22" s="71" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="82"/>
-      <c r="G22" s="102"/>
+      <c r="G22" s="103"/>
       <c r="H22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="100"/>
+      <c r="I22" s="104"/>
       <c r="J22" s="72" t="s">
         <v>87</v>
       </c>
       <c r="K22" s="65"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="104"/>
-      <c r="N22" s="97"/>
-      <c r="O22" s="97"/>
-      <c r="P22" s="97"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="97"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="96"/>
     </row>
     <row r="23" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="91">
         <v>0.77083333333333404</v>
       </c>
       <c r="B23" s="71"/>
-      <c r="C23" s="101"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="71" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="82"/>
-      <c r="G23" s="100"/>
+      <c r="G23" s="104"/>
       <c r="H23" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="99" t="s">
+      <c r="I23" s="102" t="s">
         <v>74</v>
       </c>
       <c r="J23" s="64"/>
       <c r="K23" s="65"/>
-      <c r="L23" s="98"/>
-      <c r="M23" s="104"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="97"/>
-      <c r="P23" s="97"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="97"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="96"/>
+      <c r="O23" s="96"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="96"/>
+      <c r="R23" s="96"/>
     </row>
     <row r="24" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="91">
@@ -3258,18 +3284,18 @@
       <c r="F24" s="82"/>
       <c r="G24" s="64"/>
       <c r="H24" s="64"/>
-      <c r="I24" s="100"/>
+      <c r="I24" s="104"/>
       <c r="J24" s="64"/>
       <c r="K24" s="65"/>
-      <c r="L24" s="97" t="s">
+      <c r="L24" s="96" t="s">
         <v>36</v>
       </c>
-      <c r="M24" s="104"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="97"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="97"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
     </row>
     <row r="25" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="91">
@@ -3285,13 +3311,13 @@
       <c r="I25" s="64"/>
       <c r="J25" s="64"/>
       <c r="K25" s="65"/>
-      <c r="L25" s="103"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="97"/>
-      <c r="O25" s="97"/>
-      <c r="P25" s="97"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="97"/>
+      <c r="L25" s="98"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
     </row>
     <row r="26" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="91">
@@ -3307,13 +3333,13 @@
       <c r="I26" s="64"/>
       <c r="J26" s="64"/>
       <c r="K26" s="65"/>
-      <c r="L26" s="103"/>
-      <c r="M26" s="104"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="97"/>
-      <c r="P26" s="97"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="97"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
     </row>
     <row r="27" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="91">
@@ -3329,13 +3355,13 @@
       <c r="I27" s="64"/>
       <c r="J27" s="64"/>
       <c r="K27" s="65"/>
-      <c r="L27" s="103"/>
-      <c r="M27" s="104"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="97"/>
-      <c r="P27" s="97"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="97"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
     </row>
     <row r="28" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="91">
@@ -3350,13 +3376,13 @@
       <c r="H28" s="81"/>
       <c r="I28" s="81"/>
       <c r="J28" s="81"/>
-      <c r="L28" s="103"/>
-      <c r="M28" s="104"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="97"/>
-      <c r="P28" s="97"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="97"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="96"/>
     </row>
     <row r="29" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="89"/>
@@ -3370,32 +3396,10 @@
       <c r="F31" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="M6:M10"/>
-    <mergeCell ref="M12:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L19"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="L5:L11"/>
+  <mergeCells count="43">
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N5:N10"/>
+    <mergeCell ref="N13:N18"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="C21:C23"/>
@@ -3411,6 +3415,31 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="M6:M10"/>
+    <mergeCell ref="M12:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L19"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L5:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3422,7 +3451,7 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="105.7109375" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3761,8 +3790,10 @@
       <c r="AH9" s="75"/>
     </row>
     <row r="10" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="76"/>
+      <c r="A10" s="61">
+        <v>44769</v>
+      </c>
+      <c r="B10" s="80"/>
       <c r="C10" s="76"/>
       <c r="D10" s="76"/>
       <c r="E10" s="76"/>
@@ -3798,7 +3829,9 @@
     </row>
     <row r="11" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="74"/>
-      <c r="B11" s="76"/>
+      <c r="B11" s="76" t="s">
+        <v>101</v>
+      </c>
       <c r="C11" s="76"/>
       <c r="D11" s="76"/>
       <c r="E11" s="79"/>

--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="111">
   <si>
     <t>Felmerült problémák:</t>
   </si>
@@ -344,6 +344,21 @@
   </si>
   <si>
     <t>notebookban próbálom levezetni a pipline-t</t>
+  </si>
+  <si>
+    <t>binary fish</t>
+  </si>
+  <si>
+    <t>segmenting fish</t>
+  </si>
+  <si>
+    <t>binary image a pipelineból</t>
+  </si>
+  <si>
+    <t>SZEGMENTÁCIÓÓÓÓ</t>
+  </si>
+  <si>
+    <t>defekt</t>
   </si>
 </sst>
 </file>
@@ -1129,22 +1144,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1427,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU22"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1627,7 +1642,9 @@
       <c r="N2" s="13">
         <v>0.36458333333333331</v>
       </c>
-      <c r="O2" s="13"/>
+      <c r="O2" s="13">
+        <v>0.40625</v>
+      </c>
       <c r="P2" s="52"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -1792,7 +1809,7 @@
       </c>
       <c r="O4" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.40625</v>
       </c>
       <c r="P4" s="52"/>
       <c r="Q4" s="55">
@@ -2327,19 +2344,19 @@
       <c r="P20" s="52"/>
     </row>
     <row r="21" spans="1:16" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="106">
+      <c r="B21" s="101">
         <f>HOUR(B4)</f>
         <v>8</v>
       </c>
-      <c r="C21" s="106">
+      <c r="C21" s="101">
         <f t="shared" ref="C21:E21" si="1">HOUR(C4)</f>
         <v>10</v>
       </c>
-      <c r="D21" s="106">
+      <c r="D21" s="101">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="E21" s="106">
+      <c r="E21" s="101">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -2347,19 +2364,19 @@
         <f>SUM(B21:E21)</f>
         <v>37</v>
       </c>
-      <c r="G21" s="106">
+      <c r="G21" s="101">
         <f t="shared" ref="G21:J21" si="2">HOUR(G4)</f>
         <v>10</v>
       </c>
-      <c r="H21" s="106">
+      <c r="H21" s="101">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="I21" s="106">
+      <c r="I21" s="101">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="J21" s="106">
+      <c r="J21" s="101">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
@@ -2367,37 +2384,37 @@
         <f>SUM(G21:J21)</f>
         <v>38</v>
       </c>
-      <c r="L21" s="106">
+      <c r="L21" s="101">
         <f>HOUR(L4)</f>
         <v>10</v>
       </c>
-      <c r="M21" s="106">
+      <c r="M21" s="101">
         <f t="shared" ref="M21:O21" si="3">HOUR(M4)</f>
         <v>9</v>
       </c>
-      <c r="N21" s="106" t="e">
+      <c r="N21" s="101" t="e">
         <f t="shared" si="3"/>
         <v>#NUM!</v>
       </c>
-      <c r="O21" s="106">
+      <c r="O21" s="101" t="e">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="106">
+      <c r="B22" s="101">
         <f>MINUTE(B4)</f>
         <v>12</v>
       </c>
-      <c r="C22" s="106">
+      <c r="C22" s="101">
         <f t="shared" ref="C22:E22" si="4">MINUTE(C4)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="106">
+      <c r="D22" s="101">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="E22" s="106">
+      <c r="E22" s="101">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -2405,19 +2422,19 @@
         <f>SUM(B22:E22)</f>
         <v>40</v>
       </c>
-      <c r="G22" s="106">
+      <c r="G22" s="101">
         <f t="shared" ref="G22:J22" si="5">MINUTE(G4)</f>
         <v>41</v>
       </c>
-      <c r="H22" s="106">
+      <c r="H22" s="101">
         <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="I22" s="106">
+      <c r="I22" s="101">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="J22" s="106">
+      <c r="J22" s="101">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
@@ -2425,21 +2442,21 @@
         <f>SUM(G22:J22)</f>
         <v>120</v>
       </c>
-      <c r="L22" s="106">
+      <c r="L22" s="101">
         <f>MINUTE(L4)</f>
         <v>12</v>
       </c>
-      <c r="M22" s="106">
+      <c r="M22" s="101">
         <f t="shared" ref="M22:O22" si="6">MINUTE(M4)</f>
         <v>30</v>
       </c>
-      <c r="N22" s="106" t="e">
+      <c r="N22" s="101" t="e">
         <f t="shared" si="6"/>
         <v>#NUM!</v>
       </c>
-      <c r="O22" s="106">
+      <c r="O22" s="101" t="e">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
     </row>
   </sheetData>
@@ -2452,8 +2469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2634,7 +2651,7 @@
       <c r="L2" s="98"/>
       <c r="M2" s="99"/>
       <c r="N2" s="99"/>
-      <c r="O2" s="96"/>
+      <c r="O2" s="99"/>
       <c r="P2" s="96"/>
       <c r="Q2" s="96"/>
       <c r="R2" s="96"/>
@@ -2662,7 +2679,7 @@
       <c r="L3" s="98"/>
       <c r="M3" s="99"/>
       <c r="N3" s="99"/>
-      <c r="O3" s="96"/>
+      <c r="O3" s="99"/>
       <c r="P3" s="96"/>
       <c r="Q3" s="96"/>
       <c r="R3" s="96"/>
@@ -2673,14 +2690,14 @@
       </c>
       <c r="B4" s="71"/>
       <c r="C4" s="93"/>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="103" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="71" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="82"/>
-      <c r="G4" s="102" t="s">
+      <c r="G4" s="103" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="69" t="s">
@@ -2698,7 +2715,7 @@
       <c r="N4" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="96"/>
+      <c r="O4" s="99"/>
       <c r="P4" s="96"/>
       <c r="Q4" s="96"/>
       <c r="R4" s="96"/>
@@ -2709,32 +2726,34 @@
       </c>
       <c r="B5" s="71"/>
       <c r="C5" s="93"/>
-      <c r="D5" s="103"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="71" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="82"/>
-      <c r="G5" s="103"/>
-      <c r="H5" s="102" t="s">
+      <c r="G5" s="106"/>
+      <c r="H5" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="102" t="s">
+      <c r="I5" s="103" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="72" t="s">
         <v>78</v>
       </c>
       <c r="K5" s="65"/>
-      <c r="L5" s="101" t="s">
+      <c r="L5" s="102" t="s">
         <v>74</v>
       </c>
       <c r="M5" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="101" t="s">
+      <c r="N5" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="O5" s="96"/>
+      <c r="O5" s="96" t="s">
+        <v>28</v>
+      </c>
       <c r="P5" s="96"/>
       <c r="Q5" s="96"/>
       <c r="R5" s="96"/>
@@ -2748,23 +2767,25 @@
         <v>9</v>
       </c>
       <c r="D6" s="104"/>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="103" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="82"/>
-      <c r="G6" s="103"/>
-      <c r="H6" s="103"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
       <c r="I6" s="104"/>
       <c r="J6" s="72" t="s">
         <v>79</v>
       </c>
       <c r="K6" s="65"/>
-      <c r="L6" s="101"/>
-      <c r="M6" s="101" t="s">
+      <c r="L6" s="102"/>
+      <c r="M6" s="102" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="101"/>
-      <c r="O6" s="96"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="96" t="s">
+        <v>106</v>
+      </c>
       <c r="P6" s="96"/>
       <c r="Q6" s="96"/>
       <c r="R6" s="96"/>
@@ -2780,10 +2801,10 @@
       <c r="D7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="103"/>
+      <c r="E7" s="106"/>
       <c r="F7" s="82"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="103"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
       <c r="I7" s="72" t="s">
         <v>69</v>
       </c>
@@ -2791,10 +2812,12 @@
         <v>80</v>
       </c>
       <c r="K7" s="65"/>
-      <c r="L7" s="101"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="101"/>
-      <c r="O7" s="96"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102" t="s">
+        <v>107</v>
+      </c>
       <c r="P7" s="96"/>
       <c r="Q7" s="96"/>
       <c r="R7" s="96"/>
@@ -2807,10 +2830,10 @@
       <c r="C8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="103"/>
+      <c r="E8" s="106"/>
       <c r="F8" s="82"/>
       <c r="G8" s="104"/>
       <c r="H8" s="104"/>
@@ -2821,10 +2844,10 @@
         <v>81</v>
       </c>
       <c r="K8" s="65"/>
-      <c r="L8" s="101"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="96"/>
+      <c r="L8" s="102"/>
+      <c r="M8" s="102"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="102"/>
       <c r="P8" s="96"/>
       <c r="Q8" s="96"/>
       <c r="R8" s="96"/>
@@ -2837,26 +2860,26 @@
       <c r="C9" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="103"/>
+      <c r="D9" s="106"/>
       <c r="E9" s="104"/>
       <c r="F9" s="82"/>
       <c r="G9" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="102" t="s">
+      <c r="H9" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="102" t="s">
+      <c r="I9" s="103" t="s">
         <v>71</v>
       </c>
       <c r="J9" s="72" t="s">
         <v>73</v>
       </c>
       <c r="K9" s="65"/>
-      <c r="L9" s="101"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="96"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="102"/>
       <c r="P9" s="96"/>
       <c r="Q9" s="96"/>
       <c r="R9" s="96"/>
@@ -2867,24 +2890,26 @@
       </c>
       <c r="B10" s="71"/>
       <c r="C10" s="105"/>
-      <c r="D10" s="103"/>
-      <c r="E10" s="102" t="s">
+      <c r="D10" s="106"/>
+      <c r="E10" s="103" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="82"/>
-      <c r="G10" s="102" t="s">
+      <c r="G10" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="103"/>
-      <c r="I10" s="103"/>
-      <c r="J10" s="102" t="s">
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
+      <c r="J10" s="103" t="s">
         <v>82</v>
       </c>
       <c r="K10" s="65"/>
-      <c r="L10" s="101"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="96"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="102"/>
+      <c r="O10" s="96" t="s">
+        <v>15</v>
+      </c>
       <c r="P10" s="96"/>
       <c r="Q10" s="96"/>
       <c r="R10" s="96"/>
@@ -2895,22 +2920,24 @@
       </c>
       <c r="B11" s="71"/>
       <c r="C11" s="105"/>
-      <c r="D11" s="103"/>
+      <c r="D11" s="106"/>
       <c r="E11" s="104"/>
       <c r="F11" s="82"/>
-      <c r="G11" s="103"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="103"/>
-      <c r="J11" s="103"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
       <c r="K11" s="65"/>
-      <c r="L11" s="101"/>
+      <c r="L11" s="102"/>
       <c r="M11" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="101" t="s">
+      <c r="N11" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="96"/>
+      <c r="O11" s="102" t="s">
+        <v>109</v>
+      </c>
       <c r="P11" s="96"/>
       <c r="Q11" s="96"/>
       <c r="R11" s="96"/>
@@ -2929,18 +2956,18 @@
       </c>
       <c r="F12" s="82"/>
       <c r="G12" s="104"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="103"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
       <c r="J12" s="104"/>
       <c r="K12" s="65"/>
-      <c r="L12" s="101" t="s">
+      <c r="L12" s="102" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="101" t="s">
+      <c r="M12" s="102" t="s">
         <v>95</v>
       </c>
-      <c r="N12" s="101"/>
-      <c r="O12" s="96"/>
+      <c r="N12" s="102"/>
+      <c r="O12" s="102"/>
       <c r="P12" s="96"/>
       <c r="Q12" s="96"/>
       <c r="R12" s="96"/>
@@ -2951,7 +2978,7 @@
       </c>
       <c r="B13" s="71"/>
       <c r="C13" s="105"/>
-      <c r="D13" s="102" t="s">
+      <c r="D13" s="103" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="71" t="s">
@@ -2962,17 +2989,17 @@
         <v>56</v>
       </c>
       <c r="H13" s="104"/>
-      <c r="I13" s="103"/>
+      <c r="I13" s="106"/>
       <c r="J13" s="72" t="s">
         <v>84</v>
       </c>
       <c r="K13" s="65"/>
-      <c r="L13" s="101"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="101" t="s">
+      <c r="L13" s="102"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="102" t="s">
         <v>105</v>
       </c>
-      <c r="O13" s="96"/>
+      <c r="O13" s="102"/>
       <c r="P13" s="96"/>
       <c r="Q13" s="96"/>
       <c r="R13" s="96"/>
@@ -2986,27 +3013,27 @@
         <v>16</v>
       </c>
       <c r="D14" s="104"/>
-      <c r="E14" s="102" t="s">
+      <c r="E14" s="103" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="82"/>
       <c r="G14" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="102" t="s">
+      <c r="H14" s="103" t="s">
         <v>15</v>
       </c>
       <c r="I14" s="104"/>
-      <c r="J14" s="102" t="s">
+      <c r="J14" s="103" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="65"/>
-      <c r="L14" s="101" t="s">
+      <c r="L14" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="96"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="102"/>
+      <c r="O14" s="102"/>
       <c r="P14" s="96"/>
       <c r="Q14" s="96"/>
       <c r="R14" s="96"/>
@@ -3017,24 +3044,24 @@
       </c>
       <c r="B15" s="71"/>
       <c r="C15" s="105"/>
-      <c r="D15" s="102" t="s">
+      <c r="D15" s="103" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="104"/>
       <c r="F15" s="82"/>
-      <c r="G15" s="102" t="s">
+      <c r="G15" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="103"/>
+      <c r="H15" s="106"/>
       <c r="I15" s="72" t="s">
         <v>21</v>
       </c>
       <c r="J15" s="104"/>
       <c r="K15" s="65"/>
-      <c r="L15" s="101"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="96"/>
+      <c r="L15" s="102"/>
+      <c r="M15" s="102"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
       <c r="P15" s="96"/>
       <c r="Q15" s="96"/>
       <c r="R15" s="96"/>
@@ -3048,23 +3075,23 @@
         <v>18</v>
       </c>
       <c r="D16" s="104"/>
-      <c r="E16" s="102" t="s">
+      <c r="E16" s="103" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="82"/>
-      <c r="G16" s="103"/>
+      <c r="G16" s="106"/>
       <c r="H16" s="104"/>
-      <c r="I16" s="102" t="s">
+      <c r="I16" s="103" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="72" t="s">
         <v>85</v>
       </c>
       <c r="K16" s="65"/>
-      <c r="L16" s="101"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="96"/>
+      <c r="L16" s="102"/>
+      <c r="M16" s="102"/>
+      <c r="N16" s="102"/>
+      <c r="O16" s="102"/>
       <c r="P16" s="96"/>
       <c r="Q16" s="96"/>
       <c r="R16" s="96"/>
@@ -3075,24 +3102,24 @@
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="105"/>
-      <c r="D17" s="102" t="s">
+      <c r="D17" s="103" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="104"/>
       <c r="F17" s="82"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="102" t="s">
+      <c r="G17" s="106"/>
+      <c r="H17" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="103"/>
-      <c r="J17" s="102" t="s">
+      <c r="I17" s="106"/>
+      <c r="J17" s="103" t="s">
         <v>86</v>
       </c>
       <c r="K17" s="65"/>
-      <c r="L17" s="101"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="96"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="102"/>
+      <c r="N17" s="102"/>
+      <c r="O17" s="102"/>
       <c r="P17" s="96"/>
       <c r="Q17" s="96"/>
       <c r="R17" s="96"/>
@@ -3108,17 +3135,19 @@
         <v>21</v>
       </c>
       <c r="F18" s="82"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
       <c r="I18" s="104"/>
-      <c r="J18" s="103"/>
+      <c r="J18" s="106"/>
       <c r="K18" s="65"/>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101" t="s">
+      <c r="L18" s="102"/>
+      <c r="M18" s="102" t="s">
         <v>99</v>
       </c>
-      <c r="N18" s="101"/>
-      <c r="O18" s="96"/>
+      <c r="N18" s="102"/>
+      <c r="O18" s="102" t="s">
+        <v>110</v>
+      </c>
       <c r="P18" s="96"/>
       <c r="Q18" s="96"/>
       <c r="R18" s="96"/>
@@ -3134,23 +3163,23 @@
       <c r="D19" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="102" t="s">
+      <c r="E19" s="103" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="82"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="102" t="s">
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="103" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="103"/>
+      <c r="J19" s="106"/>
       <c r="K19" s="65"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="101"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="102"/>
       <c r="N19" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="96"/>
+      <c r="O19" s="102"/>
       <c r="P19" s="96"/>
       <c r="Q19" s="96"/>
       <c r="R19" s="96"/>
@@ -3163,24 +3192,24 @@
       <c r="C20" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="102" t="s">
+      <c r="D20" s="103" t="s">
         <v>29</v>
       </c>
       <c r="E20" s="104"/>
       <c r="F20" s="82"/>
-      <c r="G20" s="103"/>
-      <c r="H20" s="103"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
       <c r="I20" s="104"/>
-      <c r="J20" s="103"/>
+      <c r="J20" s="106"/>
       <c r="K20" s="65"/>
       <c r="L20" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="101" t="s">
+      <c r="M20" s="102" t="s">
         <v>95</v>
       </c>
       <c r="N20" s="96"/>
-      <c r="O20" s="96"/>
+      <c r="O20" s="102"/>
       <c r="P20" s="96"/>
       <c r="Q20" s="96"/>
       <c r="R20" s="96"/>
@@ -3198,17 +3227,17 @@
         <v>36</v>
       </c>
       <c r="F21" s="82"/>
-      <c r="G21" s="103"/>
+      <c r="G21" s="106"/>
       <c r="H21" s="104"/>
-      <c r="I21" s="102" t="s">
+      <c r="I21" s="103" t="s">
         <v>70</v>
       </c>
       <c r="J21" s="104"/>
       <c r="K21" s="65"/>
-      <c r="L21" s="101" t="s">
+      <c r="L21" s="102" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="101"/>
+      <c r="M21" s="102"/>
       <c r="N21" s="96"/>
       <c r="O21" s="96"/>
       <c r="P21" s="96"/>
@@ -3226,7 +3255,7 @@
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="82"/>
-      <c r="G22" s="103"/>
+      <c r="G22" s="106"/>
       <c r="H22" s="69" t="s">
         <v>21</v>
       </c>
@@ -3235,7 +3264,7 @@
         <v>87</v>
       </c>
       <c r="K22" s="65"/>
-      <c r="L22" s="101"/>
+      <c r="L22" s="102"/>
       <c r="M22" s="99"/>
       <c r="N22" s="96"/>
       <c r="O22" s="96"/>
@@ -3258,12 +3287,12 @@
       <c r="H23" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="102" t="s">
+      <c r="I23" s="103" t="s">
         <v>74</v>
       </c>
       <c r="J23" s="64"/>
       <c r="K23" s="65"/>
-      <c r="L23" s="101"/>
+      <c r="L23" s="102"/>
       <c r="M23" s="99"/>
       <c r="N23" s="96"/>
       <c r="O23" s="96"/>
@@ -3291,8 +3320,8 @@
         <v>36</v>
       </c>
       <c r="M24" s="99"/>
-      <c r="N24" s="96"/>
-      <c r="O24" s="96"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
       <c r="P24" s="96"/>
       <c r="Q24" s="96"/>
       <c r="R24" s="96"/>
@@ -3313,9 +3342,9 @@
       <c r="K25" s="65"/>
       <c r="L25" s="98"/>
       <c r="M25" s="99"/>
-      <c r="N25" s="96"/>
-      <c r="O25" s="96"/>
-      <c r="P25" s="96"/>
+      <c r="N25" s="98"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="98"/>
       <c r="Q25" s="96"/>
       <c r="R25" s="96"/>
     </row>
@@ -3335,9 +3364,9 @@
       <c r="K26" s="65"/>
       <c r="L26" s="98"/>
       <c r="M26" s="99"/>
-      <c r="N26" s="96"/>
-      <c r="O26" s="96"/>
-      <c r="P26" s="96"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="98"/>
       <c r="Q26" s="96"/>
       <c r="R26" s="96"/>
     </row>
@@ -3357,9 +3386,9 @@
       <c r="K27" s="65"/>
       <c r="L27" s="98"/>
       <c r="M27" s="99"/>
-      <c r="N27" s="96"/>
-      <c r="O27" s="96"/>
-      <c r="P27" s="96"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="98"/>
       <c r="Q27" s="96"/>
       <c r="R27" s="96"/>
     </row>
@@ -3378,8 +3407,8 @@
       <c r="J28" s="81"/>
       <c r="L28" s="98"/>
       <c r="M28" s="99"/>
-      <c r="N28" s="96"/>
-      <c r="O28" s="96"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="98"/>
       <c r="P28" s="96"/>
       <c r="Q28" s="96"/>
       <c r="R28" s="96"/>
@@ -3396,12 +3425,28 @@
       <c r="F31" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N5:N10"/>
-    <mergeCell ref="N13:N18"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="C16:C18"/>
+  <mergeCells count="46">
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="O11:O17"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="M6:M10"/>
+    <mergeCell ref="M12:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L19"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="I21:I22"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
@@ -3417,29 +3462,16 @@
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="H9:H13"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N5:N10"/>
+    <mergeCell ref="N13:N18"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C16:C18"/>
     <mergeCell ref="I9:I14"/>
     <mergeCell ref="I16:I18"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="J14:J15"/>
     <mergeCell ref="J17:J21"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="M6:M10"/>
-    <mergeCell ref="M12:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L19"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="L5:L11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3451,7 +3483,7 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="105.7109375" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3902,8 +3934,10 @@
       <c r="AH12" s="75"/>
     </row>
     <row r="13" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="74"/>
-      <c r="B13" s="76"/>
+      <c r="A13" s="61">
+        <v>44770</v>
+      </c>
+      <c r="B13" s="80"/>
       <c r="C13" s="76"/>
       <c r="D13" s="76"/>
       <c r="E13" s="76"/>
@@ -3939,7 +3973,9 @@
     </row>
     <row r="14" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="74"/>
-      <c r="B14" s="76"/>
+      <c r="B14" s="76" t="s">
+        <v>108</v>
+      </c>
       <c r="C14" s="76"/>
       <c r="D14" s="76"/>
       <c r="E14" s="76"/>

--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="118">
   <si>
     <t>Felmerült problémák:</t>
   </si>
@@ -359,6 +359,27 @@
   </si>
   <si>
     <t>defekt</t>
+  </si>
+  <si>
+    <t>4th week</t>
+  </si>
+  <si>
+    <t>a fish szegmentálással ment a múlthét, de még nem működik</t>
+  </si>
+  <si>
+    <t>a jupyter elindításánál valamiért nem találja sosem a terminal_msg modult</t>
+  </si>
+  <si>
+    <t>írni MSc iránt</t>
+  </si>
+  <si>
+    <t>érdeklődni szakdoga iránt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">születésnapok </t>
+  </si>
+  <si>
+    <t>elpakolás és commit</t>
   </si>
 </sst>
 </file>
@@ -1442,8 +1463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1646,7 +1667,9 @@
         <v>0.40625</v>
       </c>
       <c r="P2" s="52"/>
-      <c r="Q2" s="4"/>
+      <c r="Q2" s="4">
+        <v>0.37291666666666662</v>
+      </c>
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
@@ -1721,7 +1744,9 @@
       <c r="N3" s="16"/>
       <c r="O3" s="16"/>
       <c r="P3" s="52"/>
-      <c r="Q3" s="7"/>
+      <c r="Q3" s="7">
+        <v>0.76736111111111116</v>
+      </c>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
@@ -1814,7 +1839,7 @@
       <c r="P4" s="52"/>
       <c r="Q4" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.39444444444444454</v>
       </c>
       <c r="R4" s="55">
         <f t="shared" si="0"/>
@@ -1964,6 +1989,9 @@
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="52"/>
+      <c r="Q5" s="10" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="6" spans="1:47" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
@@ -2092,6 +2120,9 @@
       </c>
       <c r="O10" s="33"/>
       <c r="P10" s="52"/>
+      <c r="Q10" s="34" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="11" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
@@ -2467,10 +2498,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AU31"/>
+  <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2489,11 +2520,14 @@
     <col min="12" max="12" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="38.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="41.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="47" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="32.28515625" style="1"/>
+    <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="45" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="32.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="60" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" s="60" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63"/>
       <c r="B1" s="61">
         <v>44753</v>
@@ -2537,104 +2571,98 @@
       <c r="O1" s="60">
         <v>44770</v>
       </c>
-      <c r="P1" s="60">
-        <v>44771</v>
-      </c>
-      <c r="Q1" s="60">
-        <v>44772</v>
-      </c>
-      <c r="R1" s="60">
-        <v>44773</v>
-      </c>
-      <c r="S1" s="60">
+      <c r="P1" s="60" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q1" s="67">
         <v>44774</v>
       </c>
-      <c r="T1" s="60">
+      <c r="R1" s="67">
         <v>44775</v>
       </c>
-      <c r="U1" s="60">
+      <c r="S1" s="67">
         <v>44776</v>
       </c>
-      <c r="V1" s="60">
+      <c r="T1" s="67">
         <v>44777</v>
       </c>
-      <c r="W1" s="60">
+      <c r="U1" s="67">
         <v>44778</v>
       </c>
-      <c r="X1" s="60">
+      <c r="V1" s="67">
         <v>44779</v>
       </c>
-      <c r="Y1" s="60">
+      <c r="W1" s="67">
         <v>44780</v>
       </c>
-      <c r="Z1" s="60">
+      <c r="X1" s="67">
         <v>44781</v>
       </c>
-      <c r="AA1" s="60">
+      <c r="Y1" s="67">
         <v>44782</v>
       </c>
-      <c r="AB1" s="60">
+      <c r="Z1" s="67">
         <v>44783</v>
       </c>
-      <c r="AC1" s="60">
+      <c r="AA1" s="67">
         <v>44784</v>
       </c>
-      <c r="AD1" s="60">
+      <c r="AB1" s="67">
         <v>44785</v>
       </c>
-      <c r="AE1" s="60">
+      <c r="AC1" s="67">
         <v>44786</v>
       </c>
-      <c r="AF1" s="60">
+      <c r="AD1" s="67">
         <v>44787</v>
       </c>
+      <c r="AE1" s="67">
+        <v>44788</v>
+      </c>
+      <c r="AF1" s="67">
+        <v>44789</v>
+      </c>
       <c r="AG1" s="60">
-        <v>44788</v>
+        <v>44790</v>
       </c>
       <c r="AH1" s="60">
-        <v>44789</v>
+        <v>44791</v>
       </c>
       <c r="AI1" s="60">
-        <v>44790</v>
+        <v>44792</v>
       </c>
       <c r="AJ1" s="60">
-        <v>44791</v>
+        <v>44793</v>
       </c>
       <c r="AK1" s="60">
-        <v>44792</v>
+        <v>44794</v>
       </c>
       <c r="AL1" s="60">
-        <v>44793</v>
+        <v>44795</v>
       </c>
       <c r="AM1" s="60">
-        <v>44794</v>
+        <v>44796</v>
       </c>
       <c r="AN1" s="60">
-        <v>44795</v>
+        <v>44797</v>
       </c>
       <c r="AO1" s="60">
-        <v>44796</v>
+        <v>44798</v>
       </c>
       <c r="AP1" s="60">
-        <v>44797</v>
+        <v>44799</v>
       </c>
       <c r="AQ1" s="60">
-        <v>44798</v>
+        <v>44800</v>
       </c>
       <c r="AR1" s="60">
-        <v>44799</v>
+        <v>44801</v>
       </c>
       <c r="AS1" s="60">
-        <v>44800</v>
-      </c>
-      <c r="AT1" s="60">
-        <v>44801</v>
-      </c>
-      <c r="AU1" s="60">
         <v>44802</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="91">
         <v>0.33333333333333331</v>
       </c>
@@ -2652,11 +2680,10 @@
       <c r="M2" s="99"/>
       <c r="N2" s="99"/>
       <c r="O2" s="99"/>
-      <c r="P2" s="96"/>
-      <c r="Q2" s="96"/>
-      <c r="R2" s="96"/>
-    </row>
-    <row r="3" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+    </row>
+    <row r="3" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="91">
         <v>0.35416666666666669</v>
       </c>
@@ -2680,11 +2707,10 @@
       <c r="M3" s="99"/>
       <c r="N3" s="99"/>
       <c r="O3" s="99"/>
-      <c r="P3" s="96"/>
-      <c r="Q3" s="96"/>
-      <c r="R3" s="96"/>
-    </row>
-    <row r="4" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+    </row>
+    <row r="4" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="91">
         <v>0.375</v>
       </c>
@@ -2716,11 +2742,12 @@
         <v>28</v>
       </c>
       <c r="O4" s="99"/>
-      <c r="P4" s="96"/>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-    </row>
-    <row r="5" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P4" s="99"/>
+      <c r="Q4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="91">
         <v>0.39583333333333298</v>
       </c>
@@ -2754,11 +2781,9 @@
       <c r="O5" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="96"/>
-      <c r="Q5" s="96"/>
-      <c r="R5" s="96"/>
-    </row>
-    <row r="6" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P5" s="99"/>
+    </row>
+    <row r="6" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="91">
         <v>0.41666666666666702</v>
       </c>
@@ -2786,11 +2811,9 @@
       <c r="O6" s="96" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="96"/>
-      <c r="Q6" s="96"/>
-      <c r="R6" s="96"/>
-    </row>
-    <row r="7" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="99"/>
+    </row>
+    <row r="7" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="91">
         <v>0.4375</v>
       </c>
@@ -2818,11 +2841,9 @@
       <c r="O7" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="P7" s="96"/>
-      <c r="Q7" s="96"/>
-      <c r="R7" s="96"/>
-    </row>
-    <row r="8" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="99"/>
+    </row>
+    <row r="8" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="91">
         <v>0.45833333333333298</v>
       </c>
@@ -2848,11 +2869,9 @@
       <c r="M8" s="102"/>
       <c r="N8" s="102"/>
       <c r="O8" s="102"/>
-      <c r="P8" s="96"/>
-      <c r="Q8" s="96"/>
-      <c r="R8" s="96"/>
-    </row>
-    <row r="9" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="99"/>
+    </row>
+    <row r="9" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91">
         <v>0.47916666666666702</v>
       </c>
@@ -2880,11 +2899,9 @@
       <c r="M9" s="102"/>
       <c r="N9" s="102"/>
       <c r="O9" s="102"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="96"/>
-    </row>
-    <row r="10" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="99"/>
+    </row>
+    <row r="10" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="91">
         <v>0.5</v>
       </c>
@@ -2910,11 +2927,12 @@
       <c r="O10" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-    </row>
-    <row r="11" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="99"/>
+      <c r="Q10" s="102" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="91">
         <v>0.52083333333333304</v>
       </c>
@@ -2938,11 +2956,10 @@
       <c r="O11" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="96"/>
-    </row>
-    <row r="12" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="99"/>
+      <c r="Q11" s="102"/>
+    </row>
+    <row r="12" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="91">
         <v>0.54166666666666696</v>
       </c>
@@ -2968,11 +2985,9 @@
       </c>
       <c r="N12" s="102"/>
       <c r="O12" s="102"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="96"/>
-    </row>
-    <row r="13" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="99"/>
+    </row>
+    <row r="13" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="91">
         <v>0.5625</v>
       </c>
@@ -3000,11 +3015,9 @@
         <v>105</v>
       </c>
       <c r="O13" s="102"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="96"/>
-    </row>
-    <row r="14" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="99"/>
+    </row>
+    <row r="14" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="91">
         <v>0.58333333333333304</v>
       </c>
@@ -3034,11 +3047,9 @@
       <c r="M14" s="102"/>
       <c r="N14" s="102"/>
       <c r="O14" s="102"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="96"/>
-    </row>
-    <row r="15" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="99"/>
+    </row>
+    <row r="15" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="91">
         <v>0.60416666666666696</v>
       </c>
@@ -3062,11 +3073,9 @@
       <c r="M15" s="102"/>
       <c r="N15" s="102"/>
       <c r="O15" s="102"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-    </row>
-    <row r="16" spans="1:47" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="99"/>
+    </row>
+    <row r="16" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="91">
         <v>0.625</v>
       </c>
@@ -3092,11 +3101,9 @@
       <c r="M16" s="102"/>
       <c r="N16" s="102"/>
       <c r="O16" s="102"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="96"/>
-    </row>
-    <row r="17" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="99"/>
+    </row>
+    <row r="17" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>0.64583333333333404</v>
       </c>
@@ -3120,11 +3127,9 @@
       <c r="M17" s="102"/>
       <c r="N17" s="102"/>
       <c r="O17" s="102"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="96"/>
-    </row>
-    <row r="18" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="99"/>
+    </row>
+    <row r="18" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="91">
         <v>0.66666666666666696</v>
       </c>
@@ -3148,11 +3153,9 @@
       <c r="O18" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="96"/>
-    </row>
-    <row r="19" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="99"/>
+    </row>
+    <row r="19" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="91">
         <v>0.6875</v>
       </c>
@@ -3180,11 +3183,9 @@
         <v>21</v>
       </c>
       <c r="O19" s="102"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="96"/>
-    </row>
-    <row r="20" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="99"/>
+    </row>
+    <row r="20" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
         <v>0.70833333333333404</v>
       </c>
@@ -3210,11 +3211,9 @@
       </c>
       <c r="N20" s="96"/>
       <c r="O20" s="102"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="96"/>
-    </row>
-    <row r="21" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="99"/>
+    </row>
+    <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="91">
         <v>0.72916666666666696</v>
       </c>
@@ -3240,11 +3239,9 @@
       <c r="M21" s="102"/>
       <c r="N21" s="96"/>
       <c r="O21" s="96"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="96"/>
-    </row>
-    <row r="22" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="99"/>
+    </row>
+    <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="91">
         <v>0.75</v>
       </c>
@@ -3268,11 +3265,12 @@
       <c r="M22" s="99"/>
       <c r="N22" s="96"/>
       <c r="O22" s="96"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="96"/>
-    </row>
-    <row r="23" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="99"/>
+      <c r="Q22" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="91">
         <v>0.77083333333333404</v>
       </c>
@@ -3296,11 +3294,10 @@
       <c r="M23" s="99"/>
       <c r="N23" s="96"/>
       <c r="O23" s="96"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="96"/>
-    </row>
-    <row r="24" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="99"/>
+      <c r="Q23" s="98"/>
+    </row>
+    <row r="24" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="91">
         <v>0.79166666666666696</v>
       </c>
@@ -3322,11 +3319,10 @@
       <c r="M24" s="99"/>
       <c r="N24" s="98"/>
       <c r="O24" s="98"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="96"/>
-    </row>
-    <row r="25" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+    </row>
+    <row r="25" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="91">
         <v>0.8125</v>
       </c>
@@ -3345,10 +3341,9 @@
       <c r="N25" s="98"/>
       <c r="O25" s="98"/>
       <c r="P25" s="98"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="96"/>
-    </row>
-    <row r="26" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q25" s="98"/>
+    </row>
+    <row r="26" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="91">
         <v>0.83333333333333304</v>
       </c>
@@ -3367,10 +3362,9 @@
       <c r="N26" s="98"/>
       <c r="O26" s="98"/>
       <c r="P26" s="98"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="96"/>
-    </row>
-    <row r="27" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q26" s="98"/>
+    </row>
+    <row r="27" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="91">
         <v>0.85416666666666596</v>
       </c>
@@ -3389,10 +3383,9 @@
       <c r="N27" s="98"/>
       <c r="O27" s="98"/>
       <c r="P27" s="98"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="96"/>
-    </row>
-    <row r="28" spans="1:18" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q27" s="98"/>
+    </row>
+    <row r="28" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="91">
         <v>0.874999999999999</v>
       </c>
@@ -3409,23 +3402,23 @@
       <c r="M28" s="99"/>
       <c r="N28" s="98"/>
       <c r="O28" s="98"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="96"/>
-    </row>
-    <row r="29" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="98"/>
+      <c r="Q28" s="98"/>
+    </row>
+    <row r="29" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="89"/>
       <c r="E29" s="89"/>
       <c r="F29" s="76"/>
     </row>
-    <row r="30" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="76"/>
     </row>
-    <row r="31" spans="1:18" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="47">
+    <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="O7:O9"/>
     <mergeCell ref="O11:O17"/>
     <mergeCell ref="O18:O20"/>
@@ -3439,6 +3432,10 @@
     <mergeCell ref="L21:L23"/>
     <mergeCell ref="L5:L11"/>
     <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N5:N10"/>
+    <mergeCell ref="H9:H13"/>
     <mergeCell ref="H14:H16"/>
     <mergeCell ref="H17:H21"/>
     <mergeCell ref="D4:D6"/>
@@ -3446,7 +3443,20 @@
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="G15:G23"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="N13:N18"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J17:J21"/>
     <mergeCell ref="C21:C23"/>
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
@@ -3455,23 +3465,6 @@
     <mergeCell ref="E19:E20"/>
     <mergeCell ref="G4:G8"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="G15:G23"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N5:N10"/>
-    <mergeCell ref="N13:N18"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J17:J21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3483,7 +3476,7 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="105.7109375" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4082,8 +4075,10 @@
       <c r="AH16" s="75"/>
     </row>
     <row r="17" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="76"/>
+      <c r="A17" s="61">
+        <v>44770</v>
+      </c>
+      <c r="B17" s="80"/>
       <c r="C17" s="76"/>
       <c r="D17" s="76"/>
       <c r="E17" s="79"/>
@@ -4119,7 +4114,9 @@
     </row>
     <row r="18" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74"/>
-      <c r="B18" s="76"/>
+      <c r="B18" s="76" t="s">
+        <v>114</v>
+      </c>
       <c r="C18" s="79"/>
       <c r="D18" s="79"/>
       <c r="E18" s="76"/>
@@ -4154,7 +4151,9 @@
       <c r="AH18" s="75"/>
     </row>
     <row r="19" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="76"/>
+      <c r="B19" s="76" t="s">
+        <v>115</v>
+      </c>
       <c r="C19" s="79"/>
       <c r="D19" s="76"/>
       <c r="E19" s="76"/>
@@ -4189,7 +4188,9 @@
       <c r="AH19" s="75"/>
     </row>
     <row r="20" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="76"/>
+      <c r="B20" s="76" t="s">
+        <v>116</v>
+      </c>
       <c r="C20" s="76"/>
       <c r="D20" s="76"/>
       <c r="E20" s="79"/>

--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="121">
   <si>
     <t>Felmerült problémák:</t>
   </si>
@@ -380,6 +380,15 @@
   </si>
   <si>
     <t>elpakolás és commit</t>
+  </si>
+  <si>
+    <t>szétszedni már ezt a halat</t>
+  </si>
+  <si>
+    <t>elkezdeni megírni a kódot is hozzá nem csak jupyterben csinálni</t>
+  </si>
+  <si>
+    <t>yen thresholding ot éppen implementálom a notebook ból</t>
   </si>
 </sst>
 </file>
@@ -389,7 +398,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,8 +479,24 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +561,16 @@
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -866,10 +901,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1166,6 +1203,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1175,15 +1218,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Jó" xfId="1" builtinId="26"/>
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Rossz" xfId="2" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1463,8 +1508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1670,7 +1715,9 @@
       <c r="Q2" s="4">
         <v>0.37291666666666662</v>
       </c>
-      <c r="R2" s="4"/>
+      <c r="R2" s="4">
+        <v>0.4145833333333333</v>
+      </c>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
@@ -1747,7 +1794,9 @@
       <c r="Q3" s="7">
         <v>0.76736111111111116</v>
       </c>
-      <c r="R3" s="7"/>
+      <c r="R3" s="7">
+        <v>0.76041666666666663</v>
+      </c>
       <c r="S3" s="7"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -1843,7 +1892,7 @@
       </c>
       <c r="R4" s="55">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.34583333333333333</v>
       </c>
       <c r="S4" s="55">
         <f t="shared" si="0"/>
@@ -2123,6 +2172,9 @@
       <c r="Q10" s="34" t="s">
         <v>113</v>
       </c>
+      <c r="S10" s="34" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="11" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
@@ -2500,8 +2552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AS31"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2682,6 +2734,7 @@
       <c r="O2" s="99"/>
       <c r="P2" s="99"/>
       <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
     </row>
     <row r="3" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="91">
@@ -2709,6 +2762,7 @@
       <c r="O3" s="99"/>
       <c r="P3" s="99"/>
       <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
     </row>
     <row r="4" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="91">
@@ -2716,14 +2770,14 @@
       </c>
       <c r="B4" s="71"/>
       <c r="C4" s="93"/>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="105" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="71" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="82"/>
-      <c r="G4" s="103" t="s">
+      <c r="G4" s="105" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="69" t="s">
@@ -2746,6 +2800,7 @@
       <c r="Q4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="R4" s="99"/>
     </row>
     <row r="5" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="91">
@@ -2753,35 +2808,36 @@
       </c>
       <c r="B5" s="71"/>
       <c r="C5" s="93"/>
-      <c r="D5" s="106"/>
+      <c r="D5" s="107"/>
       <c r="E5" s="71" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="82"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="103" t="s">
+      <c r="G5" s="107"/>
+      <c r="H5" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="103" t="s">
+      <c r="I5" s="105" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="72" t="s">
         <v>78</v>
       </c>
       <c r="K5" s="65"/>
-      <c r="L5" s="102" t="s">
+      <c r="L5" s="104" t="s">
         <v>74</v>
       </c>
       <c r="M5" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="102" t="s">
+      <c r="N5" s="104" t="s">
         <v>95</v>
       </c>
       <c r="O5" s="96" t="s">
         <v>28</v>
       </c>
       <c r="P5" s="99"/>
+      <c r="R5" s="99"/>
     </row>
     <row r="6" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="91">
@@ -2791,27 +2847,30 @@
       <c r="C6" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="104"/>
-      <c r="E6" s="103" t="s">
+      <c r="D6" s="106"/>
+      <c r="E6" s="105" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="82"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="104"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="106"/>
       <c r="J6" s="72" t="s">
         <v>79</v>
       </c>
       <c r="K6" s="65"/>
-      <c r="L6" s="102"/>
-      <c r="M6" s="102" t="s">
+      <c r="L6" s="104"/>
+      <c r="M6" s="104" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="102"/>
+      <c r="N6" s="104"/>
       <c r="O6" s="96" t="s">
         <v>106</v>
       </c>
       <c r="P6" s="99"/>
+      <c r="R6" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="91">
@@ -2824,10 +2883,10 @@
       <c r="D7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="106"/>
+      <c r="E7" s="107"/>
       <c r="F7" s="82"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="107"/>
       <c r="I7" s="72" t="s">
         <v>69</v>
       </c>
@@ -2835,10 +2894,10 @@
         <v>80</v>
       </c>
       <c r="K7" s="65"/>
-      <c r="L7" s="102"/>
-      <c r="M7" s="102"/>
-      <c r="N7" s="102"/>
-      <c r="O7" s="102" t="s">
+      <c r="L7" s="104"/>
+      <c r="M7" s="104"/>
+      <c r="N7" s="104"/>
+      <c r="O7" s="104" t="s">
         <v>107</v>
       </c>
       <c r="P7" s="99"/>
@@ -2851,13 +2910,13 @@
       <c r="C8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="103" t="s">
+      <c r="D8" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="106"/>
+      <c r="E8" s="107"/>
       <c r="F8" s="82"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="106"/>
       <c r="I8" s="72" t="s">
         <v>70</v>
       </c>
@@ -2865,10 +2924,10 @@
         <v>81</v>
       </c>
       <c r="K8" s="65"/>
-      <c r="L8" s="102"/>
-      <c r="M8" s="102"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="102"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
       <c r="P8" s="99"/>
     </row>
     <row r="9" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2876,29 +2935,29 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B9" s="71"/>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="106"/>
-      <c r="E9" s="104"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="106"/>
       <c r="F9" s="82"/>
       <c r="G9" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="103" t="s">
+      <c r="H9" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="I9" s="105" t="s">
         <v>71</v>
       </c>
       <c r="J9" s="72" t="s">
         <v>73</v>
       </c>
       <c r="K9" s="65"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="102"/>
+      <c r="L9" s="104"/>
+      <c r="M9" s="104"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
       <c r="P9" s="99"/>
     </row>
     <row r="10" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2906,29 +2965,29 @@
         <v>0.5</v>
       </c>
       <c r="B10" s="71"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="103" t="s">
+      <c r="C10" s="108"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="105" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="82"/>
-      <c r="G10" s="103" t="s">
+      <c r="G10" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
-      <c r="J10" s="103" t="s">
+      <c r="H10" s="107"/>
+      <c r="I10" s="107"/>
+      <c r="J10" s="105" t="s">
         <v>82</v>
       </c>
       <c r="K10" s="65"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
+      <c r="L10" s="104"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
       <c r="O10" s="96" t="s">
         <v>15</v>
       </c>
       <c r="P10" s="99"/>
-      <c r="Q10" s="102" t="s">
+      <c r="Q10" s="104" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2937,54 +2996,54 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="B11" s="71"/>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="104"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="106"/>
       <c r="F11" s="82"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
       <c r="K11" s="65"/>
-      <c r="L11" s="102"/>
+      <c r="L11" s="104"/>
       <c r="M11" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="102" t="s">
+      <c r="N11" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="102" t="s">
+      <c r="O11" s="104" t="s">
         <v>109</v>
       </c>
       <c r="P11" s="99"/>
-      <c r="Q11" s="102"/>
+      <c r="Q11" s="104"/>
     </row>
     <row r="12" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="91">
         <v>0.54166666666666696</v>
       </c>
       <c r="B12" s="71"/>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="104"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="71" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="82"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
-      <c r="J12" s="104"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="107"/>
+      <c r="I12" s="107"/>
+      <c r="J12" s="106"/>
       <c r="K12" s="65"/>
-      <c r="L12" s="102" t="s">
+      <c r="L12" s="104" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="102" t="s">
+      <c r="M12" s="104" t="s">
         <v>95</v>
       </c>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
       <c r="P12" s="99"/>
     </row>
     <row r="13" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2992,8 +3051,8 @@
         <v>0.5625</v>
       </c>
       <c r="B13" s="71"/>
-      <c r="C13" s="105"/>
-      <c r="D13" s="103" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="105" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="71" t="s">
@@ -3003,18 +3062,18 @@
       <c r="G13" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="104"/>
-      <c r="I13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="107"/>
       <c r="J13" s="72" t="s">
         <v>84</v>
       </c>
       <c r="K13" s="65"/>
-      <c r="L13" s="102"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102" t="s">
+      <c r="L13" s="104"/>
+      <c r="M13" s="104"/>
+      <c r="N13" s="104" t="s">
         <v>105</v>
       </c>
-      <c r="O13" s="102"/>
+      <c r="O13" s="104"/>
       <c r="P13" s="99"/>
     </row>
     <row r="14" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3022,31 +3081,31 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="B14" s="71"/>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="104"/>
-      <c r="E14" s="103" t="s">
+      <c r="D14" s="106"/>
+      <c r="E14" s="105" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="82"/>
       <c r="G14" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="103" t="s">
+      <c r="H14" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="104"/>
-      <c r="J14" s="103" t="s">
+      <c r="I14" s="106"/>
+      <c r="J14" s="105" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="65"/>
-      <c r="L14" s="102" t="s">
+      <c r="L14" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
       <c r="P14" s="99"/>
     </row>
     <row r="15" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3054,25 +3113,25 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="B15" s="71"/>
-      <c r="C15" s="105"/>
-      <c r="D15" s="103" t="s">
+      <c r="C15" s="108"/>
+      <c r="D15" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="104"/>
+      <c r="E15" s="106"/>
       <c r="F15" s="82"/>
-      <c r="G15" s="103" t="s">
+      <c r="G15" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="106"/>
+      <c r="H15" s="107"/>
       <c r="I15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="104"/>
+      <c r="J15" s="106"/>
       <c r="K15" s="65"/>
-      <c r="L15" s="102"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
+      <c r="L15" s="104"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
       <c r="P15" s="99"/>
     </row>
     <row r="16" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3080,27 +3139,27 @@
         <v>0.625</v>
       </c>
       <c r="B16" s="71"/>
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="103" t="s">
+      <c r="D16" s="106"/>
+      <c r="E16" s="105" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="82"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="103" t="s">
+      <c r="G16" s="107"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="105" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="72" t="s">
         <v>85</v>
       </c>
       <c r="K16" s="65"/>
-      <c r="L16" s="102"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
+      <c r="L16" s="104"/>
+      <c r="M16" s="104"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
       <c r="P16" s="99"/>
     </row>
     <row r="17" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3108,25 +3167,25 @@
         <v>0.64583333333333404</v>
       </c>
       <c r="B17" s="71"/>
-      <c r="C17" s="105"/>
-      <c r="D17" s="103" t="s">
+      <c r="C17" s="108"/>
+      <c r="D17" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="104"/>
+      <c r="E17" s="106"/>
       <c r="F17" s="82"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="103" t="s">
+      <c r="G17" s="107"/>
+      <c r="H17" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="106"/>
-      <c r="J17" s="103" t="s">
+      <c r="I17" s="107"/>
+      <c r="J17" s="105" t="s">
         <v>86</v>
       </c>
       <c r="K17" s="65"/>
-      <c r="L17" s="102"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
+      <c r="L17" s="104"/>
+      <c r="M17" s="104"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
       <c r="P17" s="99"/>
     </row>
     <row r="18" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3134,23 +3193,23 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B18" s="71"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="104"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="106"/>
       <c r="E18" s="71" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="82"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="106"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="107"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
       <c r="K18" s="65"/>
-      <c r="L18" s="102"/>
-      <c r="M18" s="102" t="s">
+      <c r="L18" s="104"/>
+      <c r="M18" s="104" t="s">
         <v>99</v>
       </c>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102" t="s">
+      <c r="N18" s="104"/>
+      <c r="O18" s="104" t="s">
         <v>110</v>
       </c>
       <c r="P18" s="99"/>
@@ -3166,23 +3225,23 @@
       <c r="D19" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="103" t="s">
+      <c r="E19" s="105" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="82"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="103" t="s">
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
+      <c r="I19" s="105" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="106"/>
+      <c r="J19" s="107"/>
       <c r="K19" s="65"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102"/>
+      <c r="L19" s="104"/>
+      <c r="M19" s="104"/>
       <c r="N19" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="102"/>
+      <c r="O19" s="104"/>
       <c r="P19" s="99"/>
     </row>
     <row r="20" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3193,24 +3252,24 @@
       <c r="C20" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="103" t="s">
+      <c r="D20" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="104"/>
+      <c r="E20" s="106"/>
       <c r="F20" s="82"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="106"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="107"/>
+      <c r="I20" s="106"/>
+      <c r="J20" s="107"/>
       <c r="K20" s="65"/>
       <c r="L20" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="102" t="s">
+      <c r="M20" s="104" t="s">
         <v>95</v>
       </c>
       <c r="N20" s="96"/>
-      <c r="O20" s="102"/>
+      <c r="O20" s="104"/>
       <c r="P20" s="99"/>
     </row>
     <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -3218,25 +3277,25 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="B21" s="71"/>
-      <c r="C21" s="105" t="s">
+      <c r="C21" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="104"/>
+      <c r="D21" s="106"/>
       <c r="E21" s="71" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="82"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="103" t="s">
+      <c r="G21" s="107"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="105" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="104"/>
+      <c r="J21" s="106"/>
       <c r="K21" s="65"/>
-      <c r="L21" s="102" t="s">
+      <c r="L21" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="102"/>
+      <c r="M21" s="104"/>
       <c r="N21" s="96"/>
       <c r="O21" s="96"/>
       <c r="P21" s="99"/>
@@ -3246,22 +3305,22 @@
         <v>0.75</v>
       </c>
       <c r="B22" s="71"/>
-      <c r="C22" s="105"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="71" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="82"/>
-      <c r="G22" s="106"/>
+      <c r="G22" s="107"/>
       <c r="H22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="104"/>
+      <c r="I22" s="106"/>
       <c r="J22" s="72" t="s">
         <v>87</v>
       </c>
       <c r="K22" s="65"/>
-      <c r="L22" s="102"/>
+      <c r="L22" s="104"/>
       <c r="M22" s="99"/>
       <c r="N22" s="96"/>
       <c r="O22" s="96"/>
@@ -3275,22 +3334,22 @@
         <v>0.77083333333333404</v>
       </c>
       <c r="B23" s="71"/>
-      <c r="C23" s="105"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="71" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="82"/>
-      <c r="G23" s="104"/>
+      <c r="G23" s="106"/>
       <c r="H23" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="103" t="s">
+      <c r="I23" s="105" t="s">
         <v>74</v>
       </c>
       <c r="J23" s="64"/>
       <c r="K23" s="65"/>
-      <c r="L23" s="102"/>
+      <c r="L23" s="104"/>
       <c r="M23" s="99"/>
       <c r="N23" s="96"/>
       <c r="O23" s="96"/>
@@ -3310,7 +3369,7 @@
       <c r="F24" s="82"/>
       <c r="G24" s="64"/>
       <c r="H24" s="64"/>
-      <c r="I24" s="104"/>
+      <c r="I24" s="106"/>
       <c r="J24" s="64"/>
       <c r="K24" s="65"/>
       <c r="L24" s="96" t="s">
@@ -3418,6 +3477,37 @@
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="I9:I14"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="J17:J21"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="N5:N10"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="G15:G23"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="N13:N18"/>
     <mergeCell ref="Q10:Q11"/>
     <mergeCell ref="O7:O9"/>
     <mergeCell ref="O11:O17"/>
@@ -3434,37 +3524,6 @@
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="I21:I22"/>
     <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N5:N10"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="G15:G23"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="N13:N18"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="I9:I14"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="J17:J21"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="G10:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3476,7 +3535,7 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="105.7109375" defaultRowHeight="22.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4076,7 +4135,7 @@
     </row>
     <row r="17" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="61">
-        <v>44770</v>
+        <v>44774</v>
       </c>
       <c r="B17" s="80"/>
       <c r="C17" s="76"/>
@@ -4114,7 +4173,7 @@
     </row>
     <row r="18" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74"/>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="102" t="s">
         <v>114</v>
       </c>
       <c r="C18" s="79"/>
@@ -4151,7 +4210,7 @@
       <c r="AH18" s="75"/>
     </row>
     <row r="19" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="102" t="s">
         <v>115</v>
       </c>
       <c r="C19" s="79"/>
@@ -4188,7 +4247,7 @@
       <c r="AH19" s="75"/>
     </row>
     <row r="20" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="103" t="s">
         <v>116</v>
       </c>
       <c r="C20" s="76"/>
@@ -4260,7 +4319,10 @@
       <c r="AH21" s="75"/>
     </row>
     <row r="22" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="76"/>
+      <c r="A22" s="61">
+        <v>44775</v>
+      </c>
+      <c r="B22" s="80"/>
       <c r="C22" s="76"/>
       <c r="D22" s="79"/>
       <c r="E22" s="79"/>
@@ -4295,7 +4357,10 @@
       <c r="AH22" s="75"/>
     </row>
     <row r="23" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="76"/>
+      <c r="A23" s="74"/>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
       <c r="C23" s="79"/>
       <c r="D23" s="79"/>
       <c r="E23" s="79"/>
@@ -4330,7 +4395,9 @@
       <c r="AH23" s="75"/>
     </row>
     <row r="24" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="76"/>
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
       <c r="C24" s="79"/>
       <c r="D24" s="79"/>
       <c r="E24" s="79"/>
@@ -4365,7 +4432,6 @@
       <c r="AH24" s="75"/>
     </row>
     <row r="25" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="76"/>
       <c r="C25" s="79"/>
       <c r="D25" s="79"/>
       <c r="E25" s="79"/>

--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="126">
   <si>
     <t>Felmerült problémák:</t>
   </si>
@@ -389,6 +389,21 @@
   </si>
   <si>
     <t>yen thresholding ot éppen implementálom a notebook ból</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>szabi</t>
+  </si>
+  <si>
+    <t>a wiener filtert nem használtam, nem tudom MATLABBAN hogyan néz ki</t>
+  </si>
+  <si>
+    <t>yen_th</t>
+  </si>
+  <si>
+    <t>5th week</t>
   </si>
 </sst>
 </file>
@@ -398,7 +413,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,6 +505,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -906,7 +929,7 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1208,6 +1231,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="135"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="135"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1508,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="P10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2:W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1561,12 @@
     <col min="11" max="11" width="19.85546875" style="2" customWidth="1"/>
     <col min="13" max="13" width="63.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.85546875" style="100" bestFit="1" customWidth="1"/>
-    <col min="21" max="26" width="55" style="100"/>
+    <col min="17" max="17" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="2.42578125" style="100" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5703125" style="100" customWidth="1"/>
+    <col min="24" max="26" width="55" style="100"/>
     <col min="35" max="37" width="55" style="2"/>
   </cols>
   <sheetData>
@@ -1584,16 +1624,14 @@
       <c r="S1" s="43">
         <v>44776</v>
       </c>
-      <c r="T1" s="43">
+      <c r="T1" s="104">
         <v>44777</v>
       </c>
-      <c r="U1" s="43">
-        <v>44778</v>
-      </c>
-      <c r="V1" s="43">
-        <v>44779</v>
-      </c>
-      <c r="W1" s="43">
+      <c r="U1" s="52"/>
+      <c r="V1" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="W1" s="104">
         <v>44780</v>
       </c>
       <c r="X1" s="43">
@@ -1706,33 +1744,37 @@
         <v>0.36874999999999997</v>
       </c>
       <c r="N2" s="13">
-        <v>0.36458333333333331</v>
+        <v>0.36527777777777781</v>
       </c>
       <c r="O2" s="13">
-        <v>0.40625</v>
+        <v>0.40486111111111112</v>
       </c>
       <c r="P2" s="52"/>
-      <c r="Q2" s="4">
+      <c r="Q2" s="13">
         <v>0.37291666666666662</v>
       </c>
-      <c r="R2" s="4">
-        <v>0.4145833333333333</v>
-      </c>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4"/>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4"/>
-      <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4"/>
-      <c r="AC2" s="4"/>
-      <c r="AD2" s="4"/>
-      <c r="AE2" s="4"/>
-      <c r="AF2" s="4"/>
-      <c r="AG2" s="4"/>
+      <c r="R2" s="13">
+        <v>0.41388888888888892</v>
+      </c>
+      <c r="S2" s="13">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="T2" s="106" t="s">
+        <v>122</v>
+      </c>
+      <c r="U2" s="106"/>
+      <c r="V2" s="106"/>
+      <c r="W2" s="106"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
       <c r="AH2" s="4"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
@@ -1788,31 +1830,37 @@
       <c r="M3" s="17">
         <v>0.76458333333333339</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
+      <c r="N3" s="16">
+        <v>0.83888888888888891</v>
+      </c>
+      <c r="O3" s="16">
+        <v>0.78263888888888899</v>
+      </c>
       <c r="P3" s="52"/>
-      <c r="Q3" s="7">
-        <v>0.76736111111111116</v>
-      </c>
-      <c r="R3" s="7">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
+      <c r="Q3" s="16">
+        <v>0.7729166666666667</v>
+      </c>
+      <c r="R3" s="16">
+        <v>0.7715277777777777</v>
+      </c>
+      <c r="S3" s="16">
+        <v>0.64027777777777783</v>
+      </c>
+      <c r="T3" s="106"/>
+      <c r="U3" s="106"/>
+      <c r="V3" s="106"/>
+      <c r="W3" s="106"/>
+      <c r="X3" s="16"/>
+      <c r="Y3" s="16"/>
+      <c r="Z3" s="16"/>
+      <c r="AA3" s="16"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="16"/>
+      <c r="AD3" s="16"/>
+      <c r="AE3" s="16"/>
+      <c r="AF3" s="16"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="16"/>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
@@ -1879,78 +1927,66 @@
       </c>
       <c r="N4" s="55">
         <f>N3-N2</f>
-        <v>-0.36458333333333331</v>
+        <v>0.47361111111111109</v>
       </c>
       <c r="O4" s="55">
         <f t="shared" si="0"/>
-        <v>-0.40625</v>
+        <v>0.37777777777777788</v>
       </c>
       <c r="P4" s="52"/>
-      <c r="Q4" s="55">
+      <c r="Q4" s="105">
         <f t="shared" si="0"/>
-        <v>0.39444444444444454</v>
-      </c>
-      <c r="R4" s="55">
+        <v>0.40000000000000008</v>
+      </c>
+      <c r="R4" s="105">
         <f t="shared" si="0"/>
-        <v>0.34583333333333333</v>
-      </c>
-      <c r="S4" s="55">
+        <v>0.35763888888888878</v>
+      </c>
+      <c r="S4" s="105">
+        <f t="shared" si="0"/>
+        <v>0.24444444444444452</v>
+      </c>
+      <c r="T4" s="106"/>
+      <c r="U4" s="106"/>
+      <c r="V4" s="106"/>
+      <c r="W4" s="106"/>
+      <c r="X4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T4" s="55">
+      <c r="Y4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U4" s="55">
+      <c r="Z4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V4" s="55">
+      <c r="AA4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W4" s="55">
+      <c r="AB4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X4" s="55">
+      <c r="AC4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y4" s="55">
+      <c r="AD4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="55">
+      <c r="AE4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="55">
+      <c r="AF4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC4" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD4" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE4" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG4" s="55">
+      <c r="AG4" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2038,9 +2074,27 @@
       </c>
       <c r="O5" s="19"/>
       <c r="P5" s="52"/>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="19" t="s">
         <v>112</v>
       </c>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="T5" s="106"/>
+      <c r="U5" s="106"/>
+      <c r="V5" s="106"/>
+      <c r="W5" s="106"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="19"/>
+      <c r="AE5" s="19"/>
+      <c r="AF5" s="19"/>
+      <c r="AG5" s="19"/>
     </row>
     <row r="6" spans="1:47" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
@@ -2069,6 +2123,23 @@
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="52"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="106"/>
+      <c r="U6" s="106"/>
+      <c r="V6" s="106"/>
+      <c r="W6" s="106"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="19"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="19"/>
+      <c r="AE6" s="19"/>
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
     </row>
     <row r="7" spans="1:47" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
@@ -2089,6 +2160,23 @@
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="P7" s="52"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="106"/>
+      <c r="U7" s="106"/>
+      <c r="V7" s="106"/>
+      <c r="W7" s="106"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="19"/>
+      <c r="AE7" s="19"/>
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
     </row>
     <row r="8" spans="1:47" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
@@ -2109,6 +2197,23 @@
       <c r="N8" s="19"/>
       <c r="O8" s="19"/>
       <c r="P8" s="52"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="106"/>
+      <c r="U8" s="106"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="106"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
+      <c r="Z8" s="19"/>
+      <c r="AA8" s="19"/>
+      <c r="AB8" s="19"/>
+      <c r="AC8" s="19"/>
+      <c r="AD8" s="19"/>
+      <c r="AE8" s="19"/>
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
     </row>
     <row r="9" spans="1:47" s="31" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="28"/>
@@ -2127,6 +2232,23 @@
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="52"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="106"/>
+      <c r="U9" s="106"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="106"/>
+      <c r="X9" s="30"/>
+      <c r="Y9" s="30"/>
+      <c r="Z9" s="30"/>
+      <c r="AA9" s="30"/>
+      <c r="AB9" s="30"/>
+      <c r="AC9" s="30"/>
+      <c r="AD9" s="30"/>
+      <c r="AE9" s="30"/>
+      <c r="AF9" s="30"/>
+      <c r="AG9" s="30"/>
     </row>
     <row r="10" spans="1:47" s="34" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27" t="s">
@@ -2169,12 +2291,27 @@
       </c>
       <c r="O10" s="33"/>
       <c r="P10" s="52"/>
-      <c r="Q10" s="34" t="s">
+      <c r="Q10" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="S10" s="34" t="s">
-        <v>120</v>
-      </c>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="33"/>
+      <c r="Y10" s="33"/>
+      <c r="Z10" s="33"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="33"/>
+      <c r="AC10" s="33"/>
+      <c r="AD10" s="33"/>
+      <c r="AE10" s="33"/>
+      <c r="AF10" s="33"/>
+      <c r="AG10" s="33"/>
     </row>
     <row r="11" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
@@ -2211,6 +2348,23 @@
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="52"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="106"/>
+      <c r="U11" s="106"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="106"/>
+      <c r="X11" s="22"/>
+      <c r="Y11" s="22"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="22"/>
+      <c r="AB11" s="22"/>
+      <c r="AC11" s="22"/>
+      <c r="AD11" s="22"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="22"/>
+      <c r="AG11" s="22"/>
     </row>
     <row r="12" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
@@ -2241,6 +2395,23 @@
       </c>
       <c r="O12" s="22"/>
       <c r="P12" s="52"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="106"/>
+      <c r="U12" s="106"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="106"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="22"/>
+      <c r="Z12" s="22"/>
+      <c r="AA12" s="22"/>
+      <c r="AB12" s="22"/>
+      <c r="AC12" s="22"/>
+      <c r="AD12" s="22"/>
+      <c r="AE12" s="22"/>
+      <c r="AF12" s="22"/>
+      <c r="AG12" s="22"/>
     </row>
     <row r="13" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24"/>
@@ -2263,6 +2434,23 @@
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="52"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="106"/>
+      <c r="U13" s="106"/>
+      <c r="V13" s="106"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
+      <c r="AB13" s="22"/>
+      <c r="AC13" s="22"/>
+      <c r="AD13" s="22"/>
+      <c r="AE13" s="22"/>
+      <c r="AF13" s="22"/>
+      <c r="AG13" s="22"/>
     </row>
     <row r="14" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24"/>
@@ -2287,6 +2475,23 @@
       </c>
       <c r="O14" s="22"/>
       <c r="P14" s="52"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="106"/>
+      <c r="U14" s="106"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
     </row>
     <row r="15" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24"/>
@@ -2307,6 +2512,23 @@
       <c r="N15" s="22"/>
       <c r="O15" s="22"/>
       <c r="P15" s="52"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="22"/>
+      <c r="AE15" s="22"/>
+      <c r="AF15" s="22"/>
+      <c r="AG15" s="22"/>
     </row>
     <row r="16" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="24"/>
@@ -2327,8 +2549,25 @@
       <c r="N16" s="22"/>
       <c r="O16" s="22"/>
       <c r="P16" s="52"/>
-    </row>
-    <row r="17" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="106"/>
+      <c r="U16" s="106"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="106"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="22"/>
+      <c r="Z16" s="22"/>
+      <c r="AA16" s="22"/>
+      <c r="AB16" s="22"/>
+      <c r="AC16" s="22"/>
+      <c r="AD16" s="22"/>
+      <c r="AE16" s="22"/>
+      <c r="AF16" s="22"/>
+      <c r="AG16" s="22"/>
+    </row>
+    <row r="17" spans="1:33" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="24"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -2345,8 +2584,25 @@
       <c r="N17" s="22"/>
       <c r="O17" s="22"/>
       <c r="P17" s="52"/>
-    </row>
-    <row r="18" spans="1:16" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="106"/>
+      <c r="U17" s="106"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="22"/>
+      <c r="Y17" s="22"/>
+      <c r="Z17" s="22"/>
+      <c r="AA17" s="22"/>
+      <c r="AB17" s="22"/>
+      <c r="AC17" s="22"/>
+      <c r="AD17" s="22"/>
+      <c r="AE17" s="22"/>
+      <c r="AF17" s="22"/>
+      <c r="AG17" s="22"/>
+    </row>
+    <row r="18" spans="1:33" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="24"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -2363,8 +2619,25 @@
       <c r="N18" s="22"/>
       <c r="O18" s="22"/>
       <c r="P18" s="52"/>
-    </row>
-    <row r="19" spans="1:16" s="37" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="106"/>
+      <c r="U18" s="106"/>
+      <c r="V18" s="106"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="22"/>
+      <c r="AB18" s="22"/>
+      <c r="AC18" s="22"/>
+      <c r="AD18" s="22"/>
+      <c r="AE18" s="22"/>
+      <c r="AF18" s="22"/>
+      <c r="AG18" s="22"/>
+    </row>
+    <row r="19" spans="1:33" s="37" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="28"/>
       <c r="B19" s="35"/>
       <c r="C19" s="36"/>
@@ -2381,8 +2654,25 @@
       <c r="N19" s="36"/>
       <c r="O19" s="36"/>
       <c r="P19" s="52"/>
-    </row>
-    <row r="20" spans="1:16" s="41" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="107"/>
+      <c r="U19" s="107"/>
+      <c r="V19" s="107"/>
+      <c r="W19" s="107"/>
+      <c r="X19" s="36"/>
+      <c r="Y19" s="36"/>
+      <c r="Z19" s="36"/>
+      <c r="AA19" s="36"/>
+      <c r="AB19" s="36"/>
+      <c r="AC19" s="36"/>
+      <c r="AD19" s="36"/>
+      <c r="AE19" s="36"/>
+      <c r="AF19" s="36"/>
+      <c r="AG19" s="36"/>
+    </row>
+    <row r="20" spans="1:33" s="41" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="38" t="s">
         <v>1</v>
       </c>
@@ -2424,9 +2714,23 @@
       <c r="M20" s="40"/>
       <c r="N20" s="40"/>
       <c r="O20" s="40"/>
-      <c r="P20" s="52"/>
-    </row>
-    <row r="21" spans="1:16" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="53"/>
+      <c r="Q20" s="40">
+        <v>2</v>
+      </c>
+      <c r="R20" s="41">
+        <v>3</v>
+      </c>
+      <c r="S20" s="40">
+        <v>2</v>
+      </c>
+      <c r="T20" s="53"/>
+      <c r="U20" s="53"/>
+      <c r="V20" s="53"/>
+      <c r="W20" s="53"/>
+      <c r="X20" s="40"/>
+    </row>
+    <row r="21" spans="1:33" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B21" s="101">
         <f>HOUR(B4)</f>
         <v>8</v>
@@ -2475,30 +2779,69 @@
         <f t="shared" ref="M21:O21" si="3">HOUR(M4)</f>
         <v>9</v>
       </c>
-      <c r="N21" s="101" t="e">
+      <c r="N21" s="101">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O21" s="101" t="e">
+        <v>11</v>
+      </c>
+      <c r="O21" s="101">
         <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="P21" s="95">
+        <f>SUM(L21:O21)</f>
+        <v>39</v>
+      </c>
+      <c r="Q21" s="101">
+        <f t="shared" ref="Q21:AA21" si="4">HOUR(Q4)</f>
+        <v>9</v>
+      </c>
+      <c r="R21" s="101">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="S21" s="101">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="T21" s="95">
+        <f>SUM(Q21:S21)</f>
+        <v>22</v>
+      </c>
+      <c r="U21" s="95"/>
+      <c r="V21" s="95"/>
+      <c r="W21" s="95"/>
+      <c r="X21" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="101">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="101">
         <f>MINUTE(B4)</f>
         <v>12</v>
       </c>
       <c r="C22" s="101">
-        <f t="shared" ref="C22:E22" si="4">MINUTE(C4)</f>
+        <f t="shared" ref="C22:E22" si="5">MINUTE(C4)</f>
         <v>0</v>
       </c>
       <c r="D22" s="101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>20</v>
       </c>
       <c r="E22" s="101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
       <c r="F22" s="95">
@@ -2506,19 +2849,19 @@
         <v>40</v>
       </c>
       <c r="G22" s="101">
-        <f t="shared" ref="G22:J22" si="5">MINUTE(G4)</f>
+        <f t="shared" ref="G22:J22" si="6">MINUTE(G4)</f>
         <v>41</v>
       </c>
       <c r="H22" s="101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>56</v>
       </c>
       <c r="I22" s="101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="J22" s="101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="K22" s="95">
@@ -2530,19 +2873,61 @@
         <v>12</v>
       </c>
       <c r="M22" s="101">
-        <f t="shared" ref="M22:O22" si="6">MINUTE(M4)</f>
+        <f t="shared" ref="M22:O22" si="7">MINUTE(M4)</f>
         <v>30</v>
       </c>
-      <c r="N22" s="101" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O22" s="101" t="e">
-        <f t="shared" si="6"/>
-        <v>#NUM!</v>
+      <c r="N22" s="101">
+        <f t="shared" si="7"/>
+        <v>22</v>
+      </c>
+      <c r="O22" s="101">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="P22" s="95">
+        <f>SUM(L22:O22)</f>
+        <v>68</v>
+      </c>
+      <c r="Q22" s="101">
+        <f t="shared" ref="Q22:AA22" si="8">MINUTE(Q4)</f>
+        <v>36</v>
+      </c>
+      <c r="R22" s="101">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="S22" s="101">
+        <f t="shared" si="8"/>
+        <v>52</v>
+      </c>
+      <c r="T22" s="95">
+        <f>SUM(Q22:S22)</f>
+        <v>123</v>
+      </c>
+      <c r="U22" s="95"/>
+      <c r="V22" s="95"/>
+      <c r="W22" s="95"/>
+      <c r="X22" s="101">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="101">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="101">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="101">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="T2:W19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2550,10 +2935,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS31"/>
+  <dimension ref="A1:AP31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2575,11 +2960,13 @@
     <col min="15" max="15" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.85546875" style="1" customWidth="1"/>
     <col min="17" max="17" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="45" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="16384" width="32.28515625" style="1"/>
+    <col min="18" max="19" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="1" customWidth="1"/>
+    <col min="21" max="42" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="32.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="60" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:42" s="60" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="63"/>
       <c r="B1" s="61">
         <v>44753</v>
@@ -2635,86 +3022,77 @@
       <c r="S1" s="67">
         <v>44776</v>
       </c>
-      <c r="T1" s="67">
-        <v>44777</v>
+      <c r="T1" s="67" t="s">
+        <v>125</v>
       </c>
       <c r="U1" s="67">
-        <v>44778</v>
+        <v>44781</v>
       </c>
       <c r="V1" s="67">
-        <v>44779</v>
+        <v>44782</v>
       </c>
       <c r="W1" s="67">
-        <v>44780</v>
+        <v>44783</v>
       </c>
       <c r="X1" s="67">
-        <v>44781</v>
+        <v>44784</v>
       </c>
       <c r="Y1" s="67">
-        <v>44782</v>
+        <v>44785</v>
       </c>
       <c r="Z1" s="67">
-        <v>44783</v>
+        <v>44786</v>
       </c>
       <c r="AA1" s="67">
-        <v>44784</v>
+        <v>44787</v>
       </c>
       <c r="AB1" s="67">
-        <v>44785</v>
+        <v>44788</v>
       </c>
       <c r="AC1" s="67">
-        <v>44786</v>
-      </c>
-      <c r="AD1" s="67">
-        <v>44787</v>
-      </c>
-      <c r="AE1" s="67">
-        <v>44788</v>
-      </c>
-      <c r="AF1" s="67">
         <v>44789</v>
       </c>
+      <c r="AD1" s="60">
+        <v>44790</v>
+      </c>
+      <c r="AE1" s="60">
+        <v>44791</v>
+      </c>
+      <c r="AF1" s="60">
+        <v>44792</v>
+      </c>
       <c r="AG1" s="60">
-        <v>44790</v>
+        <v>44793</v>
       </c>
       <c r="AH1" s="60">
-        <v>44791</v>
+        <v>44794</v>
       </c>
       <c r="AI1" s="60">
-        <v>44792</v>
+        <v>44795</v>
       </c>
       <c r="AJ1" s="60">
-        <v>44793</v>
+        <v>44796</v>
       </c>
       <c r="AK1" s="60">
-        <v>44794</v>
+        <v>44797</v>
       </c>
       <c r="AL1" s="60">
-        <v>44795</v>
+        <v>44798</v>
       </c>
       <c r="AM1" s="60">
-        <v>44796</v>
+        <v>44799</v>
       </c>
       <c r="AN1" s="60">
-        <v>44797</v>
+        <v>44800</v>
       </c>
       <c r="AO1" s="60">
-        <v>44798</v>
+        <v>44801</v>
       </c>
       <c r="AP1" s="60">
-        <v>44799</v>
-      </c>
-      <c r="AQ1" s="60">
-        <v>44800</v>
-      </c>
-      <c r="AR1" s="60">
-        <v>44801</v>
-      </c>
-      <c r="AS1" s="60">
         <v>44802</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="91">
         <v>0.33333333333333331</v>
       </c>
@@ -2735,8 +3113,10 @@
       <c r="P2" s="99"/>
       <c r="Q2" s="99"/>
       <c r="R2" s="99"/>
-    </row>
-    <row r="3" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="99"/>
+      <c r="T2" s="99"/>
+    </row>
+    <row r="3" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="91">
         <v>0.35416666666666669</v>
       </c>
@@ -2763,21 +3143,23 @@
       <c r="P3" s="99"/>
       <c r="Q3" s="99"/>
       <c r="R3" s="99"/>
-    </row>
-    <row r="4" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="99"/>
+      <c r="T3" s="99"/>
+    </row>
+    <row r="4" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="91">
         <v>0.375</v>
       </c>
       <c r="B4" s="71"/>
       <c r="C4" s="93"/>
-      <c r="D4" s="105" t="s">
+      <c r="D4" s="109" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="71" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="82"/>
-      <c r="G4" s="105" t="s">
+      <c r="G4" s="109" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="69" t="s">
@@ -2801,36 +3183,38 @@
         <v>28</v>
       </c>
       <c r="R4" s="99"/>
-    </row>
-    <row r="5" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+    </row>
+    <row r="5" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="91">
         <v>0.39583333333333298</v>
       </c>
       <c r="B5" s="71"/>
       <c r="C5" s="93"/>
-      <c r="D5" s="107"/>
+      <c r="D5" s="111"/>
       <c r="E5" s="71" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="82"/>
-      <c r="G5" s="107"/>
-      <c r="H5" s="105" t="s">
+      <c r="G5" s="111"/>
+      <c r="H5" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="105" t="s">
+      <c r="I5" s="109" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="72" t="s">
         <v>78</v>
       </c>
       <c r="K5" s="65"/>
-      <c r="L5" s="104" t="s">
+      <c r="L5" s="108" t="s">
         <v>74</v>
       </c>
       <c r="M5" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="104" t="s">
+      <c r="N5" s="108" t="s">
         <v>95</v>
       </c>
       <c r="O5" s="96" t="s">
@@ -2838,8 +3222,12 @@
       </c>
       <c r="P5" s="99"/>
       <c r="R5" s="99"/>
-    </row>
-    <row r="6" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T5" s="99"/>
+    </row>
+    <row r="6" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="91">
         <v>0.41666666666666702</v>
       </c>
@@ -2847,23 +3235,23 @@
       <c r="C6" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="106"/>
-      <c r="E6" s="105" t="s">
+      <c r="D6" s="110"/>
+      <c r="E6" s="109" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="82"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="106"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="110"/>
       <c r="J6" s="72" t="s">
         <v>79</v>
       </c>
       <c r="K6" s="65"/>
-      <c r="L6" s="104"/>
-      <c r="M6" s="104" t="s">
+      <c r="L6" s="108"/>
+      <c r="M6" s="108" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="104"/>
+      <c r="N6" s="108"/>
       <c r="O6" s="96" t="s">
         <v>106</v>
       </c>
@@ -2871,8 +3259,12 @@
       <c r="R6" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S6" s="108" t="s">
+        <v>124</v>
+      </c>
+      <c r="T6" s="99"/>
+    </row>
+    <row r="7" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="91">
         <v>0.4375</v>
       </c>
@@ -2883,10 +3275,10 @@
       <c r="D7" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="107"/>
+      <c r="E7" s="111"/>
       <c r="F7" s="82"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="107"/>
+      <c r="G7" s="111"/>
+      <c r="H7" s="111"/>
       <c r="I7" s="72" t="s">
         <v>69</v>
       </c>
@@ -2894,15 +3286,17 @@
         <v>80</v>
       </c>
       <c r="K7" s="65"/>
-      <c r="L7" s="104"/>
-      <c r="M7" s="104"/>
-      <c r="N7" s="104"/>
-      <c r="O7" s="104" t="s">
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108" t="s">
         <v>107</v>
       </c>
       <c r="P7" s="99"/>
-    </row>
-    <row r="8" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" s="108"/>
+      <c r="T7" s="99"/>
+    </row>
+    <row r="8" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="91">
         <v>0.45833333333333298</v>
       </c>
@@ -2910,13 +3304,13 @@
       <c r="C8" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="105" t="s">
+      <c r="D8" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="107"/>
+      <c r="E8" s="111"/>
       <c r="F8" s="82"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="110"/>
       <c r="I8" s="72" t="s">
         <v>70</v>
       </c>
@@ -2924,135 +3318,142 @@
         <v>81</v>
       </c>
       <c r="K8" s="65"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="104"/>
-      <c r="N8" s="104"/>
-      <c r="O8" s="104"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="108"/>
+      <c r="O8" s="108"/>
       <c r="P8" s="99"/>
-    </row>
-    <row r="9" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" s="108"/>
+      <c r="T8" s="99"/>
+    </row>
+    <row r="9" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91">
         <v>0.47916666666666702</v>
       </c>
       <c r="B9" s="71"/>
-      <c r="C9" s="108" t="s">
+      <c r="C9" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="107"/>
-      <c r="E9" s="106"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="110"/>
       <c r="F9" s="82"/>
       <c r="G9" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="105" t="s">
+      <c r="H9" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="105" t="s">
+      <c r="I9" s="109" t="s">
         <v>71</v>
       </c>
       <c r="J9" s="72" t="s">
         <v>73</v>
       </c>
       <c r="K9" s="65"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="104"/>
+      <c r="L9" s="108"/>
+      <c r="M9" s="108"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="108"/>
       <c r="P9" s="99"/>
-    </row>
-    <row r="10" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S9" s="108"/>
+      <c r="T9" s="99"/>
+    </row>
+    <row r="10" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="91">
         <v>0.5</v>
       </c>
       <c r="B10" s="71"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="105" t="s">
+      <c r="C10" s="112"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="109" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="82"/>
-      <c r="G10" s="105" t="s">
+      <c r="G10" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="107"/>
-      <c r="I10" s="107"/>
-      <c r="J10" s="105" t="s">
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
+      <c r="J10" s="109" t="s">
         <v>82</v>
       </c>
       <c r="K10" s="65"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
       <c r="O10" s="96" t="s">
         <v>15</v>
       </c>
       <c r="P10" s="99"/>
-      <c r="Q10" s="104" t="s">
+      <c r="Q10" s="108" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="99"/>
+    </row>
+    <row r="11" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="91">
         <v>0.52083333333333304</v>
       </c>
       <c r="B11" s="71"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="106"/>
+      <c r="C11" s="112"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="110"/>
       <c r="F11" s="82"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
       <c r="K11" s="65"/>
-      <c r="L11" s="104"/>
+      <c r="L11" s="108"/>
       <c r="M11" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="104" t="s">
+      <c r="N11" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="104" t="s">
+      <c r="O11" s="108" t="s">
         <v>109</v>
       </c>
       <c r="P11" s="99"/>
-      <c r="Q11" s="104"/>
-    </row>
-    <row r="12" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q11" s="108"/>
+      <c r="T11" s="99"/>
+    </row>
+    <row r="12" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="91">
         <v>0.54166666666666696</v>
       </c>
       <c r="B12" s="71"/>
-      <c r="C12" s="108" t="s">
+      <c r="C12" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="106"/>
+      <c r="D12" s="110"/>
       <c r="E12" s="71" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="82"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="107"/>
-      <c r="I12" s="107"/>
-      <c r="J12" s="106"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="110"/>
       <c r="K12" s="65"/>
-      <c r="L12" s="104" t="s">
+      <c r="L12" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="104" t="s">
+      <c r="M12" s="108" t="s">
         <v>95</v>
       </c>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="108"/>
       <c r="P12" s="99"/>
-    </row>
-    <row r="13" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="99"/>
+    </row>
+    <row r="13" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="91">
         <v>0.5625</v>
       </c>
       <c r="B13" s="71"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="105" t="s">
+      <c r="C13" s="112"/>
+      <c r="D13" s="109" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="71" t="s">
@@ -3062,159 +3463,165 @@
       <c r="G13" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="106"/>
-      <c r="I13" s="107"/>
+      <c r="H13" s="110"/>
+      <c r="I13" s="111"/>
       <c r="J13" s="72" t="s">
         <v>84</v>
       </c>
       <c r="K13" s="65"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="104"/>
-      <c r="N13" s="104" t="s">
+      <c r="L13" s="108"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="O13" s="104"/>
+      <c r="O13" s="108"/>
       <c r="P13" s="99"/>
-    </row>
-    <row r="14" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="99"/>
+    </row>
+    <row r="14" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="91">
         <v>0.58333333333333304</v>
       </c>
       <c r="B14" s="71"/>
-      <c r="C14" s="108" t="s">
+      <c r="C14" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="105" t="s">
+      <c r="D14" s="110"/>
+      <c r="E14" s="109" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="82"/>
       <c r="G14" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="105" t="s">
+      <c r="H14" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="106"/>
-      <c r="J14" s="105" t="s">
+      <c r="I14" s="110"/>
+      <c r="J14" s="109" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="65"/>
-      <c r="L14" s="104" t="s">
+      <c r="L14" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="104"/>
-      <c r="N14" s="104"/>
-      <c r="O14" s="104"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="108"/>
+      <c r="O14" s="108"/>
       <c r="P14" s="99"/>
-    </row>
-    <row r="15" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T14" s="99"/>
+    </row>
+    <row r="15" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="91">
         <v>0.60416666666666696</v>
       </c>
       <c r="B15" s="71"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="105" t="s">
+      <c r="C15" s="112"/>
+      <c r="D15" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="106"/>
+      <c r="E15" s="110"/>
       <c r="F15" s="82"/>
-      <c r="G15" s="105" t="s">
+      <c r="G15" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="107"/>
+      <c r="H15" s="111"/>
       <c r="I15" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="106"/>
+      <c r="J15" s="110"/>
       <c r="K15" s="65"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="104"/>
-      <c r="N15" s="104"/>
-      <c r="O15" s="104"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
       <c r="P15" s="99"/>
-    </row>
-    <row r="16" spans="1:45" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T15" s="99"/>
+    </row>
+    <row r="16" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="91">
         <v>0.625</v>
       </c>
       <c r="B16" s="71"/>
-      <c r="C16" s="108" t="s">
+      <c r="C16" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="106"/>
-      <c r="E16" s="105" t="s">
+      <c r="D16" s="110"/>
+      <c r="E16" s="109" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="82"/>
-      <c r="G16" s="107"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="105" t="s">
+      <c r="G16" s="111"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="109" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="72" t="s">
         <v>85</v>
       </c>
       <c r="K16" s="65"/>
-      <c r="L16" s="104"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="104"/>
+      <c r="L16" s="108"/>
+      <c r="M16" s="108"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="108"/>
       <c r="P16" s="99"/>
-    </row>
-    <row r="17" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T16" s="99"/>
+    </row>
+    <row r="17" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="91">
         <v>0.64583333333333404</v>
       </c>
       <c r="B17" s="71"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="105" t="s">
+      <c r="C17" s="112"/>
+      <c r="D17" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="106"/>
+      <c r="E17" s="110"/>
       <c r="F17" s="82"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="105" t="s">
+      <c r="G17" s="111"/>
+      <c r="H17" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="107"/>
-      <c r="J17" s="105" t="s">
+      <c r="I17" s="111"/>
+      <c r="J17" s="109" t="s">
         <v>86</v>
       </c>
       <c r="K17" s="65"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="104"/>
-      <c r="O17" s="104"/>
+      <c r="L17" s="108"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="108"/>
+      <c r="O17" s="108"/>
       <c r="P17" s="99"/>
-    </row>
-    <row r="18" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T17" s="99"/>
+    </row>
+    <row r="18" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="91">
         <v>0.66666666666666696</v>
       </c>
       <c r="B18" s="71"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="106"/>
+      <c r="C18" s="112"/>
+      <c r="D18" s="110"/>
       <c r="E18" s="71" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="82"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="107"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="107"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="110"/>
+      <c r="J18" s="111"/>
       <c r="K18" s="65"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="104" t="s">
+      <c r="L18" s="108"/>
+      <c r="M18" s="108" t="s">
         <v>99</v>
       </c>
-      <c r="N18" s="104"/>
-      <c r="O18" s="104" t="s">
+      <c r="N18" s="108"/>
+      <c r="O18" s="108" t="s">
         <v>110</v>
       </c>
       <c r="P18" s="99"/>
-    </row>
-    <row r="19" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T18" s="99"/>
+    </row>
+    <row r="19" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="91">
         <v>0.6875</v>
       </c>
@@ -3225,26 +3632,27 @@
       <c r="D19" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="105" t="s">
+      <c r="E19" s="109" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="82"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
-      <c r="I19" s="105" t="s">
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="109" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="107"/>
+      <c r="J19" s="111"/>
       <c r="K19" s="65"/>
-      <c r="L19" s="104"/>
-      <c r="M19" s="104"/>
+      <c r="L19" s="108"/>
+      <c r="M19" s="108"/>
       <c r="N19" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="104"/>
+      <c r="O19" s="108"/>
       <c r="P19" s="99"/>
-    </row>
-    <row r="20" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T19" s="99"/>
+    </row>
+    <row r="20" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="91">
         <v>0.70833333333333404</v>
       </c>
@@ -3252,75 +3660,79 @@
       <c r="C20" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="105" t="s">
+      <c r="D20" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="106"/>
+      <c r="E20" s="110"/>
       <c r="F20" s="82"/>
-      <c r="G20" s="107"/>
-      <c r="H20" s="107"/>
-      <c r="I20" s="106"/>
-      <c r="J20" s="107"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="110"/>
+      <c r="J20" s="111"/>
       <c r="K20" s="65"/>
       <c r="L20" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="104" t="s">
+      <c r="M20" s="108" t="s">
         <v>95</v>
       </c>
       <c r="N20" s="96"/>
-      <c r="O20" s="104"/>
+      <c r="O20" s="108"/>
       <c r="P20" s="99"/>
-    </row>
-    <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+    </row>
+    <row r="21" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="91">
         <v>0.72916666666666696</v>
       </c>
       <c r="B21" s="71"/>
-      <c r="C21" s="108" t="s">
+      <c r="C21" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="106"/>
+      <c r="D21" s="110"/>
       <c r="E21" s="71" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="82"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="105" t="s">
+      <c r="G21" s="111"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="106"/>
+      <c r="J21" s="110"/>
       <c r="K21" s="65"/>
-      <c r="L21" s="104" t="s">
+      <c r="L21" s="108" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="104"/>
+      <c r="M21" s="108"/>
       <c r="N21" s="96"/>
       <c r="O21" s="96"/>
       <c r="P21" s="99"/>
-    </row>
-    <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+    </row>
+    <row r="22" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="91">
         <v>0.75</v>
       </c>
       <c r="B22" s="71"/>
-      <c r="C22" s="108"/>
+      <c r="C22" s="112"/>
       <c r="D22" s="71" t="s">
         <v>37</v>
       </c>
       <c r="E22" s="64"/>
       <c r="F22" s="82"/>
-      <c r="G22" s="107"/>
+      <c r="G22" s="111"/>
       <c r="H22" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="106"/>
+      <c r="I22" s="110"/>
       <c r="J22" s="72" t="s">
         <v>87</v>
       </c>
       <c r="K22" s="65"/>
-      <c r="L22" s="104"/>
+      <c r="L22" s="108"/>
       <c r="M22" s="99"/>
       <c r="N22" s="96"/>
       <c r="O22" s="96"/>
@@ -3328,35 +3740,40 @@
       <c r="Q22" s="1" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+    </row>
+    <row r="23" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="91">
         <v>0.77083333333333404</v>
       </c>
       <c r="B23" s="71"/>
-      <c r="C23" s="108"/>
+      <c r="C23" s="112"/>
       <c r="D23" s="71" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="64"/>
       <c r="F23" s="82"/>
-      <c r="G23" s="106"/>
+      <c r="G23" s="110"/>
       <c r="H23" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="105" t="s">
+      <c r="I23" s="109" t="s">
         <v>74</v>
       </c>
       <c r="J23" s="64"/>
       <c r="K23" s="65"/>
-      <c r="L23" s="104"/>
+      <c r="L23" s="108"/>
       <c r="M23" s="99"/>
       <c r="N23" s="96"/>
       <c r="O23" s="96"/>
       <c r="P23" s="99"/>
       <c r="Q23" s="98"/>
-    </row>
-    <row r="24" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R23"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+    </row>
+    <row r="24" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="91">
         <v>0.79166666666666696</v>
       </c>
@@ -3369,7 +3786,7 @@
       <c r="F24" s="82"/>
       <c r="G24" s="64"/>
       <c r="H24" s="64"/>
-      <c r="I24" s="106"/>
+      <c r="I24" s="110"/>
       <c r="J24" s="64"/>
       <c r="K24" s="65"/>
       <c r="L24" s="96" t="s">
@@ -3380,8 +3797,11 @@
       <c r="O24" s="98"/>
       <c r="P24" s="98"/>
       <c r="Q24" s="98"/>
-    </row>
-    <row r="25" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+    </row>
+    <row r="25" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="91">
         <v>0.8125</v>
       </c>
@@ -3401,8 +3821,11 @@
       <c r="O25" s="98"/>
       <c r="P25" s="98"/>
       <c r="Q25" s="98"/>
-    </row>
-    <row r="26" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+    </row>
+    <row r="26" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="91">
         <v>0.83333333333333304</v>
       </c>
@@ -3422,8 +3845,11 @@
       <c r="O26" s="98"/>
       <c r="P26" s="98"/>
       <c r="Q26" s="98"/>
-    </row>
-    <row r="27" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+    </row>
+    <row r="27" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="91">
         <v>0.85416666666666596</v>
       </c>
@@ -3443,8 +3869,11 @@
       <c r="O27" s="98"/>
       <c r="P27" s="98"/>
       <c r="Q27" s="98"/>
-    </row>
-    <row r="28" spans="1:17" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+    </row>
+    <row r="28" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="91">
         <v>0.874999999999999</v>
       </c>
@@ -3463,21 +3892,23 @@
       <c r="O28" s="98"/>
       <c r="P28" s="98"/>
       <c r="Q28" s="98"/>
-    </row>
-    <row r="29" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+    </row>
+    <row r="29" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="89"/>
       <c r="E29" s="89"/>
       <c r="F29" s="76"/>
     </row>
-    <row r="30" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="76"/>
     </row>
-    <row r="31" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="I5:I6"/>
+  <mergeCells count="48">
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="I9:I14"/>
     <mergeCell ref="I16:I18"/>
@@ -3488,30 +3919,28 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="C9:C11"/>
-    <mergeCell ref="H5:H8"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="G4:G8"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="N5:N10"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
     <mergeCell ref="G15:G23"/>
     <mergeCell ref="E6:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N5:N10"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H21"/>
     <mergeCell ref="N13:N18"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="O11:O17"/>
-    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H8"/>
     <mergeCell ref="I23:I24"/>
     <mergeCell ref="M6:M10"/>
     <mergeCell ref="M12:M17"/>
@@ -3523,7 +3952,11 @@
     <mergeCell ref="L5:L11"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="I21:I22"/>
-    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="S6:S9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="O11:O17"/>
+    <mergeCell ref="O18:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3534,7 +3967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -17,6 +17,7 @@
     <sheet name="Napi terv" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="126">
   <si>
     <t>Felmerült problémák:</t>
   </si>
@@ -1543,8 +1544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:W19"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X4" sqref="X4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1765,7 +1766,9 @@
       <c r="U2" s="106"/>
       <c r="V2" s="106"/>
       <c r="W2" s="106"/>
-      <c r="X2" s="13"/>
+      <c r="X2" s="13">
+        <v>0.36180555555555555</v>
+      </c>
       <c r="Y2" s="13"/>
       <c r="Z2" s="13"/>
       <c r="AA2" s="13"/>
@@ -1950,9 +1953,9 @@
       <c r="U4" s="106"/>
       <c r="V4" s="106"/>
       <c r="W4" s="106"/>
-      <c r="X4" s="36">
+      <c r="X4" s="105">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.36180555555555555</v>
       </c>
       <c r="Y4" s="36">
         <f t="shared" si="0"/>
@@ -2736,15 +2739,15 @@
         <v>8</v>
       </c>
       <c r="C21" s="101">
-        <f t="shared" ref="C21:E21" si="1">HOUR(C4)</f>
+        <f>HOUR(C4)</f>
         <v>10</v>
       </c>
       <c r="D21" s="101">
-        <f t="shared" si="1"/>
+        <f>HOUR(D4)</f>
         <v>10</v>
       </c>
       <c r="E21" s="101">
-        <f t="shared" si="1"/>
+        <f>HOUR(E4)</f>
         <v>9</v>
       </c>
       <c r="F21" s="95">
@@ -2752,19 +2755,19 @@
         <v>37</v>
       </c>
       <c r="G21" s="101">
-        <f t="shared" ref="G21:J21" si="2">HOUR(G4)</f>
+        <f>HOUR(G4)</f>
         <v>10</v>
       </c>
       <c r="H21" s="101">
-        <f t="shared" si="2"/>
+        <f>HOUR(H4)</f>
         <v>9</v>
       </c>
       <c r="I21" s="101">
-        <f t="shared" si="2"/>
+        <f>HOUR(I4)</f>
         <v>10</v>
       </c>
       <c r="J21" s="101">
-        <f t="shared" si="2"/>
+        <f>HOUR(J4)</f>
         <v>9</v>
       </c>
       <c r="K21" s="95">
@@ -2776,15 +2779,15 @@
         <v>10</v>
       </c>
       <c r="M21" s="101">
-        <f t="shared" ref="M21:O21" si="3">HOUR(M4)</f>
+        <f>HOUR(M4)</f>
         <v>9</v>
       </c>
       <c r="N21" s="101">
-        <f t="shared" si="3"/>
+        <f>HOUR(N4)</f>
         <v>11</v>
       </c>
       <c r="O21" s="101">
-        <f t="shared" si="3"/>
+        <f>HOUR(O4)</f>
         <v>9</v>
       </c>
       <c r="P21" s="95">
@@ -2792,15 +2795,15 @@
         <v>39</v>
       </c>
       <c r="Q21" s="101">
-        <f t="shared" ref="Q21:AA21" si="4">HOUR(Q4)</f>
+        <f t="shared" ref="Q21:AA21" si="1">HOUR(Q4)</f>
         <v>9</v>
       </c>
       <c r="R21" s="101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="S21" s="101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="T21" s="95">
@@ -2810,20 +2813,20 @@
       <c r="U21" s="95"/>
       <c r="V21" s="95"/>
       <c r="W21" s="95"/>
-      <c r="X21" s="101">
-        <f t="shared" si="4"/>
+      <c r="X21" s="101" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y21" s="101">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Y21" s="101">
-        <f t="shared" si="4"/>
+      <c r="Z21" s="101">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="101">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="AA21" s="101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2833,15 +2836,15 @@
         <v>12</v>
       </c>
       <c r="C22" s="101">
-        <f t="shared" ref="C22:E22" si="5">MINUTE(C4)</f>
+        <f>MINUTE(C4)</f>
         <v>0</v>
       </c>
       <c r="D22" s="101">
-        <f t="shared" si="5"/>
+        <f>MINUTE(D4)</f>
         <v>20</v>
       </c>
       <c r="E22" s="101">
-        <f t="shared" si="5"/>
+        <f>MINUTE(E4)</f>
         <v>8</v>
       </c>
       <c r="F22" s="95">
@@ -2849,19 +2852,19 @@
         <v>40</v>
       </c>
       <c r="G22" s="101">
-        <f t="shared" ref="G22:J22" si="6">MINUTE(G4)</f>
+        <f>MINUTE(G4)</f>
         <v>41</v>
       </c>
       <c r="H22" s="101">
-        <f t="shared" si="6"/>
+        <f>MINUTE(H4)</f>
         <v>56</v>
       </c>
       <c r="I22" s="101">
-        <f t="shared" si="6"/>
+        <f>MINUTE(I4)</f>
         <v>3</v>
       </c>
       <c r="J22" s="101">
-        <f t="shared" si="6"/>
+        <f>MINUTE(J4)</f>
         <v>20</v>
       </c>
       <c r="K22" s="95">
@@ -2873,15 +2876,15 @@
         <v>12</v>
       </c>
       <c r="M22" s="101">
-        <f t="shared" ref="M22:O22" si="7">MINUTE(M4)</f>
+        <f>MINUTE(M4)</f>
         <v>30</v>
       </c>
       <c r="N22" s="101">
-        <f t="shared" si="7"/>
+        <f>MINUTE(N4)</f>
         <v>22</v>
       </c>
       <c r="O22" s="101">
-        <f t="shared" si="7"/>
+        <f>MINUTE(O4)</f>
         <v>4</v>
       </c>
       <c r="P22" s="95">
@@ -2889,15 +2892,15 @@
         <v>68</v>
       </c>
       <c r="Q22" s="101">
-        <f t="shared" ref="Q22:AA22" si="8">MINUTE(Q4)</f>
+        <f t="shared" ref="Q22:AA22" si="2">MINUTE(Q4)</f>
         <v>36</v>
       </c>
       <c r="R22" s="101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="S22" s="101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="T22" s="95">
@@ -2907,20 +2910,20 @@
       <c r="U22" s="95"/>
       <c r="V22" s="95"/>
       <c r="W22" s="95"/>
-      <c r="X22" s="101">
-        <f t="shared" si="8"/>
+      <c r="X22" s="101" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Y22" s="101">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Y22" s="101">
-        <f t="shared" si="8"/>
+      <c r="Z22" s="101">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="101">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
       <c r="AA22" s="101">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2937,8 +2940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3115,6 +3118,7 @@
       <c r="R2" s="99"/>
       <c r="S2" s="99"/>
       <c r="T2" s="99"/>
+      <c r="U2" s="99"/>
     </row>
     <row r="3" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="91">
@@ -3145,6 +3149,7 @@
       <c r="R3" s="99"/>
       <c r="S3" s="99"/>
       <c r="T3" s="99"/>
+      <c r="U3" s="99"/>
     </row>
     <row r="4" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="91">
@@ -3185,6 +3190,9 @@
       <c r="R4" s="99"/>
       <c r="S4" s="99"/>
       <c r="T4" s="99"/>
+      <c r="U4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="91">

--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,6 @@
     <sheet name="Napi terv" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
   <si>
     <t>Felmerült problémák:</t>
   </si>
@@ -930,7 +929,7 @@
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -969,16 +968,10 @@
     <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1238,6 +1231,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="135"/>
@@ -1544,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z13" sqref="Z13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1555,155 +1551,156 @@
     <col min="3" max="3" width="72.42578125" customWidth="1"/>
     <col min="4" max="4" width="80.42578125" customWidth="1"/>
     <col min="5" max="5" width="66.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="52" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="68.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="71.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19.85546875" style="2" customWidth="1"/>
     <col min="13" max="13" width="63.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="100" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="74" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="98" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="68.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="66.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="2.42578125" style="100" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.5703125" style="100" customWidth="1"/>
-    <col min="24" max="26" width="55" style="100"/>
+    <col min="21" max="22" width="2.42578125" style="98" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.5703125" style="98" customWidth="1"/>
+    <col min="24" max="26" width="55" style="98"/>
     <col min="35" max="37" width="55" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="43" customFormat="1" ht="49.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43">
+    <row r="1" spans="1:47" s="41" customFormat="1" ht="49.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40"/>
+      <c r="B1" s="41">
         <v>44753</v>
       </c>
-      <c r="C1" s="43">
+      <c r="C1" s="41">
         <v>44754</v>
       </c>
-      <c r="D1" s="43">
+      <c r="D1" s="41">
         <v>44755</v>
       </c>
-      <c r="E1" s="43">
+      <c r="E1" s="41">
         <v>44756</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="43">
+      <c r="G1" s="41">
         <v>44760</v>
       </c>
-      <c r="H1" s="43">
+      <c r="H1" s="41">
         <v>44761</v>
       </c>
-      <c r="I1" s="43">
+      <c r="I1" s="41">
         <v>44762</v>
       </c>
-      <c r="J1" s="43">
+      <c r="J1" s="41">
         <v>44763</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="43">
+      <c r="L1" s="41">
         <v>44767</v>
       </c>
-      <c r="M1" s="43">
+      <c r="M1" s="41">
         <v>44768</v>
       </c>
-      <c r="N1" s="43">
+      <c r="N1" s="41">
         <v>44769</v>
       </c>
-      <c r="O1" s="43">
+      <c r="O1" s="41">
         <v>44770</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="43">
+      <c r="P1" s="50"/>
+      <c r="Q1" s="41">
         <v>44774</v>
       </c>
-      <c r="R1" s="43">
+      <c r="R1" s="41">
         <v>44775</v>
       </c>
-      <c r="S1" s="43">
+      <c r="S1" s="41">
         <v>44776</v>
       </c>
-      <c r="T1" s="104">
+      <c r="T1" s="102">
         <v>44777</v>
       </c>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52" t="s">
+      <c r="U1" s="50"/>
+      <c r="V1" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="W1" s="104">
+      <c r="W1" s="102">
         <v>44780</v>
       </c>
-      <c r="X1" s="43">
+      <c r="X1" s="41">
         <v>44781</v>
       </c>
-      <c r="Y1" s="43">
+      <c r="Y1" s="41">
         <v>44782</v>
       </c>
-      <c r="Z1" s="43">
+      <c r="Z1" s="41">
         <v>44783</v>
       </c>
-      <c r="AA1" s="43">
+      <c r="AA1" s="41">
         <v>44784</v>
       </c>
-      <c r="AB1" s="43">
+      <c r="AB1" s="41">
         <v>44785</v>
       </c>
-      <c r="AC1" s="43">
+      <c r="AC1" s="41">
         <v>44786</v>
       </c>
-      <c r="AD1" s="43">
+      <c r="AD1" s="41">
         <v>44787</v>
       </c>
-      <c r="AE1" s="43">
+      <c r="AE1" s="41">
         <v>44788</v>
       </c>
-      <c r="AF1" s="43">
+      <c r="AF1" s="41">
         <v>44789</v>
       </c>
-      <c r="AG1" s="43">
+      <c r="AG1" s="41">
         <v>44790</v>
       </c>
-      <c r="AH1" s="43">
+      <c r="AH1" s="41">
         <v>44791</v>
       </c>
-      <c r="AI1" s="43">
+      <c r="AI1" s="41">
         <v>44792</v>
       </c>
-      <c r="AJ1" s="43">
+      <c r="AJ1" s="41">
         <v>44793</v>
       </c>
-      <c r="AK1" s="43">
+      <c r="AK1" s="41">
         <v>44794</v>
       </c>
-      <c r="AL1" s="43">
+      <c r="AL1" s="41">
         <v>44795</v>
       </c>
-      <c r="AM1" s="43">
+      <c r="AM1" s="41">
         <v>44796</v>
       </c>
-      <c r="AN1" s="43">
+      <c r="AN1" s="41">
         <v>44797</v>
       </c>
-      <c r="AO1" s="43">
+      <c r="AO1" s="41">
         <v>44798</v>
       </c>
-      <c r="AP1" s="43">
+      <c r="AP1" s="41">
         <v>44799</v>
       </c>
-      <c r="AQ1" s="43">
+      <c r="AQ1" s="41">
         <v>44800</v>
       </c>
-      <c r="AR1" s="43">
+      <c r="AR1" s="41">
         <v>44801</v>
       </c>
-      <c r="AS1" s="43">
+      <c r="AS1" s="41">
         <v>44802</v>
       </c>
     </row>
     <row r="2" spans="1:47" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="12">
@@ -1715,10 +1712,10 @@
       <c r="D2" s="13">
         <v>0.36527777777777781</v>
       </c>
-      <c r="E2" s="44">
+      <c r="E2" s="42">
         <v>0.34861111111111115</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="49">
         <f>AVERAGE(B2:E2)</f>
         <v>0.39513888888888893</v>
       </c>
@@ -1734,14 +1731,14 @@
       <c r="J2" s="13">
         <v>0.37222222222222223</v>
       </c>
-      <c r="K2" s="51">
+      <c r="K2" s="49">
         <f>AVERAGE(G2:J2)</f>
         <v>0.37239583333333331</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="13">
         <v>0.3888888888888889</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="13">
         <v>0.36874999999999997</v>
       </c>
       <c r="N2" s="13">
@@ -1750,7 +1747,10 @@
       <c r="O2" s="13">
         <v>0.40486111111111112</v>
       </c>
-      <c r="P2" s="52"/>
+      <c r="P2" s="49">
+        <f>AVERAGE(L2:O2)</f>
+        <v>0.38194444444444448</v>
+      </c>
       <c r="Q2" s="13">
         <v>0.37291666666666662</v>
       </c>
@@ -1760,16 +1760,18 @@
       <c r="S2" s="13">
         <v>0.39583333333333331</v>
       </c>
-      <c r="T2" s="106" t="s">
+      <c r="T2" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
       <c r="X2" s="13">
         <v>0.36180555555555555</v>
       </c>
-      <c r="Y2" s="13"/>
+      <c r="Y2" s="13">
+        <v>0.43055555555555558</v>
+      </c>
       <c r="Z2" s="13"/>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
@@ -1792,78 +1794,85 @@
       <c r="AS2" s="4"/>
     </row>
     <row r="3" spans="1:47" s="9" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>0.8125</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="15">
         <v>0.8125</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="15">
         <v>0.79583333333333339</v>
       </c>
-      <c r="E3" s="45">
+      <c r="E3" s="43">
         <v>0.72916666666666663</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="49">
         <f>AVERAGE(B3:E3)</f>
         <v>0.78749999999999998</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="14">
         <v>0.7993055555555556</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="15">
         <v>0.78125</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>0.81458333333333333</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="15">
         <v>0.76111111111111107</v>
       </c>
-      <c r="K3" s="51">
+      <c r="K3" s="49">
         <f>AVERAGE(G3:J3)</f>
         <v>0.7890625</v>
       </c>
-      <c r="L3" s="17">
+      <c r="L3" s="15">
         <v>0.81388888888888899</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3" s="15">
         <v>0.76458333333333339</v>
       </c>
-      <c r="N3" s="16">
+      <c r="N3" s="15">
         <v>0.83888888888888891</v>
       </c>
-      <c r="O3" s="16">
+      <c r="O3" s="15">
         <v>0.78263888888888899</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="16">
+      <c r="P3" s="49">
+        <f>AVERAGE(L3:O3)</f>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="Q3" s="15">
         <v>0.7729166666666667</v>
       </c>
-      <c r="R3" s="16">
+      <c r="R3" s="15">
         <v>0.7715277777777777</v>
       </c>
-      <c r="S3" s="16">
+      <c r="S3" s="15">
         <v>0.64027777777777783</v>
       </c>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="15">
+        <v>0.77361111111111114</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>0.84027777777777779</v>
+      </c>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="15"/>
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="15"/>
+      <c r="AH3" s="15"/>
       <c r="AI3" s="8"/>
       <c r="AJ3" s="8"/>
       <c r="AK3" s="8"/>
@@ -1876,1053 +1885,1056 @@
       <c r="AR3" s="7"/>
       <c r="AS3" s="7"/>
     </row>
-    <row r="4" spans="1:47" s="56" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+    <row r="4" spans="1:47" s="54" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="57">
+      <c r="B4" s="55">
         <f>B3-B2</f>
         <v>0.34166666666666662</v>
       </c>
-      <c r="C4" s="55">
+      <c r="C4" s="53">
         <f>C3-C2</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="53">
         <f>D3-D2</f>
         <v>0.43055555555555558</v>
       </c>
-      <c r="E4" s="55">
+      <c r="E4" s="53">
         <f>E3-E2</f>
         <v>0.38055555555555548</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="49">
         <f>AVERAGE(B4:E4)</f>
         <v>0.3923611111111111</v>
       </c>
-      <c r="G4" s="55">
+      <c r="G4" s="53">
         <f t="shared" ref="G4:AS4" si="0">G3-G2</f>
         <v>0.44513888888888892</v>
       </c>
-      <c r="H4" s="55">
+      <c r="H4" s="53">
         <f t="shared" si="0"/>
         <v>0.41388888888888892</v>
       </c>
-      <c r="I4" s="55">
+      <c r="I4" s="53">
         <f t="shared" si="0"/>
         <v>0.41875000000000001</v>
       </c>
-      <c r="J4" s="55">
+      <c r="J4" s="53">
         <f t="shared" si="0"/>
         <v>0.38888888888888884</v>
       </c>
-      <c r="K4" s="51">
+      <c r="K4" s="49">
         <f>AVERAGE(G4:J4)</f>
         <v>0.41666666666666669</v>
       </c>
-      <c r="L4" s="55">
+      <c r="L4" s="53">
         <f>L3-L2</f>
         <v>0.4250000000000001</v>
       </c>
-      <c r="M4" s="55">
+      <c r="M4" s="53">
         <f>M3-M2</f>
         <v>0.39583333333333343</v>
       </c>
-      <c r="N4" s="55">
+      <c r="N4" s="53">
         <f>N3-N2</f>
         <v>0.47361111111111109</v>
       </c>
-      <c r="O4" s="55">
+      <c r="O4" s="53">
         <f t="shared" si="0"/>
         <v>0.37777777777777788</v>
       </c>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="105">
+      <c r="P4" s="49">
+        <f>AVERAGE(L4:O4)</f>
+        <v>0.41805555555555562</v>
+      </c>
+      <c r="Q4" s="103">
         <f t="shared" si="0"/>
         <v>0.40000000000000008</v>
       </c>
-      <c r="R4" s="105">
+      <c r="R4" s="103">
         <f t="shared" si="0"/>
         <v>0.35763888888888878</v>
       </c>
-      <c r="S4" s="105">
+      <c r="S4" s="104">
         <f t="shared" si="0"/>
         <v>0.24444444444444452</v>
       </c>
-      <c r="T4" s="106"/>
-      <c r="U4" s="106"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="106"/>
-      <c r="X4" s="105">
+      <c r="T4" s="105"/>
+      <c r="U4" s="105"/>
+      <c r="V4" s="105"/>
+      <c r="W4" s="105"/>
+      <c r="X4" s="103">
         <f t="shared" si="0"/>
-        <v>-0.36180555555555555</v>
-      </c>
-      <c r="Y4" s="36">
+        <v>0.41180555555555559</v>
+      </c>
+      <c r="Y4" s="103">
+        <f t="shared" si="0"/>
+        <v>0.40972222222222221</v>
+      </c>
+      <c r="Z4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z4" s="36">
+      <c r="AA4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="36">
+      <c r="AB4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB4" s="36">
+      <c r="AC4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="36">
+      <c r="AD4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="36">
+      <c r="AE4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE4" s="36">
+      <c r="AF4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF4" s="36">
+      <c r="AG4" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG4" s="36">
+      <c r="AH4" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AH4" s="55">
+      <c r="AI4" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AI4" s="55">
+      <c r="AJ4" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AJ4" s="55">
+      <c r="AK4" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AK4" s="55">
+      <c r="AL4" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL4" s="55">
+      <c r="AM4" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AM4" s="55">
+      <c r="AN4" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AN4" s="55">
+      <c r="AO4" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AO4" s="55">
+      <c r="AP4" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AP4" s="55">
+      <c r="AQ4" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AQ4" s="55">
+      <c r="AR4" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AR4" s="55">
+      <c r="AS4" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AS4" s="55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
     </row>
     <row r="5" spans="1:47" s="10" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="52"/>
-      <c r="G5" s="18" t="s">
+      <c r="F5" s="50"/>
+      <c r="G5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19" t="s">
+      <c r="I5" s="17"/>
+      <c r="J5" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19" t="s">
+      <c r="K5" s="50"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="19" t="s">
+      <c r="O5" s="17"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="17" t="s">
         <v>112</v>
       </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19" t="s">
+      <c r="R5" s="17"/>
+      <c r="S5" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="19"/>
-      <c r="AE5" s="19"/>
-      <c r="AF5" s="19"/>
-      <c r="AG5" s="19"/>
+      <c r="T5" s="105"/>
+      <c r="U5" s="105"/>
+      <c r="V5" s="105"/>
+      <c r="W5" s="105"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="17"/>
+      <c r="AE5" s="17"/>
+      <c r="AF5" s="17"/>
+      <c r="AG5" s="17"/>
     </row>
     <row r="6" spans="1:47" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="20" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="18" t="s">
+      <c r="F6" s="50"/>
+      <c r="G6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="52"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="106"/>
-      <c r="U6" s="106"/>
-      <c r="V6" s="106"/>
-      <c r="W6" s="106"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="19"/>
-      <c r="AB6" s="19"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="19"/>
-      <c r="AE6" s="19"/>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="105"/>
+      <c r="U6" s="105"/>
+      <c r="V6" s="105"/>
+      <c r="W6" s="105"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="17"/>
+      <c r="AD6" s="17"/>
+      <c r="AE6" s="17"/>
+      <c r="AF6" s="17"/>
+      <c r="AG6" s="17"/>
     </row>
     <row r="7" spans="1:47" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="19" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="106"/>
-      <c r="U7" s="106"/>
-      <c r="V7" s="106"/>
-      <c r="W7" s="106"/>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="19"/>
-      <c r="AE7" s="19"/>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="105"/>
+      <c r="U7" s="105"/>
+      <c r="V7" s="105"/>
+      <c r="W7" s="105"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
     </row>
     <row r="8" spans="1:47" s="10" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="18"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="16"/>
       <c r="H8" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="106"/>
-      <c r="U8" s="106"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="106"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-    </row>
-    <row r="9" spans="1:47" s="31" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="106"/>
-      <c r="U9" s="106"/>
-      <c r="V9" s="106"/>
-      <c r="W9" s="106"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="30"/>
-      <c r="AA9" s="30"/>
-      <c r="AB9" s="30"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="30"/>
-      <c r="AE9" s="30"/>
-      <c r="AF9" s="30"/>
-      <c r="AG9" s="30"/>
-    </row>
-    <row r="10" spans="1:47" s="34" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="105"/>
+      <c r="U8" s="105"/>
+      <c r="V8" s="105"/>
+      <c r="W8" s="105"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="17"/>
+      <c r="AA8" s="17"/>
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="17"/>
+      <c r="AD8" s="17"/>
+      <c r="AE8" s="17"/>
+      <c r="AF8" s="17"/>
+      <c r="AG8" s="17"/>
+    </row>
+    <row r="9" spans="1:47" s="29" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="105"/>
+      <c r="W9" s="105"/>
+      <c r="X9" s="28"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="28"/>
+      <c r="AB9" s="28"/>
+      <c r="AC9" s="28"/>
+      <c r="AD9" s="28"/>
+      <c r="AE9" s="28"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="28"/>
+    </row>
+    <row r="10" spans="1:47" s="32" customFormat="1" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="32" t="s">
+      <c r="F10" s="50"/>
+      <c r="G10" s="30" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="73" t="s">
+      <c r="I10" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="31" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="52"/>
-      <c r="L10" s="33" t="s">
+      <c r="K10" s="50"/>
+      <c r="L10" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="M10" s="33" t="s">
+      <c r="M10" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="N10" s="33" t="s">
+      <c r="N10" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="O10" s="33"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="33" t="s">
+      <c r="O10" s="31"/>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="R10" s="33"/>
-      <c r="S10" s="33" t="s">
+      <c r="R10" s="31"/>
+      <c r="S10" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="106"/>
-      <c r="W10" s="106"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="33"/>
-      <c r="AD10" s="33"/>
-      <c r="AE10" s="33"/>
-      <c r="AF10" s="33"/>
-      <c r="AG10" s="33"/>
+      <c r="T10" s="105"/>
+      <c r="U10" s="105"/>
+      <c r="V10" s="105"/>
+      <c r="W10" s="105"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
     </row>
     <row r="11" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="21" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="22" t="s">
+      <c r="H11" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="52"/>
-      <c r="L11" s="22" t="s">
+      <c r="K11" s="50"/>
+      <c r="L11" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M11" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="106"/>
-      <c r="U11" s="106"/>
-      <c r="V11" s="106"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="22"/>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="22"/>
-      <c r="AB11" s="22"/>
-      <c r="AC11" s="22"/>
-      <c r="AD11" s="22"/>
-      <c r="AE11" s="22"/>
-      <c r="AF11" s="22"/>
-      <c r="AG11" s="22"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="105"/>
+      <c r="U11" s="105"/>
+      <c r="V11" s="105"/>
+      <c r="W11" s="105"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
     </row>
     <row r="12" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="22" t="s">
+      <c r="F12" s="50"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="22"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="N12" s="22" t="s">
+      <c r="N12" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="106"/>
-      <c r="U12" s="106"/>
-      <c r="V12" s="106"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="22"/>
-      <c r="AB12" s="22"/>
-      <c r="AC12" s="22"/>
-      <c r="AD12" s="22"/>
-      <c r="AE12" s="22"/>
-      <c r="AF12" s="22"/>
-      <c r="AG12" s="22"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="105"/>
+      <c r="U12" s="105"/>
+      <c r="V12" s="105"/>
+      <c r="W12" s="105"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
     </row>
     <row r="13" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="22" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="59" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="106"/>
-      <c r="U13" s="106"/>
-      <c r="V13" s="106"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="22"/>
-      <c r="AE13" s="22"/>
-      <c r="AF13" s="22"/>
-      <c r="AG13" s="22"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="105"/>
+      <c r="U13" s="105"/>
+      <c r="V13" s="105"/>
+      <c r="W13" s="105"/>
+      <c r="X13" s="20"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="20"/>
+      <c r="AB13" s="20"/>
+      <c r="AC13" s="20"/>
+      <c r="AD13" s="20"/>
+      <c r="AE13" s="20"/>
+      <c r="AF13" s="20"/>
+      <c r="AG13" s="20"/>
     </row>
     <row r="14" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="22" t="s">
+      <c r="A14" s="22"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="23" t="s">
+      <c r="D14" s="20"/>
+      <c r="E14" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22" t="s">
+      <c r="F14" s="50"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="106"/>
-      <c r="U14" s="106"/>
-      <c r="V14" s="106"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="22"/>
-      <c r="Y14" s="22"/>
-      <c r="Z14" s="22"/>
-      <c r="AA14" s="22"/>
-      <c r="AB14" s="22"/>
-      <c r="AC14" s="22"/>
-      <c r="AD14" s="22"/>
-      <c r="AE14" s="22"/>
-      <c r="AF14" s="22"/>
-      <c r="AG14" s="22"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="105"/>
+      <c r="U14" s="105"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="105"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
     </row>
     <row r="15" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22" t="s">
+      <c r="A15" s="22"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="106"/>
-      <c r="U15" s="106"/>
-      <c r="V15" s="106"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="22"/>
-      <c r="AE15" s="22"/>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="22"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="105"/>
+      <c r="U15" s="105"/>
+      <c r="V15" s="105"/>
+      <c r="W15" s="105"/>
+      <c r="X15" s="20"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="20"/>
+      <c r="AA15" s="20"/>
+      <c r="AB15" s="20"/>
+      <c r="AC15" s="20"/>
+      <c r="AD15" s="20"/>
+      <c r="AE15" s="20"/>
+      <c r="AF15" s="20"/>
+      <c r="AG15" s="20"/>
     </row>
     <row r="16" spans="1:47" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="22" t="s">
+      <c r="A16" s="22"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="105"/>
+      <c r="U16" s="105"/>
+      <c r="V16" s="105"/>
+      <c r="W16" s="105"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
+      <c r="AB16" s="20"/>
+      <c r="AC16" s="20"/>
+      <c r="AD16" s="20"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
     </row>
     <row r="17" spans="1:33" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="106"/>
-      <c r="U17" s="106"/>
-      <c r="V17" s="106"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
-      <c r="AB17" s="22"/>
-      <c r="AC17" s="22"/>
-      <c r="AD17" s="22"/>
-      <c r="AE17" s="22"/>
-      <c r="AF17" s="22"/>
-      <c r="AG17" s="22"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="50"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="105"/>
+      <c r="U17" s="105"/>
+      <c r="V17" s="105"/>
+      <c r="W17" s="105"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
+      <c r="AB17" s="20"/>
+      <c r="AC17" s="20"/>
+      <c r="AD17" s="20"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
     </row>
     <row r="18" spans="1:33" s="11" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="106"/>
-      <c r="U18" s="106"/>
-      <c r="V18" s="106"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="22"/>
-      <c r="Y18" s="22"/>
-      <c r="Z18" s="22"/>
-      <c r="AA18" s="22"/>
-      <c r="AB18" s="22"/>
-      <c r="AC18" s="22"/>
-      <c r="AD18" s="22"/>
-      <c r="AE18" s="22"/>
-      <c r="AF18" s="22"/>
-      <c r="AG18" s="22"/>
-    </row>
-    <row r="19" spans="1:33" s="37" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="28"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="36"/>
-      <c r="S19" s="36"/>
-      <c r="T19" s="107"/>
-      <c r="U19" s="107"/>
-      <c r="V19" s="107"/>
-      <c r="W19" s="107"/>
-      <c r="X19" s="36"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="36"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="36"/>
-      <c r="AC19" s="36"/>
-      <c r="AD19" s="36"/>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="36"/>
-      <c r="AG19" s="36"/>
-    </row>
-    <row r="20" spans="1:33" s="41" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="105"/>
+      <c r="U18" s="105"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="105"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
+      <c r="AB18" s="20"/>
+      <c r="AC18" s="20"/>
+      <c r="AD18" s="20"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+    </row>
+    <row r="19" spans="1:33" s="35" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="50"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="106"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+    </row>
+    <row r="20" spans="1:33" s="39" customFormat="1" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="37">
         <v>3.5</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="38">
         <v>4</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="38">
         <v>1.5</v>
       </c>
-      <c r="E20" s="49">
+      <c r="E20" s="47">
         <v>3.5</v>
       </c>
-      <c r="F20" s="53">
+      <c r="F20" s="51">
         <f>AVERAGE(B20:E20)</f>
         <v>3.125</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="37">
         <v>4</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="38">
         <v>1</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="38">
         <v>2.5</v>
       </c>
-      <c r="J20" s="40">
+      <c r="J20" s="38">
         <v>3.5</v>
       </c>
-      <c r="K20" s="53">
+      <c r="K20" s="51">
         <f>AVERAGE(G20:J20)</f>
         <v>2.75</v>
       </c>
-      <c r="L20" s="40">
+      <c r="L20" s="38">
         <v>1</v>
       </c>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="40">
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="51"/>
+      <c r="Q20" s="38">
         <v>2</v>
       </c>
-      <c r="R20" s="41">
+      <c r="R20" s="39">
         <v>3</v>
       </c>
-      <c r="S20" s="40">
+      <c r="S20" s="38">
         <v>2</v>
       </c>
-      <c r="T20" s="53"/>
-      <c r="U20" s="53"/>
-      <c r="V20" s="53"/>
-      <c r="W20" s="53"/>
-      <c r="X20" s="40"/>
+      <c r="T20" s="51"/>
+      <c r="U20" s="51"/>
+      <c r="V20" s="51"/>
+      <c r="W20" s="51"/>
+      <c r="X20" s="38"/>
     </row>
     <row r="21" spans="1:33" ht="24" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="101">
+      <c r="B21" s="99">
         <f>HOUR(B4)</f>
         <v>8</v>
       </c>
-      <c r="C21" s="101">
+      <c r="C21" s="99">
         <f>HOUR(C4)</f>
         <v>10</v>
       </c>
-      <c r="D21" s="101">
+      <c r="D21" s="99">
         <f>HOUR(D4)</f>
         <v>10</v>
       </c>
-      <c r="E21" s="101">
+      <c r="E21" s="99">
         <f>HOUR(E4)</f>
         <v>9</v>
       </c>
-      <c r="F21" s="95">
+      <c r="F21" s="93">
         <f>SUM(B21:E21)</f>
         <v>37</v>
       </c>
-      <c r="G21" s="101">
+      <c r="G21" s="99">
         <f>HOUR(G4)</f>
         <v>10</v>
       </c>
-      <c r="H21" s="101">
+      <c r="H21" s="99">
         <f>HOUR(H4)</f>
         <v>9</v>
       </c>
-      <c r="I21" s="101">
+      <c r="I21" s="99">
         <f>HOUR(I4)</f>
         <v>10</v>
       </c>
-      <c r="J21" s="101">
+      <c r="J21" s="99">
         <f>HOUR(J4)</f>
         <v>9</v>
       </c>
-      <c r="K21" s="95">
+      <c r="K21" s="93">
         <f>SUM(G21:J21)</f>
         <v>38</v>
       </c>
-      <c r="L21" s="101">
+      <c r="L21" s="99">
         <f>HOUR(L4)</f>
         <v>10</v>
       </c>
-      <c r="M21" s="101">
+      <c r="M21" s="99">
         <f>HOUR(M4)</f>
         <v>9</v>
       </c>
-      <c r="N21" s="101">
+      <c r="N21" s="99">
         <f>HOUR(N4)</f>
         <v>11</v>
       </c>
-      <c r="O21" s="101">
+      <c r="O21" s="99">
         <f>HOUR(O4)</f>
         <v>9</v>
       </c>
-      <c r="P21" s="95">
+      <c r="P21" s="93">
         <f>SUM(L21:O21)</f>
         <v>39</v>
       </c>
-      <c r="Q21" s="101">
+      <c r="Q21" s="99">
         <f t="shared" ref="Q21:AA21" si="1">HOUR(Q4)</f>
         <v>9</v>
       </c>
-      <c r="R21" s="101">
+      <c r="R21" s="99">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="S21" s="101">
+      <c r="S21" s="99">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="T21" s="95">
+      <c r="T21" s="93">
         <f>SUM(Q21:S21)</f>
         <v>22</v>
       </c>
-      <c r="U21" s="95"/>
-      <c r="V21" s="95"/>
-      <c r="W21" s="95"/>
-      <c r="X21" s="101" t="e">
+      <c r="U21" s="93"/>
+      <c r="V21" s="93"/>
+      <c r="W21" s="93"/>
+      <c r="X21" s="99">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y21" s="101">
+        <v>9</v>
+      </c>
+      <c r="Y21" s="99">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Z21" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="101">
+      <c r="AA21" s="99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="101">
+      <c r="B22" s="99">
         <f>MINUTE(B4)</f>
         <v>12</v>
       </c>
-      <c r="C22" s="101">
+      <c r="C22" s="99">
         <f>MINUTE(C4)</f>
         <v>0</v>
       </c>
-      <c r="D22" s="101">
+      <c r="D22" s="99">
         <f>MINUTE(D4)</f>
         <v>20</v>
       </c>
-      <c r="E22" s="101">
+      <c r="E22" s="99">
         <f>MINUTE(E4)</f>
         <v>8</v>
       </c>
-      <c r="F22" s="95">
+      <c r="F22" s="93">
         <f>SUM(B22:E22)</f>
         <v>40</v>
       </c>
-      <c r="G22" s="101">
+      <c r="G22" s="99">
         <f>MINUTE(G4)</f>
         <v>41</v>
       </c>
-      <c r="H22" s="101">
+      <c r="H22" s="99">
         <f>MINUTE(H4)</f>
         <v>56</v>
       </c>
-      <c r="I22" s="101">
+      <c r="I22" s="99">
         <f>MINUTE(I4)</f>
         <v>3</v>
       </c>
-      <c r="J22" s="101">
+      <c r="J22" s="99">
         <f>MINUTE(J4)</f>
         <v>20</v>
       </c>
-      <c r="K22" s="95">
+      <c r="K22" s="93">
         <f>SUM(G22:J22)</f>
         <v>120</v>
       </c>
-      <c r="L22" s="101">
+      <c r="L22" s="99">
         <f>MINUTE(L4)</f>
         <v>12</v>
       </c>
-      <c r="M22" s="101">
+      <c r="M22" s="99">
         <f>MINUTE(M4)</f>
         <v>30</v>
       </c>
-      <c r="N22" s="101">
+      <c r="N22" s="99">
         <f>MINUTE(N4)</f>
         <v>22</v>
       </c>
-      <c r="O22" s="101">
+      <c r="O22" s="99">
         <f>MINUTE(O4)</f>
         <v>4</v>
       </c>
-      <c r="P22" s="95">
+      <c r="P22" s="93">
         <f>SUM(L22:O22)</f>
         <v>68</v>
       </c>
-      <c r="Q22" s="101">
+      <c r="Q22" s="99">
         <f t="shared" ref="Q22:AA22" si="2">MINUTE(Q4)</f>
         <v>36</v>
       </c>
-      <c r="R22" s="101">
+      <c r="R22" s="99">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="S22" s="101">
+      <c r="S22" s="99">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="T22" s="95">
+      <c r="T22" s="93">
         <f>SUM(Q22:S22)</f>
         <v>123</v>
       </c>
-      <c r="U22" s="95"/>
-      <c r="V22" s="95"/>
-      <c r="W22" s="95"/>
-      <c r="X22" s="101" t="e">
+      <c r="U22" s="93"/>
+      <c r="V22" s="93"/>
+      <c r="W22" s="93"/>
+      <c r="X22" s="99">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Y22" s="101">
+        <v>53</v>
+      </c>
+      <c r="Y22" s="99">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="Z22" s="99">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Z22" s="101">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="101">
+      <c r="AA22" s="99">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -2940,18 +2952,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16:V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="66" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="83" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="90" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" style="83" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" style="90" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" style="83" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="81" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" style="88" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="81" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="45.7109375" style="88" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="81" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" style="3" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="26.7109375" style="1" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="44" style="1" hidden="1" customWidth="1"/>
@@ -2969,954 +2981,975 @@
     <col min="43" max="16384" width="32.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="60" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63"/>
-      <c r="B1" s="61">
+    <row r="1" spans="1:42" s="58" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61"/>
+      <c r="B1" s="59">
         <v>44753</v>
       </c>
-      <c r="C1" s="61">
+      <c r="C1" s="59">
         <v>44754</v>
       </c>
-      <c r="D1" s="61">
+      <c r="D1" s="59">
         <v>44755</v>
       </c>
-      <c r="E1" s="61">
+      <c r="E1" s="59">
         <v>44756</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="67">
+      <c r="G1" s="65">
         <v>44760</v>
       </c>
-      <c r="H1" s="67">
+      <c r="H1" s="65">
         <v>44761</v>
       </c>
-      <c r="I1" s="67">
+      <c r="I1" s="65">
         <v>44762</v>
       </c>
-      <c r="J1" s="67">
+      <c r="J1" s="65">
         <v>44763</v>
       </c>
-      <c r="K1" s="60" t="s">
+      <c r="K1" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="60">
+      <c r="L1" s="58">
         <v>44767</v>
       </c>
-      <c r="M1" s="60">
+      <c r="M1" s="58">
         <v>44768</v>
       </c>
-      <c r="N1" s="60">
+      <c r="N1" s="58">
         <v>44769</v>
       </c>
-      <c r="O1" s="60">
+      <c r="O1" s="58">
         <v>44770</v>
       </c>
-      <c r="P1" s="60" t="s">
+      <c r="P1" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="Q1" s="67">
+      <c r="Q1" s="65">
         <v>44774</v>
       </c>
-      <c r="R1" s="67">
+      <c r="R1" s="65">
         <v>44775</v>
       </c>
-      <c r="S1" s="67">
+      <c r="S1" s="65">
         <v>44776</v>
       </c>
-      <c r="T1" s="67" t="s">
+      <c r="T1" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="U1" s="67">
+      <c r="U1" s="65">
         <v>44781</v>
       </c>
-      <c r="V1" s="67">
+      <c r="V1" s="65">
         <v>44782</v>
       </c>
-      <c r="W1" s="67">
+      <c r="W1" s="65">
         <v>44783</v>
       </c>
-      <c r="X1" s="67">
+      <c r="X1" s="65">
         <v>44784</v>
       </c>
-      <c r="Y1" s="67">
+      <c r="Y1" s="65">
         <v>44785</v>
       </c>
-      <c r="Z1" s="67">
+      <c r="Z1" s="65">
         <v>44786</v>
       </c>
-      <c r="AA1" s="67">
+      <c r="AA1" s="65">
         <v>44787</v>
       </c>
-      <c r="AB1" s="67">
+      <c r="AB1" s="65">
         <v>44788</v>
       </c>
-      <c r="AC1" s="67">
+      <c r="AC1" s="65">
         <v>44789</v>
       </c>
-      <c r="AD1" s="60">
+      <c r="AD1" s="58">
         <v>44790</v>
       </c>
-      <c r="AE1" s="60">
+      <c r="AE1" s="58">
         <v>44791</v>
       </c>
-      <c r="AF1" s="60">
+      <c r="AF1" s="58">
         <v>44792</v>
       </c>
-      <c r="AG1" s="60">
+      <c r="AG1" s="58">
         <v>44793</v>
       </c>
-      <c r="AH1" s="60">
+      <c r="AH1" s="58">
         <v>44794</v>
       </c>
-      <c r="AI1" s="60">
+      <c r="AI1" s="58">
         <v>44795</v>
       </c>
-      <c r="AJ1" s="60">
+      <c r="AJ1" s="58">
         <v>44796</v>
       </c>
-      <c r="AK1" s="60">
+      <c r="AK1" s="58">
         <v>44797</v>
       </c>
-      <c r="AL1" s="60">
+      <c r="AL1" s="58">
         <v>44798</v>
       </c>
-      <c r="AM1" s="60">
+      <c r="AM1" s="58">
         <v>44799</v>
       </c>
-      <c r="AN1" s="60">
+      <c r="AN1" s="58">
         <v>44800</v>
       </c>
-      <c r="AO1" s="60">
+      <c r="AO1" s="58">
         <v>44801</v>
       </c>
-      <c r="AP1" s="60">
+      <c r="AP1" s="58">
         <v>44802</v>
       </c>
     </row>
     <row r="2" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91">
+      <c r="A2" s="89">
         <v>0.33333333333333331</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="98"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
-      <c r="S2" s="99"/>
-      <c r="T2" s="99"/>
-      <c r="U2" s="99"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
     </row>
     <row r="3" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="91">
+      <c r="A3" s="89">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="71" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="71" t="s">
+      <c r="E3" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="72" t="s">
+      <c r="F3" s="80"/>
+      <c r="G3" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="98"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="99"/>
-      <c r="P3" s="99"/>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
     </row>
     <row r="4" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91">
+      <c r="A4" s="89">
         <v>0.375</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="109" t="s">
+      <c r="B4" s="69"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="71" t="s">
+      <c r="E4" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="82"/>
-      <c r="G4" s="109" t="s">
+      <c r="F4" s="80"/>
+      <c r="G4" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="H4" s="69" t="s">
+      <c r="H4" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="94" t="s">
+      <c r="I4" s="66"/>
+      <c r="J4" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="65"/>
-      <c r="L4" s="98"/>
-      <c r="M4" s="96" t="s">
+      <c r="K4" s="63"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="97" t="s">
+      <c r="N4" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="99"/>
-      <c r="P4" s="99"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="97"/>
       <c r="Q4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97"/>
+      <c r="T4" s="97"/>
       <c r="U4" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="V4" s="97"/>
     </row>
     <row r="5" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91">
+      <c r="A5" s="89">
         <v>0.39583333333333298</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="71" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="109" t="s">
+      <c r="F5" s="80"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="109" t="s">
+      <c r="I5" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="72" t="s">
+      <c r="J5" s="70" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="65"/>
-      <c r="L5" s="108" t="s">
+      <c r="K5" s="63"/>
+      <c r="L5" s="107" t="s">
         <v>74</v>
       </c>
-      <c r="M5" s="96" t="s">
+      <c r="M5" s="94" t="s">
         <v>93</v>
       </c>
-      <c r="N5" s="108" t="s">
+      <c r="N5" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="O5" s="96" t="s">
+      <c r="O5" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="99"/>
-      <c r="R5" s="99"/>
+      <c r="P5" s="97"/>
+      <c r="R5" s="97"/>
       <c r="S5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="99"/>
+      <c r="T5" s="97"/>
+      <c r="V5" s="97"/>
     </row>
     <row r="6" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="91">
+      <c r="A6" s="89">
         <v>0.41666666666666702</v>
       </c>
-      <c r="B6" s="71"/>
-      <c r="C6" s="86" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="110"/>
-      <c r="E6" s="109" t="s">
+      <c r="D6" s="109"/>
+      <c r="E6" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="72" t="s">
+      <c r="F6" s="80"/>
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="109"/>
+      <c r="J6" s="70" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="108"/>
-      <c r="M6" s="108" t="s">
+      <c r="K6" s="63"/>
+      <c r="L6" s="107"/>
+      <c r="M6" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="N6" s="108"/>
-      <c r="O6" s="96" t="s">
+      <c r="N6" s="107"/>
+      <c r="O6" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="P6" s="99"/>
+      <c r="P6" s="97"/>
       <c r="R6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S6" s="108" t="s">
+      <c r="S6" s="107" t="s">
         <v>124</v>
       </c>
-      <c r="T6" s="99"/>
+      <c r="T6" s="97"/>
+      <c r="V6" s="97"/>
     </row>
     <row r="7" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="91">
+      <c r="A7" s="89">
         <v>0.4375</v>
       </c>
-      <c r="B7" s="71"/>
-      <c r="C7" s="86" t="s">
+      <c r="B7" s="69"/>
+      <c r="C7" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="71" t="s">
+      <c r="D7" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="111"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="111"/>
-      <c r="I7" s="72" t="s">
+      <c r="E7" s="110"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="I7" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="J7" s="72" t="s">
+      <c r="J7" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="65"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108" t="s">
+      <c r="K7" s="63"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="P7" s="99"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="99"/>
+      <c r="P7" s="97"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="97"/>
+      <c r="V7" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="91">
+      <c r="A8" s="89">
         <v>0.45833333333333298</v>
       </c>
-      <c r="B8" s="71"/>
-      <c r="C8" s="86" t="s">
+      <c r="B8" s="69"/>
+      <c r="C8" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="111"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="72" t="s">
+      <c r="E8" s="110"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="70" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="72" t="s">
+      <c r="J8" s="70" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="65"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="108"/>
-      <c r="N8" s="108"/>
-      <c r="O8" s="108"/>
-      <c r="P8" s="99"/>
-      <c r="S8" s="108"/>
-      <c r="T8" s="99"/>
+      <c r="K8" s="63"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107"/>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="97"/>
+      <c r="S8" s="107"/>
+      <c r="T8" s="97"/>
     </row>
     <row r="9" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="91">
+      <c r="A9" s="89">
         <v>0.47916666666666702</v>
       </c>
-      <c r="B9" s="71"/>
-      <c r="C9" s="112" t="s">
+      <c r="B9" s="69"/>
+      <c r="C9" s="111" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="72" t="s">
+      <c r="D9" s="110"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="109" t="s">
+      <c r="H9" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="109" t="s">
+      <c r="I9" s="108" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="72" t="s">
+      <c r="J9" s="70" t="s">
         <v>73</v>
       </c>
-      <c r="K9" s="65"/>
-      <c r="L9" s="108"/>
-      <c r="M9" s="108"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="108"/>
-      <c r="P9" s="99"/>
-      <c r="S9" s="108"/>
-      <c r="T9" s="99"/>
+      <c r="K9" s="63"/>
+      <c r="L9" s="107"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="107"/>
+      <c r="O9" s="107"/>
+      <c r="P9" s="97"/>
+      <c r="S9" s="107"/>
+      <c r="T9" s="97"/>
     </row>
     <row r="10" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="91">
+      <c r="A10" s="89">
         <v>0.5</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="112"/>
-      <c r="D10" s="111"/>
-      <c r="E10" s="109" t="s">
+      <c r="B10" s="69"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="82"/>
-      <c r="G10" s="109" t="s">
+      <c r="F10" s="80"/>
+      <c r="G10" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="111"/>
-      <c r="I10" s="111"/>
-      <c r="J10" s="109" t="s">
+      <c r="H10" s="110"/>
+      <c r="I10" s="110"/>
+      <c r="J10" s="108" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="65"/>
-      <c r="L10" s="108"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="96" t="s">
+      <c r="K10" s="63"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="107"/>
+      <c r="N10" s="107"/>
+      <c r="O10" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="108" t="s">
+      <c r="P10" s="97"/>
+      <c r="Q10" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="T10" s="99"/>
+      <c r="T10" s="97"/>
     </row>
     <row r="11" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="91">
+      <c r="A11" s="89">
         <v>0.52083333333333304</v>
       </c>
-      <c r="B11" s="71"/>
-      <c r="C11" s="112"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="110"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="96" t="s">
+      <c r="B11" s="69"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="110"/>
+      <c r="K11" s="63"/>
+      <c r="L11" s="107"/>
+      <c r="M11" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="108" t="s">
+      <c r="N11" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="O11" s="108" t="s">
+      <c r="O11" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="108"/>
-      <c r="T11" s="99"/>
+      <c r="P11" s="97"/>
+      <c r="Q11" s="107"/>
+      <c r="T11" s="97"/>
     </row>
     <row r="12" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="91">
+      <c r="A12" s="89">
         <v>0.54166666666666696</v>
       </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="112" t="s">
+      <c r="B12" s="69"/>
+      <c r="C12" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="110"/>
-      <c r="E12" s="71" t="s">
+      <c r="D12" s="109"/>
+      <c r="E12" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="82"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="111"/>
-      <c r="I12" s="111"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="108" t="s">
+      <c r="F12" s="80"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="107" t="s">
         <v>15</v>
       </c>
-      <c r="M12" s="108" t="s">
+      <c r="M12" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="N12" s="108"/>
-      <c r="O12" s="108"/>
-      <c r="P12" s="99"/>
-      <c r="T12" s="99"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="97"/>
+      <c r="T12" s="97"/>
     </row>
     <row r="13" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="91">
+      <c r="A13" s="89">
         <v>0.5625</v>
       </c>
-      <c r="B13" s="71"/>
-      <c r="C13" s="112"/>
-      <c r="D13" s="109" t="s">
+      <c r="B13" s="69"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="71" t="s">
+      <c r="E13" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="F13" s="82"/>
-      <c r="G13" s="72" t="s">
+      <c r="F13" s="80"/>
+      <c r="G13" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="110"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="72" t="s">
+      <c r="H13" s="109"/>
+      <c r="I13" s="110"/>
+      <c r="J13" s="70" t="s">
         <v>84</v>
       </c>
-      <c r="K13" s="65"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="108"/>
-      <c r="N13" s="108" t="s">
+      <c r="K13" s="63"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="O13" s="108"/>
-      <c r="P13" s="99"/>
-      <c r="T13" s="99"/>
+      <c r="O13" s="107"/>
+      <c r="P13" s="97"/>
+      <c r="T13" s="97"/>
     </row>
     <row r="14" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="91">
+      <c r="A14" s="89">
         <v>0.58333333333333304</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="112" t="s">
+      <c r="B14" s="69"/>
+      <c r="C14" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="110"/>
-      <c r="E14" s="109" t="s">
+      <c r="D14" s="109"/>
+      <c r="E14" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="72" t="s">
+      <c r="F14" s="80"/>
+      <c r="G14" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="109" t="s">
+      <c r="H14" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="110"/>
-      <c r="J14" s="109" t="s">
+      <c r="I14" s="109"/>
+      <c r="J14" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="65"/>
-      <c r="L14" s="108" t="s">
+      <c r="K14" s="63"/>
+      <c r="L14" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="M14" s="108"/>
-      <c r="N14" s="108"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="99"/>
-      <c r="T14" s="99"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="107"/>
+      <c r="P14" s="97"/>
+      <c r="T14" s="97"/>
     </row>
     <row r="15" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="91">
+      <c r="A15" s="89">
         <v>0.60416666666666696</v>
       </c>
-      <c r="B15" s="71"/>
-      <c r="C15" s="112"/>
-      <c r="D15" s="109" t="s">
+      <c r="B15" s="69"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="110"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="109" t="s">
+      <c r="E15" s="109"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="111"/>
-      <c r="I15" s="72" t="s">
+      <c r="H15" s="110"/>
+      <c r="I15" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="110"/>
-      <c r="K15" s="65"/>
-      <c r="L15" s="108"/>
-      <c r="M15" s="108"/>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="99"/>
-      <c r="T15" s="99"/>
+      <c r="J15" s="109"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="107"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="107"/>
+      <c r="P15" s="97"/>
+      <c r="T15" s="97"/>
     </row>
     <row r="16" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="91">
+      <c r="A16" s="89">
         <v>0.625</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="112" t="s">
+      <c r="B16" s="69"/>
+      <c r="C16" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="109" t="s">
+      <c r="D16" s="109"/>
+      <c r="E16" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="82"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="109" t="s">
+      <c r="F16" s="80"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="108" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="72" t="s">
+      <c r="J16" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="K16" s="65"/>
-      <c r="L16" s="108"/>
-      <c r="M16" s="108"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="108"/>
-      <c r="P16" s="99"/>
-      <c r="T16" s="99"/>
-    </row>
-    <row r="17" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="91">
+      <c r="K16" s="63"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="107"/>
+      <c r="O16" s="107"/>
+      <c r="P16" s="97"/>
+      <c r="T16" s="97"/>
+      <c r="V16" s="107" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="89">
         <v>0.64583333333333404</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="112"/>
-      <c r="D17" s="109" t="s">
+      <c r="B17" s="69"/>
+      <c r="C17" s="111"/>
+      <c r="D17" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="110"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="109" t="s">
+      <c r="E17" s="109"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="108" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="111"/>
-      <c r="J17" s="109" t="s">
+      <c r="I17" s="110"/>
+      <c r="J17" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="K17" s="65"/>
-      <c r="L17" s="108"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="108"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="99"/>
-      <c r="T17" s="99"/>
-    </row>
-    <row r="18" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="91">
+      <c r="K17" s="63"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="107"/>
+      <c r="P17" s="97"/>
+      <c r="T17" s="97"/>
+      <c r="V17" s="107"/>
+    </row>
+    <row r="18" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="89">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B18" s="71"/>
-      <c r="C18" s="112"/>
-      <c r="D18" s="110"/>
-      <c r="E18" s="71" t="s">
+      <c r="B18" s="69"/>
+      <c r="C18" s="111"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="F18" s="82"/>
-      <c r="G18" s="111"/>
-      <c r="H18" s="111"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="108"/>
-      <c r="M18" s="108" t="s">
+      <c r="F18" s="80"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
+      <c r="I18" s="109"/>
+      <c r="J18" s="110"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="N18" s="108"/>
-      <c r="O18" s="108" t="s">
+      <c r="N18" s="107"/>
+      <c r="O18" s="107" t="s">
         <v>110</v>
       </c>
-      <c r="P18" s="99"/>
-      <c r="T18" s="99"/>
-    </row>
-    <row r="19" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="91">
+      <c r="P18" s="97"/>
+      <c r="T18" s="97"/>
+      <c r="V18" s="107"/>
+    </row>
+    <row r="19" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="89">
         <v>0.6875</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="86" t="s">
+      <c r="B19" s="69"/>
+      <c r="C19" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="71" t="s">
+      <c r="D19" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="109" t="s">
+      <c r="E19" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="82"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="109" t="s">
+      <c r="F19" s="80"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="110"/>
+      <c r="I19" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="111"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="108"/>
-      <c r="M19" s="108"/>
-      <c r="N19" s="96" t="s">
+      <c r="J19" s="110"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="O19" s="108"/>
-      <c r="P19" s="99"/>
-      <c r="T19" s="99"/>
-    </row>
-    <row r="20" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91">
+      <c r="O19" s="107"/>
+      <c r="P19" s="97"/>
+      <c r="T19" s="97"/>
+    </row>
+    <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="89">
         <v>0.70833333333333404</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="86" t="s">
+      <c r="B20" s="69"/>
+      <c r="C20" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="109" t="s">
+      <c r="D20" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="110"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="110"/>
-      <c r="J20" s="111"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="96" t="s">
+      <c r="E20" s="109"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="110"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="M20" s="108" t="s">
+      <c r="M20" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="N20" s="96"/>
-      <c r="O20" s="108"/>
-      <c r="P20" s="99"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-    </row>
-    <row r="21" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="91">
+      <c r="N20" s="94"/>
+      <c r="O20" s="107"/>
+      <c r="P20" s="97"/>
+      <c r="S20" s="96"/>
+      <c r="T20" s="96"/>
+    </row>
+    <row r="21" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="89">
         <v>0.72916666666666696</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="112" t="s">
+      <c r="B21" s="69"/>
+      <c r="C21" s="111" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="110"/>
-      <c r="E21" s="71" t="s">
+      <c r="D21" s="109"/>
+      <c r="E21" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="F21" s="82"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="109" t="s">
+      <c r="F21" s="80"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="109"/>
+      <c r="I21" s="108" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="110"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="108" t="s">
+      <c r="J21" s="109"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="107" t="s">
         <v>91</v>
       </c>
-      <c r="M21" s="108"/>
-      <c r="N21" s="96"/>
-      <c r="O21" s="96"/>
-      <c r="P21" s="99"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
-    </row>
-    <row r="22" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="91">
+      <c r="M21" s="107"/>
+      <c r="N21" s="94"/>
+      <c r="O21" s="94"/>
+      <c r="P21" s="97"/>
+      <c r="S21" s="96"/>
+      <c r="T21" s="96"/>
+    </row>
+    <row r="22" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="89">
         <v>0.75</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="112"/>
-      <c r="D22" s="71" t="s">
+      <c r="B22" s="69"/>
+      <c r="C22" s="111"/>
+      <c r="D22" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="64"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="69" t="s">
+      <c r="E22" s="62"/>
+      <c r="F22" s="80"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="110"/>
-      <c r="J22" s="72" t="s">
+      <c r="I22" s="109"/>
+      <c r="J22" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="K22" s="65"/>
-      <c r="L22" s="108"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="96"/>
-      <c r="O22" s="96"/>
-      <c r="P22" s="99"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="97"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
+      <c r="P22" s="97"/>
       <c r="Q22" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-    </row>
-    <row r="23" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="91">
+      <c r="S22" s="96"/>
+      <c r="T22" s="96"/>
+    </row>
+    <row r="23" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="89">
         <v>0.77083333333333404</v>
       </c>
-      <c r="B23" s="71"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="71" t="s">
+      <c r="B23" s="69"/>
+      <c r="C23" s="111"/>
+      <c r="D23" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="E23" s="64"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="70" t="s">
+      <c r="E23" s="62"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="109" t="s">
+      <c r="I23" s="108" t="s">
         <v>74</v>
       </c>
-      <c r="J23" s="64"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="108"/>
-      <c r="M23" s="99"/>
-      <c r="N23" s="96"/>
-      <c r="O23" s="96"/>
-      <c r="P23" s="99"/>
-      <c r="Q23" s="98"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="107"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="94"/>
+      <c r="O23" s="94"/>
+      <c r="P23" s="97"/>
+      <c r="Q23" s="96"/>
       <c r="R23"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-    </row>
-    <row r="24" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="91">
+      <c r="S23" s="96"/>
+      <c r="T23" s="96"/>
+    </row>
+    <row r="24" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="89">
         <v>0.79166666666666696</v>
       </c>
-      <c r="B24" s="71"/>
-      <c r="C24" s="86" t="s">
+      <c r="B24" s="69"/>
+      <c r="C24" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="110"/>
-      <c r="J24" s="64"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="96" t="s">
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="109"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="M24" s="99"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="98"/>
-      <c r="P24" s="98"/>
-      <c r="Q24" s="98"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-    </row>
-    <row r="25" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91">
+      <c r="M24" s="97"/>
+      <c r="N24" s="96"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="96"/>
+      <c r="R24" s="96"/>
+      <c r="S24" s="96"/>
+      <c r="T24" s="96"/>
+      <c r="U24" s="96"/>
+    </row>
+    <row r="25" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="89">
         <v>0.8125</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
-      <c r="K25" s="65"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="98"/>
-      <c r="O25" s="98"/>
-      <c r="P25" s="98"/>
-      <c r="Q25" s="98"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-    </row>
-    <row r="26" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="91">
+      <c r="B25" s="69"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="96"/>
+      <c r="O25" s="96"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="96"/>
+      <c r="R25" s="96"/>
+      <c r="S25" s="96"/>
+      <c r="T25" s="96"/>
+      <c r="U25" s="96"/>
+    </row>
+    <row r="26" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="89">
         <v>0.83333333333333304</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="64"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
-      <c r="K26" s="65"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="98"/>
-      <c r="P26" s="98"/>
-      <c r="Q26" s="98"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-    </row>
-    <row r="27" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="91">
+      <c r="B26" s="69"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="96"/>
+      <c r="O26" s="96"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="96"/>
+      <c r="R26" s="96"/>
+      <c r="S26" s="96"/>
+      <c r="T26" s="96"/>
+      <c r="U26" s="96"/>
+    </row>
+    <row r="27" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="89">
         <v>0.85416666666666596</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="64"/>
-      <c r="I27" s="64"/>
-      <c r="J27" s="64"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="98"/>
-      <c r="P27" s="98"/>
-      <c r="Q27" s="98"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-    </row>
-    <row r="28" spans="1:20" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="91">
+      <c r="B27" s="69"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="96"/>
+      <c r="O27" s="96"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="96"/>
+      <c r="R27" s="96"/>
+      <c r="S27" s="96"/>
+      <c r="T27" s="96"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="96"/>
+    </row>
+    <row r="28" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="89">
         <v>0.874999999999999</v>
       </c>
-      <c r="B28" s="81"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="81"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="81"/>
-      <c r="J28" s="81"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="98"/>
-      <c r="P28" s="98"/>
-      <c r="Q28" s="98"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-    </row>
-    <row r="29" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="89"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="76"/>
-    </row>
-    <row r="30" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="76"/>
-    </row>
-    <row r="31" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="76"/>
+      <c r="B28" s="79"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
+      <c r="I28" s="79"/>
+      <c r="J28" s="79"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="96"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="96"/>
+      <c r="R28" s="96"/>
+      <c r="S28" s="96"/>
+      <c r="T28" s="96"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="96"/>
+    </row>
+    <row r="29" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="74"/>
+    </row>
+    <row r="30" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="74"/>
+    </row>
+    <row r="31" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="49">
+    <mergeCell ref="V16:V18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="I9:I14"/>
     <mergeCell ref="I16:I18"/>
@@ -3986,942 +4019,942 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61">
+      <c r="A1" s="59">
         <v>44762</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="75"/>
-      <c r="AE1" s="75"/>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="75"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
+      <c r="W1" s="74"/>
+      <c r="X1" s="74"/>
+      <c r="Y1" s="74"/>
+      <c r="Z1" s="74"/>
+      <c r="AA1" s="74"/>
+      <c r="AB1" s="74"/>
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
+      <c r="AH1" s="73"/>
     </row>
     <row r="2" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="79"/>
-      <c r="N2" s="79"/>
-      <c r="O2" s="79"/>
-      <c r="P2" s="79"/>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="79"/>
-      <c r="AA2" s="79"/>
-      <c r="AB2" s="79"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="77"/>
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="77"/>
+      <c r="T2" s="77"/>
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="77"/>
+      <c r="X2" s="77"/>
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="77"/>
+      <c r="AB2" s="77"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="73"/>
+      <c r="AE2" s="73"/>
+      <c r="AF2" s="73"/>
+      <c r="AG2" s="73"/>
+      <c r="AH2" s="73"/>
     </row>
     <row r="3" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="74"/>
-      <c r="B3" s="76" t="s">
+      <c r="A3" s="72"/>
+      <c r="B3" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="79"/>
-      <c r="AA3" s="79"/>
-      <c r="AB3" s="79"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="75"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="75"/>
-      <c r="AG3" s="75"/>
-      <c r="AH3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="77"/>
+      <c r="R3" s="77"/>
+      <c r="S3" s="77"/>
+      <c r="T3" s="77"/>
+      <c r="U3" s="77"/>
+      <c r="V3" s="77"/>
+      <c r="W3" s="77"/>
+      <c r="X3" s="77"/>
+      <c r="Y3" s="77"/>
+      <c r="Z3" s="77"/>
+      <c r="AA3" s="77"/>
+      <c r="AB3" s="77"/>
+      <c r="AC3" s="77"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
     </row>
     <row r="4" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="79"/>
-      <c r="M4" s="79"/>
-      <c r="N4" s="79"/>
-      <c r="O4" s="79"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="79"/>
-      <c r="R4" s="79"/>
-      <c r="S4" s="79"/>
-      <c r="T4" s="79"/>
-      <c r="U4" s="79"/>
-      <c r="V4" s="79"/>
-      <c r="W4" s="79"/>
-      <c r="X4" s="79"/>
-      <c r="Y4" s="79"/>
-      <c r="Z4" s="79"/>
-      <c r="AA4" s="79"/>
-      <c r="AB4" s="79"/>
-      <c r="AC4" s="79"/>
-      <c r="AD4" s="75"/>
-      <c r="AE4" s="75"/>
-      <c r="AF4" s="75"/>
-      <c r="AG4" s="75"/>
-      <c r="AH4" s="75"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="77"/>
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+      <c r="X4" s="77"/>
+      <c r="Y4" s="77"/>
+      <c r="Z4" s="77"/>
+      <c r="AA4" s="77"/>
+      <c r="AB4" s="77"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="73"/>
+      <c r="AE4" s="73"/>
+      <c r="AF4" s="73"/>
+      <c r="AG4" s="73"/>
+      <c r="AH4" s="73"/>
     </row>
     <row r="5" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="74"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="76"/>
-      <c r="Y5" s="76"/>
-      <c r="Z5" s="76"/>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="75"/>
-      <c r="AE5" s="75"/>
-      <c r="AF5" s="75"/>
-      <c r="AG5" s="75"/>
-      <c r="AH5" s="75"/>
+      <c r="A5" s="72"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="73"/>
+      <c r="AE5" s="73"/>
+      <c r="AF5" s="73"/>
+      <c r="AG5" s="73"/>
+      <c r="AH5" s="73"/>
     </row>
     <row r="6" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="74"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="79"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="76"/>
-      <c r="Y6" s="76"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="75"/>
-      <c r="AE6" s="75"/>
-      <c r="AF6" s="75"/>
-      <c r="AG6" s="75"/>
-      <c r="AH6" s="75"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+      <c r="AG6" s="73"/>
+      <c r="AH6" s="73"/>
     </row>
     <row r="7" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="79"/>
-      <c r="D7" s="76"/>
-      <c r="E7" s="76"/>
-      <c r="F7" s="76"/>
-      <c r="G7" s="76"/>
-      <c r="H7" s="76"/>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
-      <c r="X7" s="76"/>
-      <c r="Y7" s="76"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="75"/>
-      <c r="AF7" s="75"/>
-      <c r="AG7" s="75"/>
-      <c r="AH7" s="75"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="74"/>
+      <c r="G7" s="74"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="73"/>
     </row>
     <row r="8" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
-      <c r="H8" s="76"/>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="76"/>
-      <c r="Y8" s="76"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="76"/>
-      <c r="AD8" s="75"/>
-      <c r="AE8" s="75"/>
-      <c r="AF8" s="75"/>
-      <c r="AG8" s="75"/>
-      <c r="AH8" s="75"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="74"/>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="73"/>
     </row>
     <row r="9" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="74"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="76"/>
-      <c r="Y9" s="76"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
+      <c r="T9" s="74"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="74"/>
+      <c r="X9" s="74"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="74"/>
+      <c r="AA9" s="74"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="73"/>
     </row>
     <row r="10" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="61">
+      <c r="A10" s="59">
         <v>44769</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="76"/>
-      <c r="Y10" s="76"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="73"/>
+      <c r="AH10" s="73"/>
     </row>
     <row r="11" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="76" t="s">
+      <c r="A11" s="72"/>
+      <c r="B11" s="74" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="79"/>
-      <c r="P11" s="79"/>
-      <c r="Q11" s="79"/>
-      <c r="R11" s="79"/>
-      <c r="S11" s="79"/>
-      <c r="T11" s="79"/>
-      <c r="U11" s="79"/>
-      <c r="V11" s="79"/>
-      <c r="W11" s="79"/>
-      <c r="X11" s="79"/>
-      <c r="Y11" s="79"/>
-      <c r="Z11" s="79"/>
-      <c r="AA11" s="79"/>
-      <c r="AB11" s="79"/>
-      <c r="AC11" s="79"/>
-      <c r="AD11" s="75"/>
-      <c r="AE11" s="75"/>
-      <c r="AF11" s="75"/>
-      <c r="AG11" s="75"/>
-      <c r="AH11" s="75"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="77"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+      <c r="X11" s="77"/>
+      <c r="Y11" s="77"/>
+      <c r="Z11" s="77"/>
+      <c r="AA11" s="77"/>
+      <c r="AB11" s="77"/>
+      <c r="AC11" s="77"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="73"/>
     </row>
     <row r="12" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="79"/>
-      <c r="P12" s="79"/>
-      <c r="Q12" s="79"/>
-      <c r="R12" s="79"/>
-      <c r="S12" s="79"/>
-      <c r="T12" s="79"/>
-      <c r="U12" s="79"/>
-      <c r="V12" s="79"/>
-      <c r="W12" s="79"/>
-      <c r="X12" s="79"/>
-      <c r="Y12" s="79"/>
-      <c r="Z12" s="79"/>
-      <c r="AA12" s="79"/>
-      <c r="AB12" s="79"/>
-      <c r="AC12" s="79"/>
-      <c r="AD12" s="75"/>
-      <c r="AE12" s="75"/>
-      <c r="AF12" s="75"/>
-      <c r="AG12" s="75"/>
-      <c r="AH12" s="75"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
+      <c r="S12" s="77"/>
+      <c r="T12" s="77"/>
+      <c r="U12" s="77"/>
+      <c r="V12" s="77"/>
+      <c r="W12" s="77"/>
+      <c r="X12" s="77"/>
+      <c r="Y12" s="77"/>
+      <c r="Z12" s="77"/>
+      <c r="AA12" s="77"/>
+      <c r="AB12" s="77"/>
+      <c r="AC12" s="77"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="73"/>
     </row>
     <row r="13" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="61">
+      <c r="A13" s="59">
         <v>44770</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="76"/>
-      <c r="Y13" s="76"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="75"/>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="75"/>
-      <c r="AH13" s="75"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="74"/>
+      <c r="H13" s="74"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="74"/>
+      <c r="K13" s="74"/>
+      <c r="L13" s="74"/>
+      <c r="M13" s="74"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="74"/>
+      <c r="T13" s="74"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="74"/>
+      <c r="X13" s="74"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="74"/>
+      <c r="AA13" s="74"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="73"/>
+      <c r="AH13" s="73"/>
     </row>
     <row r="14" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="74"/>
-      <c r="B14" s="76" t="s">
+      <c r="A14" s="72"/>
+      <c r="B14" s="74" t="s">
         <v>108</v>
       </c>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="76"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="76"/>
-      <c r="Y14" s="76"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="75"/>
-      <c r="AE14" s="75"/>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="75"/>
-      <c r="AH14" s="75"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+      <c r="H14" s="74"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="74"/>
+      <c r="K14" s="74"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="74"/>
+      <c r="X14" s="74"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+      <c r="AG14" s="73"/>
+      <c r="AH14" s="73"/>
     </row>
     <row r="15" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="76"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="76"/>
-      <c r="P15" s="76"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="76"/>
-      <c r="S15" s="76"/>
-      <c r="T15" s="76"/>
-      <c r="U15" s="76"/>
-      <c r="V15" s="76"/>
-      <c r="W15" s="76"/>
-      <c r="X15" s="76"/>
-      <c r="Y15" s="76"/>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="75"/>
-      <c r="AE15" s="75"/>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="75"/>
-      <c r="AH15" s="75"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="74"/>
+      <c r="T15" s="74"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="74"/>
+      <c r="X15" s="74"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="74"/>
+      <c r="AA15" s="74"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="73"/>
+      <c r="AH15" s="73"/>
     </row>
     <row r="16" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="76"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="76"/>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="76"/>
-      <c r="O16" s="76"/>
-      <c r="P16" s="76"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="76"/>
-      <c r="S16" s="76"/>
-      <c r="T16" s="76"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="76"/>
-      <c r="AC16" s="76"/>
-      <c r="AD16" s="75"/>
-      <c r="AE16" s="75"/>
-      <c r="AF16" s="75"/>
-      <c r="AG16" s="75"/>
-      <c r="AH16" s="75"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="H16" s="74"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="74"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74"/>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="74"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="73"/>
+      <c r="AH16" s="73"/>
     </row>
     <row r="17" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="61">
+      <c r="A17" s="59">
         <v>44774</v>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
-      <c r="P17" s="79"/>
-      <c r="Q17" s="79"/>
-      <c r="R17" s="79"/>
-      <c r="S17" s="79"/>
-      <c r="T17" s="79"/>
-      <c r="U17" s="79"/>
-      <c r="V17" s="79"/>
-      <c r="W17" s="79"/>
-      <c r="X17" s="79"/>
-      <c r="Y17" s="79"/>
-      <c r="Z17" s="79"/>
-      <c r="AA17" s="79"/>
-      <c r="AB17" s="79"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="75"/>
-      <c r="AE17" s="75"/>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="75"/>
-      <c r="AH17" s="75"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77"/>
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77"/>
+      <c r="S17" s="77"/>
+      <c r="T17" s="77"/>
+      <c r="U17" s="77"/>
+      <c r="V17" s="77"/>
+      <c r="W17" s="77"/>
+      <c r="X17" s="77"/>
+      <c r="Y17" s="77"/>
+      <c r="Z17" s="77"/>
+      <c r="AA17" s="77"/>
+      <c r="AB17" s="77"/>
+      <c r="AC17" s="77"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="73"/>
     </row>
     <row r="18" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="102" t="s">
+      <c r="A18" s="72"/>
+      <c r="B18" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
-      <c r="P18" s="76"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="76"/>
-      <c r="S18" s="76"/>
-      <c r="T18" s="76"/>
-      <c r="U18" s="76"/>
-      <c r="V18" s="76"/>
-      <c r="W18" s="76"/>
-      <c r="X18" s="76"/>
-      <c r="Y18" s="76"/>
-      <c r="Z18" s="76"/>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="75"/>
-      <c r="AE18" s="75"/>
-      <c r="AF18" s="75"/>
-      <c r="AG18" s="75"/>
-      <c r="AH18" s="75"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="74"/>
+      <c r="L18" s="74"/>
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="74"/>
+      <c r="T18" s="74"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="74"/>
+      <c r="X18" s="74"/>
+      <c r="Y18" s="74"/>
+      <c r="Z18" s="74"/>
+      <c r="AA18" s="74"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="73"/>
     </row>
     <row r="19" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="102" t="s">
+      <c r="B19" s="100" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="76"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="76"/>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="76"/>
-      <c r="P19" s="76"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="76"/>
-      <c r="S19" s="76"/>
-      <c r="T19" s="76"/>
-      <c r="U19" s="76"/>
-      <c r="V19" s="76"/>
-      <c r="W19" s="76"/>
-      <c r="X19" s="76"/>
-      <c r="Y19" s="76"/>
-      <c r="Z19" s="76"/>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="75"/>
-      <c r="AF19" s="75"/>
-      <c r="AG19" s="75"/>
-      <c r="AH19" s="75"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
+      <c r="M19" s="74"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="74"/>
+      <c r="T19" s="74"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="74"/>
+      <c r="X19" s="74"/>
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="74"/>
+      <c r="AA19" s="74"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="74"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+      <c r="AG19" s="73"/>
+      <c r="AH19" s="73"/>
     </row>
     <row r="20" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="103" t="s">
+      <c r="B20" s="101" t="s">
         <v>116</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="75"/>
-      <c r="AG20" s="75"/>
-      <c r="AH20" s="75"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="77"/>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
+      <c r="R20" s="77"/>
+      <c r="S20" s="77"/>
+      <c r="T20" s="77"/>
+      <c r="U20" s="77"/>
+      <c r="V20" s="77"/>
+      <c r="W20" s="77"/>
+      <c r="X20" s="77"/>
+      <c r="Y20" s="77"/>
+      <c r="Z20" s="77"/>
+      <c r="AA20" s="77"/>
+      <c r="AB20" s="77"/>
+      <c r="AC20" s="77"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="73"/>
+      <c r="AH20" s="73"/>
     </row>
     <row r="21" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="75"/>
-      <c r="AE21" s="75"/>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="75"/>
-      <c r="AH21" s="75"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="77"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="77"/>
+      <c r="J21" s="77"/>
+      <c r="K21" s="77"/>
+      <c r="L21" s="77"/>
+      <c r="M21" s="77"/>
+      <c r="N21" s="77"/>
+      <c r="O21" s="77"/>
+      <c r="P21" s="77"/>
+      <c r="Q21" s="77"/>
+      <c r="R21" s="77"/>
+      <c r="S21" s="77"/>
+      <c r="T21" s="77"/>
+      <c r="U21" s="77"/>
+      <c r="V21" s="77"/>
+      <c r="W21" s="77"/>
+      <c r="X21" s="77"/>
+      <c r="Y21" s="77"/>
+      <c r="Z21" s="77"/>
+      <c r="AA21" s="77"/>
+      <c r="AB21" s="77"/>
+      <c r="AC21" s="77"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="73"/>
+      <c r="AF21" s="73"/>
+      <c r="AG21" s="73"/>
+      <c r="AH21" s="73"/>
     </row>
     <row r="22" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="61">
+      <c r="A22" s="59">
         <v>44775</v>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
-      <c r="P22" s="79"/>
-      <c r="Q22" s="79"/>
-      <c r="R22" s="79"/>
-      <c r="S22" s="79"/>
-      <c r="T22" s="79"/>
-      <c r="U22" s="79"/>
-      <c r="V22" s="79"/>
-      <c r="W22" s="79"/>
-      <c r="X22" s="79"/>
-      <c r="Y22" s="79"/>
-      <c r="Z22" s="79"/>
-      <c r="AA22" s="79"/>
-      <c r="AB22" s="79"/>
-      <c r="AC22" s="79"/>
-      <c r="AD22" s="75"/>
-      <c r="AE22" s="75"/>
-      <c r="AF22" s="75"/>
-      <c r="AG22" s="75"/>
-      <c r="AH22" s="75"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
+      <c r="M22" s="77"/>
+      <c r="N22" s="77"/>
+      <c r="O22" s="77"/>
+      <c r="P22" s="77"/>
+      <c r="Q22" s="77"/>
+      <c r="R22" s="77"/>
+      <c r="S22" s="77"/>
+      <c r="T22" s="77"/>
+      <c r="U22" s="77"/>
+      <c r="V22" s="77"/>
+      <c r="W22" s="77"/>
+      <c r="X22" s="77"/>
+      <c r="Y22" s="77"/>
+      <c r="Z22" s="77"/>
+      <c r="AA22" s="77"/>
+      <c r="AB22" s="77"/>
+      <c r="AC22" s="77"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="73"/>
+      <c r="AH22" s="73"/>
     </row>
     <row r="23" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="74"/>
+      <c r="A23" s="72"/>
       <c r="B23" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
-      <c r="P23" s="79"/>
-      <c r="Q23" s="79"/>
-      <c r="R23" s="79"/>
-      <c r="S23" s="79"/>
-      <c r="T23" s="79"/>
-      <c r="U23" s="79"/>
-      <c r="V23" s="79"/>
-      <c r="W23" s="79"/>
-      <c r="X23" s="79"/>
-      <c r="Y23" s="79"/>
-      <c r="Z23" s="79"/>
-      <c r="AA23" s="79"/>
-      <c r="AB23" s="79"/>
-      <c r="AC23" s="79"/>
-      <c r="AD23" s="75"/>
-      <c r="AE23" s="75"/>
-      <c r="AF23" s="75"/>
-      <c r="AG23" s="75"/>
-      <c r="AH23" s="75"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="77"/>
+      <c r="L23" s="77"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="77"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="77"/>
+      <c r="S23" s="77"/>
+      <c r="T23" s="77"/>
+      <c r="U23" s="77"/>
+      <c r="V23" s="77"/>
+      <c r="W23" s="77"/>
+      <c r="X23" s="77"/>
+      <c r="Y23" s="77"/>
+      <c r="Z23" s="77"/>
+      <c r="AA23" s="77"/>
+      <c r="AB23" s="77"/>
+      <c r="AC23" s="77"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="73"/>
     </row>
     <row r="24" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="79"/>
-      <c r="I24" s="79"/>
-      <c r="J24" s="79"/>
-      <c r="K24" s="79"/>
-      <c r="L24" s="79"/>
-      <c r="M24" s="79"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="79"/>
-      <c r="P24" s="79"/>
-      <c r="Q24" s="79"/>
-      <c r="R24" s="79"/>
-      <c r="S24" s="79"/>
-      <c r="T24" s="79"/>
-      <c r="U24" s="79"/>
-      <c r="V24" s="75"/>
-      <c r="W24" s="75"/>
-      <c r="X24" s="75"/>
-      <c r="Y24" s="75"/>
-      <c r="Z24" s="75"/>
-      <c r="AA24" s="75"/>
-      <c r="AB24" s="75"/>
-      <c r="AC24" s="75"/>
-      <c r="AD24" s="75"/>
-      <c r="AE24" s="75"/>
-      <c r="AF24" s="75"/>
-      <c r="AG24" s="75"/>
-      <c r="AH24" s="75"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77"/>
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77"/>
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77"/>
+      <c r="S24" s="77"/>
+      <c r="T24" s="77"/>
+      <c r="U24" s="77"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="73"/>
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+      <c r="AG24" s="73"/>
+      <c r="AH24" s="73"/>
     </row>
     <row r="25" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="79"/>
-      <c r="I25" s="79"/>
-      <c r="J25" s="79"/>
-      <c r="K25" s="79"/>
-      <c r="L25" s="79"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="79"/>
-      <c r="R25" s="79"/>
-      <c r="S25" s="79"/>
-      <c r="T25" s="79"/>
-      <c r="U25" s="79"/>
-      <c r="V25" s="75"/>
-      <c r="W25" s="75"/>
-      <c r="X25" s="75"/>
-      <c r="Y25" s="75"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="77"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="77"/>
+      <c r="K25" s="77"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="77"/>
+      <c r="N25" s="77"/>
+      <c r="O25" s="77"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="77"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
     </row>
     <row r="26" spans="1:34" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="76"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="79"/>
-      <c r="J26" s="79"/>
-      <c r="K26" s="79"/>
-      <c r="L26" s="79"/>
-      <c r="M26" s="79"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="79"/>
-      <c r="P26" s="79"/>
-      <c r="Q26" s="79"/>
-      <c r="R26" s="79"/>
-      <c r="S26" s="79"/>
-      <c r="T26" s="79"/>
-      <c r="U26" s="79"/>
-      <c r="V26" s="75"/>
-      <c r="W26" s="75"/>
-      <c r="X26" s="75"/>
-      <c r="Y26" s="75"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="77"/>
+      <c r="J26" s="77"/>
+      <c r="K26" s="77"/>
+      <c r="L26" s="77"/>
+      <c r="M26" s="77"/>
+      <c r="N26" s="77"/>
+      <c r="O26" s="77"/>
+      <c r="P26" s="77"/>
+      <c r="Q26" s="77"/>
+      <c r="R26" s="77"/>
+      <c r="S26" s="77"/>
+      <c r="T26" s="77"/>
+      <c r="U26" s="77"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="127">
   <si>
     <t>Felmerült problémák:</t>
   </si>
@@ -404,6 +404,9 @@
   </si>
   <si>
     <t>5th week</t>
+  </si>
+  <si>
+    <t>megvan a fishmask! Irány tovább</t>
   </si>
 </sst>
 </file>
@@ -1541,7 +1544,7 @@
   <dimension ref="A1:AU22"/>
   <sheetViews>
     <sheetView topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z13" sqref="Z13"/>
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1772,7 +1775,9 @@
       <c r="Y2" s="13">
         <v>0.43055555555555558</v>
       </c>
-      <c r="Z2" s="13"/>
+      <c r="Z2" s="13">
+        <v>0.40208333333333335</v>
+      </c>
       <c r="AA2" s="13"/>
       <c r="AB2" s="13"/>
       <c r="AC2" s="13"/>
@@ -1973,15 +1978,15 @@
         <f t="shared" si="0"/>
         <v>0.40972222222222221</v>
       </c>
-      <c r="Z4" s="34">
+      <c r="Z4" s="103">
+        <f t="shared" si="0"/>
+        <v>-0.40208333333333335</v>
+      </c>
+      <c r="AA4" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA4" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB4" s="34">
+      <c r="AB4" s="103">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2102,7 +2107,9 @@
       <c r="W5" s="105"/>
       <c r="X5" s="17"/>
       <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
+      <c r="Z5" s="17" t="s">
+        <v>126</v>
+      </c>
       <c r="AA5" s="17"/>
       <c r="AB5" s="17"/>
       <c r="AC5" s="17"/>
@@ -2833,9 +2840,9 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="Z21" s="99">
+      <c r="Z21" s="99" t="e">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA21" s="99">
         <f t="shared" si="1"/>
@@ -2930,9 +2937,9 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="Z22" s="99">
+      <c r="Z22" s="99" t="e">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA22" s="99">
         <f t="shared" si="2"/>
@@ -2952,13 +2959,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16:V18"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA17" sqref="AA17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="64" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" style="64" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" style="81" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="34.7109375" style="88" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="22.5703125" style="81" hidden="1" customWidth="1"/>
@@ -3538,6 +3545,9 @@
       <c r="O14" s="107"/>
       <c r="P14" s="97"/>
       <c r="T14" s="97"/>
+      <c r="W14" s="107" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="89">
@@ -3565,6 +3575,7 @@
       <c r="O15" s="107"/>
       <c r="P15" s="97"/>
       <c r="T15" s="97"/>
+      <c r="W15" s="107"/>
     </row>
     <row r="16" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="89">
@@ -3597,8 +3608,9 @@
       <c r="V16" s="107" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W16" s="107"/>
+    </row>
+    <row r="17" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="89">
         <v>0.64583333333333404</v>
       </c>
@@ -3626,7 +3638,7 @@
       <c r="T17" s="97"/>
       <c r="V17" s="107"/>
     </row>
-    <row r="18" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="89">
         <v>0.66666666666666696</v>
       </c>
@@ -3654,7 +3666,7 @@
       <c r="T18" s="97"/>
       <c r="V18" s="107"/>
     </row>
-    <row r="19" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="89">
         <v>0.6875</v>
       </c>
@@ -3685,7 +3697,7 @@
       <c r="P19" s="97"/>
       <c r="T19" s="97"/>
     </row>
-    <row r="20" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="89">
         <v>0.70833333333333404</v>
       </c>
@@ -3715,7 +3727,7 @@
       <c r="S20" s="96"/>
       <c r="T20" s="96"/>
     </row>
-    <row r="21" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="89">
         <v>0.72916666666666696</v>
       </c>
@@ -3745,7 +3757,7 @@
       <c r="S21" s="96"/>
       <c r="T21" s="96"/>
     </row>
-    <row r="22" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="89">
         <v>0.75</v>
       </c>
@@ -3776,7 +3788,7 @@
       <c r="S22" s="96"/>
       <c r="T22" s="96"/>
     </row>
-    <row r="23" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="89">
         <v>0.77083333333333404</v>
       </c>
@@ -3806,7 +3818,7 @@
       <c r="S23" s="96"/>
       <c r="T23" s="96"/>
     </row>
-    <row r="24" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="89">
         <v>0.79166666666666696</v>
       </c>
@@ -3835,7 +3847,7 @@
       <c r="T24" s="96"/>
       <c r="U24" s="96"/>
     </row>
-    <row r="25" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="89">
         <v>0.8125</v>
       </c>
@@ -3859,8 +3871,9 @@
       <c r="S25" s="96"/>
       <c r="T25" s="96"/>
       <c r="U25" s="96"/>
-    </row>
-    <row r="26" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W25" s="96"/>
+    </row>
+    <row r="26" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="89">
         <v>0.83333333333333304</v>
       </c>
@@ -3884,8 +3897,9 @@
       <c r="S26" s="96"/>
       <c r="T26" s="96"/>
       <c r="U26" s="96"/>
-    </row>
-    <row r="27" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W26" s="96"/>
+    </row>
+    <row r="27" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="89">
         <v>0.85416666666666596</v>
       </c>
@@ -3910,8 +3924,9 @@
       <c r="T27" s="96"/>
       <c r="U27" s="63"/>
       <c r="V27" s="96"/>
-    </row>
-    <row r="28" spans="1:22" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W27" s="96"/>
+    </row>
+    <row r="28" spans="1:23" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="89">
         <v>0.874999999999999</v>
       </c>
@@ -3935,20 +3950,22 @@
       <c r="T28" s="96"/>
       <c r="U28" s="63"/>
       <c r="V28" s="96"/>
-    </row>
-    <row r="29" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W28" s="96"/>
+    </row>
+    <row r="29" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="74"/>
     </row>
-    <row r="30" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F30" s="74"/>
     </row>
-    <row r="31" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F31" s="74"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="50">
+    <mergeCell ref="W14:W16"/>
     <mergeCell ref="V16:V18"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="I9:I14"/>

--- a/__docs/diary.xlsx
+++ b/__docs/diary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9330"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -1247,16 +1247,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1543,8 +1543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU22"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1778,7 +1778,9 @@
       <c r="Z2" s="13">
         <v>0.40208333333333335</v>
       </c>
-      <c r="AA2" s="13"/>
+      <c r="AA2" s="13">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="AB2" s="13"/>
       <c r="AC2" s="13"/>
       <c r="AD2" s="13"/>
@@ -1869,7 +1871,9 @@
       <c r="Y3" s="15">
         <v>0.84027777777777779</v>
       </c>
-      <c r="Z3" s="15"/>
+      <c r="Z3" s="15">
+        <v>0.81111111111111101</v>
+      </c>
       <c r="AA3" s="15"/>
       <c r="AB3" s="15"/>
       <c r="AC3" s="15"/>
@@ -1980,11 +1984,11 @@
       </c>
       <c r="Z4" s="103">
         <f t="shared" si="0"/>
-        <v>-0.40208333333333335</v>
+        <v>0.40902777777777766</v>
       </c>
       <c r="AA4" s="103">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.41666666666666669</v>
       </c>
       <c r="AB4" s="103">
         <f t="shared" si="0"/>
@@ -2840,13 +2844,13 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="Z21" s="99" t="e">
+      <c r="Z21" s="99">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AA21" s="99" t="e">
         <f t="shared" si="1"/>
         <v>#NUM!</v>
-      </c>
-      <c r="AA21" s="99">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:33" ht="24" customHeight="1" x14ac:dyDescent="0.25">
@@ -2937,13 +2941,13 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="Z22" s="99" t="e">
+      <c r="Z22" s="99">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="AA22" s="99" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
-      </c>
-      <c r="AA22" s="99">
-        <f t="shared" si="2"/>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2959,8 +2963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AP31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.28515625" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3139,6 +3143,7 @@
       <c r="T2" s="97"/>
       <c r="U2" s="97"/>
       <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
     </row>
     <row r="3" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="89">
@@ -3171,6 +3176,7 @@
       <c r="T3" s="97"/>
       <c r="U3" s="97"/>
       <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
     </row>
     <row r="4" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="89">
@@ -3178,14 +3184,14 @@
       </c>
       <c r="B4" s="69"/>
       <c r="C4" s="91"/>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="109" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="69" t="s">
         <v>40</v>
       </c>
       <c r="F4" s="80"/>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="109" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="67" t="s">
@@ -3215,6 +3221,7 @@
         <v>28</v>
       </c>
       <c r="V4" s="97"/>
+      <c r="W4" s="97"/>
     </row>
     <row r="5" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="89">
@@ -3228,10 +3235,10 @@
       </c>
       <c r="F5" s="80"/>
       <c r="G5" s="110"/>
-      <c r="H5" s="108" t="s">
+      <c r="H5" s="109" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="108" t="s">
+      <c r="I5" s="109" t="s">
         <v>28</v>
       </c>
       <c r="J5" s="70" t="s">
@@ -3257,6 +3264,7 @@
       </c>
       <c r="T5" s="97"/>
       <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
     </row>
     <row r="6" spans="1:42" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="89">
@@ -3266,14 +3274,14 @@
       <c r="C6" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="108" t="s">
+      <c r="D6" s="111"/>
+      <c r="E6" s="109" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="80"/>
       <c r="G6" s="110"/>
       <c r="H6" s="110"/>
-      <c r="I6" s="109"/>
+      <c r="I6" s="111"/>
       <c r="J6" s="70" t="s">
         <v>79</v>
       </c>
@@ -3339,13 +3347,13 @@
       <c r="C8" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="109" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="110"/>
       <c r="F8" s="80"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="109"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="111"/>
       <c r="I8" s="70" t="s">
         <v>70</v>
       </c>
@@ -3366,19 +3374,19 @@
         <v>0.47916666666666702</v>
       </c>
       <c r="B9" s="69"/>
-      <c r="C9" s="111" t="s">
+      <c r="C9" s="108" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="110"/>
-      <c r="E9" s="109"/>
+      <c r="E9" s="111"/>
       <c r="F9" s="80"/>
       <c r="G9" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="108" t="s">
+      <c r="H9" s="109" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="108" t="s">
+      <c r="I9" s="109" t="s">
         <v>71</v>
       </c>
       <c r="J9" s="70" t="s">
@@ -3398,18 +3406,18 @@
         <v>0.5</v>
       </c>
       <c r="B10" s="69"/>
-      <c r="C10" s="111"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="110"/>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="109" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="80"/>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="109" t="s">
         <v>48</v>
       </c>
       <c r="H10" s="110"/>
       <c r="I10" s="110"/>
-      <c r="J10" s="108" t="s">
+      <c r="J10" s="109" t="s">
         <v>82</v>
       </c>
       <c r="K10" s="63"/>
@@ -3430,9 +3438,9 @@
         <v>0.52083333333333304</v>
       </c>
       <c r="B11" s="69"/>
-      <c r="C11" s="111"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="110"/>
-      <c r="E11" s="109"/>
+      <c r="E11" s="111"/>
       <c r="F11" s="80"/>
       <c r="G11" s="110"/>
       <c r="H11" s="110"/>
@@ -3458,18 +3466,18 @@
         <v>0.54166666666666696</v>
       </c>
       <c r="B12" s="69"/>
-      <c r="C12" s="111" t="s">
+      <c r="C12" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="109"/>
+      <c r="D12" s="111"/>
       <c r="E12" s="69" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="80"/>
-      <c r="G12" s="109"/>
+      <c r="G12" s="111"/>
       <c r="H12" s="110"/>
       <c r="I12" s="110"/>
-      <c r="J12" s="109"/>
+      <c r="J12" s="111"/>
       <c r="K12" s="63"/>
       <c r="L12" s="107" t="s">
         <v>15</v>
@@ -3487,8 +3495,8 @@
         <v>0.5625</v>
       </c>
       <c r="B13" s="69"/>
-      <c r="C13" s="111"/>
-      <c r="D13" s="108" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="109" t="s">
         <v>15</v>
       </c>
       <c r="E13" s="69" t="s">
@@ -3498,7 +3506,7 @@
       <c r="G13" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="H13" s="109"/>
+      <c r="H13" s="111"/>
       <c r="I13" s="110"/>
       <c r="J13" s="70" t="s">
         <v>84</v>
@@ -3518,22 +3526,22 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="B14" s="69"/>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="109"/>
-      <c r="E14" s="108" t="s">
+      <c r="D14" s="111"/>
+      <c r="E14" s="109" t="s">
         <v>49</v>
       </c>
       <c r="F14" s="80"/>
       <c r="G14" s="70" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="108" t="s">
+      <c r="H14" s="109" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="109"/>
-      <c r="J14" s="108" t="s">
+      <c r="I14" s="111"/>
+      <c r="J14" s="109" t="s">
         <v>15</v>
       </c>
       <c r="K14" s="63"/>
@@ -3554,20 +3562,20 @@
         <v>0.60416666666666696</v>
       </c>
       <c r="B15" s="69"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="108" t="s">
+      <c r="C15" s="108"/>
+      <c r="D15" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="109"/>
+      <c r="E15" s="111"/>
       <c r="F15" s="80"/>
-      <c r="G15" s="108" t="s">
+      <c r="G15" s="109" t="s">
         <v>56</v>
       </c>
       <c r="H15" s="110"/>
       <c r="I15" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="109"/>
+      <c r="J15" s="111"/>
       <c r="K15" s="63"/>
       <c r="L15" s="107"/>
       <c r="M15" s="107"/>
@@ -3582,17 +3590,17 @@
         <v>0.625</v>
       </c>
       <c r="B16" s="69"/>
-      <c r="C16" s="111" t="s">
+      <c r="C16" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="108" t="s">
+      <c r="D16" s="111"/>
+      <c r="E16" s="109" t="s">
         <v>48</v>
       </c>
       <c r="F16" s="80"/>
       <c r="G16" s="110"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="108" t="s">
+      <c r="H16" s="111"/>
+      <c r="I16" s="109" t="s">
         <v>72</v>
       </c>
       <c r="J16" s="70" t="s">
@@ -3615,18 +3623,18 @@
         <v>0.64583333333333404</v>
       </c>
       <c r="B17" s="69"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="108" t="s">
+      <c r="C17" s="108"/>
+      <c r="D17" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="E17" s="109"/>
+      <c r="E17" s="111"/>
       <c r="F17" s="80"/>
       <c r="G17" s="110"/>
-      <c r="H17" s="108" t="s">
+      <c r="H17" s="109" t="s">
         <v>56</v>
       </c>
       <c r="I17" s="110"/>
-      <c r="J17" s="108" t="s">
+      <c r="J17" s="109" t="s">
         <v>86</v>
       </c>
       <c r="K17" s="63"/>
@@ -3643,15 +3651,15 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="B18" s="69"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="109"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="111"/>
       <c r="E18" s="69" t="s">
         <v>21</v>
       </c>
       <c r="F18" s="80"/>
       <c r="G18" s="110"/>
       <c r="H18" s="110"/>
-      <c r="I18" s="109"/>
+      <c r="I18" s="111"/>
       <c r="J18" s="110"/>
       <c r="K18" s="63"/>
       <c r="L18" s="107"/>
@@ -3677,13 +3685,13 @@
       <c r="D19" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="108" t="s">
+      <c r="E19" s="109" t="s">
         <v>48</v>
       </c>
       <c r="F19" s="80"/>
       <c r="G19" s="110"/>
       <c r="H19" s="110"/>
-      <c r="I19" s="108" t="s">
+      <c r="I19" s="109" t="s">
         <v>73</v>
       </c>
       <c r="J19" s="110"/>
@@ -3705,14 +3713,14 @@
       <c r="C20" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="108" t="s">
+      <c r="D20" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="109"/>
+      <c r="E20" s="111"/>
       <c r="F20" s="80"/>
       <c r="G20" s="110"/>
       <c r="H20" s="110"/>
-      <c r="I20" s="109"/>
+      <c r="I20" s="111"/>
       <c r="J20" s="110"/>
       <c r="K20" s="63"/>
       <c r="L20" s="94" t="s">
@@ -3732,20 +3740,20 @@
         <v>0.72916666666666696</v>
       </c>
       <c r="B21" s="69"/>
-      <c r="C21" s="111" t="s">
+      <c r="C21" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="109"/>
+      <c r="D21" s="111"/>
       <c r="E21" s="69" t="s">
         <v>36</v>
       </c>
       <c r="F21" s="80"/>
       <c r="G21" s="110"/>
-      <c r="H21" s="109"/>
-      <c r="I21" s="108" t="s">
+      <c r="H21" s="111"/>
+      <c r="I21" s="109" t="s">
         <v>70</v>
       </c>
-      <c r="J21" s="109"/>
+      <c r="J21" s="111"/>
       <c r="K21" s="63"/>
       <c r="L21" s="107" t="s">
         <v>91</v>
@@ -3762,7 +3770,7 @@
         <v>0.75</v>
       </c>
       <c r="B22" s="69"/>
-      <c r="C22" s="111"/>
+      <c r="C22" s="108"/>
       <c r="D22" s="69" t="s">
         <v>37</v>
       </c>
@@ -3772,7 +3780,7 @@
       <c r="H22" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="109"/>
+      <c r="I22" s="111"/>
       <c r="J22" s="70" t="s">
         <v>87</v>
       </c>
@@ -3793,17 +3801,17 @@
         <v>0.77083333333333404</v>
       </c>
       <c r="B23" s="69"/>
-      <c r="C23" s="111"/>
+      <c r="C23" s="108"/>
       <c r="D23" s="69" t="s">
         <v>36</v>
       </c>
       <c r="E23" s="62"/>
       <c r="F23" s="80"/>
-      <c r="G23" s="109"/>
+      <c r="G23" s="111"/>
       <c r="H23" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="108" t="s">
+      <c r="I23" s="109" t="s">
         <v>74</v>
       </c>
       <c r="J23" s="62"/>
@@ -3831,7 +3839,7 @@
       <c r="F24" s="80"/>
       <c r="G24" s="62"/>
       <c r="H24" s="62"/>
-      <c r="I24" s="109"/>
+      <c r="I24" s="111"/>
       <c r="J24" s="62"/>
       <c r="K24" s="63"/>
       <c r="L24" s="94" t="s">
@@ -3965,6 +3973,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="S6:S9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="O7:O9"/>
+    <mergeCell ref="O11:O17"/>
+    <mergeCell ref="O18:O20"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="M6:M10"/>
+    <mergeCell ref="M12:M17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="L14:L19"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L5:L11"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="N11:N12"/>
+    <mergeCell ref="N5:N10"/>
+    <mergeCell ref="H9:H13"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H17:H21"/>
+    <mergeCell ref="N13:N18"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H8"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="D8:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
     <mergeCell ref="W14:W16"/>
     <mergeCell ref="V16:V18"/>
     <mergeCell ref="C16:C18"/>
@@ -3981,40 +4023,6 @@
     <mergeCell ref="G10:G12"/>
     <mergeCell ref="G15:G23"/>
     <mergeCell ref="E6:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="G4:G8"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="D8:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="N11:N12"/>
-    <mergeCell ref="N5:N10"/>
-    <mergeCell ref="H9:H13"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H17:H21"/>
-    <mergeCell ref="N13:N18"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H8"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="M6:M10"/>
-    <mergeCell ref="M12:M17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="L14:L19"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="L5:L11"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="S6:S9"/>
-    <mergeCell ref="Q10:Q11"/>
-    <mergeCell ref="O7:O9"/>
-    <mergeCell ref="O11:O17"/>
-    <mergeCell ref="O18:O20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
